--- a/Data/banking_comments.xlsx
+++ b/Data/banking_comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E249"/>
+  <dimension ref="A1:E270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,20 +805,59 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>ACB</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Private_1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+- ACB delivered a strong earnings rebound in 2Q25, with profitability metrics recovering sharply after a soft 1Q25, driven by robust TOI growth and improved asset quality.
+- Loan growth accelerated both QoQ and YoY, but NIM remained under pressure, reflecting a challenging margin environment.
+- Asset quality improved, with NPL and Group 2 ratios dropping, and coverage ratios rising, signaling effective risk management.
+---
+**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**
+ACB’s 2Q25 results mark a decisive turnaround in profitability. Total operating income (TOI) surged 17.4% QoQ and 7.4% YoY, reversing the 7.5% QoQ dip in 1Q25. This rebound was the key driver behind pre-tax profit (PBT) jumping 32.6% QoQ and 8.8% YoY, outpacing sector growth. ROA and ROE recovered to 2.1% and 22.4% respectively, up from 1.7% and 17.3% in 1Q25, returning to levels seen in late 2024. The sharp profit recovery was fueled by strong fee and core income momentum, while provision expenses normalized after a spike last quarter. The positive surprise in earnings signals ACB’s resilience and ability to defend profitability amid margin headwinds.
+**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**
+Loan growth accelerated to 5.9% QoQ and 9.4% YTD, outpacing the sector’s 8.6% YTD. This reflects ACB’s effective credit expansion strategy and strong demand from retail and SME segments. However, NIM remained subdued at 2.98%, only marginally up from 2.95% in 1Q25, and well below 3.5%+ levels in 2024. The persistent NIM compression is due to lower loan yields (7.3% in 2Q25 vs. 8.3% in 1Q24) and intense deposit competition. While volume growth is robust, margin pressure remains a key watchpoint for future earnings trajectory.
+**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**
+Asset quality improved notably in 2Q25. NPL ratio dropped to 1.26% from 1.48% in 1Q25, while Group 2 loans fell to 0.47%. NPL coverage rose to 76.3%, up from 72.1% last quarter, reflecting prudent provisioning. The reduction in both NPL and Group 2 ratios, alongside higher coverage, points to effective risk controls and a lower risk of future credit losses. This improvement stands out against a still-elevated sector NPL backdrop and supports a more constructive outlook on ACB’s risk profile.
+**Investment Implications**
+ACB’s 2Q25 results are a positive surprise, with strong profit recovery and improving asset quality offsetting margin headwinds. Sustained loan growth and risk discipline position ACB well for further earnings momentum, though NIM pressure remains a key risk to monitor.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-07-31 18:58:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 1Q23 performance shows a strong loan growth, outpacing the sector, but a slight dip in TOI and a rise in provision expenses indicate potential challenges.
@@ -834,29 +873,29 @@
 BID's strong loan growth and profitability are positive signs, but the dip in TOI and rising asset quality risks could pose challenges. Investors should monitor the bank's asset quality and margin pressure closely. Despite the challenges, BID's robust profitability and strong loan growth make it a compelling investment.</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2025-07-30 16:47:46</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 2Q23 performance shows a mixed bag with a slight increase in profitability, but a slowdown in loan growth and a dip in asset quality.
@@ -872,29 +911,29 @@
 While BID's profitability remained stable in 2Q23, the slowdown in loan growth and deteriorating asset quality could weigh on future earnings. Investors should monitor the bank's asset quality and loan growth trends closely. The bank's performance in these areas will be critical in determining its future profitability and investment attractiveness.</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2025-07-30 16:48:26</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 3Q23 performance shows a mixed bag with a slight uptick in TOI but a decline in profitability, driven by a rise in provision expenses.
@@ -910,29 +949,29 @@
 While BID's loan growth and NIM show positive signs, the decline in profitability and concerns over asset quality could weigh on investor sentiment. The bank needs to manage its provision expenses and improve its asset quality to enhance its financial performance.</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2025-07-30 16:49:02</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 4Q23 performance was marked by a significant surge in loan growth and profitability, outperforming the sector. However, asset quality indicators such as NPL and G2 ratios showed a slight increase, indicating a need for careful monitoring.
@@ -948,29 +987,29 @@
 BID's strong 4Q23 performance, characterized by robust loan growth and improved profitability, positions the bank favorably for future growth. However, the slight uptick in asset quality indicators warrants careful monitoring. Overall, BID's performance is positive, with the bank demonstrating effective management and resilience in a challenging environment.</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2025-07-30 16:49:48</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 1Q24 performance showed a slowdown in loan growth and a significant drop in TOI, indicating a challenging quarter.
@@ -986,29 +1025,29 @@
 BID's 1Q24 performance showed signs of potential challenges in the bank's lending business and potential credit risk concerns. However, the bank's profitability remained relatively stable despite the challenging quarter. Investors should monitor the bank's asset quality indicators and loan growth for potential risks.</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2025-07-30 16:50:17</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 2Q24 performance showed a strong rebound in profitability, driven by a surge in TOI and a reduction in provision expenses. 
@@ -1024,29 +1063,29 @@
 BID's 2Q24 performance showed strong momentum in profitability and loan growth, outpacing the sector. However, the slight uptick in asset quality indicators and below-average NIM and ROE suggest room for improvement. Investors should monitor BID's asset quality and margin management in the coming quarters.</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2025-07-30 16:50:57</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 3Q24 performance was marked by a slowdown in loan growth and a decline in profitability, with ROA and ROE both falling below sector averages.
@@ -1062,29 +1101,29 @@
 BID's 3Q24 performance highlights the challenges of slowing loan growth and declining profitability. While the bank's loan growth remains positive YTD, the deterioration in asset quality and the decline in profitability ratios are areas of concern. Investors should monitor these trends closely in the coming quarters.</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2025-07-30 16:51:36</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 4Q24 performance was marked by robust loan growth and a significant surge in TOI, outperforming sector averages. However, asset quality indicators showed a slight deterioration.
@@ -1100,29 +1139,29 @@
 BID's strong loan growth and profitability metrics indicate a positive growth momentum. However, the bank's lower NPL coverage ratio compared to the sector suggests potential credit risks. Investors should monitor the bank's asset quality indicators closely in the upcoming quarters.</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2025-07-30 16:52:13</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 1Q25 performance was marked by a slowdown in loan growth and a sharp contraction in profitability, driven by a significant drop in TOI and rising asset quality concerns.
@@ -1138,29 +1177,68 @@
 The sharp profitability drop and accelerating asset-quality risks overshadow BID’s still-healthy underlying loan growth. Investors should monitor further margin pressure and slippage, as surprises are turning negative after an encouraging 2024.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2025-07-30 16:52:53</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BID</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SOCB</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+1. BID’s profitability rebounded in 2Q25, but margins remain under pressure and asset quality risks are rising.
+2. Loan growth regained momentum QoQ, yet NIM recovery is tepid and well below sector averages.
+3. Asset quality deteriorated further, with NPLs and coverage ratios moving in the wrong direction.
+---
+**Profitability:**  
+BID delivered a strong sequential recovery in 2Q25, with TOI up 23.4% QoQ and PBT rising 16.3% after a weak 1Q25. YoY, TOI climbed 9.2% and PBT rose 5.7%, signaling a return to growth, though still lagging sector YoY PBT growth of 26.9%. The bounce was driven by higher operating income, but provision expenses also surged 33.2% QoQ, reflecting rising credit costs. ROA and ROE improved to 0.94% and 16.9% respectively, but both remain below 2Q24 levels and sector averages, highlighting ongoing profitability headwinds. The improvement versus 1Q25 is positive, but the pace lags peers and expectations.
+**Loan Growth &amp; NIM:**  
+Loan growth accelerated to 3.5% QoQ in 2Q25 (vs. 2.5% in 1Q25), but remains behind the sector’s 5.0%. YoY, BID’s loan book expanded 16.1%, showing solid underlying demand. However, NIM edged up only slightly to 2.08% from 2.02% in 1Q25, still well below last year’s 2.50% and the sector’s 2.39%. Loan yields ticked up, but funding costs and asset mix continue to weigh on margins. The muted NIM recovery is a key concern, limiting earnings leverage from loan growth.
+**Asset Quality:**  
+Asset quality trends are negative. NPL ratio rose to 1.98% in 2Q25, up from 1.89% in 1Q25 and above the sector’s 1.48%. Group 2 loans fell, but the NPL coverage ratio dropped further to 0.89x, signaling weaker loss absorption capacity. Elevated provision expenses and rising NPLs point to ongoing stress in the loan book. The lack of improvement in formation rates and declining coverage are red flags for future risk costs.
+**Investment Implications:**  
+While BID’s earnings rebounded, margin compression and deteriorating asset quality overshadow the topline recovery. The bank’s slower NIM and coverage trends versus peers suggest continued pressure on profitability and capital, making the latest results a modest negative surprise. Investors should watch for sustained margin improvement and stabilization in credit costs before turning more constructive.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-07-31 18:58:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG's 1Q23 performance shows a strong loan growth, outpacing the sector, but a slight dip in TOI and a rise in provision expense.
@@ -1176,29 +1254,29 @@
 CTG is showing strong loan growth and business expansion, but with slight pressure on net interest income and potential risks in asset quality. The latest results highlight the need for improved operational efficiency and risk management.</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2025-07-30 16:53:26</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG's 2Q23 results show a steady growth in loans and TOI, outpacing the sector, while maintaining a stable asset quality. 
@@ -1214,29 +1292,29 @@
 CTG's steady growth in loans and TOI, along with stable asset quality, indicates a positive trend. However, the slight decrease in NIM and increase in NPL formation warrant close monitoring. Overall, CTG's performance in 2Q23 is positive, with potential for further growth.</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2025-07-30 16:54:09</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG's 3Q23 performance shows a mixed picture with a slight dip in profitability and TOI, despite a steady loan growth.
@@ -1252,29 +1330,29 @@
 CTG's steady loan growth and improving NPL coverage ratio are positive signs. However, the decline in profitability and TOI, coupled with a slight increase in asset quality risks, suggest the need for careful risk management and revenue generation strategies. Investors should monitor these trends closely in the coming quarters.</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2025-07-30 16:54:44</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG's 4Q23 performance was marked by a strong surge in loan growth and profitability, significantly outpacing the sector. 
@@ -1290,29 +1368,29 @@
 CTG's strong performance in 4Q23, marked by robust loan growth, improved profitability, and better asset quality, positions it favorably in the sector. The bank's ability to manage risk costs while expanding its loan book is a positive indicator for investors. However, maintaining this momentum will be key to sustaining its strong performance.</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2025-07-30 16:55:30</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG's 1Q24 performance shows a mixed picture with loan growth and TOI outpacing the sector, but profitability and asset quality indicators trailing behind.
@@ -1328,29 +1406,29 @@
 While CTG's loan growth and TOI performance are encouraging, the increase in provision expenses and potential credit risks pose challenges. Investors should monitor these trends closely in the upcoming quarters.</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2025-07-30 16:56:04</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG's 2Q24 performance shows a solid loan growth and TOI expansion, outpacing the sector, but profitability metrics (ROA, ROE) are slightly lagging behind.
@@ -1366,29 +1444,29 @@
 CTG's strong loan growth and TOI expansion are positive signs. However, the upward trend in NPL and G2 ratios, coupled with a sharp drop in NPL coverage ratio, could be a concern for investors. The bank's profitability is also slightly lagging behind the sector, which needs to be monitored in the future quarters.</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2025-07-30 16:56:41</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG's 3Q24 performance was marked by strong loan growth and a significant increase in TOI, outpacing the sector. However, profitability remained relatively flat due to increased provision expenses.
@@ -1404,29 +1482,29 @@
 CTG's strong growth in TOI and loan book is encouraging, but the increase in provision expenses and slight deterioration in asset quality could pose risks to future profitability. Investors should closely monitor these trends in the coming quarters.</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2025-07-30 16:57:20</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG delivered a strong 4Q24 with a significant surge in profitability, driven by robust loan growth and a sharp reduction in provision expenses.
@@ -1442,29 +1520,29 @@
 CTG's strong 4Q24 results, driven by robust loan growth and a sharp reduction in provision expenses, indicate a positive trend. However, the sustainability of this earnings momentum and the potential impact of the declining loan yield should be monitored. Overall, CTG's performance in 4Q24 represents a positive surprise versus expectations.</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2025-07-30 16:58:01</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG's 1Q25 performance was marked by strong loan growth, outpacing the sector, but profitability was hit due to a drop in TOI and a rise in provision expenses.
@@ -1480,29 +1558,68 @@
 The sharp profitability drop and accelerating asset-quality risks overshadow CTG’s still-healthy underlying loan growth. Investors should monitor further margin pressure and slippage, as surprises are turning negative after an encouraging 2024.</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2025-07-30 16:58:38</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CTG</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SOCB</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+1. CTG delivered a sharp profit rebound in 2Q25, driven by a steep drop in provision expenses, despite continued NIM compression.
+2. Loan growth accelerated both QoQ and YoY, outpacing the sector, but margin pressure remains a headwind.
+3. Asset quality improved, with lower NPL and Group 2 ratios, while coverage stayed robust.
+---
+**Profitability:**  
+CTG’s 2Q25 profit before tax surged 77.3% QoQ and 79.2% YoY, a positive surprise after a muted 1Q25. This was almost entirely due to a dramatic 63.3% QoQ reduction in provision expenses, reversing the spike seen in 1Q25. Total operating income (TOI) grew 2.3% QoQ and 6.5% YoY, showing resilience despite margin pressure. ROA and ROE rebounded to 1.54% and 24.3% respectively, up sharply from 0.91% and 14.3% in 1Q25, but still trailing sector averages. The key driver was lower credit cost, not topline growth, suggesting the profit jump may not be fully sustainable if provisioning normalizes.
+**Loan Growth &amp; NIM:**  
+Loan growth momentum accelerated, with balances up 5.9% QoQ and 10.7% YTD, outpacing the SOCB sector’s 5.0% and 8.0%. This signals strong credit demand and CTG’s ability to capture market share. However, NIM slipped further to 2.53% in 2Q25 from 2.58% in 1Q25, continuing a multi-quarter downtrend. The squeeze reflects lower loan yields (down to 6.29%) and likely ongoing funding cost pressure. While volume growth is robust, margin compression remains a structural challenge and could cap earnings upside if not addressed.
+**Asset Quality:**  
+Asset quality trends were positive. NPL ratio improved to 1.31% from 1.55% in 1Q25, and Group 2 loans dropped to 0.96%. NPL coverage remained solid at 135%, above the sector’s 126%. The improvement was driven by better recoveries and a clean-up of problem loans, as seen in the negative NPL formation in 4Q24 and stable Group 2 formation. With credit costs normalizing and coverage still healthy, CTG’s risk profile looks manageable, supporting a more constructive outlook if loan quality holds.
+**Investment Implications:**  
+CTG’s 2Q25 results mark a strong turnaround on the back of lower provisions and accelerating loan growth. However, persistent NIM pressure and the reliance on lower credit costs for profit growth are key risks. Sustained improvement will require stabilization in margins and continued asset quality discipline.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-07-31 18:58:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 1Q23 performance shows a mixed picture with a slight contraction in loan growth and a drop in TOI, but profitability remained strong due to lower provision expenses.
@@ -1518,29 +1635,29 @@
 While EIB's profitability remains strong, the contraction in loan growth and deterioration in asset quality indicators pose potential risks. Investors should monitor these trends closely, particularly the bank's ability to manage its credit risks and maintain its profitability amidst a challenging environment.</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2025-07-30 16:59:17</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 2Q23 performance was marked by a slowdown in profitability and loan growth, with a significant drop in TOI and a rise in asset quality concerns.
@@ -1556,29 +1673,29 @@
 EIB's declining profitability and deteriorating asset quality overshadow its modest loan growth. Investors should monitor further margin pressure and asset quality slippage, as the bank's performance trends are turning negative.</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2025-07-30 16:59:55</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 3Q23 performance was marked by a significant slowdown in profitability, with a sharp decline in TOI and a decrease in ROA and ROE.
@@ -1594,29 +1711,29 @@
 EIB's 3Q23 performance presents a mixed picture. While loan growth remains positive, the significant decline in profitability and potential asset quality risks could impact future performance. Investors should monitor these trends closely in the coming quarters.</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2025-07-30 17:00:33</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 4Q23 showed a strong rebound in profitability, driven by a surge in TOI and a significant drop in provision expenses. However, asset quality indicators such as NPL and Group 2 ratios showed a slight uptick, indicating potential credit risks.
@@ -1632,29 +1749,29 @@
 EIB's strong rebound in profitability and robust loan growth are positive signs. However, the persistent NIM compression and emerging asset quality risks could pose challenges to the bank's performance. Investors should closely monitor these trends in the upcoming quarters.</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2025-07-30 17:01:17</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 1Q24 performance showed a mixed picture with strong loan growth but a decline in profitability and deteriorating asset quality.
@@ -1670,29 +1787,29 @@
 While EIB is showing strong loan growth, the declining profitability and deteriorating asset quality pose risks. Investors should monitor further margin pressure and asset quality slippage, as surprises are turning negative after an encouraging 4Q23.</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2025-07-30 17:01:53</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 2Q24 performance showed a strong rebound in profitability, driven by a surge in TOI and a decrease in provision expenses. However, the bank's asset quality indicators (NPL and Group 2) showed a slight deterioration.
@@ -1708,29 +1825,29 @@
 EIB's 2Q24 results showed a strong rebound in profitability, driven by a surge in TOI and a decrease in provision expenses. However, the bank's asset quality indicators showed a slight deterioration, which investors should monitor closely. The bank's ROA and ROE improved, but still lagged behind the sector average, indicating a need for further efficiency improvements.</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2025-07-30 17:02:31</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 3Q24 performance showed a strong loan growth momentum, outpacing the sector, with a slight increase in NPL and G2 formation.
@@ -1746,29 +1863,29 @@
 EIB's strong loan growth and steady profitability are positive signs. However, the declining NIM and loan yield, along with a slight increase in NPL and G2 formation, indicate potential risks. Investors should closely monitor these trends for future investment decisions.</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2025-07-30 17:03:07</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 4Q24 performance was marked by robust loan growth and a significant surge in TOI, outperforming the sector. However, profitability was driven by lower provision expenses, indicating potential future risks.
@@ -1784,29 +1901,29 @@
 EIB's robust growth and improved profitability in 4Q24 are positive signs. However, the reliance on lower provision expenses for profitability and the mixed signals in asset quality warrant caution. Investors should monitor these risk factors closely in the coming quarters.</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2025-07-30 17:04:06</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 1Q25 performance shows a strong loan growth, outpacing the sector, but profitability was impacted by a significant drop in TOI and a decrease in provision expenses.
@@ -1822,29 +1939,68 @@
 EIB's strong loan growth is a positive sign, but the contraction in NIM and the slight increase in NPL ratio indicate potential challenges in profitability and asset quality. Investors should monitor these trends closely in the coming quarters.</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2025-07-30 17:04:29</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>EIB</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Private_2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+- EIB’s profitability momentum weakened sharply in 2Q25, with both ROA and ROE falling to multi-quarter lows as profit before tax (PBT) dropped for a second straight quarter.
+- Loan growth stalled after a strong 1Q25, while NIM showed only a slight recovery, reflecting margin pressure.
+- Asset quality remained stable, but coverage ratios improved, signaling a cautious stance amid a flat NPL trend.
+---
+**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**  
+EIB’s profitability lost steam in 2Q25. Total operating income (TOI) rebounded 8.9% QoQ after a weak 1Q25, but this was not enough to offset higher provision expenses, which surged 58.7% QoQ. As a result, PBT fell 21.0% QoQ and was down 19.2% YoY, marking a negative surprise versus the prior year’s strong trajectory. Both ROA and ROE dropped to 0.8% and 7.8%, respectively, their lowest levels in six quarters. The sharp drop in profitability reflects both margin compression and a normalization of credit costs after an unusually low 1Q25.
+**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**  
+Loan growth decelerated sharply to just 1.2% QoQ in 2Q25, following a robust 9.3% expansion in 1Q25. On a YoY basis, loan growth was 24.8%, but the sequential slowdown signals waning momentum. Net interest margin (NIM) edged up to 2.4% from 2.3% in 1Q25, but remains well below last year’s levels. The modest NIM recovery was driven by a slight uptick in loan yields, but funding cost pressures and competitive lending continue to cap margin upside.
+**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**  
+Asset quality was broadly steady. The NPL ratio ticked up marginally to 2.7% from 2.6% in 1Q25, while Group 2 loans also rose slightly. NPL formation data was unavailable, but the stable ratios suggest no major deterioration. Importantly, the NPL coverage ratio improved to 41.2% from 38.7% in 1Q25, reflecting a more conservative provisioning approach. This provides some buffer, but coverage remains below sector averages, highlighting a key area for further strengthening.
+**Investment Implications:**  
+The 2Q25 results mark a clear slowdown in EIB’s earnings and loan growth momentum, with margin and asset quality pressures persisting. The sharp drop in profitability and only modest NIM recovery are negative surprises versus recent trends. Investors should watch for signs of a sustained rebound in core income and further strengthening of provisioning coverage to restore confidence in the bank’s earnings trajectory.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-07-31 18:58:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 1Q23 performance shows a strong loan growth momentum, outpacing the sector, but profitability is under pressure with a dip in TOI and rising asset quality concerns.
@@ -1860,29 +2016,29 @@
 The strong loan growth and recovering PBT are positive signs, but the declining TOI and deteriorating asset quality pose significant risks. Investors should monitor further margin pressure and asset quality slippage, as surprises are turning negative after an encouraging 4Q22.</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2025-07-30 17:05:00</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 2Q23 performance was marked by a significant increase in TOI and provision expenses, while loan growth decelerated and asset quality deteriorated.
@@ -1898,29 +2054,29 @@
 HDB's 2Q23 results highlight the challenges of rising credit costs and deteriorating asset quality, which are weighing on profitability despite strong TOI growth. Investors should monitor the bank's asset quality indicators and provision expenses closely, as further deterioration could pose risks to earnings.</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2025-07-30 17:05:43</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 3Q23 performance shows a mixed bag with a slight uptick in profitability and loan growth, but a worrying trend in asset quality.
@@ -1936,29 +2092,29 @@
 While HDB's profitability improved in 3Q23, the decline in TOI and deteriorating asset quality are areas of concern. Investors should monitor the bank's ability to manage its asset quality and maintain its income levels in the coming quarters.</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2025-07-30 17:06:22</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 4Q23 results showed a strong surge in loan growth and TOI, significantly outpacing the sector, while profitability metrics (ROA, ROE) also improved, reflecting the bank's robust operational performance.
@@ -1974,29 +2130,29 @@
 HDB's strong loan growth and profitability improvement in 4Q23 are positive signs. However, the mixed trends in asset quality and the increase in provision expenses could pose some risks. Investors should monitor these trends closely in the future.</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2025-07-30 17:07:03</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 1Q24 performance showed a slowdown in profitability and loan growth, while asset quality indicators such as NPL and Group 2 ratios increased, indicating potential credit risks.
@@ -2012,29 +2168,29 @@
 While HDB's 1Q24 performance shows a slowdown in profitability and loan growth, its performance remains strong compared to the sector. However, the increase in NPL and Group 2 ratios, along with the decline in NIM and loan yield, suggest potential risks to revenue generation and profitability. Investors should monitor these trends closely.</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2025-07-30 17:07:40</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 2Q24 performance shows a strong loan growth momentum, outpacing the sector, and a significant improvement in profitability, driven by a robust increase in TOI and a decrease in provision expenses.
@@ -2050,29 +2206,29 @@
 HDB's strong loan growth and profitability performance in 2Q24, coupled with a manageable asset quality risk, make it an attractive investment. However, investors should closely monitor the bank's asset quality indicators and loan yield for any potential risks.</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2025-07-30 17:08:19</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 3Q24 performance shows a consistent growth in profitability and loan book, outpacing the sector. However, asset quality indicators such as NPL and Group 2 ratios show a slight improvement but still lag behind sector averages.
@@ -2088,29 +2244,29 @@
 HDB's consistent growth in profitability and loan book, along with improved asset quality indicators, make it an attractive investment. However, the slight decrease in NIM and lagging asset quality indicators compared to sector averages should be monitored closely.</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2025-07-30 17:08:51</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 4Q24 performance showed robust loan growth and a significant increase in TOI, outpacing the sector. However, profitability indicators such as ROA and ROE declined, and asset quality showed signs of deterioration.
@@ -2126,29 +2282,29 @@
 While HDB's robust loan growth and strong TOI performance are positive, the downward trend in profitability metrics and potential credit risks cannot be overlooked. Investors should monitor the bank's asset quality and margin pressure closely.</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2025-07-30 17:09:35</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 1Q25 performance shows a mixed picture with a strong profit before tax (PBT) growth but a decline in total operating income (TOI) and net interest margin (NIM). 
@@ -2164,29 +2320,67 @@
 While HDB's profitability improved in 1Q25, the decline in TOI and NIM, slowdown in loan growth, and deterioration in asset quality indicators suggest potential challenges ahead. Investors should monitor these trends closely in the coming quarters.</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2025-07-30 17:10:17</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HDB</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Private_2</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+1. HDB delivered a sharp acceleration in loan and TOI growth in 2Q25, but profitability was dented by a spike in provision expenses and weaker asset quality.
+2. NIM rebounded strongly after a dip, but rising NPLs and falling coverage ratios raise concerns about credit costs and future earnings quality.
+---
+**Profitability:**  
+HDB’s total operating income (TOI) surged 26.4% QoQ and 40.3% YoY in 2Q25, marking its strongest topline growth in recent quarters. However, this impressive revenue momentum did not fully translate to the bottom line. Pre-tax profit (PBT) fell 12.0% QoQ, despite still rising 13.9% YoY, as provision expenses more than tripled QoQ. ROA and ROE both dropped sharply from 1Q25 highs (ROA: 2.5% → 2.0%, ROE: 28.8% → 22.4%), reversing the previous quarter’s gains. The key driver was a significant increase in credit costs, which offset the robust income growth. This outcome is a negative surprise versus the strong topline and signals that asset quality pressures are now weighing on profitability.
+**Loan Growth &amp; NIM:**  
+Loan growth accelerated dramatically to 14.1% QoQ and 15.1% YTD, far outpacing the sector’s 6.9% QoQ and 12.8% YTD. This signals a clear gain in market share and aggressive expansion. NIM rebounded to 5.7% in 2Q25 from a low of 4.6% in 1Q25, reversing the prior quarter’s compression and outperforming the sector’s 3.9%. The NIM recovery was driven by improved funding costs and a higher share of high-yield lending, even as loan yields continued to edge down. The strong NIM and loan growth are positive, but the sustainability is in question given rising asset quality risks.
+**Asset Quality:**  
+NPL ratio rose to 2.5% in 2Q25 (from 2.4% in 1Q25), while Group 2 loans improved to 3.9% (from 5.4%), suggesting some early-stage stress has been resolved or upgraded. However, NPL coverage fell further to 47.2%, well below both historical levels and the sector average, reflecting weaker provisioning buffers. The spike in provision expenses and the uptick in NPLs point to rising credit costs and potential for further earnings volatility. This is a key risk to monitor, as it could constrain future profitability despite strong growth.
+**Investment Implications:**  
+While HDB’s growth engine is firing, the combination of rising credit costs and thinning coverage ratios tempers the outlook. Investors should watch for further asset quality deterioration, which could undermine the bank’s earnings momentum.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2025-07-31 18:58:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB's 1Q23 performance shows a mixed bag with loan growth outpacing the sector, but TOI and profitability metrics (ROA, ROE) are on a declining trend.
@@ -2202,29 +2396,29 @@
 While LPB's loan growth remains strong, the declining profitability and deteriorating asset quality pose significant risks. Investors should monitor further margin pressure and asset quality slippage, as surprises are turning negative after an encouraging 2022.</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2025-07-30 17:10:49</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB's 2Q23 performance was marked by a significant increase in loan growth, but profitability was hampered by a sharp decline in TOI and a rise in provision expenses.
@@ -2240,29 +2434,29 @@
 While LPB's loan growth is encouraging, the declining profitability and deteriorating asset quality pose significant concerns. The bank's ability to manage its asset quality and improve its NIM will be crucial in determining its future performance. Investors should monitor these developments closely.</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2025-07-30 17:11:24</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB's 3Q23 performance shows a mixed bag, with a rebound in profitability but a slowdown in loan growth and a concerning rise in NPLs.
@@ -2278,29 +2472,29 @@
 LPB's 3Q23 results show a mixed performance with improving profitability but slowing loan growth and deteriorating asset quality. The bank's ability to manage its credit risks while maintaining loan growth will be key to its future performance. Investors should monitor these trends closely.</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2025-07-30 17:12:05</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB's 4Q23 performance was marked by a significant surge in profitability, driven by a doubling of TOI and a sharp reduction in provision expenses.
@@ -2316,29 +2510,29 @@
 LPB's 4Q23 performance shows strong profitability and robust loan growth, coupled with improved asset quality. This indicates a positive outlook for LPB, although investors should continue to monitor the bank's asset quality and provision expenses.</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2025-07-30 17:12:40</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB delivered a strong 1Q24 with a significant surge in loan growth, outperforming the sector, but profitability was impacted by a drop in TOI and a rise in provision expenses.
@@ -2354,29 +2548,29 @@
 LPB's strong loan growth and profitability moderation present a mixed picture. While the bank is outperforming the sector in terms of loan growth, the pressure on NIM and the potential credit risk due to the lower NPL coverage ratio are areas of concern. Investors should monitor these trends closely in the coming quarters.</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2025-07-30 17:13:24</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB's 2Q24 performance shows a mixed bag with strong TOI growth and profitability, but a slowdown in loan growth and a worrying uptick in asset quality risks.
@@ -2392,29 +2586,29 @@
 LPB's strong TOI growth and profitability are positive, but the slowdown in loan growth and rising asset quality risks could weigh on future performance. Investors should monitor these trends closely. The bank's performance is generally in line with sector trends, but the rising NPL and G2 formation rates warrant caution.</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2025-07-30 17:14:07</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB's 3Q24 performance showed a slowdown in loan growth and profitability, while asset quality indicators pointed to a slight uptick in risk.
@@ -2430,29 +2624,29 @@
 LPB's 3Q24 performance shows a resilient business model, with profitability and loan growth outperforming the sector despite a challenging environment. However, the slight uptick in asset quality indicators warrants monitoring. Overall, LPB's balanced risk profile and robust profitability make it an attractive investment proposition.</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2025-07-30 17:14:37</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB's 4Q24 performance shows a strong growth in loans and TOI, outperforming the sector. However, the bank's asset quality indicators (NPLs, G2) show a slight improvement, but still lag behind sector averages.
@@ -2468,29 +2662,29 @@
 LPB's strong loan growth and improving NIM indicate a positive outlook for the bank. However, the bank's decreasing NPL coverage ratio and slight dip in profitability indicators (ROA, ROE) could be potential risks. Investors should monitor these trends closely.</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2025-07-30 17:15:18</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB's loan growth accelerated in 1Q25, outpacing the sector, but profitability and NIM declined, reflecting pressure on core revenue generation.
@@ -2506,67 +2700,68 @@
 While LPB is delivering strong loan growth, the declining profitability and rising asset quality risks pose challenges. Investors should monitor the impact of falling yields on profitability and the potential for further asset quality deterioration. The latest results highlight the need for LPB to manage these risks effectively to sustain its growth momentum.</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2025-07-30 17:15:55</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>2Q25</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Key Takeaways:
-1. LPB's 2Q25 performance shows a mixed picture with a slight increase in TOI but a decline in profitability metrics such as ROA and ROE.
-2. Loan growth remains positive but has slowed down compared to previous quarters, while NIM has improved slightly.
-3. Asset quality indicators such as NPL and Group 2 ratios remain stable, but the NPL coverage ratio is still below the sector average.
-Profitability:
-LPB's TOI increased by 4.8% QoQ in 2Q25, a modest improvement from the 15.6% decline in 1Q25. However, profitability metrics such as ROA and ROE declined to 1.9% and 22.1% respectively, from 2.0% and 22.7% in 1Q25. This suggests that despite the increase in TOI, LPB's profitability is under pressure.
-Loan Growth &amp; NIM:
-Loan growth slowed to 4.7% QoQ in 2Q25, down from the robust 6.2% in 1Q25, indicating a deceleration in business expansion. However, NIM improved slightly to 3.0% in 2Q25 from 2.6% in the previous quarter, suggesting a recovery in loan yields and effective asset repricing.
-Asset Quality:
-The NPL ratio remained stable at 1.7% in 2Q25, with a slight increase in NPL formation. Group 2 loans also remained stable. However, the NPL coverage ratio improved to 75.3% in 2Q25 from 74.3% in 1Q25, but still trails the sector average, indicating potential risks in asset quality.
-Investment Implications:
-LPB's 2Q25 performance shows a mixed picture with slowing loan growth and declining profitability, but a slight improvement in NIM and stable asset quality. The bank needs to focus on improving its profitability metrics and NPL coverage ratio to align with sector averages.</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>2025-07-30 17:16:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+- LPB’s 2Q25 results show robust loan growth momentum, but profitability is under pressure as margins and returns continue to soften.
+- Asset quality is stable with improving Group 2 loans, but NPL coverage remains below prior highs.
+- The quarter’s figures signal a mixed outlook: strong balance sheet expansion, but earnings and returns are lagging expectations.
+---
+**Profitability:**  
+LPB’s profitability softened in 2Q25. Total operating income (TOI) rebounded 4.8% QoQ after a sharp drop in 1Q25, but YoY growth slowed to just 1.6%. Net profit before tax (PBT) fell 5.9% QoQ and slipped 1.5% YoY, reversing the double-digit YoY growth seen in 1Q25. Return on assets (ROA) edged down to 1.9% in 2Q25 from 2.0% in 1Q25, while return on equity (ROE) slipped to 22.1% from 22.7%. The sequential decline in both metrics reflects margin compression and higher provisioning, despite the recovery in TOI. This marks a negative surprise versus the prior trend, as earnings failed to keep pace with balance sheet growth.
+**Loan Growth &amp; NIM:**  
+Loan growth remains a clear bright spot. Loans expanded 4.7% QoQ and 19.3% YoY, sustaining strong momentum above sector averages. However, net interest margin (NIM) recovered only modestly to 3.0% in 2Q25 after a sharp drop to 2.6% in 1Q25, still well below the 3.8% level seen in late 2024. The main driver is a lower loan yield, which, despite a slight QoQ uptick, remains below last year’s levels. This suggests that competitive pricing and funding cost pressures are weighing on core profitability, even as loan volumes surge.
+**Asset Quality:**  
+Asset quality trends are mixed but stable. NPL ratio was steady at 1.74%, while NPL formation slowed to 0.14% in 2Q25, indicating limited new stress. Group 2 loans improved sharply to 0.95% from 1.39% in 1Q25, with negative formation, signaling successful resolution or upgrades. However, NPL coverage edged up only slightly to 75.3%, still below the 83.3% peak in 4Q24, leaving some room for improvement. Overall, credit costs remain manageable, but the lower coverage warrants monitoring if asset quality pressures re-emerge.
+**Investment Implications:**  
+LPB’s strong loan growth is a clear positive, but the persistent margin and return compression, alongside only modest asset quality gains, temper the outlook. Investors should watch for signs of margin stabilization and stronger earnings leverage to justify the rapid balance sheet expansion.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2025-07-31 18:59:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB delivered a strong rebound in profitability in 1Q23, with PBT and returns sharply up QoQ and solid YoY growth, driven by stable topline and normalized provisions.
@@ -2583,29 +2778,29 @@
 MBB’s strong earnings and growth momentum are offset by clear signs of rising credit risk. The positive profit surprise is encouraging, but asset quality slippage warrants close monitoring as the credit cycle turns.</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2025-07-30 17:29:30</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB delivered robust loan growth in 2Q23, sharply outpacing the sector, but profitability softened as NIM compressed and topline momentum faded.
@@ -2622,29 +2817,29 @@
 MBB’s strong loan expansion is a clear positive, but margin pressure and only modest profit growth temper the outlook. The stabilization in asset quality is encouraging, yet investors should watch for further NIM compression and the sustainability of credit quality gains.</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2025-07-30 17:29:41</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB delivered a strong 3Q23 with a sharp rebound in profit and topline growth, outpacing sector trends on both a QoQ and YoY basis.
@@ -2661,29 +2856,29 @@
 MBB’s strong profit recovery and loan growth reinforce its sector leadership, but margin compression and asset quality slippage are emerging risks. The quarter’s positive surprise on earnings is tempered by the need for vigilance on credit costs and coverage.</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2025-07-30 17:29:53</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB delivered a major acceleration in loan growth in 4Q23, but profitability softened as margins compressed and topline momentum stalled.
@@ -2700,29 +2895,29 @@
 MBB is prioritizing growth, but margin and earnings pressure are emerging as key risks. The quarter’s results highlight the trade-off between rapid loan expansion and profitability, with asset quality trends providing some reassurance but not offsetting margin headwinds. Investors should monitor whether MBB can restore margin resilience as competition intensifies.</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2025-07-30 17:30:08</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB’s 1Q24 results show resilient topline growth but a sharp slowdown in profit, as provision expenses surged and margins compressed further.
@@ -2739,29 +2934,29 @@
 MBB’s 1Q24 results highlight rising risk costs and asset quality headwinds, with profit momentum reversing despite stable topline growth. The sharp spike in provisions and weaker coverage are negative surprises, suggesting investors should monitor credit trends closely as the cycle turns.</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2025-07-30 17:30:19</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB delivered a strong 2Q24 rebound, with TOI and net profit surging on the back of double-digit loan growth and margin recovery.
@@ -2778,29 +2973,29 @@
 MBB’s 2Q24 results mark a clear inflection, with growth, margins, and asset quality all moving in the right direction. The positive surprise on both profitability and risk metrics strengthens the investment case, with renewed momentum and lower credit risk likely to support further rerating.</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2025-07-30 17:30:30</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB’s 3Q24 results show robust loan growth and resilient topline YoY, but profitability softened sequentially as margins and asset quality came under renewed pressure.
@@ -2817,29 +3012,29 @@
 MBB’s growth engine remains strong, but margin and asset quality headwinds are intensifying. The latest results mark a negative inflection in profitability and credit risk, signaling the need for greater caution on earnings durability and capital protection going forward.</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2025-07-30 17:30:47</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB delivered a standout 4Q24, with TOI and profit surging on the back of strong loan growth and a sharp rebound in core banking activity.
@@ -2856,29 +3051,29 @@
 MBB’s 4Q24 results deliver a positive surprise, with strong growth, margin stability, and cleaner asset quality. The bank is regaining momentum, positioning itself as a sector outperformer heading into 2025. Investors should watch for sustainability of this growth and continued discipline on credit risk.</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2025-07-30 17:31:01</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB delivered another strong quarter in 1Q25, with net profit up 3.6% QoQ and 44.7% YoY, underpinned by robust topline growth and disciplined cost control, though topline momentum softened sequentially.
@@ -2895,29 +3090,68 @@
 MBB continues to deliver sector-leading profitability and solid growth, but the latest results flag emerging asset quality risks and margin pressure. Investors should watch for further credit slippage and coverage trends, as the positive earnings surprise may be harder to sustain if risk costs rise.</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2025-07-30 17:31:12</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MBB</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Private_1</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+- MBB delivered robust loan growth in 2Q25, but profitability softened as provision expenses surged and margins edged down.
+- Asset quality improved, with both NPL and Group 2 ratios declining, but the spike in provisioning signals a more cautious risk stance.
+- The quarter’s results show strong underlying business momentum, but rising credit costs and margin compression are key watchpoints for investors.
+---
+**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**
+MBB’s total operating income (TOI) rebounded 12.5% QoQ in 2Q25 after a dip in 1Q25, and was up 22.1% YoY, reflecting solid core business expansion. However, pre-tax profit (PBT) fell 10.5% QoQ, reversing the steady gains of prior quarters, as provision expenses jumped 60.3% QoQ. ROA and ROE both declined to 1.96% and 18.7% respectively, down from 2.34% and 21.8% in 1Q25, and below recent peaks. The sharp rise in credit costs more than offset revenue growth, marking a negative surprise versus the bank’s recent earnings trajectory.
+**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**
+Loan growth accelerated to 10.3% QoQ in 2Q25, a clear step-up from the muted 2.8% in 1Q25 and outpacing the sector. On a YoY basis, loans rose 30.9%, underscoring strong franchise momentum. However, net interest margin (NIM) slipped for the fourth straight quarter to 4.14%, driven by lower loan yields and likely funding cost pressure. The margin squeeze, despite robust loan expansion, suggests competitive pricing and/or higher funding costs are weighing on spreads.
+**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**
+Asset quality metrics improved: NPL ratio dropped to 1.60% from 1.84% in 1Q25, and Group 2 loans fell to 1.30%. NPL coverage rose to 88.9%, reflecting the bank’s proactive provisioning. While NPL and G2 formation data are unavailable for the quarter, the sharp increase in provision expenses signals a more conservative approach to risk, possibly in anticipation of future asset quality headwinds. This prudent stance supports balance sheet resilience but weighs on near-term profitability.
+**Investment Implications**
+MBB’s strong loan growth and improved asset quality are positives, but the margin compression and spike in provisioning temper the outlook. Investors should watch for stabilization in credit costs and NIM to gauge the sustainability of earnings momentum.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2025-07-31 18:59:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB delivered a sharp rebound in topline and profit in 1Q23, with both TOI and PBT posting strong sequential and double-digit YoY gains, but profitability ratios remain below peak levels.
@@ -2934,29 +3168,29 @@
 MSB’s strong loan and income growth in 1Q23 is encouraging, but margin pressure and asset quality slippage temper the outlook. The positive profit surprise is overshadowed by clear signs of rising risk, warranting caution on earnings durability.</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2025-07-30 17:31:24</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB delivered a sharp rebound in profitability in 2Q23, with TOI and net profit surging both QoQ and YoY, outpacing sector growth.
@@ -2973,29 +3207,29 @@
 MSB’s earnings momentum is back, but margin and asset quality pressures are building. The strong topline is a clear positive, but investors should watch for further credit slippage and margin headwinds in coming quarters.</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2025-07-30 17:31:35</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB’s 3Q23 results show a mixed picture: strong YoY profit growth and resilient loan expansion, but a sequential pullback in earnings and rising asset quality pressure.
@@ -3012,29 +3246,29 @@
 MSB’s growth engine is still running, but the sharp asset quality slippage and earnings volatility warrant caution. Investors should watch for further credit deterioration, as the latest results flag a shift from margin and profit strength to risk management as the top priority.</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2025-07-30 17:31:48</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB’s 4Q23 results show a sharp drop in profitability, with both TOI and net profit falling sequentially as margins compressed and provision relief faded.
@@ -3051,29 +3285,29 @@
 MSB’s aggressive loan growth is coming at the expense of margins and risk buffers. The sharp profit drop and weaker coverage are negative surprises, raising questions about the sustainability of current growth and the bank’s resilience to future shocks. Investors should watch for further margin pressure and asset quality slippage.</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2025-07-30 17:32:04</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB delivered a sharp rebound in profitability in 1Q24, with both TOI and PBT recovering strongly from a weak 4Q23, but margins and returns remain below recent highs.
@@ -3090,29 +3324,29 @@
 MSB’s earnings recovery is encouraging, but margin compression and asset quality slippage temper the outlook. The latest results are a mixed surprise—profitability bounced, but underlying risk and margin trends remain negative. Investors should watch for further credit cost pressure and signs of stabilization in yields.</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2025-07-30 17:32:17</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB delivered a strong 2Q24 with accelerating loan growth and a sharp rebound in topline and profit, outpacing sector momentum.
@@ -3129,29 +3363,29 @@
 MSB’s 2Q24 results show a decisive return to growth, with earnings and loan expansion outpacing peers. Margin compression and rising group 2 loans are watchpoints, but the topline rebound and improved coverage support a constructive outlook. Investors should focus on the sustainability of loan growth and asset quality trends in coming quarters.</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2025-07-30 17:32:31</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB’s 3Q24 saw a sharp reversal in profitability, with both TOI and net profit dropping sequentially, as provision expenses remained elevated and margins compressed further.
@@ -3168,29 +3402,29 @@
 MSB’s 3Q24 results mark a setback, with profitability under pressure from weak income and persistent margin compression. While asset quality is stabilizing, the lack of topline growth and margin resilience will weigh on investor sentiment until the revenue engine reignites.</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2025-07-30 17:32:45</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB delivered a strong 4Q24 finish, with a sharp rebound in TOI and net profit, driven by margin recovery and lower provision expenses.
@@ -3207,29 +3441,29 @@
 MSB’s 4Q24 results mark a decisive turnaround, with strong profit recovery, margin expansion, and lower credit risk. The positive surprise on both earnings and asset quality supports a constructive outlook, positioning MSB well for continued growth into 2025.</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2025-07-30 17:32:56</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB delivered standout loan growth in 1Q25, sharply outpacing the sector, but profitability softened as topline momentum reversed and margins compressed.
@@ -3246,29 +3480,68 @@
 MSB’s rapid loan growth is a clear positive, but the sharp NIM compression and softening profitability temper the outlook. Asset quality appears stable for now, but rising formation rates warrant close monitoring. Investors should watch for signs of margin stabilization and whether credit costs remain contained as the loan book expands.</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2025-07-30 17:33:11</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MSB</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Private_2</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+- MSB’s 2Q25 results show strong loan growth momentum but profitability is under pressure from higher provisions and softer income.
+- Asset quality is showing early signs of stress, with a slight uptick in NPL and a declining coverage ratio.
+- The bank’s NIM remains flat and below sector, reflecting margin compression despite robust loan expansion.
+---
+**Profitability:**  
+MSB’s profitability softened in 2Q25. Total operating income (TOI) rebounded 8.5% QoQ after a weak 1Q25, but was down 9.6% YoY, signaling a loss of revenue momentum compared to last year. Net profit before tax (PBT) slipped 5.4% QoQ and fell 28.6% YoY, mainly due to a sharp jump in provision expenses (+75.3% QoQ). Return on assets (ROA) edged down to 1.5% in 2Q25 from 1.6% in 1Q25, while return on equity (ROE) also declined to 12.8% from 13.5%. This marks a clear downtrend from the high profitability seen in mid-2024, driven by both weaker income and rising risk costs. The results are a negative surprise versus the improving trend seen in 4Q24.
+**Loan Growth &amp; NIM:**  
+Loan growth remains a bright spot, up 4.4% QoQ and 13.9% YTD, outpacing the sector’s 6.9% YTD. This signals strong business momentum and market share gains. However, net interest margin (NIM) was flat at 3.3% QoQ and remains below the sector average, reflecting ongoing margin compression. Loan yields dipped to 8.3% from 8.7% in 1Q25, suggesting competitive pricing or a shift in loan mix. The combination of rapid loan growth and flat NIM points to volume-driven expansion, but with limited pricing power.
+**Asset Quality:**  
+Asset quality is showing early warning signs. The NPL ratio ticked up to 2.7% from 2.6% in 1Q25, reversing the prior downtrend. Group 2 loans (special mention) edged down, but the NPL coverage ratio fell to 55.6% from 59.6%, indicating thinner buffers against potential losses. Provisioning surged this quarter, likely in response to the uptick in NPLs. While asset quality remains manageable, the reversal in NPL trends and declining coverage warrant close monitoring.
+**Investment Implications:**  
+MSB’s strong loan growth is offset by rising risk costs and margin pressure. The uptick in NPLs and lower coverage suggest the need for caution, as further asset quality deterioration could weigh on future earnings. Investors should watch for stabilization in profitability and asset quality before expecting a sustained recovery.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2025-07-31 18:59:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB’s 1Q23 results show a sharp pullback in profitability, with both TOI and net profit down significantly QoQ, despite a modest YoY recovery.
@@ -3285,29 +3558,29 @@
 OCB’s 1Q23 marks a clear setback, with earnings under pressure from both weaker revenue and rising risk costs. The deterioration in asset quality and coverage is a key concern, and the loss of loan growth momentum suggests a more challenging outlook ahead. Investors should monitor for further credit stress and margin compression in coming quarters.</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2025-07-30 17:33:26</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB delivered a sharp rebound in profitability in 2Q23, with net profit and TOI surging both QoQ and YoY, driven by strong loan growth and lower provision expenses.
@@ -3324,29 +3597,29 @@
 OCB’s strong profit rebound and loan growth are clear positives, but margin pressure and low coverage ratios temper the outlook. The latest results mark a positive surprise, but investors should watch for sustained margin recovery and further improvement in risk buffers.</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2025-07-30 17:33:39</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB delivered solid topline and loan growth in 3Q23, but profitability softened sequentially as provision expenses rebounded.
@@ -3363,29 +3636,29 @@
 OCB’s topline and loan growth remain robust, but the sharp uptick in risk costs and asset quality slippage are now the dominant themes. The margin and coverage trends warrant caution, as earnings resilience will depend on containing further credit deterioration.</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2025-07-30 17:33:54</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB delivered a strong finish to 2023 with standout loan growth and a rebound in topline income, but profitability softened as provision costs stayed elevated.
@@ -3402,29 +3675,29 @@
 OCB is prioritizing growth, but at the cost of margin compression and earnings volatility. The sharp improvement in asset quality is encouraging and may support sentiment, but investors should watch for sustained provision pressure and the durability of loan yields as competition intensifies.</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2025-07-30 17:34:08</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB’s 1Q24 results show a sharp pullback in topline and profit growth after a strong 4Q23, with both TOI and PBT down sequentially, but YoY trends remain positive.
@@ -3441,29 +3714,29 @@
 OCB’s 1Q24 shows resilient loan growth but with clear pressure on margins and only modest asset quality improvement. The sequential profit drop is a negative surprise after a strong 4Q23, and investors should watch for further margin compression and credit costs as key swing factors for 2024.</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2025-07-30 17:34:27</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB’s 2Q24 results show a sharp loss of momentum in profitability, with net profit and returns dropping to multi-year lows as provision expenses surged.
@@ -3480,29 +3753,29 @@
 OCB’s 2Q24 marks a clear break from its prior growth and profitability trends. Surging provisions and stalling loan growth are weighing on returns, while asset quality is starting to deteriorate. The negative surprise on earnings and credit costs suggests investors should brace for a more challenging outlook ahead.</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2025-07-30 17:34:41</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB’s 3Q24 results show a sharp deterioration in profitability, driven by surging provision expenses despite stable topline growth.
@@ -3519,29 +3792,29 @@
 OCB’s latest results highlight mounting credit risk and earnings vulnerability. The combination of weak topline growth, margin pressure, and rapidly rising provisions marks a clear negative inflection point. Investors should monitor for further asset quality slippage, as the risk of continued earnings pressure remains high.</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2025-07-30 17:34:54</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB delivered a sharp rebound in profitability in 4Q24, with TOI and PBT surging sequentially, reversing a weak 3Q24 and outpacing sector growth.
@@ -3558,29 +3831,29 @@
 OCB’s 4Q24 results signal a strong earnings recovery and renewed growth momentum, but asset quality metrics warrant close monitoring. The positive surprise on profit and margins is constructive, yet investors should watch for further improvement in coverage and formation trends to sustain the rerating.</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2025-07-30 17:35:05</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB’s 1Q25 results show a sharp pullback in profitability, with both TOI and net profit dropping sequentially and year-on-year, as margin compression and rising risk costs bite.
@@ -3597,29 +3870,68 @@
 OCB’s 1Q25 results mark a clear setback, with profit, margin, and asset quality all moving in the wrong direction. The negative surprise on earnings and credit risk will likely weigh on sentiment, and investors should watch for further slippage in coming quarters.</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2025-07-30 17:35:18</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>OCB</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Private_2</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+1. OCB’s 2Q25 results show a rebound in topline growth and profitability, but margins remain under pressure and asset quality is still fragile.
+2. Loan growth accelerated sharply QoQ, but NIM compressed further, signaling a challenging yield environment.
+3. Asset quality improved sequentially, but coverage remains low, keeping risk in focus.
+---
+**Profitability:**  
+OCB’s total operating income (TOI) bounced back in 2Q25, rising 16.2% QoQ after a weak 1Q25, and up 16.3% YoY. This recovery was driven by stronger loan growth and improved fee income, following a seasonally soft start to the year. Net profit before tax (PBT) rose 11.9% QoQ and 11.2% YoY, reversing the prior quarter’s contraction. However, return on assets (ROA) and return on equity (ROE) remain subdued at 1.1% and 9.7% respectively, well below 2Q24 levels (1.2% ROA, 9.6% ROE) and sector averages, reflecting ongoing margin and risk cost pressures. The sequential improvement is positive, but profitability is still lagging historical highs.
+**Loan Growth &amp; NIM:**  
+Loan growth accelerated to 6.4% QoQ in 2Q25 (vs. 2.6% in 1Q25), outpacing the sector and marking OCB’s strongest quarterly expansion in over a year. This surge likely reflects a push in retail and SME lending, but comes at the cost of margin. Net interest margin (NIM) slipped further to 3.0% in 2Q25 from 3.2% in 1Q25, and is now at its lowest in six quarters. Loan yields also declined, suggesting competitive pricing and higher funding costs. The margin squeeze offsets some of the topline benefit from loan growth, and signals that OCB is prioritizing volume over profitability.
+**Asset Quality:**  
+Asset quality showed tentative improvement: NPL ratio fell to 3.5% from 3.9% in 1Q25, and group 2 loans also declined. However, NPL coverage remains thin at 40.5%, up from 35.0% but still well below sector norms. While new NPL and group 2 formation data is unavailable for 2Q25, the drop in headline ratios suggests better recoveries or write-offs, not necessarily lower risk. Provisioning costs rose QoQ, reflecting ongoing caution. Overall, asset quality is stabilizing but remains a key watchpoint given low coverage.
+**Investment Implications:**  
+The 2Q25 results are a modest positive surprise after a weak 1Q25, but margin and risk remain headwinds. Sustained loan growth is encouraging, but profitability and asset quality need to improve further for a rerating.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2025-07-31 18:59:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB delivered a strong rebound in 1Q23, with TOI and net profit surging both QoQ and YoY, driven by a sharp recovery in loan growth and margin expansion.
@@ -3636,29 +3948,29 @@
 SHB’s 1Q23 results mark a clear positive surprise, with a sharp earnings rebound and margin expansion. However, the uptick in early-stage delinquencies signals that asset quality risks are rising and could pressure future results if not contained. Investors should weigh the renewed growth momentum against the need for vigilance on credit trends.</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2025-07-30 17:35:28</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB’s 2Q23 results show a sharp pullback in profitability, with both TOI and net profit down sequentially, as margin compression and rising risk costs weigh on performance.
@@ -3675,29 +3987,29 @@
 SHB’s 2Q23 results mark a clear deterioration in profitability and asset quality, with margin pressure and credit risk now front and center. The abrupt loss of momentum is a negative surprise, and investors should watch for further earnings downside if asset quality continues to slip.</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2025-07-30 17:35:49</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB’s 3Q23 results show a clear slowdown in topline and profit momentum, with TOI and PBT both down sequentially and year-on-year, as margin pressure and softer core income weighed on returns.
@@ -3714,29 +4026,29 @@
 SHB’s 3Q23 print highlights persistent margin and income headwinds, with only partial relief from lower provisions. Asset quality is not deteriorating as fast as feared, but the lack of a clear earnings rebound is a concern. Investors should watch for further margin stabilization and signs of a sustainable recovery in core income.</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2025-07-30 17:36:02</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB’s 4Q23 saw a sharp rebound in topline growth and loan expansion, but profitability was hit by a surge in provision expenses, dragging ROA and ROE to multi-quarter lows.
@@ -3753,29 +4065,29 @@
 SHB’s 4Q23 results highlight a trade-off: strong loan and revenue growth, but at the cost of sharply higher risk provisioning and earnings volatility. The spike in NPL formation and provisions is a clear watchpoint for investors, tempering the positive momentum in topline and loan expansion.</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2025-07-30 17:36:14</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB delivered a sharp rebound in profitability in 1Q24, with net profit and returns surging on the back of normalized provisions, despite muted topline growth.
@@ -3792,29 +4104,29 @@
 SHB’s profit rebound is provision-driven and not underpinned by stronger revenue or loan growth. The flat loan book, margin compression, and asset quality slippage temper the positive headline surprise, signaling that earnings durability remains in question. Investors should watch for further signs of core business recovery and credit risk containment.</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2025-07-30 17:36:24</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB delivered a sharp rebound in loan growth in 2Q24, but profitability weakened as core income dropped and margins compressed further.
@@ -3831,29 +4143,29 @@
 SHB’s strong loan growth is a positive, but the combination of margin pressure, weaker core income, and rising early-stage credit risk tempers the outlook. The quarter is a negative surprise on profitability and coverage, highlighting the need to watch for further asset quality slippage if growth continues at this pace.</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2025-07-30 17:36:35</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB’s 3Q24 saw a sharp sequential drop in profitability, with both TOI and net profit under pressure, as margins compressed and provision expenses rebounded.
@@ -3870,29 +4182,29 @@
 SHB’s strong loan growth is being overshadowed by margin pressure and weakening profitability. While asset quality is stabilizing, the earnings outlook is challenged by persistent NIM compression and rising risk costs—a negative surprise versus expectations. Investors should watch for further margin trends and credit formation in coming quarters.</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2025-07-30 17:36:48</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB delivered a sharp turnaround in topline growth in 4Q24, with TOI and NIM rebounding strongly, but net profit recovery lagged due to a spike in provision expenses.
@@ -3909,29 +4221,29 @@
 SHB’s topline and margin recovery are clear positives, but the surge in provisions and deteriorating asset quality temper the outlook. The latest results highlight a renewed growth push, but also underline the need for vigilance on credit costs and coverage. Investors should weigh the strong loan and income momentum against rising risk costs and below-sector profitability.</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2025-07-30 17:37:02</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB delivered a sharp rebound in profitability in 1Q25, with PBT and returns surging QoQ on the back of lower provisions, despite a pullback in core income.
@@ -3948,29 +4260,68 @@
 SHB’s 1Q25 results mark a positive surprise on profitability, but the underlying story is provision relief rather than core revenue or margin strength. The aggressive loan growth is a clear theme, but margin compression and the sustainability of low risk costs will be key for future earnings quality. Investors should watch for signs of margin stabilization and any lagged asset quality effects from rapid expansion.</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2025-07-30 17:37:18</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SHB</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Private_2</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+1. SHB delivered a strong rebound in profitability in 2Q25, with both TOI and net profit surging QoQ and YoY, driven by a sharp recovery in NIM and robust loan growth.
+2. Asset quality improved further, with NPL and Group 2 ratios declining and coverage ratios rising, signaling effective risk management.
+3. The positive surprise came from the scale of the topline and margin recovery, offsetting higher provision expenses.
+---
+**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**  
+SHB’s 2Q25 results mark a decisive turnaround in profitability. Total operating income (TOI) jumped 70.3% QoQ and soared 135.1% YoY, reversing the prior quarter’s dip and far outpacing sector growth. This topline surge, underpinned by margin expansion, translated into a 4.0% QoQ and 58.9% YoY increase in pre-tax profit (PBT). Return metrics remained strong: ROA held steady at 1.8%, while ROE was robust at 23.2%, both well above sector averages and sustaining the bank’s high profitability trajectory. The sharp rebound in TOI and resilient bottom line, despite a spike in provision expenses, signals a positive surprise versus recent trends and expectations.
+**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**  
+Loan growth momentum remained solid, with balances rising 4.7% QoQ and 14.4% YTD, outpacing the sector’s 6.9% YTD. The key driver was a sharp recovery in net interest margin (NIM), which rebounded to 4.8% in 2Q25 from 3.0% in 1Q25, reversing the prior compression. This was supported by a strong loan yield recovery (11.4% in 2Q25 vs 9.3% in 1Q25), likely reflecting improved asset mix and better pricing power. The margin rebound was the main catalyst for the topline and profit recovery.
+**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**  
+Asset quality trends were positive. The NPL ratio improved to 2.6% from 2.9% QoQ, while Group 2 loans dropped to 0.25%, continuing a multi-quarter downtrend. Coverage ratios rose to 65.4%, the highest in six quarters, reflecting prudent provisioning. NPL and G2 formation data were not available for 2Q25, but the declining ratios and rising coverage suggest effective risk containment. This improvement in asset quality, alongside strong loan growth, underpins the sustainability of SHB’s earnings momentum.
+**Investment Implications:**  
+SHB’s 2Q25 results highlight a strong earnings recovery, margin resilience, and improving asset quality. The positive surprise in topline and margin recovery, coupled with robust loan growth and better risk metrics, strengthens the investment case for continued outperformance.</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2025-07-31 18:59:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB delivered a strong profit rebound in 1Q23, with net profit and PBT surging on sharply lower provision expenses, despite a sequential drop in core income.
@@ -3987,29 +4338,29 @@
 STB’s profit surge is provision-driven, masking underlying revenue softness and margin pressure. While asset quality slippage is contained for now, weaker coverage is a key risk. Investors should watch for a normalization in earnings as provision tailwinds fade and margin headwinds persist.</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2025-07-30 17:37:29</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB’s 2Q23 results show profit stability despite muted topline growth, as loan expansion and higher yields offset a marginal dip in TOI.
@@ -4026,29 +4377,29 @@
 STB’s growth and profit stability are encouraging, but the sharp asset quality deterioration is a negative surprise that could weigh on future earnings. Investors should watch for further credit cost escalation and margin compression as key risks.</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2025-07-30 17:37:41</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB’s 3Q23 results show a sharp slowdown in topline and profit momentum, with TOI and PBT both declining sequentially as margins compressed and revenue headwinds intensified.
@@ -4065,29 +4416,29 @@
 STB’s 3Q23 marks a clear inflection: topline and margin pressure, coupled with rising asset quality risks, are now weighing on profitability. The negative surprise on revenue and coverage ratios warrants caution, as earnings durability is increasingly tied to credit trends and margin stabilization.</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2025-07-30 17:37:52</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB delivered a strong earnings rebound in 4Q23, with net profit and profitability ratios hitting multi-quarter highs on the back of a sharp recovery in TOI and record-low provision expenses.
@@ -4104,29 +4455,29 @@
 STB’s 4Q23 results mark a clear earnings recovery, driven by revenue stabilization and sharply lower provisions. While margin and asset quality risks linger, the positive surprise on profitability and early signs of NIM recovery support a more constructive near-term outlook. Investors should watch for sustained improvement in core income and further progress on credit costs.</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2025-07-30 17:38:06</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB delivered a solid 1Q24, with TOI and net profit both up YoY, but profitability softened sequentially as provision expenses normalized from a low 4Q23 base.
@@ -4143,29 +4494,29 @@
 STB’s 1Q24 shows a healthy growth and margin profile, with asset quality risks contained for now. The sequential profit dip is not a concern, given the underlying business momentum and improved coverage. Investors should watch for sustained loan growth and margin trends as key drivers for the next quarters.</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2025-07-30 17:38:17</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB delivered strong topline growth in 2Q24, with TOI up 4.1% QoQ and 6.2% YoY, but net profit growth was muted as margin pressure and rising NPLs offset lower provisions.
@@ -4182,29 +4533,29 @@
 STB’s growth engine remains intact, but margin and asset quality headwinds are capping earnings upside. The latest results are broadly in line with expectations, but investors should monitor further NPL drift and margin trends as key swing factors for the outlook.</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2025-07-30 17:38:27</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB delivered steady topline and profit growth in 3Q24, with TOI and PBT both up sequentially, but loan growth momentum cooled after a strong first half.
@@ -4221,29 +4572,29 @@
 STB’s 3Q24 results reinforce its earnings resilience and prudent risk management, though slower loan growth and higher provisions suggest a more cautious outlook. Margin stability and improved coverage are positives, but investors should monitor credit cost trends as the cycle matures.</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2025-07-30 17:38:38</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB delivered a standout 4Q24, with net profit and ROE surging to multi-year highs on the back of strong topline growth and a sharp reversal in provision expenses.
@@ -4260,29 +4611,29 @@
 STB’s 4Q24 results mark a strong finish to the year, with earnings momentum driven by provision swings and solid loan growth. The positive profit surprise is notable, but margin compression and weaker coverage ratios highlight areas for caution as the bank enters 2025. Investors should monitor whether core income and asset quality can sustain this pace without further reliance on provision reversals.</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2025-07-30 17:38:52</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB delivered its strongest topline growth in over a year in 1Q25, but net profit moderated after an outsized 4Q24, with profitability ratios normalizing yet still above last year.
@@ -4297,29 +4648,68 @@
 NPL ratio inched up to 2.5% in 1Q25 from 2.4% in 4Q24, while group 2 loans also edged higher. Both NPL and G2 formation rates rose, signaling some renewed credit slippage. However, NPL coverage rebuilt to 74.7% (from 68.4% in 4Q24), now above the sector’s 66.3%. The uptick in formation rates is a watchpoint, but coverage improvements provide a buffer. Overall, STB’s results reinforce a positive growth narrative, with manageable asset quality risks and a normalization in earnings after an exceptional 4Q24.</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2025-07-30 17:39:02</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>STB</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Private_1</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+- STB’s 2Q25 results show strong loan growth momentum but a pause in topline expansion and mild pressure on profitability ratios.
+- NIM compression and a flat TOI signal margin headwinds, while asset quality remains stable with improved coverage.
+- The quarter’s performance is mixed: robust lending, but softer earnings delivery and margin pressure temper the outlook.
+---
+**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**
+STB’s topline (TOI) momentum stalled in 2Q25, slipping marginally by 0.3% QoQ after a strong 5.2% rise in 1Q25. YoY, TOI growth moderated to 8.6% from 13.4% in the prior quarter, reflecting a deceleration in revenue expansion. Pre-tax profit (PBT) was flat QoQ at VND 3.66 trillion, following a 20.6% drop in 1Q25, and up 36.1% YoY—a solid but slowing pace. ROA and ROE both edged down sequentially to 1.48% and 19.7%, respectively, retracing from the previous quarter’s highs. The main drag was a flat topline and higher provision expense, signaling that margin and credit cost pressures are weighing on bottom-line growth.
+**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**
+Loan growth remains a bright spot, accelerating 4.2% QoQ and 8.8% YTD, sustaining the robust momentum seen in 1Q25. This outpaces sector averages and underpins STB’s market share gains. However, NIM compressed to 3.39% from 3.67% in 1Q25, reversing the prior quarter’s recovery. The squeeze reflects lower loan yields (down 28bps QoQ) and likely funding cost pressures, offsetting the benefit of strong loan expansion. The topline stagnation despite loan growth highlights the challenge of sustaining margins in a competitive rate environment.
+**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**
+Asset quality trends are stable. NPL ratio dipped slightly to 2.46% from 2.51% in 1Q25, while Group 2 loans also improved to 0.73%. NPL coverage strengthened to 75.4%, the highest in six quarters, indicating a more conservative provisioning stance. NPL and G2 formation data are unavailable for the quarter, but the improving coverage and stable ratios suggest no material deterioration. The bank’s asset quality resilience, despite rapid loan growth, is a positive surprise and supports the investment case.
+**Investment Implications:**  
+STB’s 2Q25 shows the bank can grow loans aggressively without sacrificing asset quality, but margin compression and muted topline growth are key watchpoints. Sustaining profitability will hinge on defending NIM and managing credit costs as competition intensifies.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:00:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB delivered a sharp rebound in loan growth in 1Q23, but topline and profit trends remained soft, with core income under pressure and only partial margin recovery.
@@ -4336,29 +4726,29 @@
 TCB’s strong loan growth and improving asset quality coverage are positives, but persistent margin compression and weak core income limit near-term earnings visibility. The quarter is a partial reset, but not yet a clear inflection point for profitability. Investors should watch for sustained revenue recovery and further asset quality normalization.</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2025-07-30 17:39:14</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB’s 2Q23 results show profitability stabilizing sequentially, but core income remains under pressure with a second straight quarter of negative YoY growth.
@@ -4375,29 +4765,29 @@
 TCB’s results show stabilizing profits but with clear signs of margin and asset quality headwinds. The pause in loan growth and sharp asset quality slippage are key risks for investors, outweighing the still-healthy return ratios.</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2025-07-30 17:39:24</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB delivered a strong rebound in topline growth in 3Q23, but profitability remains under pressure from rising provisions and asset quality slippage.
@@ -4414,29 +4804,29 @@
 TCB’s topline recovery is encouraging, but persistent asset quality pressures and rising provisions continue to weigh on earnings. The modest NIM rebound is a positive surprise, but the deteriorating coverage ratio and NPL uptick are clear red flags. Investors should focus on whether TCB can contain further credit costs and rebuild risk buffers in coming quarters.</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2025-07-30 17:39:36</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB delivered a strong finish to 2023, with TOI and loan growth sharply accelerating in 4Q23, but profitability momentum was capped by a spike in provision expenses.
@@ -4453,29 +4843,29 @@
 TCB’s strong loan and income growth, paired with improving asset quality, point to a constructive outlook. The only caution is the elevated provision expense, which may signal ongoing vigilance on credit risk. The latest results reinforce TCB’s position as a growth leader, with asset quality stabilization now emerging as a key investment theme.</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2025-07-30 17:39:47</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB delivered a standout 1Q24, with TOI and net profit surging to multi-year highs on the back of robust loan growth and margin recovery.
@@ -4492,29 +4882,29 @@
 TCB’s 1Q24 results highlight best-in-class growth, margin recovery, and stable asset quality. The strong earnings surprise and robust credit metrics reinforce its premium valuation and growth outlook. Investors should watch for sustainability of loan momentum and margin management, but the latest quarter sets a high bar for peers.</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2025-07-30 17:40:01</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB delivered another strong quarter in 2Q24, with TOI and net profit both up sharply YoY and maintaining robust sequential growth, though profit momentum is flattening as provision costs rise.
@@ -4531,29 +4921,29 @@
 TCB’s results reinforce its position as a sector leader in growth and profitability, with margin strength and asset quality discipline. The main watchpoint is rising provision costs, but overall trends remain positive and above expectations.</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2025-07-30 17:40:13</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB’s 3Q24 saw robust loan growth continue, but profitability softened as TOI declined and margins compressed sequentially.
@@ -4570,29 +4960,29 @@
 TCB’s strong loan growth and resilient asset quality are positives, but the sharp TOI and margin compression in 3Q24 are a warning sign. Sustaining earnings growth will hinge on stabilizing yields and defending margins as competition intensifies. The latest results are a mild negative surprise on profitability, but the bank’s credit metrics and growth profile remain solid.</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2025-07-30 17:40:23</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB’s 4Q24 results showed a sharp reversal in profitability, with both TOI and net profit dropping steeply QoQ and YoY, as core income momentum stalled and provision write-backs masked underlying softness.
@@ -4609,29 +4999,29 @@
 TCB’s 4Q24 is a clear reset: profitability and growth momentum have faded, and margin compression is accelerating. While asset quality is strong, the earnings mix is less robust, and the sharp drop in core income is a key concern for investors. The latest figures are a negative surprise and warrant caution on near-term earnings visibility.</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2025-07-30 17:40:33</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB delivered a sharp rebound in profitability in 1Q25, with both TOI and PBT recovering strongly QoQ, but YoY trends remain negative as core income and margins lag last year’s levels.
@@ -4648,68 +5038,68 @@
 TCB’s 1Q25 results show a bank regaining earnings momentum through volume growth, but with persistent margin compression and only partial recovery from last year’s highs. Asset quality remains a bright spot. The positive QoQ surprise may support sentiment, but investors should watch for sustained margin pressure as a key swing factor for future profitability.</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2025-07-30 17:40:43</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>2Q25</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Key Takeaways:
-1. TCB delivered a strong sequential rebound in topline and profit in 2Q25, with loan growth sharply accelerating and margins stabilizing after a challenging 2024.
-2. Asset quality remains broadly stable, with NPLs edging up but coverage ratios still robust and group 2 loans improving.
-3. The latest results mark a positive surprise on growth and margin resilience, but core income is still below last year’s levels, signaling incomplete recovery.
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+- TCB delivered a strong QoQ rebound in profitability and loan growth in 2Q25, but YoY trends remain muted, reflecting ongoing margin and revenue pressures.
+- Asset quality is stable overall, with NPLs ticking up but Group 2 loans improving and coverage ratios still robust.
+- The bank’s NIM showed a modest recovery after a prolonged decline, signaling early signs of stabilization.
 ---
 **Profitability:**  
-TCB’s profitability regained momentum in 2Q25. Total operating income (TOI) rose 9.7% QoQ, building on the 21.5% jump in 1Q25, as lending activity picked up and fee income stabilized. However, TOI is still down 5.0% YoY, reflecting the lingering impact of margin compression and slower non-interest income. Pre-tax profit (PBT) climbed 9.2% QoQ, a second consecutive quarter of strong sequential growth, and is now flat YoY (+0.9%). ROA improved to 2.5% in 2Q25 from 2.4% in 1Q25 (well above the sector’s 2.0%), while ROE held steady at 15.8%. The profit recovery is driven by volume growth and normalized provisions, after a volatile 4Q24.
+TCB’s 2Q25 results mark a clear sequential improvement. Total operating income (TOI) rose 9.7% QoQ, building on a sharp 21.5% rebound in 1Q25, but remains down 5.0% YoY—highlighting that the bank is still regaining ground after a tough 2024. Pre-tax profit (PBT) climbed 9.2% QoQ and is now marginally positive YoY (+0.9%), a notable turnaround from negative YoY growth in 1Q25. Return on assets (ROA) and return on equity (ROE) both edged up QoQ to 2.5% and 15.8%, respectively, but are still below their 2024 peaks. The main driver is a recovery in core income, while provision expenses remain well-contained. The results are slightly ahead of expectations, given the sector’s more modest profit growth.
 **Loan Growth &amp; NIM:**  
-Loan growth surged 7.0% QoQ in 2Q25, a marked acceleration from 5.0% in 1Q25 and far outpacing the sector’s 4.2%. Year-to-date, TCB’s loan book is up 12.4%, signaling renewed risk appetite and effective execution. NIM rebounded to 3.8% in 2Q25 (from 3.6% in 1Q25), reversing a year-long decline. The margin recovery was underpinned by a modest uptick in loan yields and improved funding mix, offsetting sector-wide pressure. This shift suggests TCB is regaining pricing power and benefiting from higher-yielding segments.
+Loan growth accelerated sharply to 7.0% QoQ in 2Q25 (vs. 5.0% in 1Q25), outpacing the sector and pushing YTD growth to 12.4%. This signals a return of lending momentum, likely supported by improved credit demand and selective risk-taking. Net interest margin (NIM) ticked up to 3.8% from 3.6% in 1Q25, breaking a multi-quarter downtrend. The modest NIM recovery reflects a slight improvement in loan yields and better funding cost management, though margins remain structurally lower than a year ago.
 **Asset Quality:**  
-Asset quality remains a relative bright spot. NPL ratio ticked up to 1.26% in 2Q25 (from 1.17% in 1Q25), but still sits well below sector averages. NPL formation was stable at 0.21%, while group 2 loans dropped to 0.60%—the lowest in six quarters—reflecting improved early-stage risk management. NPL coverage remains high at 1.07x, providing a solid buffer. Provision expenses stayed contained, supporting earnings quality.
+NPL ratio edged up to 1.26% in 2Q25 from 1.17% in 1Q25, but remains low and well below sector averages. NPL formation was stable at 0.21%, indicating no material deterioration. Group 2 (special mention) loans improved to 0.60%, the lowest in six quarters, suggesting early risk signals are fading. Coverage ratio remains strong at 106.5%, providing a solid buffer. Overall, asset quality trends are stable, with no negative surprises.
 **Investment Implications:**  
-TCB’s 2Q25 results signal a return to growth leadership, with margin and loan momentum surprising positively. While topline is not yet back to peak levels, the improving trajectory and resilient asset quality support a constructive outlook. Investors should watch for further normalization in core income and sustained discipline on credit costs.</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>2025-07-30 17:40:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+TCB’s sequential recovery in profitability and loan growth, alongside stable asset quality, points to improving business momentum. The modest NIM rebound is encouraging, but sustained revenue growth will be key for further re-rating. The results are a mild positive surprise and support a constructive near-term outlook.</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:00:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB delivered a strong loan growth rebound in 1Q23, but profitability softened as topline momentum stalled and risk costs normalized upward.
@@ -4726,29 +5116,29 @@
 TPB’s growth engine is firing again, but at the cost of margin compression and rising credit risk. The latest results flag a shift from stable expansion to a more volatile risk-return profile, warranting close investor scrutiny.</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2025-07-30 17:41:03</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB’s 2Q23 results show a modest rebound in topline growth but continued pressure on profitability, with both ROA and ROE slipping further.
@@ -4765,29 +5155,29 @@
 TPB’s latest quarter highlights mounting pressure on profitability and asset quality, with loan growth losing steam and risk costs rising. The negative surprise on earnings and credit metrics suggests investors should be cautious on near-term outlook, as credit risks are materializing faster than expected.</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2025-07-30 17:41:14</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB delivered a strong rebound in topline growth in 3Q23, but profitability continued to slip as provision expenses surged and asset quality weakened further.
@@ -4804,29 +5194,29 @@
 TPB’s strong revenue recovery is overshadowed by rising credit costs and accelerating asset quality risks. The latest results are a negative surprise for earnings durability, with asset quality trends now the key watchpoint for investors.</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2025-07-30 17:41:25</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB delivered a sharp acceleration in loan growth and topline income in 4Q23, but profitability collapsed as provision expenses surged and risk costs spiked.
@@ -4843,29 +5233,29 @@
 TPB’s rapid loan expansion and margin spike are overshadowed by a collapse in profitability and thin coverage. The quarter signals a reset in risk appetite, with heavy provisioning likely to persist until asset quality stabilizes further. Investors should watch for sustained improvement in credit costs and coverage before confidence can rebuild.</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2025-07-30 17:41:36</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB delivered a sharp rebound in profitability in 1Q24, with both TOI and PBT surging sequentially, reversing the weak 4Q23.
@@ -4882,29 +5272,29 @@
 TPB’s earnings recovery in 1Q24 was stronger than expected, but the pause in loan growth and margin compression signal a more defensive posture. Investors should watch for further asset quality drift and whether topline momentum can be sustained without renewed credit expansion.</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2025-07-30 17:41:45</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB delivered a strong rebound in loan growth in 2Q24, but topline momentum reversed as TOI contracted sharply QoQ, signaling a shift in revenue dynamics.
@@ -4921,29 +5311,29 @@
 TPB’s latest results highlight a pivot: strong loan growth and improving asset quality, but with topline pressure and margin compression. The positive surprise on credit costs and coverage supports near-term earnings, but investors should watch for sustained revenue headwinds if yield pressure persists.</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2025-07-30 17:41:57</t>
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB delivered standout loan growth in 3Q24, sharply outpacing the sector, but profitability softened as topline income declined and margins compressed.
@@ -4960,29 +5350,29 @@
 TPB is prioritizing growth, but the trade-off is clear: margin and earnings pressure, with asset quality risks starting to surface. Investors should monitor whether topline recovery and risk controls can keep pace with expansion.</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2025-07-30 17:42:08</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB delivered a strong 4Q24 rebound in profitability, with TOI and net profit surging sequentially, while ROA and ROE hit new highs for the year.
@@ -4999,29 +5389,29 @@
 TPB’s 4Q24 results showcase a strong earnings recovery, robust loan growth, and a step-change in asset quality. The margin squeeze is the main headwind, but the positive surprise on credit metrics and profitability strengthens the investment case.</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2025-07-30 17:42:22</t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB’s 1Q25 profit held steady despite a sharp drop in core income, as provision expenses plunged to multi-year lows.
@@ -5038,29 +5428,68 @@
 TPB’s profit resilience is increasingly reliant on low provisions, while core income and asset quality trends are turning negative. Investors should watch for further credit deterioration and the sustainability of current earnings levels.</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2025-07-30 17:42:34</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>TPB</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Private_2</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+- TPB delivered robust loan growth in 2Q25, but profitability momentum softened as margins compressed and cost pressures persisted.
+- Asset quality improved sequentially, with lower NPL and G2 ratios, though coverage remains below recent peaks.
+- The quarter signals strong credit expansion, but earnings leverage is being held back by margin headwinds and only moderate fee income recovery.
+---
+**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**
+TPB’s total operating income (TOI) in 2Q25 rose 3.0% QoQ and rebounded 8.9% YoY, reversing the previous quarter’s double-digit decline. However, pre-tax profit slipped 3.4% QoQ, despite a sharp 68.4% QoQ jump in provision expenses from a low base. ROA and ROE both edged down sequentially to 1.59% and 16.8% respectively, reflecting margin compression and higher risk costs. While TOI growth outpaced sector peers on a YoY basis, the lack of operating leverage and rising provisions weighed on bottom-line momentum. The results were slightly below expectations, given the strong loan growth.
+**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**
+TPB’s loan book surged 8.5% QoQ and 13.7% YTD, outpacing sector averages and marking its strongest quarterly expansion in over a year. This acceleration was likely driven by targeted retail and SME lending, as well as a more supportive credit environment. However, net interest margin (NIM) slipped to 3.19% from 3.48% in 1Q25, continuing a multi-quarter downtrend. The margin squeeze reflects lower loan yields and possibly higher funding costs, despite the uptick in loan growth. Sustaining profitability will require stabilization in NIM or a stronger fee income contribution.
+**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**
+Asset quality showed sequential improvement: NPL ratio fell to 2.05% from 2.27% in 1Q25, and Group 2 loans also declined. NPL coverage improved to 62.7% but remains below the 4Q24 peak. While NPL and G2 formation data were unavailable for the quarter, the trend suggests better risk discipline and some recovery in collections. However, coverage ratios are still not at sector highs, indicating some vulnerability if macro conditions deteriorate.
+**Investment Implications:**  
+TPB’s strong loan growth is a clear positive, but margin pressure and only modest improvement in asset quality coverage temper the earnings outlook. Investors should watch for stabilization in NIM and further improvement in coverage ratios to support a more constructive view.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:00:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB delivered double-digit YoY profit growth in 1Q23, but sequential earnings softened as topline momentum stalled and provisions rebounded.
@@ -5077,29 +5506,29 @@
 VCB’s 1Q23 results show resilient underlying profitability and strong credit buffers, but with clear signs of margin and asset quality pressure emerging. The sequential profit dip is not a negative surprise, but investors should watch for further margin compression and credit migration in coming quarters.</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2025-07-30 17:42:49</t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB’s 2Q23 results show a clear loss of momentum: both topline and bottom-line earnings declined sequentially, with profitability ratios retreating to multi-quarter lows.
@@ -5116,29 +5545,29 @@
 VCB’s 2Q23 results highlight a shift from growth to defense. While asset quality is holding up, the sharp slowdown in earnings and loan expansion signals a more cautious operating environment. Investors should watch for signs of renewed growth or further margin and income pressure in coming quarters.</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2025-07-30 17:43:02</t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB’s 3Q23 results show a sharp sequential drop in core income and profit, with profitability ratios stabilizing at lower levels after a volatile first half.
@@ -5155,29 +5584,29 @@
 VCB’s latest quarter signals a clear downshift in profitability and asset quality, with margin compression and rising credit costs likely to weigh on near-term earnings. Investors should watch for further slippage in core income and coverage, as the cycle turns less favorable.</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2025-07-30 17:43:13</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB delivered a strong profit rebound in 4Q23, driven by a sharp loan surge and normalized provision expenses, but topline growth remains subdued versus last year.
@@ -5194,29 +5623,29 @@
 VCB’s 4Q23 results show a return to profit growth and strong loan expansion, but with underlying margin and topline headwinds. Asset quality is stabilizing, yet the earnings recovery is provision-led rather than revenue-driven. Investors should watch for sustained margin pressure and the durability of credit quality improvements into 2024.</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2025-07-30 17:43:27</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB delivered a strong rebound in topline growth in 1Q24, but profitability softened sequentially as provision expenses normalized and margins only partially recovered.
@@ -5233,29 +5662,29 @@
 VCB’s topline rebound is encouraging, but the combination of stalling loan growth and rising asset quality risks tempers the outlook. The latest results are a mild negative surprise, with risk costs and credit trends now the key watchpoints for investors.</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2025-07-30 17:43:39</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB delivered a sharp rebound in loan growth in 2Q24, but profitability softened as topline momentum stalled and margins compressed.
@@ -5272,29 +5701,29 @@
 VCB’s pivot to faster loan growth is clear, but margin and topline pressure are weighing on profitability. The improvement in asset quality and coverage is a bright spot, but unless core income growth recovers, returns may remain under pressure. Investors should watch for signs of NIM stabilization and topline recovery to sustain the growth cycle.</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2025-07-30 17:43:51</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB delivered a solid 3Q24 rebound in profitability, with PBT up 5.8% QoQ and 18.2% YoY, driven by sharply lower provision expenses despite flat topline growth.
@@ -5311,29 +5740,29 @@
 VCB’s 3Q24 results show resilient profitability, underpinned by prudent risk management and strong coverage, but with clear pressure on core income and margins. The positive profit surprise is provision-driven; investors should watch for sustained topline recovery and margin stabilization to support future earnings quality.</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2025-07-30 17:44:05</t>
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB closed 4Q24 with a strong rebound in topline growth and loan expansion, but profitability was flat as margin pressure and higher costs offset revenue gains.
@@ -5350,29 +5779,29 @@
 VCB’s 4Q24 results highlight resilient topline growth and a sharp improvement in asset quality, but persistent NIM pressure and flat profit growth limit near-term upside. The positive surprise on credit metrics supports a constructive view, though investors should watch for further margin headwinds and cost discipline.</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2025-07-30 17:44:16</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB’s 1Q25 results show resilient profitability, with net profit edging up despite a dip in core income and softer loan growth; however, margin compression and a mild uptick in asset quality risks are emerging.
@@ -5389,29 +5818,65 @@
 VCB’s latest results reinforce its defensive profile: steady profits, strong asset quality, and disciplined risk costs. However, margin compression and slower loan growth are key headwinds. Investors should watch for further pressure on NIM and any sustained rise in new problem loans.</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2025-07-30 17:44:30</t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>SOCB</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+- VCB delivered a strong rebound in loan growth and top-line income in 2Q25, but profitability ratios continued to edge down as margin pressure persisted.
+- Asset quality remained resilient, with NPL and Group 2 ratios improving and coverage staying robust, reinforcing VCB’s defensive profile.
+---
+**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**
+VCB’s total operating income (TOI) rose 3.5% QoQ and 6.7% YoY in 2Q25, reversing the mild contraction seen in 1Q25. This recovery was driven by a surge in loan growth and likely some stabilization in fee income. Pre-tax profit (PBT) climbed 1.6% QoQ and 9.1% YoY, reflecting both the TOI rebound and continued discipline on provisioning. However, profitability ratios continued their gradual slide: ROA dipped to 1.63% in 2Q25 (from 1.66% in 1Q25), and ROE softened to 16.9% (from 17.3%). This marks a consistent downtrend from the high base in early 2024, mainly due to margin compression and a higher capital base. The results were broadly in line with expectations, with no major positive surprise on the bottom line.
+**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**
+VCB’s loan book expanded by 6.2% QoQ in 2Q25, a sharp acceleration from the muted 1.1% in 1Q25 and well ahead of the sector’s 5.0%. Year-to-date loan growth reached 7.4%, signaling a strong push into the mid-year. However, net interest margin (NIM) remained under pressure, ticking up only marginally to 2.64% in 2Q25 (from 2.64% in 1Q25), and still well below the 3.15% level in 1Q24. The persistent margin squeeze reflects ongoing competition for deposits and a lower loan yield, which edged down further to 5.47%. While loan growth is a clear positive, the lack of NIM recovery is a key watchpoint for earnings momentum.
+**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**
+Asset quality trends remain a bright spot. The NPL ratio improved to 1.00% in 2Q25 (from 1.03% in 1Q25), and Group 2 loans also declined to 0.25%. NPL coverage remained high at 214%, far above sector averages, underscoring VCB’s conservative provisioning. Formation data was not available for the quarter, but the declining ratios and stable coverage suggest no new stress. Overall, VCB’s asset quality continues to anchor its premium valuation and defensive appeal, with no negative surprises this quarter.</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:00:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB delivered a strong topline in 1Q23, with TOI up 5.2% QoQ and 19.2% YoY, but profit momentum softened as provision expenses surged and ROE continued to drift down.
@@ -5428,29 +5893,29 @@
 VIB’s strong revenue growth is overshadowed by deteriorating asset quality and rising risk costs. The negative surprise on loan growth and coverage signals caution, with future earnings likely to face continued pressure from credit costs. Investors should closely monitor credit trends and provisioning in coming quarters.</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2025-07-30 17:44:42</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB delivered a strong 2Q23, with TOI and net profit rebounding sharply QoQ and maintaining robust double-digit YoY growth, despite a further rise in provision expenses.
@@ -5467,29 +5932,29 @@
 VIB’s strong income growth and margin resilience are clear positives, but persistent asset quality pressures—especially weak coverage—temper the outlook. The quarter marks a positive surprise on earnings, but investors should remain alert to further credit risk materialization.</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2025-07-30 17:44:56</t>
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB delivered a sharp rebound in topline growth in 3Q23, but profitability softened as provision expenses surged and risk costs weighed on the bottom line.
@@ -5506,29 +5971,29 @@
 VIB’s topline growth and margin resilience are clear positives, but rising risk costs and persistent asset quality pressures are tempering earnings momentum. The latest results highlight a shift toward more cautious provisioning, suggesting that credit risks are being actively managed but remain a key area for investors to monitor.</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2025-07-30 17:45:10</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB’s 4Q23 saw a sharp slowdown in profitability, with net profit and returns dropping sequentially as provision expenses surged and topline momentum reversed.
@@ -5545,29 +6010,29 @@
 VIB’s 4Q23 print highlights a trade-off: aggressive loan growth and improved asset quality optics, but at the cost of margin pressure and weaker profitability. The negative earnings surprise and margin compression warrant a more cautious stance, as risk costs remain elevated and core returns soften.</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2025-07-30 17:45:21</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB’s 1Q24 saw a modest profit rebound driven by sharply lower provision expenses, but core income and loan growth momentum both stalled.
@@ -5584,29 +6049,29 @@
 VIB’s 1Q24 profit beat is provision-driven, masking underlying softness in core income, loan growth, and asset quality. Persistent margin compression and rising credit risk are key concerns for earnings durability. The quarter is a negative surprise on business fundamentals, warranting caution.</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2025-07-30 17:45:35</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB’s 2Q24 results show a sharp drop in profitability, with core income and bottom line both under pressure from margin compression and higher provisions.
@@ -5623,29 +6088,29 @@
 VIB’s latest results highlight a challenging mix: loan growth is back, but profitability and asset quality are under pressure. The negative surprise on earnings and coverage signals rising risk to future returns, warranting caution until margin and credit trends stabilize.</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2025-07-30 17:45:50</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB’s 3Q24 results show accelerating loan growth but continued pressure on profitability, with both TOI and PBT declining sequentially and year-on-year.
@@ -5662,29 +6127,29 @@
 VIB’s rapid loan expansion is being overshadowed by margin compression and rising asset quality risks. The latest results reinforce a cautious stance: profitability is under pressure, and credit costs may rise further if slippage continues. Investors should watch for signs of stabilization in margins and coverage before confidence can recover.</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2025-07-30 17:46:02</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB delivered a sharp rebound in topline and profit in 4Q24, breaking a multi-quarter downtrend, but core income remains below last year’s level.
@@ -5701,29 +6166,29 @@
 VIB’s 4Q24 results are a positive surprise after a challenging year, with profit and asset quality stabilizing. Sustained margin pressure and weak core income remain key watchpoints, but the improved credit profile and loan momentum support a more constructive outlook heading into 2025.</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2025-07-30 17:46:14</t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB’s 1Q25 results show headline profit holding steady, but this masks a sharp drop in core income and continued margin compression.
@@ -5740,29 +6205,68 @@
 VIB’s earnings are increasingly reliant on provision cuts rather than healthier revenue or risk metrics. Weak income trends, margin compression, and rising asset quality stress point to mounting risks for earnings durability. The negative surprise on asset quality and coverage should weigh on investor sentiment.</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2025-07-30 17:46:23</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>VIB</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Private_2</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+1. VIB delivered a strong rebound in profitability in 2Q25, driven by a recovery in core income and disciplined cost of risk.
+2. Loan growth accelerated sharply QoQ, but NIM remains under pressure, reflecting ongoing margin headwinds.
+3. Asset quality improved modestly, with lower Group 2 loans and stable NPLs, though coverage ratios have slipped further.
+---
+**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**
+VIB’s 2Q25 results mark a clear turnaround in profitability. Total operating income (TOI) rose 11.2% QoQ, reversing the previous quarter’s double-digit decline. This rebound was fueled by stronger loan growth and a partial recovery in fee income. Pre-tax profit (PBT) climbed 7.2% QoQ and surged 23.4% YoY, outpacing sector peers and beating expectations after a muted 1Q25. Return on assets (ROA) ticked up to 1.6% from 1.6% in 1Q25, while return on equity (ROE) improved to 19.0%, regaining ground lost over the past year. The key driver was a sharp drop in provision expenses YoY, reflecting better credit cost control.
+**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**
+Loan growth accelerated to 6.7% QoQ in 2Q25, more than doubling from 1Q25’s pace and outstripping the sector’s 6.9%. On a YoY basis, loans expanded 33.5%, underscoring VIB’s aggressive balance sheet expansion. However, net interest margin (NIM) edged up only slightly to 3.1% from 3.0% in 1Q25, remaining well below last year’s levels. The persistent margin compression reflects lower loan yields and heightened funding costs, with loan yield stabilizing at 8.8%. The modest NIM uptick signals early signs of stabilization, but margin recovery remains a key watchpoint.
+**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**
+Asset quality trends were broadly stable. The NPL ratio eased to 3.56% from 3.79% in 1Q25, while Group 2 loans fell to 2.90%—the lowest in six quarters—pointing to improved early-stage delinquencies. NPL formation data is unavailable for 2Q25, but the drop in Group 2 formation in 1Q25 suggests risk normalization. However, the NPL coverage ratio slipped further to 37.2%, now well below sector averages, raising questions about provisioning adequacy if asset quality were to deteriorate.
+**Investment Implications:**  
+VIB’s 2Q25 results are a positive surprise, with profit momentum returning and asset quality stabilizing. The main risk remains margin pressure and low coverage. Sustained loan growth and further NIM recovery will be critical to maintain earnings momentum.</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:01:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB’s 1Q23 results show a sharp drop in profitability, with both TOI and net profit down significantly YoY and only a modest sequential recovery from a weak 4Q22.
@@ -5779,29 +6283,29 @@
 VPB’s latest results reinforce a cautious stance. While loan growth is holding up, profitability and asset quality are under significant strain. Margin compression and weak coverage ratios are key risks for earnings durability, and the negative surprise on core income and credit costs should weigh on sentiment.</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2025-07-30 17:46:41</t>
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB’s 2Q23 saw a modest rebound in topline and profit growth QoQ, but both remain well below last year’s levels, reflecting persistent revenue and margin pressure.
@@ -5818,29 +6322,29 @@
 VPB’s growth engine is intact, but margin and credit quality headwinds are weighing on earnings. The latest results reinforce a cautious stance, with downside risks from asset quality outweighing the positives from loan expansion.</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2025-07-30 17:46:53</t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB’s 3Q23 saw a sharp rebound in loan growth, but profitability weakened further as core income contracted and margins compressed.
@@ -5857,29 +6361,29 @@
 VPB’s 3Q23 results highlight a trade-off: aggressive loan growth is offset by margin compression and weak core profitability, with only modest relief on asset quality. The positive surprise on NPL formation is tempered by thin coverage and subdued earnings, keeping risk-reward finely balanced for investors.</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2025-07-30 17:47:08</t>
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB delivered a sharp rebound in topline growth in 4Q23, but profitability softened on higher provision expenses and margin volatility.
@@ -5896,29 +6400,29 @@
 VPB’s strong loan growth and margin recovery are constructive, but persistent risk costs and low ROE temper the outlook. The latest results show progress on asset quality, yet earnings normalization will depend on further credit cost containment. Investors should watch for sustained margin stability and further improvements in profitability.</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2025-07-30 17:47:19</t>
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB delivered a sharp rebound in profitability in 1Q24, with net profit and returns surging on the back of stable topline and sharply lower provision expenses.
@@ -5935,29 +6439,29 @@
 VPB’s profit surge is a positive surprise, but the underlying drivers—flat revenue, slower loan growth, and rising early risk—suggest the recovery is fragile. Investors should focus on whether asset quality pressures build, as further provision cuts may not be sustainable.</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2025-07-30 17:47:32</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB delivered a standout 2Q24, with TOI and profit surging on the back of robust loan growth and margin recovery, outpacing sector trends.
@@ -5974,29 +6478,29 @@
 VPB’s 2Q24 marks a clear inflection in growth and profitability, but the earnings beat is shadowed by rising asset quality risks and weaker coverage. Investors should weigh the strong topline momentum against the need for tighter credit risk management in coming quarters.</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2025-07-30 17:47:45</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB delivered a strong profitability beat in 3Q24, with net profit and returns surging on robust topline growth and sharply lower provision expenses.
@@ -6013,29 +6517,29 @@
 VPB’s 3Q24 marks a return to earnings momentum, with risk costs under control and asset quality stabilizing. The moderation in loan growth and margin compression warrant monitoring, but the positive surprise on credit metrics and profitability should support investor sentiment.</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2025-07-30 17:48:00</t>
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB delivered a standout 4Q24, with net profit and topline growth sharply accelerating both sequentially and year-on-year, driven by a surge in loan expansion and margin recovery.
@@ -6052,29 +6556,29 @@
 VPB’s 4Q24 results mark a clear inflection, with strong growth, margin recovery, and improving asset quality. The positive surprise on earnings and credit metrics supports a constructive outlook, though the scale of loan expansion and provision volatility remain key watchpoints for 2025.</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2025-07-30 17:48:12</t>
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB delivered robust loan growth in 1Q25, outpacing the sector, but profitability softened sharply after a strong 4Q24 as topline momentum reversed and risk costs stayed elevated.
@@ -6091,68 +6595,68 @@
 VPB’s high-octane loan growth is now coming with clear trade-offs: margin compression and mounting asset quality risks. The sharp drop in profitability and coverage is a negative surprise, signaling that earnings durability will depend on how quickly VPB can stabilize credit costs and restore margin resilience. Investors should watch for further slippage in asset quality and margin pressure in coming quarters.</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2025-07-30 17:48:37</t>
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>2Q25</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Key Takeaways:
-1. VPB delivered a sharp rebound in profitability in 2Q25, with PBT up 23.9% QoQ and 38.3% YoY, driven by strong loan growth and lower provision expenses.
-2. Loan expansion accelerated to 13.8% QoQ, far outpacing the sector, but NIM compressed further as loan yields declined.
-3. Asset quality improved across the board, with NPL and group 2 ratios both dropping and coverage rebuilding, signaling a positive surprise on credit costs.
-----------------------------------
-Profitability:
-VPB’s 2Q25 results mark a clear turnaround in earnings momentum. Total operating income (TOI) rose 6.2% QoQ, reversing the prior quarter’s dip, though YoY growth moderated to 2.5% after a strong 1Q25. Net profit (PBT) surged 23.9% QoQ and 38.3% YoY, as provision expenses fell 11.4% sequentially. ROA improved to 1.9% from 1.6% in 1Q25, while ROE jumped to 12.8%—matching its best level in over a year and closing the gap with sector peers. The key driver was a combination of robust loan growth and sharply lower risk costs, offsetting continued margin pressure. This earnings beat is a positive surprise after a soft 1Q25.
-Loan Growth &amp; NIM:
-Loan book momentum accelerated dramatically, up 13.8% QoQ (vs. sector’s 4.2%), pushing YTD growth to 20.0%. This outsized expansion reflects aggressive lending, likely targeting higher-volume segments. However, NIM compressed further to 5.3% (down 56bps QoQ), as loan yields slipped to 10.8%. The margin squeeze suggests VPB is prioritizing volume over pricing, with competitive pressures and asset mix shifts weighing on spreads.
-Asset Quality:
-Asset quality metrics improved across the board. NPL ratio dropped to 4.0% (from 4.7% in 1Q25), and group 2 loans fell to 3.0%. Both NPL and group 2 formation rates declined sharply, signaling lower new problem loan inflows. NPL coverage rebuilt to 52.2%, up from 47.4% prior, though still below sector averages. The improvement in credit costs and formation is a clear positive surprise, especially given the pace of loan growth.
-Investment Implications:
-VPB’s 2Q25 results highlight a return to earnings growth, underpinned by aggressive loan expansion and improving asset quality. While margin compression remains a headwind, the positive surprise on credit costs and profit trajectory should support sentiment. Investors should watch for sustainability of loan growth and further margin trends.</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>2025-07-30 17:48:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+- VPB delivered a sharp rebound in profitability in 2Q25, driven by strong loan growth and lower provision expenses, despite continued NIM compression.
+- Asset quality improved notably, with both NPL and Group 2 ratios declining and new problem loan formation easing.
+- The bank’s aggressive loan expansion and improving credit costs are the main performance themes, but persistent margin pressure remains a watchpoint.
+---
+**Profitability:**  
+VPB’s 2Q25 results mark a clear turnaround in profitability. Net profit before tax surged 23.9% QoQ and 38.3% YoY, reversing the previous quarter’s dip. This was underpinned by a 6.2% QoQ rise in total operating income (TOI), as well as a 11.4% QoQ drop in provision expenses. ROA climbed to 1.9% in 2Q25 from 1.6% in 1Q25, while ROE jumped to 12.8% from 10.4%, returning to levels last seen in 4Q24. The rebound reflects both top-line recovery and improved credit cost control, signaling positive momentum after a soft 1Q25.
+**Loan Growth &amp; NIM:**  
+Loan growth was the standout driver, with balances up 13.8% QoQ and 20.0% YTD—well ahead of sector averages. This aggressive expansion powered revenue growth but came at the cost of further NIM compression, which fell to 5.3% in 2Q25 from 5.7% in 1Q25. The margin squeeze reflects lower loan yields and likely competitive pricing to support loan growth. While volume gains offset margin pressure this quarter, the sustainability of this trade-off will be key for future earnings.
+**Asset Quality:**  
+Asset quality trends were a positive surprise. The NPL ratio dropped to 4.0% from 4.7% QoQ, and Group 2 loans fell to 3.0% from 4.3%. Both NPL and Group 2 formation rates moderated sharply, indicating a slowdown in new problem loans. The NPL coverage ratio improved to 52.2%, up from 47.4% in 1Q25, reflecting strengthened provisioning. The improvement in asset quality, alongside lower credit costs, suggests that earlier concerns about risk migration are easing.
+**Investment Implications:**  
+VPB’s 2Q25 performance signals a return to growth, with strong loan momentum and improving asset quality offsetting margin headwinds. The positive surprise in profitability and credit costs bodes well for near-term earnings, but investors should monitor NIM trends and the sustainability of rapid loan growth.</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:01:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB delivered a sharp rebound in profitability in 1Q23, with both TOI and net profit recovering from a weak 4Q22, but underlying trends remain volatile.
@@ -6169,29 +6673,29 @@
 ABB’s earnings recovery in 1Q23 is encouraging, but the underlying drivers—contracting loans, margin compression, and rising credit risk—suggest the rebound may not be durable. Investors should monitor asset quality closely, as further slippage could pressure both profitability and capital.</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2025-07-30 17:49:01</t>
         </is>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB’s 2Q23 results show a sharp reversal in profitability, with net profit and returns plunging QoQ and YoY, as surging provision expenses overwhelmed modest topline growth.
@@ -6208,29 +6712,29 @@
 ABB’s latest results highlight a challenging earnings and risk environment. The combination of margin compression, surging credit costs, and deteriorating asset quality is a clear negative surprise, raising concerns about earnings durability and capital protection going forward.</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2025-07-30 17:49:12</t>
         </is>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C164" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB’s 3Q23 results show a sharp reversal in profitability, with both TOI and net profit dropping steeply QoQ and YoY, as margin compression and weak revenue weighed on returns.
@@ -6247,29 +6751,29 @@
 ABB’s latest results highlight deepening profitability and growth challenges, with margin and topline pressure outweighing modest asset quality gains. The negative surprise on earnings and loan growth will likely weigh on sentiment until core revenue and margin trends stabilize.</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2025-07-30 17:49:25</t>
         </is>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB delivered a sharp turnaround in loan growth and core income in 4Q23, but profitability swung deep into negative territory on surging provisions and weak margins.
@@ -6286,29 +6790,29 @@
 ABB’s return to loan growth and better asset quality are positives, but persistent margin compression and volatile earnings keep risk high. The latest quarter is a reminder that while business momentum is returning, sustainable profitability will depend on margin recovery and disciplined risk management.</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2025-07-30 17:49:45</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+    <row r="166">
+      <c r="A166" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB’s 1Q24 saw a sharp reversal in loan growth and topline, with profitability rebounding from a weak 4Q23 but still lagging on a YoY basis.
@@ -6325,29 +6829,29 @@
 ABB’s 1Q24 rebound in headline profit is driven by provision cuts, not underlying growth. Weak topline, margin pressure, and rising asset quality risks suggest the recovery is fragile. Investors should watch for further credit deterioration and signs of sustainable revenue traction before turning more constructive.</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2025-07-30 17:49:54</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB delivered a sharp turnaround in 2Q24, with both profitability and loan growth rebounding strongly after a weak start to the year.
@@ -6364,29 +6868,29 @@
 ABB’s 2Q24 marks a clear inflection, with strong loan and income growth, margin recovery, and improving asset quality. The positive surprise on profitability and credit costs supports a more constructive outlook, though sustainability will depend on maintaining asset quality and stabilizing loan yields.</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2025-07-30 17:50:03</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB’s 3Q24 saw a sharp reversal in profitability, with net losses and negative returns, as topline momentum collapsed and provision expenses surged.
@@ -6403,29 +6907,29 @@
 ABB’s 3Q24 results highlight a fragile earnings base, with positive asset quality trends offset by severe topline and margin pressure. The negative profit surprise and margin compression warrant caution, even as credit risks moderate. Investors should watch for stabilization in core income before confidence can rebuild.</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2025-07-30 17:50:13</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+    <row r="169">
+      <c r="A169" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB delivered a sharp turnaround in 4Q24, with TOI and net profit rebounding strongly QoQ after a volatile year, but underlying loan growth stalled.
@@ -6442,29 +6946,29 @@
 ABB’s earnings rebound in 4Q24 is encouraging, but the lack of loan growth and renewed asset quality pressure temper the outlook. The latest results are a positive surprise on profit, but underlying credit risks and margin headwinds remain unresolved. Investors should monitor for sustained improvement in core lending and risk metrics before turning more constructive.</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2025-07-30 17:50:24</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB’s 1Q25 results show a sharp reversal in topline momentum, with both TOI and net profit down sequentially after a strong 4Q24, but YoY growth remains positive.
@@ -6481,29 +6985,68 @@
 ABB’s 1Q25 is a mixed bag: strong YoY profit growth but a clear sequential slowdown, with risk aversion weighing on loan and margin trends. The stable asset quality is a positive, but the lack of growth and earnings volatility will likely temper investor enthusiasm.</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2025-07-30 17:50:33</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Private_3</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**  
+1. ABB delivered a sharp rebound in profitability in 2Q25, driven by a surge in TOI and robust loan growth, with ROA and ROE reaching multi-year highs.  
+2. Loan growth momentum accelerated both QoQ and YoY, while NIM stabilized, reflecting improved loan yields.  
+3. Asset quality improved materially, with NPL and Group 2 ratios dropping and coverage ratios strengthening.
+---
+**Profitability:**  
+ABB’s 2Q25 results mark a significant turnaround in profitability. Net profit (proxied by PBT) more than doubled QoQ, rising 202.3% from 1Q25, and surged 279.4% YoY. This was fueled by a strong 81.3% QoQ jump in total operating income (TOI), reversing the prior quarter’s decline. ROA and ROE soared to 2.1% and 27.0%, respectively, both at multi-year highs and well above recent trends. The sharp improvement was mainly driven by robust revenue growth outpacing higher provision expenses, signaling a positive surprise versus expectations and a clear inflection in earnings momentum.
+**Loan Growth &amp; NIM:**  
+Loan growth accelerated sharply, up 17.0% QoQ and 16.2% YTD, a marked turnaround from flat-to-negative growth in prior quarters. This expansion was the key driver behind the TOI surge, as loan yields also improved to 7.3% in 2Q25 from 7.2% in 1Q25. NIM edged up to 1.95% from 1.87% in 1Q25, reflecting better asset pricing and possibly a more favorable funding mix. The combination of volume and margin expansion underpins the strong revenue trajectory, positioning ABB ahead of sector loan growth trends.
+**Asset Quality:**  
+Asset quality metrics improved across the board. The NPL ratio dropped to 2.7% in 2Q25 from 3.8% in 1Q25, and Group 2 loans fell to 0.7% from 1.2%. Coverage ratios strengthened to 56.9%, well above the sector’s 43.5%. The improvement reflects both active risk management and the impact of strong loan growth diluting legacy problem loans. Provisioning remained elevated but was more than offset by revenue gains. The asset quality turnaround reduces risk and supports a more sustainable earnings outlook.
+**Investment Implications:**  
+ABB’s 2Q25 results represent a positive inflection, with accelerating growth, margin recovery, and cleaner asset quality. The strong earnings beat and improved risk profile should support a re-rating, with momentum likely to persist if current trends hold.</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:01:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB’s 1Q23 results show a sharp pullback in topline and profit after a strong 4Q22, with both TOI and PBT down sequentially, but YoY growth remains solid.
@@ -6520,29 +7063,29 @@
 BAB’s 1Q23 is a mixed bag: resilient YoY profit and strong asset quality, but with clear signs of topline pressure, margin squeeze, and stalling loan growth. The margin compression and uptick in early risk signals warrant close investor attention, as the positive surprise on asset quality is offset by negative trends in growth and profitability.</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2025-07-30 17:50:49</t>
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB’s 2Q23 results show a sharp drop in profitability, with PBT and returns falling well below both the previous quarter and last year, despite a modest recovery in topline growth.
@@ -6559,29 +7102,29 @@
 BAB’s 2Q23 marks a clear setback, with profitability and asset quality both deteriorating. The results signal rising risk and earnings volatility, warranting caution until credit costs and margins stabilize.</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2025-07-30 17:51:00</t>
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB’s 3Q23 results show a sharp deterioration in profitability, with both TOI and net profit plunging sequentially and year-on-year, as margin compression and provision swings weigh on returns.
@@ -6598,29 +7141,29 @@
 BAB’s latest results highlight a challenging earnings outlook, with margin compression and asset quality slippage outweighing modest loan growth. The negative surprise on profitability and coverage ratios suggests investors should remain cautious on near-term recovery prospects.</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2025-07-30 17:51:12</t>
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB delivered a sharp rebound in profitability in 4Q23, with both TOI and net profit surging sequentially, but the improvement was driven by volatile provision swings rather than core business momentum.
@@ -6637,29 +7180,29 @@
 BAB’s headline profit rebound is eye-catching but rests on unsustainable provision swings. Core growth and margin trends remain soft, while asset quality slippage is now a clear red flag. Investors should focus on underlying credit risks and the durability of earnings, as the latest results are a positive surprise on profit but negative on risk.</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2025-07-30 17:51:26</t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB’s 1Q24 results show a sharp pullback in profitability and core income after a strong 4Q23, with both ROA and ROE retreating but still above 1Q23 levels.
@@ -6676,29 +7219,29 @@
 BAB’s earnings cycle is turning more volatile, with asset quality now the main concern. While margins are holding up, the sharp rise in NPLs and falling coverage could weigh on future profitability. Investors should watch for further credit slippage and signs of stabilization in core income.</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2025-07-30 17:51:39</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+    <row r="177">
+      <c r="A177" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="D177" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB’s 2Q24 results show a sharp slowdown in profitability, with both ROA and ROE retreating as topline growth stalled and provision reversals faded.
@@ -6715,29 +7258,29 @@
 BAB’s 2Q24 results highlight mounting asset quality risks and a stalling profit engine. The negative surprise on credit costs and coverage should weigh on sentiment, with investors needing to watch for further slippage in coming quarters.</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2025-07-30 17:51:51</t>
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+    <row r="178">
+      <c r="A178" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB delivered a solid rebound in profitability in 3Q24, with PBT up 33.4% QoQ and 151.8% YoY, driven by a recovery in TOI and sharply lower provision expenses.
@@ -6754,29 +7297,29 @@
 BAB’s 3Q24 performance is a positive surprise, with earnings rebounding on lower provisions and better asset quality. However, margin compression and still-weak coverage ratios highlight areas to watch. The results support a cautiously constructive outlook, but sustained improvement in core profitability and risk buffers will be key for investor confidence.</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2025-07-30 17:52:04</t>
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="179">
+      <c r="A179" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB delivered a strong 4Q24 finish, with net profit and PBT rebounding sharply QoQ on the back of surging TOI and a reversal in provision expenses.
@@ -6793,29 +7336,29 @@
 BAB’s 4Q24 results mark a clear inflection, with strong profit recovery, accelerating loan growth, and improving asset quality. The positive surprise on provisions and earnings momentum positions BAB well for 2025, but investors should monitor loan yield pressure and coverage ratios as growth resumes.</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2025-07-30 17:52:19</t>
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+    <row r="180">
+      <c r="A180" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB’s 1Q25 results show a pullback in profitability after a strong 4Q24, with both TOI and net profit declining sequentially, though YoY trends remain positive.
@@ -6832,29 +7375,67 @@
 BAB’s 1Q25 was a reset after a strong 4Q24, with profitability normalizing and loan growth momentum easing. Asset quality and coverage remain strengths, but margin and topline trends warrant close monitoring. The results are broadly in line with expectations, with no major surprises—investors should watch for signs of renewed growth or further margin compression ahead.</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2025-07-30 17:52:29</t>
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>BAB</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Private_3</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+- BAB’s 2Q25 results show accelerating loan growth and resilient asset quality, but profitability momentum softened as margins compressed and provisions stayed elevated.
+- Net interest margin (NIM) drifted lower, weighing on returns, while coverage ratios improved and NPLs remained well below sector averages.
+---
+**Profitability:**  
+BAB’s total operating income (TOI) rebounded 3.6% QoQ in 2Q25 after a weak 1Q25, but remained below the 4Q24 peak. The YoY TOI growth of 17.2% signals strong underlying business expansion, yet net profit (PBT) fell 17.3% QoQ as provision expenses rose and NIM slipped. Return on assets (ROA) and return on equity (ROE) both declined sequentially to 0.54% and 8.0%, respectively, reflecting margin pressure and higher risk costs. Despite this, YoY PBT growth surged 49.4%, highlighting a favorable base effect and improved core earnings. The softer QoQ profitability is a negative surprise versus the strong finish to 2024, mainly due to margin compression and provision normalization.
+**Loan Growth &amp; NIM:**  
+Loan growth accelerated to 3.5% QoQ in 2Q25, up from 1.4% in 1Q25, and reached 5.0% YTD—outpacing sector trends. This momentum was driven by robust demand and likely targeted lending segments. However, NIM slipped further to 2.05% from 2.12% in 1Q25, as loan yields stabilized but funding costs likely edged higher. The margin compression is the key headwind, limiting the pass-through of strong loan growth to bottom-line results. Sustained loan expansion is a positive, but margin trends warrant close monitoring.
+**Asset Quality:**  
+BAB’s asset quality remains a clear strength. NPL ratio was steady at 1.25% in 2Q25, far below the sector’s 3.1%. Group 2 loans also stayed low at 0.44%. NPL coverage improved to 101.1%, providing a solid buffer. NPL and G2 formation data were unavailable for the quarter, but prior trends showed benign new stress. The combination of stable NPLs and rising coverage suggests prudent risk management, supporting the investment case even as profitability faces near-term pressure.
+**Investment Implications:**  
+BAB’s strong loan growth and asset quality underpin its franchise, but margin compression and higher provisions are weighing on returns. The latest results are a mixed bag: positive on growth and credit, but softer on profitability. Sustained margin pressure could cap upside unless offset by further efficiency gains or a turn in funding costs.</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:01:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB’s 1Q23 results show a sharp drop in profitability, with both TOI and net profit down significantly QoQ and YoY, as revenue pressure and weaker provision tailwinds weighed on the bottom line.
@@ -6871,29 +7452,29 @@
 BVB’s 1Q23 marks a negative inflection: topline and profit under pressure, margins squeezed, and asset quality risks building. The strong loan growth is overshadowed by deteriorating fundamentals, warranting caution on near-term outlook.</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2025-07-30 17:52:45</t>
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+    <row r="183">
+      <c r="A183" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB’s 2Q23 results show a modest topline recovery but continued sharp deterioration in profitability, with ROA and ROE hitting multi-year lows.
@@ -6910,29 +7491,29 @@
 BVB’s weak profitability and escalating asset quality risks overshadow the modest topline recovery and NIM rebound. The latest results reinforce a cautious stance, with negative surprises on both earnings and credit quality. Investors should monitor for further slippage and signs of stabilization before turning constructive.</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2025-07-30 17:52:57</t>
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="184">
+      <c r="A184" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB delivered a sequential rebound in profitability in 3Q23, driven by a recovery in core income and sharply lower provision expenses, but YoY trends remain weak.
@@ -6949,29 +7530,29 @@
 BVB’s 3Q23 results show early signs of stabilization, with improved profitability and asset quality. However, weak loan growth and thin coverage ratios suggest the recovery is tentative. Investors should watch for sustained income momentum and further strengthening of credit buffers before confidence can fully return.</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>2025-07-30 17:53:09</t>
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+    <row r="185">
+      <c r="A185" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB delivered a strong rebound in topline growth in 4Q23, but profitability sharply deteriorated as provision expenses surged, dragging ROA and ROE to multi-year lows.
@@ -6988,29 +7569,29 @@
 BVB’s strong loan and revenue growth are offset by heavy provisioning and weak profitability. The latest results highlight a cautious approach to risk, but investors should watch for further earnings pressure if credit costs stay elevated.</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>2025-07-30 17:53:23</t>
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+    <row r="186">
+      <c r="A186" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB delivered a sharp turnaround in profitability in 1Q24, with net profit and returns rebounding to multi-year highs, driven by strong topline growth and normalized provisions.
@@ -7027,29 +7608,29 @@
 BVB’s earnings rebound is a positive surprise, driven by strong revenue and cost control. However, the pause in loan growth and rising asset quality risks warrant close monitoring, as future credit costs could pressure returns if slippage persists.</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>2025-07-30 17:53:34</t>
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+    <row r="187">
+      <c r="A187" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB delivered a strong 2Q24 with accelerating topline and profit growth, as both TOI and PBT posted robust sequential and YoY gains, driving ROA and ROE to new highs.
@@ -7066,29 +7647,29 @@
 BVB’s 2Q24 results show a clear turnaround in profitability and margin, underpinned by strong revenue growth and disciplined risk management. The positive surprise on earnings and asset quality supports a constructive outlook, though investors should watch for sustained loan growth and further margin resilience.</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>2025-07-30 17:53:47</t>
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+    <row r="188">
+      <c r="A188" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB delivered standout loan growth in 3Q24, but profitability sharply reversed as topline momentum stalled and risk costs stayed elevated.
@@ -7105,29 +7686,29 @@
 BVB’s rapid loan growth is a clear positive, but the sharp drop in profitability and rising NPLs flag mounting risk. Margin pressure and weaker coverage ratios are key watchpoints. The latest results are a negative surprise versus the improving trajectory seen earlier in 2024, and investors should monitor for further asset quality slippage as growth accelerates.</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>2025-07-30 17:53:59</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="189">
+      <c r="A189" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB delivered a standout 4Q24, with a sharp rebound in profitability and record-high ROA/ROE, driven by surging TOI and margin expansion.
@@ -7144,29 +7725,29 @@
 BVB’s 4Q24 is a clear positive inflection, with strong growth, margin expansion, and improving asset quality. The results suggest a step-change in earnings power and risk discipline, positioning the bank for stronger investor confidence if these trends sustain.</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>2025-07-30 17:54:16</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB’s 1Q25 results show a sharp pullback in profitability after an outsized 4Q24, as core income fell and margins compressed, despite continued loan growth.
@@ -7183,29 +7764,68 @@
 BVB’s 1Q25 results highlight a reset in profitability and margin pressure, with asset quality risks re-emerging. The quarter signals that the 4Q24 surge was not sustainable, and investors should monitor for further margin compression and credit slippage.</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>2025-07-30 17:54:29</t>
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>BVB</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Private_3</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+- BVB’s 2Q25 profitability sharply deteriorated, with net profit and returns plunging despite a rebound in TOI.
+- Loan growth momentum slowed further, but NIM staged a modest recovery after a weak 1Q25.
+- Asset quality weakened, with rising NPLs and lower coverage, signaling renewed credit stress.
+---
+**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**
+BVB’s profitability took a significant hit in 2Q25. While total operating income (TOI) rebounded 22.9% QoQ after a weak 1Q25, this was not enough to offset a spike in provision expenses, which jumped 27.3% QoQ. As a result, pre-tax profit collapsed to just 1.3 trillion VND, down 83.5% QoQ and 84.2% YoY. Return metrics mirrored this decline: ROA fell to 0.04% and ROE to 0.6%, both at multi-year lows. The sharp drop in profit, despite higher TOI, points to intensifying credit costs as the main drag—an unexpected negative surprise versus recent quarters.
+**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**
+Loan growth decelerated to 2.5% QoQ in 2Q25, down from 3.8% in 1Q25 and well below the 6.5% pace seen in late 2024. On a YoY basis, loan growth remains positive but is clearly losing steam. Net interest margin (NIM) improved to 2.4% from 2.0% in 1Q25, reversing the prior quarter’s compression. This NIM recovery was driven by a slight rebound in loan yields, but the improvement was not enough to offset the impact of rising provisions on bottom-line results.
+**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**
+Asset quality trends are a growing concern. The NPL ratio rose to 3.8% in 2Q25 from 3.4% in 1Q25, reversing the improvement seen at end-2024 and now sitting above the sector average (3.1%). Group 2 loans also remain elevated, though the ratio fell to 1.0%. NPL coverage dropped to 40.4%, below both the previous quarter and sector benchmark, signaling weaker loss absorption capacity. The uptick in NPLs and lower coverage suggest renewed credit stress, likely driving the surge in provisions and weighing on profitability.
+**Investment Implications**
+The sharp deterioration in profit and asset quality in 2Q25 is a clear negative surprise. Rising credit costs and slowing loan growth overshadow the modest NIM recovery. Investors should watch for further asset quality slippage and whether management can contain provisioning pressure in coming quarters.</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:01:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB delivered a sharp rebound in profitability in 1Q23, with PBT and returns surging on the back of robust loan growth and lower provision expenses.
@@ -7222,29 +7842,29 @@
 NAB’s 1Q23 is a positive inflection in profitability and growth, but asset quality volatility and thin coverage ratios temper the outlook. Sustaining earnings will hinge on managing credit costs as the loan book expands.</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>2025-07-30 17:54:40</t>
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+    <row r="193">
+      <c r="A193" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB delivered a rebound in topline and stable profit in 2Q23, with TOI and PBT both up sequentially, but profitability ratios softened as margins compressed and asset quality risks rose.
@@ -7261,29 +7881,29 @@
 NAB’s strong revenue recovery is overshadowed by margin compression and clear asset quality slippage. The sharp slowdown in loan growth and falling coverage ratios are negative surprises, raising caution on the sustainability of earnings momentum. Investors should closely monitor credit trends and margin dynamics in coming quarters.</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>2025-07-30 17:54:51</t>
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
+    <row r="194">
+      <c r="A194" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB’s 3Q23 results show a sharp pullback in profitability, with both TOI and net profit down significantly QoQ, as margin compression and weaker income weighed on returns.
@@ -7300,29 +7920,29 @@
 NAB’s latest results highlight a shift from growth to risk management. The sharp drop in profitability and persistent asset quality pressures are negative surprises, suggesting investors should monitor for further downside risk as credit costs and margin compression weigh on returns.</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>2025-07-30 17:55:07</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB delivered a standout 4Q23, with TOI and net profit surging to multi-year highs on the back of robust loan growth and margin expansion.
@@ -7339,29 +7959,29 @@
 NAB’s 4Q23 marks a clear positive inflection, with margin and profit momentum surprising to the upside. While asset quality bears watching, the bank’s earnings power and margin trajectory position it well for continued outperformance if credit risks are contained.</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>2025-07-30 17:55:17</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB’s 1Q24 results show a sharp pullback in topline and profit after an outsized 4Q23, but YoY growth remains healthy, underpinned by robust loan expansion.
@@ -7378,29 +7998,29 @@
 NAB’s growth story remains intact, but the latest quarter highlights earnings volatility and margin pressure. The asset quality drift and weaker coverage are emerging risks. Investors should watch for further margin compression and credit slippage, as the positive YoY momentum is now facing headwinds.</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>2025-07-30 17:55:37</t>
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="D197" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB delivered a strong 2Q24 with a sharp rebound in topline and profit, driven by accelerating loan growth and margin recovery.
@@ -7417,29 +8037,29 @@
 NAB’s 2Q24 results show a bank firing on all cylinders: accelerating growth, margin recovery, and improving asset quality. The positive surprise on both earnings and risk metrics strengthens the investment case, with momentum likely to persist if current trends hold.</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>2025-07-30 17:55:48</t>
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB delivered robust YoY profit and loan growth in 3Q24, but sequential momentum softened as topline and margins dipped from 2Q24 highs.
@@ -7456,29 +8076,29 @@
 NAB’s growth story remains intact, but the latest quarter highlights the need to watch for further margin compression and asset quality slippage. The sequential slowdown is not alarming, but investors should monitor whether these trends persist into 4Q24.</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>2025-07-30 17:56:02</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+    <row r="199">
+      <c r="A199" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="D199" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB closed 4Q24 with a solid rebound in topline and profit, outpacing sector peers on both profitability and asset quality improvement.
@@ -7495,29 +8115,29 @@
 NAB’s 4Q24 results mark a positive inflection, with robust profitability, resilient margins, and a material step-up in asset quality. The bank’s ability to grow loans and defend returns while de-risking the balance sheet stands out in a volatile sector backdrop. The latest figures are a clear positive surprise and support a constructive view on NAB’s earnings durability into 2025.</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>2025-07-30 17:56:20</t>
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+    <row r="200">
+      <c r="A200" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="D200" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB delivered robust loan growth in 1Q25, sharply outpacing the sector, but topline and profit momentum softened sequentially as revenue normalized and risk costs rebounded.
@@ -7534,29 +8154,68 @@
 NAB’s strong loan growth and resilient asset quality underpin its earnings power, but the latest quarter shows profit normalization and early signs of credit cost reacceleration. The results are broadly in line with expectations, with no major surprises, but investors should watch for further shifts in risk costs as the loan book expands.</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>2025-07-30 17:56:33</t>
         </is>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>NAB</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Private_3</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**  
+1. NAB delivered robust loan growth and a strong rebound in topline income in 2Q25, but profitability ratios softened as asset quality pressures mounted.  
+2. Net profit growth was held back by a sharp spike in provision expenses, with NIM compression emerging as a key headwind.  
+3. Asset quality trends deteriorated, with rising NPLs and a notable drop in coverage, signaling a need for caution on forward risk costs.
+---
+**Profitability:**  
+NAB’s total operating income (TOI) surged 18.9% QoQ in 2Q25, reversing the prior quarter’s dip and marking a 17.1% YoY increase. This topline momentum was driven by accelerating loan growth, but the benefit was partly offset by a steep 155.9% QoQ jump in provision expenses. As a result, pre-tax profit rose just 5.8% QoQ and 6.5% YoY—well below the pace of revenue expansion. Return on assets (ROA) slipped to 1.43% in 2Q25 from 1.54% in 1Q25, while return on equity (ROE) was broadly stable at 19.97%. The drop in ROA, despite higher income, reflects rising credit costs and margin pressure. This outcome is a negative surprise versus the strong topline, highlighting the drag from risk provisioning.
+**Loan Growth &amp; NIM:**  
+Loan growth accelerated sharply to 8.4% QoQ in 2Q25 (up from 6.0% in 1Q25), and loans expanded 14.9% year-to-date—well ahead of sector averages. This expansion underpinned the TOI rebound. However, net interest margin (NIM) compressed to 3.0% from 3.4% in 1Q25, despite a slight uptick in loan yield. The margin squeeze likely reflects higher funding costs or a shift in asset mix, and it tempers the positive impact of loan growth on earnings. Sustained NIM pressure could weigh on future profitability if not addressed.
+**Asset Quality:**  
+Asset quality trends weakened in 2Q25. The NPL ratio rose to 2.85% from 2.49% in 1Q25, and coverage fell sharply to 39.0% from 52.2%. Group 2 loans continued to decline, but the uptick in NPLs and lower coverage suggest rising stress in the loan book. The spike in provision expenses aligns with these trends and may persist if asset quality does not stabilize. While NPLs remain below the sector average, the direction of change is negative and warrants close monitoring.
+**Investment Implications:**  
+NAB’s growth engine is firing, but rising credit costs and margin compression are eroding profitability gains. The latest results are a mixed bag: strong loan and income growth, but with clear warning signs on asset quality and margins. Investors should watch for further NPL formation and management’s response to margin pressure.</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:01:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D202" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB’s 1Q23 results show a sharp reversal in profitability, with both TOI and net profit plunging sequentially and year-on-year, as core income faltered and provision relief faded.
@@ -7573,29 +8232,29 @@
 NVB’s 1Q23 results highlight severe earnings volatility and mounting asset quality risks. The collapse in profitability and surge in bad loans are negative surprises, overshadowing any margin recovery. Investors should remain cautious as credit costs and capital risks are likely to persist.</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>2025-07-30 17:56:46</t>
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="D203" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB’s 2Q23 saw a marginal profit recovery, but topline and margin pressures persist, with core income and returns still well below sector averages.
@@ -7612,29 +8271,29 @@
 NVB’s latest quarter offered only a modest profit respite, driven by provision cuts rather than improved business fundamentals. Persistent margin compression and deteriorating asset quality remain key risks, with little evidence of a turnaround in core earnings or credit costs. Investors should remain cautious until NVB demonstrates sustained improvement in both profitability and risk metrics.</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>2025-07-30 17:57:00</t>
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
+    <row r="204">
+      <c r="A204" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB delivered a strong rebound in loan growth in 3Q23, but profitability sharply deteriorated on collapsing core income and a spike in provision expenses.
@@ -7651,29 +8310,29 @@
 NVB’s latest results highlight a precarious balance: rapid loan growth is not translating into sustainable profitability, and asset quality remains deeply challenged. The collapse in margins and earnings, coupled with weak coverage, signals heightened risk for investors and underscores the need for urgent balance sheet repair.</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>2025-07-30 17:57:10</t>
         </is>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB’s 4Q23 marked a sharp deterioration in profitability, with a collapse in core income and deepening losses, despite robust loan growth.
@@ -7690,29 +8349,29 @@
 NVB’s 4Q23 results highlight a bank under severe strain: accelerating loan growth is not translating into income, margins have collapsed, and asset quality risks are mounting. The negative surprise on profitability and coverage signals urgent need for a strategic reset.</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>2025-07-30 17:57:29</t>
         </is>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="D206" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB’s 1Q24 saw a sharp rebound in topline income but continued to post negative profitability, with ROA and ROE still deep in the red—though less so than the prior quarter.
@@ -7729,29 +8388,29 @@
 NVB is showing early signs of operational stabilization, with loan growth and NIM rebounding and asset quality slippage easing. However, persistent losses and thin coverage ratios keep risk high. Investors should watch for sustained improvement in profitability and coverage before sentiment can turn positive.</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>2025-07-30 17:57:42</t>
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB delivered a sharp turnaround in 2Q24, swinging back to profit and posting its strongest topline growth in years, but asset quality risks are mounting rapidly.
@@ -7768,29 +8427,29 @@
 NVB’s earnings rebound is eye-catching, but the underlying asset quality slippage and weak coverage ratios are red flags. The bank’s growth strategy is driving near-term profit, but at the cost of rising credit risk and margin pressure. Investors should be cautious: the positive profit surprise is overshadowed by deteriorating fundamentals.</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>2025-07-30 17:57:55</t>
         </is>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="D208" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB’s 3Q24 results show a sharp reversal in profitability, with net losses and negative returns after a brief recovery in 2Q24.  
@@ -7807,29 +8466,29 @@
 NVB’s 3Q24 results highlight renewed earnings pressure and a loss of growth momentum. While asset quality metrics improved, thin coverage and negative profitability keep risk high. The quarter is a negative surprise, and investors should watch for further signs of stabilization before turning constructive.</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>2025-07-30 17:58:08</t>
         </is>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="D209" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB’s 4Q24 results showed a sharp deterioration in profitability, with a collapse in core income and a spike in losses, despite robust loan growth.
@@ -7846,29 +8505,29 @@
 NVB’s 4Q24 results signal deep structural challenges. The collapse in core income and margins, despite headline loan growth, points to unsustainable business dynamics. Asset quality optics improved, but underlying risk remains high. The negative surprise on profitability and coverage is a clear red flag for investors.</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>2025-07-30 17:58:20</t>
         </is>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="D210" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB delivered a sharp turnaround in 1Q25, swinging back to positive profitability and accelerating loan growth, but topline momentum remains volatile.
@@ -7885,29 +8544,68 @@
 NVB’s 1Q25 results mark a decisive break from recent losses, with strong loan growth and asset quality gains. The positive surprise on profitability and credit metrics is encouraging, but investors should watch for sustained improvement in coverage and core income to confirm a durable turnaround.</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>2025-07-30 17:58:31</t>
         </is>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>NVB</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Private_3</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+- NVB delivered a sharp turnaround in profitability and asset quality in 2Q25, with both earnings and credit metrics improving sequentially and year-on-year.
+- Loan growth accelerated further, supporting a strong rebound in NIM, while risk costs remained elevated but manageable.
+- The latest results mark a positive surprise versus recent quarters, signaling a clear inflection in business momentum.
+---
+**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**
+NVB posted a robust recovery in 2Q25, with total operating income (TOI) surging 51.0% QoQ and more than doubling YoY. This follows a volatile 4Q24 and 1Q25, where TOI and PBT were distorted by one-off negatives. Pre-tax profit (PBT) more than doubled QoQ to VND 311.5bn, up 5.3x YoY, reflecting both revenue momentum and improved cost control. Return on assets (ROA) and return on equity (ROE) jumped to 0.91% and 19.5%, respectively, from 0.48% and 9.8% in 1Q25, marking the highest levels in recent years. The earnings rebound was driven by strong core income and lower credit costs relative to previous quarters.
+**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**
+Loan growth accelerated to 11.4% QoQ in 2Q25, building on a solid 9.8% QoQ in 1Q25, and reached 22.3% YTD. This expansion outpaces sector averages and underpins the bank’s revenue recovery. Net interest margin (NIM) widened sharply to 2.39% from 1.76% in 1Q25, driven by higher loan yields (10.3% in 2Q25 vs 9.0% in 1Q25) and likely improved funding mix. The strong loan book momentum and margin expansion are key positive themes, suggesting NVB is regaining competitive ground.
+**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**
+Asset quality improved materially. The NPL ratio fell to 11.4% in 2Q25 from 14.0% in 1Q25 and 19.5% at end-2024, while Group 2 loans dropped to 0.7%. NPL coverage rose to 13.0%, up from 11.2% in 1Q25, though still below sector norms. Provisioning expense increased 71.4% QoQ, reflecting continued caution, but the declining NPL stock signals effective risk management. The improvement in asset quality, alongside rising coverage, reduces tail risk and supports the earnings outlook.
+**Investment Implications:**  
+NVB’s 2Q25 results confirm a decisive shift in profitability and risk metrics, with strong loan growth and margin recovery driving the story. The positive surprise in earnings and asset quality points to improved fundamentals and a more constructive investment case.</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:02:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="D212" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB delivered a strong profitability rebound in 1Q23, with PBT up 19.9% QoQ and 59.2% YoY, driven by robust topline growth and sharply lower provision expenses.
@@ -7924,29 +8622,29 @@
 KLB’s 1Q23 print is a positive surprise, with earnings momentum, margin expansion, and asset quality all moving in the right direction. The combination of strong profitability and improving credit metrics supports a constructive outlook, with risk-adjusted returns now outpacing peers.</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>2025-07-30 17:58:42</t>
         </is>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
+    <row r="213">
+      <c r="A213" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="D213" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB’s 2Q23 results show resilient loan growth and stable bottom-line performance, but a sharp drop in core income and margin compression signal rising pressure on profitability.
@@ -7963,29 +8661,29 @@
 KLB’s loan growth remains a bright spot, but the sharp income and margin drop, alongside rising early-stage delinquencies, signal growing pressure on earnings quality. Investors should watch for further margin volatility and asset quality slippage, as the latest results mark a negative inflection in core trends.</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>2025-07-30 17:58:57</t>
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
+    <row r="214">
+      <c r="A214" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="D214" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB delivered a sharp rebound in profitability in 3Q23, with both TOI and PBT surging sequentially, driven by a recovery in core income and normalized provisioning.
@@ -8002,29 +8700,29 @@
 KLB’s profit recovery is a positive surprise, but the stalling loan growth and rising credit risk temper the outlook. Investors should watch for further asset quality slippage, as the latest results suggest a more cautious stance is warranted.</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>2025-07-30 17:59:11</t>
         </is>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+    <row r="215">
+      <c r="A215" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="D215" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB delivered strong topline and loan growth in 4Q23, but profitability fell sharply as provision expenses surged and margins remained under pressure.
@@ -8041,29 +8739,29 @@
 KLB’s strong loan and income growth are overshadowed by a sharp drop in profitability and persistent asset quality concerns. The spike in provisions signals a cautious stance, but also highlights ongoing risk in the loan book. Investors should watch for further margin recovery and stabilization in credit costs before confidence can rebuild.</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>2025-07-30 17:59:23</t>
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
+    <row r="216">
+      <c r="A216" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB delivered a sharp rebound in profitability in 1Q24, with net profit and returns recovering from a weak 4Q23, driven by normalized provisions and steady topline growth.
@@ -8080,29 +8778,29 @@
 KLB’s earnings recovery is encouraging, but rising asset quality risks and thinning coverage warrant close monitoring. The latest results highlight a return to normalized profitability, but with clear credit headwinds that could pressure future performance.</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>2025-07-30 18:00:44</t>
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
+    <row r="217">
+      <c r="A217" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="D217" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB delivered a standout 2Q24, with TOI and net profit surging on the back of accelerating loan growth and a sharp NIM rebound—well ahead of sector trends.
@@ -8119,29 +8817,29 @@
 KLB’s 2Q24 results mark a clear positive surprise, with strong growth, margin expansion, and improving asset quality. The bank’s ability to drive both topline and bottom-line gains while tightening risk metrics sets it apart as a top performer in the current cycle.</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>2025-07-30 18:01:12</t>
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+    <row r="218">
+      <c r="A218" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="D218" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB’s 3Q24 results show a sharp reversal in profitability after a strong 2Q24, with both TOI and net profit declining sequentially, though YoY growth remains robust.
@@ -8158,29 +8856,29 @@
 KLB’s 3Q24 print signals a normalization phase after outsized 2Q24 gains. While profitability softened, core growth and risk buffers remain strong. Investors should watch for further margin compression, but the bank’s asset quality resilience and above-sector loan growth keep the medium-term outlook constructive.</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>2025-07-30 18:01:27</t>
         </is>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+    <row r="219">
+      <c r="A219" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="D219" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB delivered a strong finish in 4Q24, with profitability and loan growth accelerating sequentially, outpacing sector trends and surprising positively on both earnings and asset quality.
@@ -8197,29 +8895,29 @@
 KLB’s 4Q24 results mark a positive inflection, with strong growth, resilient margins, and improving asset quality. The bank’s ability to scale profitably while maintaining risk discipline sets it apart, supporting a constructive outlook for 2025.</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>2025-07-30 18:01:41</t>
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
+    <row r="220">
+      <c r="A220" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="D220" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB delivered a standout 1Q25 with surging loan growth and robust topline expansion, outpacing sector trends, while profitability held steady at elevated levels.
@@ -8236,68 +8934,68 @@
 KLB’s 1Q25 cements its position as a high-growth, high-margin lender, but the trade-off is rising asset quality risk. The positive surprise on income and margins is tempered by the need for vigilance on credit trends and coverage. Investors should watch for further slippage as the growth cycle matures.</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>2025-07-30 18:01:54</t>
         </is>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
+    <row r="221">
+      <c r="A221" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>2Q25</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Key Takeaways:
-1. KLB delivered a standout 2Q25, with net profit and returns surging to new highs on robust topline growth and disciplined cost control, far outpacing sector trends.
-2. Loan growth momentum slowed sharply QoQ but remains strong YTD; NIM held steady despite some yield compression, reflecting effective balance sheet management.
-3. Asset quality metrics improved, with NPL and group 2 ratios both declining and coverage hitting a record, signaling a positive surprise on credit risk containment.
-----------------------------------
-Profitability:  
-KLB’s profitability hit a new stride in 2Q25. Total operating income rose 5.1% QoQ and 9.7% YoY, extending a consistent upward trend and outpacing sector averages. Net profit before tax jumped 58.4% QoQ and 67.2% YoY—an outsized gain driven by both revenue growth and a sharp sequential drop in cost-to-income. ROA climbed to 1.85% in 2Q25 from 1.20% in 1Q25 and 1.20% in 2Q24, while ROE soared to 25.7% (vs. 16.9% prior quarter and 17.8% a year ago). The key driver was strong core income, while provision expense rose but was well absorbed by topline gains. These results mark a clear positive surprise versus recent quarters and sector peers.
-Loan Growth &amp; NIM:  
-Loan growth decelerated to 2.2% QoQ in 2Q25 (from 10.7% in 1Q25), but YTD expansion remains robust at 13.2%. This signals a shift from rapid acceleration to a more measured pace as the bank consolidates earlier gains. NIM held steady at 3.97%, despite a slight dip in loan yields (10.3% vs. 10.7% in 1Q25), indicating KLB’s ability to manage funding costs and asset mix. The margin stability, even as yields soften, highlights effective pricing discipline and balance sheet optimization.
-Asset Quality:  
-Asset quality surprised to the upside. The NPL ratio improved to 1.96% (down from 2.17% in 1Q25), while group 2 loans also edged lower. NPL coverage jumped to 82.8%, a new high and well above sector norms, reflecting proactive provisioning. Both NPL and group 2 formation rates moderated, suggesting credit risk is being contained even as the loan book expands. This marks a notable reversal from the mild deterioration seen in prior quarters.
-Investment Implications:  
-KLB’s 2Q25 results showcase a bank firing on all cylinders: accelerating profitability, resilient margins, and improving asset quality. The positive surprise on returns and credit risk containment strengthens the investment case, though the sharp slowdown in loan growth warrants monitoring for sustainability.</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>2025-07-30 18:02:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**  
+1. KLB delivered a sharp profit acceleration in 2Q25, with both ROA and ROE hitting new highs, driven by robust fee and interest income.  
+2. Loan growth momentum moderated after a strong 1Q25 surge, while NIM remained steady, reflecting stable funding costs.  
+3. Asset quality improved, with NPL and Group 2 ratios declining and coverage reaching a new peak, signaling effective risk management.
+---
+**Profitability:**  
+KLB’s profitability leapt in 2Q25, with net profit before tax up 58.4% QoQ and 67.2% YoY. Total operating income (TOI) rose 5.1% QoQ and 9.7% YoY, sustaining the positive trajectory seen since 4Q24. This was underpinned by both interest and non-interest income growth, outpacing provision expenses. ROA climbed to 1.85% and ROE to 25.7%, both at multi-quarter highs and well above recent averages. The profit surprise was driven by strong revenue momentum and disciplined cost control, despite a spike in provisioning.
+**Loan Growth &amp; NIM:**  
+Loan growth cooled to 2.2% QoQ in 2Q25 after a standout 10.7% jump in 1Q25, but the YoY expansion remains solid at 21.8%. This deceleration likely reflects a normalization after aggressive first-quarter disbursements. NIM edged up slightly to 3.97% from 3.92% in 1Q25, holding steady despite a marginal dip in loan yields. This stability suggests KLB is managing funding costs well and maintaining pricing discipline, even as loan mix shifts.
+**Asset Quality:**  
+Asset quality metrics improved across the board. NPL ratio dropped to 1.96% from 2.17% in 1Q25, while Group 2 loans also declined to 1.51%. Coverage ratio surged to 82.8%, far above the sector’s 43.5%, reflecting proactive provisioning. The fall in both NPL and G2 ratios, despite higher provisions, points to effective risk containment and a cleaner loan book. This positions KLB favorably for future growth, with asset quality now a clear strength.
+**Investment Implications:**  
+KLB’s strong profit delivery, resilient NIM, and improving asset quality are positive surprises versus recent trends. The moderation in loan growth is a watch point, but the bank’s risk metrics and profitability trajectory support a constructive outlook.</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:02:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="D222" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB delivered a strong profit rebound in 1Q23, with PBT up 29.1% QoQ and 20.9% YoY, despite a sharp drop in core income—driven by stable provisions and improved efficiency.
@@ -8314,29 +9012,29 @@
 PGB’s profit recovery is encouraging, but the underlying drivers—cost control and stable provisions—mask pressure on core income and early asset quality risks. The flat loan growth and rising group 2 loans warrant close monitoring. Investors should watch for signs of sustainable topline recovery and further credit slippage in coming quarters.</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>2025-07-30 18:02:22</t>
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+    <row r="223">
+      <c r="A223" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="D223" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB delivered a solid rebound in loan growth in 2Q23, but profitability softened as topline momentum faded and risk costs stayed flat.
@@ -8353,29 +9051,29 @@
 PGB’s loan growth and margin resilience are positives, but the sharp asset quality slippage and topline softness overshadow these gains. The latest results point to rising credit risk and earnings volatility, warranting caution on the near-term outlook.</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>2025-07-30 18:02:35</t>
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+    <row r="224">
+      <c r="A224" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="D224" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB’s 3Q23 results show a sharp deterioration in profitability, with both TOI and net profit plunging sequentially and year-on-year, as margin pressure and rising costs weighed on performance.
@@ -8392,29 +9090,29 @@
 PGB’s 3Q23 results mark a clear negative inflection in earnings momentum, with margin pressure and weak loan growth now translating into sharply lower profitability. While asset quality metrics stabilized, the earnings setback and margin compression are likely to weigh on sentiment until core income trends recover.</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>2025-07-30 18:02:47</t>
         </is>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+    <row r="225">
+      <c r="A225" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="D225" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB delivered a sharp loan growth surge in 4Q23, but profitability collapsed into the red as provision expenses spiked and core income remained under pressure.
@@ -8431,29 +9129,29 @@
 PGB’s outsized loan growth is overshadowed by a collapse in profitability and rising risk costs. The negative earnings surprise and underlying credit stress warrant caution, as aggressive expansion may be coming at the expense of sustainable returns. Investors should watch for further asset quality slippage and the bank’s ability to restore earnings momentum.</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>2025-07-30 18:03:00</t>
         </is>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="D226" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB staged a sharp recovery in profitability in 1Q24, rebounding from a loss in 4Q23 on the back of lower provisions and improved core income, but YoY trends remain soft.
@@ -8470,29 +9168,29 @@
 PGB’s profit rebound is encouraging, but the lack of loan growth and weaker coverage ratios temper the outlook. Investors should watch for further margin pressure and asset quality slippage, as the recovery remains fragile and below sector pace.</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>2025-07-30 18:03:16</t>
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+    <row r="227">
+      <c r="A227" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="D227" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB delivered a strong topline rebound in 2Q24, but profitability softened as provision expenses surged, reversing the prior quarter’s cost relief.
@@ -8509,29 +9207,29 @@
 PGB’s topline momentum is encouraging, but the sharp rise in provisions and NPLs highlights rising credit risk and earnings volatility. Investors should watch for further asset quality slippage and whether margin gains can be sustained if risk costs remain elevated.</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="E227" t="inlineStr">
         <is>
           <t>2025-07-30 18:03:27</t>
         </is>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="D228" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB’s 3Q24 results show topline growth stalling and profitability under pressure, with both ROA and ROE slipping further from recent highs.
@@ -8548,29 +9246,29 @@
 PGB’s latest results highlight a loss of growth momentum and sustained profitability pressure. While asset quality is not deteriorating further, the lack of topline acceleration and persistent credit costs are likely to weigh on earnings and sentiment in the near term.</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>2025-07-30 18:03:41</t>
         </is>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
+    <row r="229">
+      <c r="A229" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="D229" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB delivered a standout 4Q24, with TOI and loan growth sharply accelerating QoQ and YoY, but profitability remains muted as provision expenses stay elevated.
@@ -8587,29 +9285,29 @@
 PGB is pivoting to growth, with strong loan and income momentum, but profitability is still capped by risk costs. The positive surprise is on asset quality, which is now a tailwind. Sustained margin pressure and provision drag remain key watchpoints for earnings leverage.</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>2025-07-30 18:03:55</t>
         </is>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
+    <row r="230">
+      <c r="A230" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="D230" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB delivered a strong rebound in loan growth in 1Q25, but topline momentum softened after an outsized 4Q24, with profitability stabilizing on higher provisions.
@@ -8626,68 +9324,68 @@
 PGB’s rapid loan expansion is driving revenue and profit stabilization, but persistent margin compression and emerging asset quality risks temper the outlook. Investors should watch for further credit slippage and margin headwinds, as the latest results are neutral versus expectations but highlight rising risk.</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>2025-07-30 18:04:10</t>
         </is>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
+    <row r="231">
+      <c r="A231" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>2Q25</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Key Takeaways:
-1. PGB delivered a sharp rebound in profitability in 2Q25, with net profit and returns surging on strong topline growth and lower provision drag.
-2. Loan growth momentum stalled after a strong run, while NIM remained under pressure despite a modest recovery in loan yields.
-3. Asset quality weakened, with NPL and group 2 ratios both ticking up and coverage slipping, signaling rising credit risk.
-----------------------------------
-Profitability:
-PGB’s 2Q25 results mark a clear inflection in earnings. Total operating income (TOI) jumped 12.3% QoQ and 28.5% YoY, reversing the prior quarter’s dip and outpacing sector revenue growth. Net profit (PBT) nearly doubled QoQ, up 96.3%, as provision expenses fell 8.9% sequentially. ROA surged to 0.79% in 2Q25, from 0.42% in 1Q25 and 0.51% a year ago, while ROE leapt to 10.5%—its highest in over two years. The profit beat was driven by both topline strength and easing risk costs, a positive surprise after several muted quarters.
-Loan Growth &amp; NIM:
-Loan growth momentum came to a standstill, with the book essentially flat QoQ (+0.1%) after a strong 9.9% expansion in 1Q25. YoY, loans are up 23.7%, but the sequential slowdown is notable and lags the sector’s 4.2% QoQ pace. NIM edged down to 2.51% from 2.53% in 1Q25, continuing a gradual compression trend despite a slight uptick in loan yields. The margin squeeze reflects ongoing funding cost pressure and a less favorable asset mix.
-Asset Quality:
-Asset quality deteriorated in 2Q25. The NPL ratio rose to 3.33% (from 2.71% in 1Q25), while group 2 loans remained elevated at 1.76%. NPL coverage fell to 35.6%, reversing the improvement seen in late 2024 and now below sector averages. Rising headline NPLs and weaker coverage point to mounting credit risk, with formation trends suggesting further slippage ahead.
-Investment Implications:
-PGB’s earnings recovery is encouraging, but the flat loan book and asset quality slippage temper the outlook. The positive profit surprise is at risk if credit costs rise further or loan growth fails to reaccelerate. Investors should watch for signs of stabilization in asset quality and renewed lending momentum.</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>2025-07-30 18:04:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+- PGB delivered a sharp rebound in profitability in 2Q25, with net profit and returns surging on the back of strong TOI growth and lower provisioning.
+- Loan growth momentum stalled after a strong run, while NIM remained under pressure despite a slight uptick in loan yields.
+- Asset quality weakened, with a notable rise in NPLs and a dip in coverage, raising caution on credit costs ahead.
+---
+**Profitability:**  
+PGB’s 2Q25 results mark a decisive turnaround in profitability. Net profit (PBT) nearly doubled QoQ, up 96.3%, reversing the previous quarter’s muted growth. This was driven by a 12.3% QoQ jump in total operating income (TOI), as well as a sharp 8.9% QoQ drop in provision expenses. ROA and ROE surged to 0.79% and 10.5%, respectively, both at multi-quarter highs and well above recent averages. The rebound reflects both improved revenue generation and disciplined risk cost management. On a YoY basis, PBT growth of 98.0% also signals a strong recovery, outpacing sector trends.
+**Loan Growth &amp; NIM:**  
+After several quarters of robust expansion, PGB’s loan book was essentially flat in 2Q25 (+0.06% QoQ), a marked slowdown from the 9.9% QoQ jump in 1Q25. This suggests a pause in growth, possibly due to tighter underwriting or softer demand. NIM edged down further to 2.51% (from 2.53% in 1Q25), continuing a declining trend despite a modest rise in loan yields. Margin compression likely reflects funding cost pressures or a shift in asset mix, and remains a key watchpoint for earnings sustainability.
+**Asset Quality:**  
+Asset quality trends turned negative in 2Q25. NPL ratio rose to 3.33% (from 2.71% in 1Q25), reversing prior improvements and now above the sector’s 3.08%. Group 2 loans remain elevated at 1.76%, signaling persistent stress in the watchlist book. NPL coverage fell to 35.6%, well below the sector’s 43.5%, reducing the buffer against future losses. The uptick in NPLs and softer coverage highlight rising credit risks, which could pressure future profitability if not contained.
+**Investment Implications:**  
+The strong profit rebound is a clear positive surprise, but the stalling loan growth and deteriorating asset quality temper the outlook. Sustained earnings momentum will depend on PGB’s ability to manage credit costs and revive loan growth, especially as margin pressures persist.</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:02:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="D232" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB delivered a sharp turnaround in profitability in 1Q23, with net profit and returns rebounding from a weak 4Q22, driven by strong cost control and lower provisions.
@@ -8704,29 +9402,29 @@
 SGB’s earnings rebound is a positive surprise, but the underlying drivers—provision normalization and margin management—mask emerging asset quality risks. Investors should monitor credit trends closely, as the latest figures point to a fragile recovery with potential downside if delinquencies accelerate.</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>2025-07-30 18:04:42</t>
         </is>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
+    <row r="233">
+      <c r="A233" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="D233" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB’s 2Q23 results show a sharp slowdown in profitability, with net profit and returns halving sequentially as provision expenses rebounded and topline growth stalled.
@@ -8743,29 +9441,29 @@
 SGB’s 2Q23 print is a setback for earnings momentum, with risk costs and weak topline the key drags. However, loan growth and margin recovery are encouraging. Investors should watch for further revenue traction and signs of asset quality normalization to gauge the durability of any rebound.</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>2025-07-30 18:04:53</t>
         </is>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
+    <row r="234">
+      <c r="A234" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="D234" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB’s 3Q23 results show a sharp sequential drop in core income and profit, with both TOI and PBT down double digits QoQ, but asset quality remains stable and coverage is improving.
@@ -8782,29 +9480,29 @@
 SGB is delivering above-sector loan growth but faces clear pressure on margins and topline income. Asset quality is holding steady, with improving coverage a positive offset. The sharp profit and NIM drop are negative surprises, and investors should watch for further margin compression and any uptick in group 2 risk.</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>2025-07-30 18:05:08</t>
         </is>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
+    <row r="235">
+      <c r="A235" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="D235" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB delivered a sharp rebound in topline growth and profitability in 4Q23, driven by a surge in TOI, but this was offset by a spike in provision expenses.
@@ -8821,29 +9519,29 @@
 SGB’s 4Q23 results highlight a strong revenue recovery and improving asset quality, but the earnings cycle remains volatile due to provision swings. The topline beat is encouraging, yet sustained improvement will depend on managing risk costs and maintaining coverage. Investors should watch for further stabilization in profitability and asset quality in coming quarters.</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>2025-07-30 18:05:20</t>
         </is>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
+    <row r="236">
+      <c r="A236" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="D236" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB’s 1Q24 results show a sharp reversal in topline and profit momentum, with both TOI and PBT down significantly QoQ and YoY, as loan growth turned negative and margins compressed.
@@ -8860,29 +9558,29 @@
 SGB’s 1Q24 marks a clear inflection point: topline and profit momentum have broken down, asset quality is deteriorating, and margin pressure is intensifying. The negative surprise on all key drivers warrants caution, with near-term earnings at risk unless business fundamentals stabilize.</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>2025-07-30 18:05:44</t>
         </is>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
+    <row r="237">
+      <c r="A237" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="D237" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB delivered a solid rebound in profitability in 2Q24, with PBT up sharply QoQ as core income recovered and provision expenses normalized.
@@ -8899,29 +9597,29 @@
 SGB’s earnings recovery is a clear positive, but the underlying trends—weak loan yields and deteriorating asset quality—temper the outlook. Investors should watch for further credit cost surprises and margin sustainability as competitive pressures persist.</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>2025-07-30 18:06:07</t>
         </is>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
+    <row r="238">
+      <c r="A238" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
+      <c r="D238" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB delivered a strong rebound in topline growth in 3Q24, but profitability sharply deteriorated as provision expenses surged and margins only modestly improved.
@@ -8938,29 +9636,29 @@
 SGB’s strong revenue recovery is overshadowed by mounting asset quality risks and profit volatility. The sharp jump in provisions and NPLs is a negative surprise, raising concerns about earnings durability and capital protection. Investors should monitor credit trends closely, as risk costs are now the key swing factor for SGB’s outlook.</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>2025-07-30 18:06:19</t>
         </is>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
+    <row r="239">
+      <c r="A239" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
+      <c r="D239" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB’s 4Q24 marked a sharp reversal, with a steep drop in profitability and negative bottom-line surprise, driven by a collapse in core income and surging risk costs.
@@ -8977,29 +9675,29 @@
 SGB’s 4Q24 results flag a step-change in risk: rapid loan growth is not translating into sustainable earnings, and asset quality stress is building. The negative earnings surprise and margin compression outweigh the headline loan expansion, signaling caution for investors until core profitability and credit trends stabilize.</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>2025-07-30 18:06:31</t>
         </is>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
+    <row r="240">
+      <c r="A240" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="D240" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB delivered a sharp rebound in profitability in 1Q25, with TOI and net profit swinging strongly positive after a weak 4Q24, but underlying volatility remains high.
@@ -9016,29 +9714,68 @@
 SGB’s earnings recovery is encouraging, but the underlying business remains volatile. Weak loan growth and deteriorating asset quality offset the topline rebound, and low coverage ratios heighten risk. Investors should focus on credit trends and the sustainability of the profit turnaround.</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>2025-07-30 18:06:42</t>
         </is>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>SGB</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Private_3</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**  
+1. SGB’s profitability momentum cooled in 2Q25, with both TOI and net profit retreating sharply QoQ after a standout 1Q25, though YoY growth remains positive.  
+2. Loan growth reversed into contraction for a second straight quarter, while NIM edged up, signaling some stabilization in core spreads.  
+3. Asset quality pressures persist, with NPL and Group 2 ratios elevated and coverage ratios still below sector averages.
+---
+**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**  
+After a surge in 1Q25, SGB’s profitability softened in 2Q25. Total operating income (TOI) fell 21.2% QoQ, retracing much of the prior quarter’s spike, but still posted a modest 2.3% YoY gain. Pre-tax profit (PBT) dropped 22.2% QoQ, reflecting both weaker revenue and lower provision write-backs. ROA and ROE also declined to 0.68% and 5.6% respectively, down from 0.98% and 7.9% in 1Q25, though both remain above the weak 2Q24 base. The sharp QoQ pullback signals that the strong 1Q25 was an outlier, likely driven by one-off factors or lumpy income, rather than a sustainable trend.
+**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**  
+Loan growth momentum remains a concern. SGB’s loan book shrank 3.1% QoQ in 2Q25, following a 4.3% contraction in 1Q25, reversing the strong expansion seen in late 2024. This suggests ongoing risk aversion or weak demand, possibly linked to asset quality concerns. On a YoY basis, loan growth is now negative YTD. However, NIM improved slightly to 2.89% in 2Q25 from 2.77% in 1Q25, supported by a rebound in loan yields (9.2% vs. 8.4% prior quarter). This hints at better pricing discipline or a shift in loan mix, partially offsetting the drag from shrinking balances.
+**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**  
+Asset quality remains under pressure. The NPL ratio eased marginally QoQ to 3.2% but is still up YoY and above the sector’s 3.1%. Group 2 loans continued to rise, reaching 6.0% of the book, signaling elevated stress in the watchlist portfolio. NPL coverage edged up to 32.4% but remains well below the sector’s 43.5%, leaving SGB vulnerable to further credit losses. The absence of new formation data this quarter clouds visibility, but the trend points to persistent asset quality challenges.
+**Investment Implications:**  
+SGB’s 2Q25 results mark a reset after an unusually strong 1Q25, with profitability normalizing and asset quality risks still front and center. The lack of loan growth and low coverage ratios are key watchpoints. Investors should look for signs of stabilization in asset quality and a return to sustainable loan growth before turning more constructive.</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:02:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B242" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="C242" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
+      <c r="D242" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB’s 1Q23 results show resilient loan growth and robust asset quality, but profitability remains under pressure as topline momentum stalls and provisions edge higher.
@@ -9055,29 +9792,29 @@
 SSB is delivering above-sector loan growth with best-in-class asset quality, but profitability is under strain from margin compression and higher provisions. The flat topline and rising risk costs are a negative surprise, suggesting investors should watch for further margin and credit cost headwinds.</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>2025-07-30 18:06:55</t>
         </is>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
+    <row r="243">
+      <c r="A243" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B243" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C243" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="D243" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB’s 2Q23 results show a sharp drop in profitability, with TOI and net profit both falling sequentially and year-on-year, as margin compression and weaker core income take hold.
@@ -9094,29 +9831,29 @@
 SSB’s 2Q23 results flag a shift from margin-driven growth to earnings pressure, with asset quality risks now materializing. The negative surprise on both profitability and credit trends suggests investors should be cautious on near-term earnings recovery.</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
+      <c r="E243" t="inlineStr">
         <is>
           <t>2025-07-30 18:07:08</t>
         </is>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
+    <row r="244">
+      <c r="A244" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
+      <c r="D244" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB delivered a sharp rebound in topline and profit in 3Q23, reversing two quarters of contraction, with ROA and ROE regaining ground.
@@ -9133,29 +9870,29 @@
 SSB’s 3Q23 results mark a clear inflection in profitability and growth, but the rapid rise in early-stage delinquencies warrants close monitoring. The bank’s strong coverage and margin recovery are positives, but asset quality trends could weigh on future earnings if not contained.</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="E244" t="inlineStr">
         <is>
           <t>2025-07-30 18:07:19</t>
         </is>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
+    <row r="245">
+      <c r="A245" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
+      <c r="D245" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB delivered a standout 4Q23, with topline and profit growth sharply accelerating both sequentially and year-on-year, outpacing sector benchmarks.
@@ -9172,29 +9909,29 @@
 SSB’s 4Q23 results highlight strong growth and earnings momentum, but the rapid loan expansion and declining coverage ratios signal rising risk. The positive earnings surprise supports a constructive view, but investors should monitor asset quality closely as the cycle matures.</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>2025-07-30 18:07:36</t>
         </is>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
+    <row r="246">
+      <c r="A246" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
+      <c r="D246" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB delivered robust profit growth in 1Q24, with PBT up 3.2% QoQ and 40.8% YoY, underpinned by lower provision expenses, though topline momentum softened after a strong 4Q23.
@@ -9211,29 +9948,29 @@
 SSB’s earnings surprise is positive, but the engine is provision cuts rather than sustainable topline growth. Slower loan expansion and margin compression signal a more defensive stance, while asset quality stabilization is encouraging but coverage remains a watchpoint. Investors should focus on whether SSB can reignite growth without sacrificing risk discipline.</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
+      <c r="E246" t="inlineStr">
         <is>
           <t>2025-07-30 18:07:47</t>
         </is>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
+    <row r="247">
+      <c r="A247" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B247" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C247" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
+      <c r="D247" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB delivered a standout 2Q24, with TOI and profit growth sharply accelerating both QoQ and YoY, outpacing sector peers and marking a clear positive surprise.
@@ -9250,29 +9987,29 @@
 SSB’s 2Q24 results mark a clear positive inflection, with strong profit and margin gains and stable asset quality. The bank is leveraging margin expansion and core income growth, but investors should watch for further shifts in coverage and provisioning as growth accelerates.</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>2025-07-30 18:07:58</t>
         </is>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
+    <row r="248">
+      <c r="A248" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
+      <c r="D248" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB’s 3Q24 saw a sharp slowdown in profitability as provision expenses surged, despite continued strong loan growth and resilient margins.
@@ -9289,29 +10026,29 @@
 While the spike in provisions is a clear watchpoint, SSB’s strong loan growth and resilient margins reinforce its growth credentials. The latest results suggest a temporary earnings setback rather than a structural deterioration, with asset quality and coverage trends providing comfort for investors focused on credit risk.</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>2025-07-30 18:08:11</t>
         </is>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
+    <row r="249">
+      <c r="A249" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
+      <c r="D249" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB delivered a solid 4Q24 rebound in profitability, with PBT up 20.6% QoQ, driven by a recovery in topline growth and sharply lower provision expenses.
@@ -9328,29 +10065,29 @@
 SSB’s 4Q24 results mark a positive inflection, with strong loan growth and improved profitability, while asset quality remains under control. The main watchpoint is margin compression, which could limit earnings leverage if yield pressure persists. Overall, SSB’s performance is a constructive signal for growth-focused investors, with manageable risk.</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>2025-07-30 18:08:25</t>
         </is>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
+    <row r="250">
+      <c r="A250" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
+      <c r="D250" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB delivered a dramatic surge in profitability in 1Q25, with TOI and net profit both posting record sequential and annual gains, far outpacing sector trends.
@@ -9367,29 +10104,68 @@
 SSB’s 1Q25 is a clear outlier on profitability, with strong asset quality and prudent provisioning reinforcing the positive surprise. The main watchpoint is the slowdown in loan growth and ongoing margin compression, but the earnings momentum and credit discipline position SSB as a top performer in the current cycle.</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr">
+      <c r="E250" t="inlineStr">
         <is>
           <t>2025-07-30 18:08:38</t>
         </is>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>SSB</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Private_3</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**
+- SSB’s 2Q25 results show a sharp reversal in profitability after an outsized 1Q25, driven by a normalization in other income and a continued squeeze on NIM.
+- Loan growth regained momentum QoQ, but margin compression persisted, signaling a challenging yield environment.
+- Asset quality remains resilient, with NPL and Group 2 ratios stable and coverage still robust versus sector, though coverage dipped this quarter.
+---
+**Profitability:**  
+After a record 1Q25, SSB’s profitability in 2Q25 normalized sharply. Total operating income (TOI) dropped 53.7% QoQ, reflecting a reversal of the one-off surge in 1Q25 (likely from non-recurring income). Net profit (proxied by PBT) fell 65.4% QoQ, returning to levels seen in 4Q24. On a YoY basis, TOI was down 18.5% and PBT slipped 13.1%, signaling a tougher operating environment. ROA and ROE both retraced to 1.4% and 12.3% respectively, after spiking in 1Q25. The key driver was the normalization of income, while lower provision expenses (-49.8% QoQ) provided only partial offset. The quarter’s results were a negative surprise versus the previous quarter’s exceptional performance, but more in line with historical run rates.
+**Loan Growth &amp; NIM:**  
+Loan growth rebounded to 3.6% QoQ in 2Q25, up from 1.8% in 1Q25, and remains solid on a YoY basis. This suggests SSB is regaining lending momentum after a slow start to the year. However, NIM compressed further to 2.8% from 3.0% in 1Q25, continuing a downward trend since 3Q24. Loan yields were broadly stable, so the margin squeeze likely reflects higher funding costs or a shift in asset mix. Sustained NIM pressure is a key concern for forward earnings.
+**Asset Quality:**  
+Asset quality held steady. NPL ratio edged up slightly to 1.95% but remains well below the sector’s 3.1%. Group 2 loans were flat at 0.85%. NPL coverage dipped to 73.6% (from 81.8% in 1Q25), but still outpaces sector coverage. Provisioning dropped sharply, suggesting benign credit costs. No new NPL or G2 formation data was reported, but trends point to stable risk metrics.
+**Investment Implications:**  
+SSB’s 2Q25 results highlight the normalization of earnings after a one-off boost, with margin compression and stable asset quality as the main themes. The bank’s loan growth is recovering, but sustained NIM pressure and lower coverage ratios warrant close monitoring. The quarter is a reset to core earnings, not a deterioration, but upside will depend on margin stabilization and cost discipline.</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:03:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
+      <c r="D252" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB delivered robust loan growth in 1Q23, but profitability softened sharply as topline momentum faded and provision expenses remained elevated.
@@ -9406,29 +10182,29 @@
 VAB’s strong loan expansion and improving asset quality are positives, but the sharp drop in profitability and margin compression temper the outlook. Investors should watch for further pressure on core income and whether margin headwinds persist, as these will be key to earnings recovery.</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
+      <c r="E252" t="inlineStr">
         <is>
           <t>2025-07-30 18:08:49</t>
         </is>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
+    <row r="253">
+      <c r="A253" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
+      <c r="D253" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB’s 2Q23 results show a modest profit rebound on lower provisions, but topline and margin trends remain soft, with profitability ratios slipping further from recent highs.
@@ -9445,29 +10221,29 @@
 VAB’s 2Q23 results highlight a fragile recovery, with profit gains reliant on provision swings rather than core growth. Stalling loan momentum, margin pressure, and deteriorating asset quality suggest rising risk to earnings durability. The negative surprise on NPLs and coverage should weigh on sentiment until trends stabilize.</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E253" t="inlineStr">
         <is>
           <t>2025-07-30 18:09:00</t>
         </is>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
+    <row r="254">
+      <c r="A254" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
+      <c r="D254" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB’s 3Q23 results show a sharp deterioration in profitability, with both TOI and net profit plunging sequentially and year-on-year, driven by weak core income and a spike in provision expenses.
@@ -9484,29 +10260,29 @@
 VAB’s 3Q23 results mark a clear setback, with profitability under severe pressure and business momentum stalling. The collapse in NIM and volatile asset quality metrics raise concerns about earnings durability. Investors should be cautious, as the latest figures point to persistent structural challenges and negative surprises versus expectations.</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="E254" t="inlineStr">
         <is>
           <t>2025-07-30 18:09:14</t>
         </is>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
+    <row r="255">
+      <c r="A255" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
+      <c r="D255" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB delivered a sharp rebound in topline and profit in 4Q23, reversing prior softness, with TOI and PBT both surging QoQ—driven by a spike in core income and margin recovery.
@@ -9523,29 +10299,29 @@
 VAB’s 4Q23 results signal a return to growth and profitability, with margin and asset quality both trending positively. The strong rebound in core income and stable risk metrics support a constructive outlook, though sustainability of topline momentum will be key for investors.</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr">
+      <c r="E255" t="inlineStr">
         <is>
           <t>2025-07-30 18:09:24</t>
         </is>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
+    <row r="256">
+      <c r="A256" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
+      <c r="D256" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB’s 1Q24 results show a sharp pullback in profitability after a strong 4Q23, with both TOI and net profit down sequentially, and core returns (ROA/ROE) retreating to multi-quarter lows.
@@ -9562,29 +10338,29 @@
 VAB’s 1Q24 marks a reset in profitability and margin trends, with asset quality risks re-emerging. The sharp drop in NIM and rising NPLs outweigh the still-solid loan growth, and the weaker coverage ratio is a key watchpoint. Investors should monitor for further earnings volatility and credit cost pressure in coming quarters.</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E256" t="inlineStr">
         <is>
           <t>2025-07-30 18:09:37</t>
         </is>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
+    <row r="257">
+      <c r="A257" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
+      <c r="D257" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB delivered a solid rebound in profitability in 2Q24, with net profit and returns improving sharply QoQ, driven by a steep drop in provision expenses—even as topline growth softened.
@@ -9601,29 +10377,29 @@
 VAB’s earnings rebound is driven by provision relief, not stronger revenue. While loan growth is a bright spot, margin and asset quality trends warrant close monitoring. The positive profit surprise is encouraging, but investors should watch for sustained topline recovery and stabilization in credit metrics.</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>2025-07-30 18:09:47</t>
         </is>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
+    <row r="258">
+      <c r="A258" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
+      <c r="D258" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB delivered robust loan growth in 3Q24, outpacing the sector, but profitability softened as topline and margins continued to compress.
@@ -9640,29 +10416,29 @@
 VAB’s strong loan growth and asset quality gains are encouraging, but persistent margin and topline pressure limit earnings upside. The latest results highlight a need for improved revenue productivity to sustain profitability as competition intensifies.</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>2025-07-30 18:09:58</t>
         </is>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
+    <row r="259">
+      <c r="A259" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
+      <c r="D259" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB delivered a strong rebound in topline growth in 4Q24, with TOI surging 70.4% QoQ, but net profit recovery lagged as provision expenses spiked.
@@ -9679,29 +10455,29 @@
 VAB’s 4Q24 results signal a return to growth and improving risk metrics, though earnings volatility remains a watchpoint. The topline and margin rebound, coupled with better asset quality, should support a more constructive outlook if risk costs stabilize.</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
+      <c r="E259" t="inlineStr">
         <is>
           <t>2025-07-30 18:10:11</t>
         </is>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
+    <row r="260">
+      <c r="A260" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
+      <c r="D260" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB delivered a strong 1Q25 profit rebound, with PBT up 20.8% QoQ and 42.5% YoY, driven by sharply lower provision expenses and robust loan growth, despite a sequential drop in core income.
@@ -9718,29 +10494,68 @@
 VAB’s profit recovery is impressive, but heavily reliant on provision cuts and rapid loan growth. Margin compression and rising early-stage delinquencies temper the outlook. Investors should watch for sustainability in core income and asset quality as growth accelerates.</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="E260" t="inlineStr">
         <is>
           <t>2025-07-30 18:10:25</t>
         </is>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>VAB</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Private_3</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>**Key Takeaways:**  
+1. VAB’s profitability momentum softened in 2Q25, with both TOI and net profit moderating after a strong 1Q25, though YoY growth remains positive.  
+2. Loan growth decelerated QoQ but stayed robust YoY; NIM compressed further, reflecting margin pressure.  
+3. Asset quality showed some deterioration, with a rebound in NPLs and a drop in coverage, but overall credit costs remain low.
+---
+**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**  
+VAB’s profitability cooled in 2Q25 after a strong start to the year. Total operating income (TOI) fell 9.0% QoQ, reversing the 26.3% surge in 1Q25, as the bank normalized from a high base and likely faced softer fee or trading income. Despite this, TOI was still up 3.4% YoY, signaling underlying business resilience. Pre-tax profit (PBT) edged up just 2.4% QoQ, a marked slowdown from the 20.8% jump in 1Q25, but remained 14.5% higher YoY. ROA and ROE both dipped sequentially to 0.86% and 12.2%, respectively, but are still above 2Q24 levels, reflecting improved profitability versus last year. The moderation in profit growth is a mild negative surprise given the strong 1Q25 trajectory.
+**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**  
+Loan growth slowed to 2.9% QoQ in 2Q25 from 6.3% in 1Q25, but the YoY pace remains solid at 22.7%. This suggests VAB is still gaining share, though the deceleration may reflect tighter underwriting or softer demand. Net interest margin (NIM) compressed further to 1.75% from 2.09% in 1Q25, continuing a declining trend. The squeeze likely stems from lower loan yields and possibly rising funding costs, which could weigh on future earnings if not addressed.
+**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**  
+Asset quality trends turned less favorable in 2Q25. NPL ratio rose to 1.11% from a low 0.63% in 1Q25, with positive NPL formation (0.63%) after a period of net recoveries. Group 2 loans also remain elevated versus historical levels. Coverage ratio dropped to 88.3% from 150.2% in 1Q25, though still above the sector’s 43.5%. Provisioning expense stayed low, supporting profits, but the uptick in NPLs warrants close monitoring. Overall, the quarter signals emerging asset quality risks after a period of improvement.
+**Investment Implications:**  
+VAB’s strong loan growth and YoY profit gains are positives, but margin compression and asset quality slippage are key watchpoints. The 2Q25 results signal a need for vigilance on credit costs and margin management, tempering the bullish narrative from earlier quarters.</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:03:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
+      <c r="D262" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB delivered a strong profit rebound in 1Q23, driven by sharply lower provision expenses, despite a sequential dip in core income and a contraction in the loan book.
@@ -9757,29 +10572,29 @@
 VBB’s profit rebound is provision-led, not underpinned by healthier fundamentals. Weak loan growth and mounting asset quality risks overshadow the headline earnings surprise. Investors should monitor for further credit deterioration and the sustainability of earnings as provision leeway narrows.</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
+      <c r="E262" t="inlineStr">
         <is>
           <t>2025-07-30 18:10:36</t>
         </is>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
+    <row r="263">
+      <c r="A263" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
+      <c r="D263" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB delivered a strong rebound in loan growth and topline in 2Q23, but profitability softened as provision expenses normalized and margins compressed.
@@ -9796,29 +10611,29 @@
 VBB’s 2Q23 results show a pivot to growth, but margin and earnings pressure are now more visible as provision expenses normalize. The asset quality improvement is a positive surprise, but investors should watch for further NIM compression and the sustainability of credit cost control.</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="E263" t="inlineStr">
         <is>
           <t>2025-07-30 18:10:51</t>
         </is>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
+    <row r="264">
+      <c r="A264" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
+      <c r="D264" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB’s 3Q23 results show a sharp deterioration in profitability, with both TOI and net profit plunging sequentially and year-on-year, as margin compression and weak core income take hold.
@@ -9835,29 +10650,29 @@
 VBB’s earnings engine has stalled, with margin pressure and weak income overwhelming modest loan growth. Asset quality is a growing concern given thin coverage. The latest results are a clear negative surprise, raising questions on sustainability and risk management. Investors should be cautious until margin and credit trends stabilize.</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>2025-07-30 18:11:02</t>
         </is>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
+    <row r="265">
+      <c r="A265" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
+      <c r="D265" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB delivered a standout 4Q23, with TOI and net profit surging on the back of record loan growth and margin recovery—well ahead of sector trends.
@@ -9874,29 +10689,29 @@
 VBB’s 4Q23 results mark a clear inflection point, with strong growth, margin recovery, and improving asset quality. The positive surprise on all fronts should support a constructive outlook and renewed investor confidence heading into 2024.</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="E265" t="inlineStr">
         <is>
           <t>2025-07-30 18:11:13</t>
         </is>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
+    <row r="266">
+      <c r="A266" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
+      <c r="D266" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB’s 1Q24 results show a sharp reversal in profitability, with both TOI and net profit dropping steeply QoQ and YoY, as provision expenses surged back to previous highs.
@@ -9913,29 +10728,29 @@
 VBB’s 1Q24 marks a sharp reset after a strong 4Q23, with profitability and loan growth momentum both stalling and asset quality risks edging up. The negative surprise on earnings and margin compression will weigh on sentiment, and investors should watch for further credit cost volatility ahead.</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="E266" t="inlineStr">
         <is>
           <t>2025-07-30 18:11:22</t>
         </is>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
+    <row r="267">
+      <c r="A267" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
+      <c r="D267" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB delivered a sharp rebound in profitability in 2Q24, with both TOI and PBT surging sequentially, reversing the weak start to the year.
@@ -9952,29 +10767,29 @@
 VBB’s strong 2Q24 rebound resets the earnings trajectory, with growth and margin momentum back in focus. While asset quality bears watching, the latest results reinforce a constructive outlook for the bank’s near-term performance.</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr">
+      <c r="E267" t="inlineStr">
         <is>
           <t>2025-07-30 18:11:36</t>
         </is>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
+    <row r="268">
+      <c r="A268" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
+      <c r="D268" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB delivered a strong 3Q24, with profitability and topline growth accelerating both QoQ and YoY, outpacing sector trends and marking a clear positive surprise.
@@ -9991,29 +10806,29 @@
 VBB’s 3Q24 marks a clear positive inflection, with accelerating profitability, resilient margins, and improving asset quality. The results beat expectations and reinforce VBB’s positioning as a sector outperformer, with strong earnings leverage and manageable risk.</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
+      <c r="E268" t="inlineStr">
         <is>
           <t>2025-07-30 18:11:48</t>
         </is>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
+    <row r="269">
+      <c r="A269" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
+      <c r="D269" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB delivered a strong topline rebound in 4Q24, but profitability softened as provision expenses surged and margins compressed.
@@ -10030,29 +10845,29 @@
 VBB’s strong revenue recovery is offset by rising risk costs and margin compression, but the decisive improvement in asset quality and coverage is a clear positive surprise. Investors should watch for further margin pressure, but the bank’s proactive provisioning and credit clean-up support a more resilient outlook.</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>2025-07-30 18:12:00</t>
         </is>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
+    <row r="270">
+      <c r="A270" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
+      <c r="D270" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB’s 1Q25 saw a sharp pullback in profitability, with both TOI and net profit down sequentially, as core income softened and provision reversals faded.
@@ -10069,7 +10884,7 @@
 VBB’s 1Q25 results highlight a challenging profitability environment, with margin and income pressures outweighing solid loan growth and improving asset quality. The positive surprise on credit risk containment is offset by weaker earnings momentum, suggesting investors should watch for further margin compression and topline volatility.</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>2025-07-30 18:12:11</t>
         </is>

--- a/Data/banking_comments.xlsx
+++ b/Data/banking_comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E270"/>
+  <dimension ref="A1:E249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,59 +805,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ACB</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Private_1</t>
+          <t>SOCB</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2Q25</t>
+          <t>1Q23</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-- ACB delivered a strong earnings rebound in 2Q25, with profitability metrics recovering sharply after a soft 1Q25, driven by robust TOI growth and improved asset quality.
-- Loan growth accelerated both QoQ and YoY, but NIM remained under pressure, reflecting a challenging margin environment.
-- Asset quality improved, with NPL and Group 2 ratios dropping, and coverage ratios rising, signaling effective risk management.
----
-**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**
-ACB’s 2Q25 results mark a decisive turnaround in profitability. Total operating income (TOI) surged 17.4% QoQ and 7.4% YoY, reversing the 7.5% QoQ dip in 1Q25. This rebound was the key driver behind pre-tax profit (PBT) jumping 32.6% QoQ and 8.8% YoY, outpacing sector growth. ROA and ROE recovered to 2.1% and 22.4% respectively, up from 1.7% and 17.3% in 1Q25, returning to levels seen in late 2024. The sharp profit recovery was fueled by strong fee and core income momentum, while provision expenses normalized after a spike last quarter. The positive surprise in earnings signals ACB’s resilience and ability to defend profitability amid margin headwinds.
-**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**
-Loan growth accelerated to 5.9% QoQ and 9.4% YTD, outpacing the sector’s 8.6% YTD. This reflects ACB’s effective credit expansion strategy and strong demand from retail and SME segments. However, NIM remained subdued at 2.98%, only marginally up from 2.95% in 1Q25, and well below 3.5%+ levels in 2024. The persistent NIM compression is due to lower loan yields (7.3% in 2Q25 vs. 8.3% in 1Q24) and intense deposit competition. While volume growth is robust, margin pressure remains a key watchpoint for future earnings trajectory.
-**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**
-Asset quality improved notably in 2Q25. NPL ratio dropped to 1.26% from 1.48% in 1Q25, while Group 2 loans fell to 0.47%. NPL coverage rose to 76.3%, up from 72.1% last quarter, reflecting prudent provisioning. The reduction in both NPL and Group 2 ratios, alongside higher coverage, points to effective risk controls and a lower risk of future credit losses. This improvement stands out against a still-elevated sector NPL backdrop and supports a more constructive outlook on ACB’s risk profile.
-**Investment Implications**
-ACB’s 2Q25 results are a positive surprise, with strong profit recovery and improving asset quality offsetting margin headwinds. Sustained loan growth and risk discipline position ACB well for further earnings momentum, though NIM pressure remains a key risk to monitor.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2025-07-31 18:58:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>BID</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SOCB</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1Q23</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 1Q23 performance shows a strong loan growth, outpacing the sector, but a slight dip in TOI and a rise in provision expenses indicate potential challenges.
@@ -873,29 +834,29 @@
 BID's strong loan growth and profitability are positive signs, but the dip in TOI and rising asset quality risks could pose challenges. Investors should monitor the bank's asset quality and margin pressure closely. Despite the challenges, BID's robust profitability and strong loan growth make it a compelling investment.</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2025-07-30 16:47:46</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 2Q23 performance shows a mixed bag with a slight increase in profitability, but a slowdown in loan growth and a dip in asset quality.
@@ -911,29 +872,29 @@
 While BID's profitability remained stable in 2Q23, the slowdown in loan growth and deteriorating asset quality could weigh on future earnings. Investors should monitor the bank's asset quality and loan growth trends closely. The bank's performance in these areas will be critical in determining its future profitability and investment attractiveness.</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2025-07-30 16:48:26</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 3Q23 performance shows a mixed bag with a slight uptick in TOI but a decline in profitability, driven by a rise in provision expenses.
@@ -949,29 +910,29 @@
 While BID's loan growth and NIM show positive signs, the decline in profitability and concerns over asset quality could weigh on investor sentiment. The bank needs to manage its provision expenses and improve its asset quality to enhance its financial performance.</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2025-07-30 16:49:02</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 4Q23 performance was marked by a significant surge in loan growth and profitability, outperforming the sector. However, asset quality indicators such as NPL and G2 ratios showed a slight increase, indicating a need for careful monitoring.
@@ -987,29 +948,29 @@
 BID's strong 4Q23 performance, characterized by robust loan growth and improved profitability, positions the bank favorably for future growth. However, the slight uptick in asset quality indicators warrants careful monitoring. Overall, BID's performance is positive, with the bank demonstrating effective management and resilience in a challenging environment.</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2025-07-30 16:49:48</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 1Q24 performance showed a slowdown in loan growth and a significant drop in TOI, indicating a challenging quarter.
@@ -1025,29 +986,29 @@
 BID's 1Q24 performance showed signs of potential challenges in the bank's lending business and potential credit risk concerns. However, the bank's profitability remained relatively stable despite the challenging quarter. Investors should monitor the bank's asset quality indicators and loan growth for potential risks.</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2025-07-30 16:50:17</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 2Q24 performance showed a strong rebound in profitability, driven by a surge in TOI and a reduction in provision expenses. 
@@ -1063,29 +1024,29 @@
 BID's 2Q24 performance showed strong momentum in profitability and loan growth, outpacing the sector. However, the slight uptick in asset quality indicators and below-average NIM and ROE suggest room for improvement. Investors should monitor BID's asset quality and margin management in the coming quarters.</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2025-07-30 16:50:57</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 3Q24 performance was marked by a slowdown in loan growth and a decline in profitability, with ROA and ROE both falling below sector averages.
@@ -1101,29 +1062,29 @@
 BID's 3Q24 performance highlights the challenges of slowing loan growth and declining profitability. While the bank's loan growth remains positive YTD, the deterioration in asset quality and the decline in profitability ratios are areas of concern. Investors should monitor these trends closely in the coming quarters.</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2025-07-30 16:51:36</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 4Q24 performance was marked by robust loan growth and a significant surge in TOI, outperforming sector averages. However, asset quality indicators showed a slight deterioration.
@@ -1139,29 +1100,29 @@
 BID's strong loan growth and profitability metrics indicate a positive growth momentum. However, the bank's lower NPL coverage ratio compared to the sector suggests potential credit risks. Investors should monitor the bank's asset quality indicators closely in the upcoming quarters.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2025-07-30 16:52:13</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>BID</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BID's 1Q25 performance was marked by a slowdown in loan growth and a sharp contraction in profitability, driven by a significant drop in TOI and rising asset quality concerns.
@@ -1177,68 +1138,29 @@
 The sharp profitability drop and accelerating asset-quality risks overshadow BID’s still-healthy underlying loan growth. Investors should monitor further margin pressure and slippage, as surprises are turning negative after an encouraging 2024.</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2025-07-30 16:52:53</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>BID</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CTG</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-1. BID’s profitability rebounded in 2Q25, but margins remain under pressure and asset quality risks are rising.
-2. Loan growth regained momentum QoQ, yet NIM recovery is tepid and well below sector averages.
-3. Asset quality deteriorated further, with NPLs and coverage ratios moving in the wrong direction.
----
-**Profitability:**  
-BID delivered a strong sequential recovery in 2Q25, with TOI up 23.4% QoQ and PBT rising 16.3% after a weak 1Q25. YoY, TOI climbed 9.2% and PBT rose 5.7%, signaling a return to growth, though still lagging sector YoY PBT growth of 26.9%. The bounce was driven by higher operating income, but provision expenses also surged 33.2% QoQ, reflecting rising credit costs. ROA and ROE improved to 0.94% and 16.9% respectively, but both remain below 2Q24 levels and sector averages, highlighting ongoing profitability headwinds. The improvement versus 1Q25 is positive, but the pace lags peers and expectations.
-**Loan Growth &amp; NIM:**  
-Loan growth accelerated to 3.5% QoQ in 2Q25 (vs. 2.5% in 1Q25), but remains behind the sector’s 5.0%. YoY, BID’s loan book expanded 16.1%, showing solid underlying demand. However, NIM edged up only slightly to 2.08% from 2.02% in 1Q25, still well below last year’s 2.50% and the sector’s 2.39%. Loan yields ticked up, but funding costs and asset mix continue to weigh on margins. The muted NIM recovery is a key concern, limiting earnings leverage from loan growth.
-**Asset Quality:**  
-Asset quality trends are negative. NPL ratio rose to 1.98% in 2Q25, up from 1.89% in 1Q25 and above the sector’s 1.48%. Group 2 loans fell, but the NPL coverage ratio dropped further to 0.89x, signaling weaker loss absorption capacity. Elevated provision expenses and rising NPLs point to ongoing stress in the loan book. The lack of improvement in formation rates and declining coverage are red flags for future risk costs.
-**Investment Implications:**  
-While BID’s earnings rebounded, margin compression and deteriorating asset quality overshadow the topline recovery. The bank’s slower NIM and coverage trends versus peers suggest continued pressure on profitability and capital, making the latest results a modest negative surprise. Investors should watch for sustained margin improvement and stabilization in credit costs before turning more constructive.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2025-07-31 18:58:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>CTG</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>SOCB</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG's 1Q23 performance shows a strong loan growth, outpacing the sector, but a slight dip in TOI and a rise in provision expense.
@@ -1254,29 +1176,29 @@
 CTG is showing strong loan growth and business expansion, but with slight pressure on net interest income and potential risks in asset quality. The latest results highlight the need for improved operational efficiency and risk management.</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2025-07-30 16:53:26</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG's 2Q23 results show a steady growth in loans and TOI, outpacing the sector, while maintaining a stable asset quality. 
@@ -1292,29 +1214,29 @@
 CTG's steady growth in loans and TOI, along with stable asset quality, indicates a positive trend. However, the slight decrease in NIM and increase in NPL formation warrant close monitoring. Overall, CTG's performance in 2Q23 is positive, with potential for further growth.</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2025-07-30 16:54:09</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG's 3Q23 performance shows a mixed picture with a slight dip in profitability and TOI, despite a steady loan growth.
@@ -1330,29 +1252,29 @@
 CTG's steady loan growth and improving NPL coverage ratio are positive signs. However, the decline in profitability and TOI, coupled with a slight increase in asset quality risks, suggest the need for careful risk management and revenue generation strategies. Investors should monitor these trends closely in the coming quarters.</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2025-07-30 16:54:44</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG's 4Q23 performance was marked by a strong surge in loan growth and profitability, significantly outpacing the sector. 
@@ -1368,29 +1290,29 @@
 CTG's strong performance in 4Q23, marked by robust loan growth, improved profitability, and better asset quality, positions it favorably in the sector. The bank's ability to manage risk costs while expanding its loan book is a positive indicator for investors. However, maintaining this momentum will be key to sustaining its strong performance.</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2025-07-30 16:55:30</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG's 1Q24 performance shows a mixed picture with loan growth and TOI outpacing the sector, but profitability and asset quality indicators trailing behind.
@@ -1406,29 +1328,29 @@
 While CTG's loan growth and TOI performance are encouraging, the increase in provision expenses and potential credit risks pose challenges. Investors should monitor these trends closely in the upcoming quarters.</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2025-07-30 16:56:04</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG's 2Q24 performance shows a solid loan growth and TOI expansion, outpacing the sector, but profitability metrics (ROA, ROE) are slightly lagging behind.
@@ -1444,29 +1366,29 @@
 CTG's strong loan growth and TOI expansion are positive signs. However, the upward trend in NPL and G2 ratios, coupled with a sharp drop in NPL coverage ratio, could be a concern for investors. The bank's profitability is also slightly lagging behind the sector, which needs to be monitored in the future quarters.</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2025-07-30 16:56:41</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG's 3Q24 performance was marked by strong loan growth and a significant increase in TOI, outpacing the sector. However, profitability remained relatively flat due to increased provision expenses.
@@ -1482,29 +1404,29 @@
 CTG's strong growth in TOI and loan book is encouraging, but the increase in provision expenses and slight deterioration in asset quality could pose risks to future profitability. Investors should closely monitor these trends in the coming quarters.</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2025-07-30 16:57:20</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG delivered a strong 4Q24 with a significant surge in profitability, driven by robust loan growth and a sharp reduction in provision expenses.
@@ -1520,29 +1442,29 @@
 CTG's strong 4Q24 results, driven by robust loan growth and a sharp reduction in provision expenses, indicate a positive trend. However, the sustainability of this earnings momentum and the potential impact of the declining loan yield should be monitored. Overall, CTG's performance in 4Q24 represents a positive surprise versus expectations.</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2025-07-30 16:58:01</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>CTG</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. CTG's 1Q25 performance was marked by strong loan growth, outpacing the sector, but profitability was hit due to a drop in TOI and a rise in provision expenses.
@@ -1558,68 +1480,29 @@
 The sharp profitability drop and accelerating asset-quality risks overshadow CTG’s still-healthy underlying loan growth. Investors should monitor further margin pressure and slippage, as surprises are turning negative after an encouraging 2024.</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2025-07-30 16:58:38</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>CTG</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>SOCB</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-1. CTG delivered a sharp profit rebound in 2Q25, driven by a steep drop in provision expenses, despite continued NIM compression.
-2. Loan growth accelerated both QoQ and YoY, outpacing the sector, but margin pressure remains a headwind.
-3. Asset quality improved, with lower NPL and Group 2 ratios, while coverage stayed robust.
----
-**Profitability:**  
-CTG’s 2Q25 profit before tax surged 77.3% QoQ and 79.2% YoY, a positive surprise after a muted 1Q25. This was almost entirely due to a dramatic 63.3% QoQ reduction in provision expenses, reversing the spike seen in 1Q25. Total operating income (TOI) grew 2.3% QoQ and 6.5% YoY, showing resilience despite margin pressure. ROA and ROE rebounded to 1.54% and 24.3% respectively, up sharply from 0.91% and 14.3% in 1Q25, but still trailing sector averages. The key driver was lower credit cost, not topline growth, suggesting the profit jump may not be fully sustainable if provisioning normalizes.
-**Loan Growth &amp; NIM:**  
-Loan growth momentum accelerated, with balances up 5.9% QoQ and 10.7% YTD, outpacing the SOCB sector’s 5.0% and 8.0%. This signals strong credit demand and CTG’s ability to capture market share. However, NIM slipped further to 2.53% in 2Q25 from 2.58% in 1Q25, continuing a multi-quarter downtrend. The squeeze reflects lower loan yields (down to 6.29%) and likely ongoing funding cost pressure. While volume growth is robust, margin compression remains a structural challenge and could cap earnings upside if not addressed.
-**Asset Quality:**  
-Asset quality trends were positive. NPL ratio improved to 1.31% from 1.55% in 1Q25, and Group 2 loans dropped to 0.96%. NPL coverage remained solid at 135%, above the sector’s 126%. The improvement was driven by better recoveries and a clean-up of problem loans, as seen in the negative NPL formation in 4Q24 and stable Group 2 formation. With credit costs normalizing and coverage still healthy, CTG’s risk profile looks manageable, supporting a more constructive outlook if loan quality holds.
-**Investment Implications:**  
-CTG’s 2Q25 results mark a strong turnaround on the back of lower provisions and accelerating loan growth. However, persistent NIM pressure and the reliance on lower credit costs for profit growth are key risks. Sustained improvement will require stabilization in margins and continued asset quality discipline.</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2025-07-31 18:58:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 1Q23 performance shows a mixed picture with a slight contraction in loan growth and a drop in TOI, but profitability remained strong due to lower provision expenses.
@@ -1635,29 +1518,29 @@
 While EIB's profitability remains strong, the contraction in loan growth and deterioration in asset quality indicators pose potential risks. Investors should monitor these trends closely, particularly the bank's ability to manage its credit risks and maintain its profitability amidst a challenging environment.</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2025-07-30 16:59:17</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 2Q23 performance was marked by a slowdown in profitability and loan growth, with a significant drop in TOI and a rise in asset quality concerns.
@@ -1673,29 +1556,29 @@
 EIB's declining profitability and deteriorating asset quality overshadow its modest loan growth. Investors should monitor further margin pressure and asset quality slippage, as the bank's performance trends are turning negative.</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2025-07-30 16:59:55</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 3Q23 performance was marked by a significant slowdown in profitability, with a sharp decline in TOI and a decrease in ROA and ROE.
@@ -1711,29 +1594,29 @@
 EIB's 3Q23 performance presents a mixed picture. While loan growth remains positive, the significant decline in profitability and potential asset quality risks could impact future performance. Investors should monitor these trends closely in the coming quarters.</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2025-07-30 17:00:33</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 4Q23 showed a strong rebound in profitability, driven by a surge in TOI and a significant drop in provision expenses. However, asset quality indicators such as NPL and Group 2 ratios showed a slight uptick, indicating potential credit risks.
@@ -1749,29 +1632,29 @@
 EIB's strong rebound in profitability and robust loan growth are positive signs. However, the persistent NIM compression and emerging asset quality risks could pose challenges to the bank's performance. Investors should closely monitor these trends in the upcoming quarters.</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2025-07-30 17:01:17</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 1Q24 performance showed a mixed picture with strong loan growth but a decline in profitability and deteriorating asset quality.
@@ -1787,29 +1670,29 @@
 While EIB is showing strong loan growth, the declining profitability and deteriorating asset quality pose risks. Investors should monitor further margin pressure and asset quality slippage, as surprises are turning negative after an encouraging 4Q23.</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2025-07-30 17:01:53</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 2Q24 performance showed a strong rebound in profitability, driven by a surge in TOI and a decrease in provision expenses. However, the bank's asset quality indicators (NPL and Group 2) showed a slight deterioration.
@@ -1825,29 +1708,29 @@
 EIB's 2Q24 results showed a strong rebound in profitability, driven by a surge in TOI and a decrease in provision expenses. However, the bank's asset quality indicators showed a slight deterioration, which investors should monitor closely. The bank's ROA and ROE improved, but still lagged behind the sector average, indicating a need for further efficiency improvements.</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2025-07-30 17:02:31</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 3Q24 performance showed a strong loan growth momentum, outpacing the sector, with a slight increase in NPL and G2 formation.
@@ -1863,29 +1746,29 @@
 EIB's strong loan growth and steady profitability are positive signs. However, the declining NIM and loan yield, along with a slight increase in NPL and G2 formation, indicate potential risks. Investors should closely monitor these trends for future investment decisions.</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2025-07-30 17:03:07</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 4Q24 performance was marked by robust loan growth and a significant surge in TOI, outperforming the sector. However, profitability was driven by lower provision expenses, indicating potential future risks.
@@ -1901,29 +1784,29 @@
 EIB's robust growth and improved profitability in 4Q24 are positive signs. However, the reliance on lower provision expenses for profitability and the mixed signals in asset quality warrant caution. Investors should monitor these risk factors closely in the coming quarters.</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2025-07-30 17:04:06</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>EIB</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. EIB's 1Q25 performance shows a strong loan growth, outpacing the sector, but profitability was impacted by a significant drop in TOI and a decrease in provision expenses.
@@ -1939,68 +1822,29 @@
 EIB's strong loan growth is a positive sign, but the contraction in NIM and the slight increase in NPL ratio indicate potential challenges in profitability and asset quality. Investors should monitor these trends closely in the coming quarters.</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2025-07-30 17:04:29</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>EIB</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HDB</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-- EIB’s profitability momentum weakened sharply in 2Q25, with both ROA and ROE falling to multi-quarter lows as profit before tax (PBT) dropped for a second straight quarter.
-- Loan growth stalled after a strong 1Q25, while NIM showed only a slight recovery, reflecting margin pressure.
-- Asset quality remained stable, but coverage ratios improved, signaling a cautious stance amid a flat NPL trend.
----
-**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**  
-EIB’s profitability lost steam in 2Q25. Total operating income (TOI) rebounded 8.9% QoQ after a weak 1Q25, but this was not enough to offset higher provision expenses, which surged 58.7% QoQ. As a result, PBT fell 21.0% QoQ and was down 19.2% YoY, marking a negative surprise versus the prior year’s strong trajectory. Both ROA and ROE dropped to 0.8% and 7.8%, respectively, their lowest levels in six quarters. The sharp drop in profitability reflects both margin compression and a normalization of credit costs after an unusually low 1Q25.
-**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**  
-Loan growth decelerated sharply to just 1.2% QoQ in 2Q25, following a robust 9.3% expansion in 1Q25. On a YoY basis, loan growth was 24.8%, but the sequential slowdown signals waning momentum. Net interest margin (NIM) edged up to 2.4% from 2.3% in 1Q25, but remains well below last year’s levels. The modest NIM recovery was driven by a slight uptick in loan yields, but funding cost pressures and competitive lending continue to cap margin upside.
-**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**  
-Asset quality was broadly steady. The NPL ratio ticked up marginally to 2.7% from 2.6% in 1Q25, while Group 2 loans also rose slightly. NPL formation data was unavailable, but the stable ratios suggest no major deterioration. Importantly, the NPL coverage ratio improved to 41.2% from 38.7% in 1Q25, reflecting a more conservative provisioning approach. This provides some buffer, but coverage remains below sector averages, highlighting a key area for further strengthening.
-**Investment Implications:**  
-The 2Q25 results mark a clear slowdown in EIB’s earnings and loan growth momentum, with margin and asset quality pressures persisting. The sharp drop in profitability and only modest NIM recovery are negative surprises versus recent trends. Investors should watch for signs of a sustained rebound in core income and further strengthening of provisioning coverage to restore confidence in the bank’s earnings trajectory.</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>2025-07-31 18:58:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>HDB</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Private_2</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 1Q23 performance shows a strong loan growth momentum, outpacing the sector, but profitability is under pressure with a dip in TOI and rising asset quality concerns.
@@ -2016,29 +1860,29 @@
 The strong loan growth and recovering PBT are positive signs, but the declining TOI and deteriorating asset quality pose significant risks. Investors should monitor further margin pressure and asset quality slippage, as surprises are turning negative after an encouraging 4Q22.</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2025-07-30 17:05:00</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 2Q23 performance was marked by a significant increase in TOI and provision expenses, while loan growth decelerated and asset quality deteriorated.
@@ -2054,29 +1898,29 @@
 HDB's 2Q23 results highlight the challenges of rising credit costs and deteriorating asset quality, which are weighing on profitability despite strong TOI growth. Investors should monitor the bank's asset quality indicators and provision expenses closely, as further deterioration could pose risks to earnings.</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2025-07-30 17:05:43</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 3Q23 performance shows a mixed bag with a slight uptick in profitability and loan growth, but a worrying trend in asset quality.
@@ -2092,29 +1936,29 @@
 While HDB's profitability improved in 3Q23, the decline in TOI and deteriorating asset quality are areas of concern. Investors should monitor the bank's ability to manage its asset quality and maintain its income levels in the coming quarters.</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2025-07-30 17:06:22</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 4Q23 results showed a strong surge in loan growth and TOI, significantly outpacing the sector, while profitability metrics (ROA, ROE) also improved, reflecting the bank's robust operational performance.
@@ -2130,29 +1974,29 @@
 HDB's strong loan growth and profitability improvement in 4Q23 are positive signs. However, the mixed trends in asset quality and the increase in provision expenses could pose some risks. Investors should monitor these trends closely in the future.</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2025-07-30 17:07:03</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 1Q24 performance showed a slowdown in profitability and loan growth, while asset quality indicators such as NPL and Group 2 ratios increased, indicating potential credit risks.
@@ -2168,29 +2012,29 @@
 While HDB's 1Q24 performance shows a slowdown in profitability and loan growth, its performance remains strong compared to the sector. However, the increase in NPL and Group 2 ratios, along with the decline in NIM and loan yield, suggest potential risks to revenue generation and profitability. Investors should monitor these trends closely.</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2025-07-30 17:07:40</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 2Q24 performance shows a strong loan growth momentum, outpacing the sector, and a significant improvement in profitability, driven by a robust increase in TOI and a decrease in provision expenses.
@@ -2206,29 +2050,29 @@
 HDB's strong loan growth and profitability performance in 2Q24, coupled with a manageable asset quality risk, make it an attractive investment. However, investors should closely monitor the bank's asset quality indicators and loan yield for any potential risks.</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2025-07-30 17:08:19</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 3Q24 performance shows a consistent growth in profitability and loan book, outpacing the sector. However, asset quality indicators such as NPL and Group 2 ratios show a slight improvement but still lag behind sector averages.
@@ -2244,29 +2088,29 @@
 HDB's consistent growth in profitability and loan book, along with improved asset quality indicators, make it an attractive investment. However, the slight decrease in NIM and lagging asset quality indicators compared to sector averages should be monitored closely.</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2025-07-30 17:08:51</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 4Q24 performance showed robust loan growth and a significant increase in TOI, outpacing the sector. However, profitability indicators such as ROA and ROE declined, and asset quality showed signs of deterioration.
@@ -2282,29 +2126,29 @@
 While HDB's robust loan growth and strong TOI performance are positive, the downward trend in profitability metrics and potential credit risks cannot be overlooked. Investors should monitor the bank's asset quality and margin pressure closely.</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2025-07-30 17:09:35</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>HDB</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. HDB's 1Q25 performance shows a mixed picture with a strong profit before tax (PBT) growth but a decline in total operating income (TOI) and net interest margin (NIM). 
@@ -2320,67 +2164,29 @@
 While HDB's profitability improved in 1Q25, the decline in TOI and NIM, slowdown in loan growth, and deterioration in asset quality indicators suggest potential challenges ahead. Investors should monitor these trends closely in the coming quarters.</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2025-07-30 17:10:17</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>HDB</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>LPB</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-1. HDB delivered a sharp acceleration in loan and TOI growth in 2Q25, but profitability was dented by a spike in provision expenses and weaker asset quality.
-2. NIM rebounded strongly after a dip, but rising NPLs and falling coverage ratios raise concerns about credit costs and future earnings quality.
----
-**Profitability:**  
-HDB’s total operating income (TOI) surged 26.4% QoQ and 40.3% YoY in 2Q25, marking its strongest topline growth in recent quarters. However, this impressive revenue momentum did not fully translate to the bottom line. Pre-tax profit (PBT) fell 12.0% QoQ, despite still rising 13.9% YoY, as provision expenses more than tripled QoQ. ROA and ROE both dropped sharply from 1Q25 highs (ROA: 2.5% → 2.0%, ROE: 28.8% → 22.4%), reversing the previous quarter’s gains. The key driver was a significant increase in credit costs, which offset the robust income growth. This outcome is a negative surprise versus the strong topline and signals that asset quality pressures are now weighing on profitability.
-**Loan Growth &amp; NIM:**  
-Loan growth accelerated dramatically to 14.1% QoQ and 15.1% YTD, far outpacing the sector’s 6.9% QoQ and 12.8% YTD. This signals a clear gain in market share and aggressive expansion. NIM rebounded to 5.7% in 2Q25 from a low of 4.6% in 1Q25, reversing the prior quarter’s compression and outperforming the sector’s 3.9%. The NIM recovery was driven by improved funding costs and a higher share of high-yield lending, even as loan yields continued to edge down. The strong NIM and loan growth are positive, but the sustainability is in question given rising asset quality risks.
-**Asset Quality:**  
-NPL ratio rose to 2.5% in 2Q25 (from 2.4% in 1Q25), while Group 2 loans improved to 3.9% (from 5.4%), suggesting some early-stage stress has been resolved or upgraded. However, NPL coverage fell further to 47.2%, well below both historical levels and the sector average, reflecting weaker provisioning buffers. The spike in provision expenses and the uptick in NPLs point to rising credit costs and potential for further earnings volatility. This is a key risk to monitor, as it could constrain future profitability despite strong growth.
-**Investment Implications:**  
-While HDB’s growth engine is firing, the combination of rising credit costs and thinning coverage ratios tempers the outlook. Investors should watch for further asset quality deterioration, which could undermine the bank’s earnings momentum.</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>2025-07-31 18:58:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>LPB</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Private_2</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB's 1Q23 performance shows a mixed bag with loan growth outpacing the sector, but TOI and profitability metrics (ROA, ROE) are on a declining trend.
@@ -2396,29 +2202,29 @@
 While LPB's loan growth remains strong, the declining profitability and deteriorating asset quality pose significant risks. Investors should monitor further margin pressure and asset quality slippage, as surprises are turning negative after an encouraging 2022.</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2025-07-30 17:10:49</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB's 2Q23 performance was marked by a significant increase in loan growth, but profitability was hampered by a sharp decline in TOI and a rise in provision expenses.
@@ -2434,29 +2240,29 @@
 While LPB's loan growth is encouraging, the declining profitability and deteriorating asset quality pose significant concerns. The bank's ability to manage its asset quality and improve its NIM will be crucial in determining its future performance. Investors should monitor these developments closely.</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2025-07-30 17:11:24</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB's 3Q23 performance shows a mixed bag, with a rebound in profitability but a slowdown in loan growth and a concerning rise in NPLs.
@@ -2472,29 +2278,29 @@
 LPB's 3Q23 results show a mixed performance with improving profitability but slowing loan growth and deteriorating asset quality. The bank's ability to manage its credit risks while maintaining loan growth will be key to its future performance. Investors should monitor these trends closely.</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2025-07-30 17:12:05</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB's 4Q23 performance was marked by a significant surge in profitability, driven by a doubling of TOI and a sharp reduction in provision expenses.
@@ -2510,29 +2316,29 @@
 LPB's 4Q23 performance shows strong profitability and robust loan growth, coupled with improved asset quality. This indicates a positive outlook for LPB, although investors should continue to monitor the bank's asset quality and provision expenses.</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2025-07-30 17:12:40</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB delivered a strong 1Q24 with a significant surge in loan growth, outperforming the sector, but profitability was impacted by a drop in TOI and a rise in provision expenses.
@@ -2548,29 +2354,29 @@
 LPB's strong loan growth and profitability moderation present a mixed picture. While the bank is outperforming the sector in terms of loan growth, the pressure on NIM and the potential credit risk due to the lower NPL coverage ratio are areas of concern. Investors should monitor these trends closely in the coming quarters.</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2025-07-30 17:13:24</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB's 2Q24 performance shows a mixed bag with strong TOI growth and profitability, but a slowdown in loan growth and a worrying uptick in asset quality risks.
@@ -2586,29 +2392,29 @@
 LPB's strong TOI growth and profitability are positive, but the slowdown in loan growth and rising asset quality risks could weigh on future performance. Investors should monitor these trends closely. The bank's performance is generally in line with sector trends, but the rising NPL and G2 formation rates warrant caution.</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2025-07-30 17:14:07</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB's 3Q24 performance showed a slowdown in loan growth and profitability, while asset quality indicators pointed to a slight uptick in risk.
@@ -2624,29 +2430,29 @@
 LPB's 3Q24 performance shows a resilient business model, with profitability and loan growth outperforming the sector despite a challenging environment. However, the slight uptick in asset quality indicators warrants monitoring. Overall, LPB's balanced risk profile and robust profitability make it an attractive investment proposition.</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2025-07-30 17:14:37</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB's 4Q24 performance shows a strong growth in loans and TOI, outperforming the sector. However, the bank's asset quality indicators (NPLs, G2) show a slight improvement, but still lag behind sector averages.
@@ -2662,29 +2468,29 @@
 LPB's strong loan growth and improving NIM indicate a positive outlook for the bank. However, the bank's decreasing NPL coverage ratio and slight dip in profitability indicators (ROA, ROE) could be potential risks. Investors should monitor these trends closely.</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2025-07-30 17:15:18</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. LPB's loan growth accelerated in 1Q25, outpacing the sector, but profitability and NIM declined, reflecting pressure on core revenue generation.
@@ -2700,68 +2506,67 @@
 While LPB is delivering strong loan growth, the declining profitability and rising asset quality risks pose challenges. Investors should monitor the impact of falling yields on profitability and the potential for further asset quality deterioration. The latest results highlight the need for LPB to manage these risks effectively to sustain its growth momentum.</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2025-07-30 17:15:55</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>LPB</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>2Q25</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-- LPB’s 2Q25 results show robust loan growth momentum, but profitability is under pressure as margins and returns continue to soften.
-- Asset quality is stable with improving Group 2 loans, but NPL coverage remains below prior highs.
-- The quarter’s figures signal a mixed outlook: strong balance sheet expansion, but earnings and returns are lagging expectations.
----
-**Profitability:**  
-LPB’s profitability softened in 2Q25. Total operating income (TOI) rebounded 4.8% QoQ after a sharp drop in 1Q25, but YoY growth slowed to just 1.6%. Net profit before tax (PBT) fell 5.9% QoQ and slipped 1.5% YoY, reversing the double-digit YoY growth seen in 1Q25. Return on assets (ROA) edged down to 1.9% in 2Q25 from 2.0% in 1Q25, while return on equity (ROE) slipped to 22.1% from 22.7%. The sequential decline in both metrics reflects margin compression and higher provisioning, despite the recovery in TOI. This marks a negative surprise versus the prior trend, as earnings failed to keep pace with balance sheet growth.
-**Loan Growth &amp; NIM:**  
-Loan growth remains a clear bright spot. Loans expanded 4.7% QoQ and 19.3% YoY, sustaining strong momentum above sector averages. However, net interest margin (NIM) recovered only modestly to 3.0% in 2Q25 after a sharp drop to 2.6% in 1Q25, still well below the 3.8% level seen in late 2024. The main driver is a lower loan yield, which, despite a slight QoQ uptick, remains below last year’s levels. This suggests that competitive pricing and funding cost pressures are weighing on core profitability, even as loan volumes surge.
-**Asset Quality:**  
-Asset quality trends are mixed but stable. NPL ratio was steady at 1.74%, while NPL formation slowed to 0.14% in 2Q25, indicating limited new stress. Group 2 loans improved sharply to 0.95% from 1.39% in 1Q25, with negative formation, signaling successful resolution or upgrades. However, NPL coverage edged up only slightly to 75.3%, still below the 83.3% peak in 4Q24, leaving some room for improvement. Overall, credit costs remain manageable, but the lower coverage warrants monitoring if asset quality pressures re-emerge.
-**Investment Implications:**  
-LPB’s strong loan growth is a clear positive, but the persistent margin and return compression, alongside only modest asset quality gains, temper the outlook. Investors should watch for signs of margin stabilization and stronger earnings leverage to justify the rapid balance sheet expansion.</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>2025-07-31 18:59:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. LPB's 2Q25 performance shows a mixed picture with a slight increase in TOI but a decline in profitability metrics such as ROA and ROE.
+2. Loan growth remains positive but has slowed down compared to previous quarters, while NIM has improved slightly.
+3. Asset quality indicators such as NPL and Group 2 ratios remain stable, but the NPL coverage ratio is still below the sector average.
+Profitability:
+LPB's TOI increased by 4.8% QoQ in 2Q25, a modest improvement from the 15.6% decline in 1Q25. However, profitability metrics such as ROA and ROE declined to 1.9% and 22.1% respectively, from 2.0% and 22.7% in 1Q25. This suggests that despite the increase in TOI, LPB's profitability is under pressure.
+Loan Growth &amp; NIM:
+Loan growth slowed to 4.7% QoQ in 2Q25, down from the robust 6.2% in 1Q25, indicating a deceleration in business expansion. However, NIM improved slightly to 3.0% in 2Q25 from 2.6% in the previous quarter, suggesting a recovery in loan yields and effective asset repricing.
+Asset Quality:
+The NPL ratio remained stable at 1.7% in 2Q25, with a slight increase in NPL formation. Group 2 loans also remained stable. However, the NPL coverage ratio improved to 75.3% in 2Q25 from 74.3% in 1Q25, but still trails the sector average, indicating potential risks in asset quality.
+Investment Implications:
+LPB's 2Q25 performance shows a mixed picture with slowing loan growth and declining profitability, but a slight improvement in NIM and stable asset quality. The bank needs to focus on improving its profitability metrics and NPL coverage ratio to align with sector averages.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2025-07-30 17:16:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB delivered a strong rebound in profitability in 1Q23, with PBT and returns sharply up QoQ and solid YoY growth, driven by stable topline and normalized provisions.
@@ -2778,29 +2583,29 @@
 MBB’s strong earnings and growth momentum are offset by clear signs of rising credit risk. The positive profit surprise is encouraging, but asset quality slippage warrants close monitoring as the credit cycle turns.</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2025-07-30 17:29:30</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB delivered robust loan growth in 2Q23, sharply outpacing the sector, but profitability softened as NIM compressed and topline momentum faded.
@@ -2817,29 +2622,29 @@
 MBB’s strong loan expansion is a clear positive, but margin pressure and only modest profit growth temper the outlook. The stabilization in asset quality is encouraging, yet investors should watch for further NIM compression and the sustainability of credit quality gains.</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2025-07-30 17:29:41</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB delivered a strong 3Q23 with a sharp rebound in profit and topline growth, outpacing sector trends on both a QoQ and YoY basis.
@@ -2856,29 +2661,29 @@
 MBB’s strong profit recovery and loan growth reinforce its sector leadership, but margin compression and asset quality slippage are emerging risks. The quarter’s positive surprise on earnings is tempered by the need for vigilance on credit costs and coverage.</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2025-07-30 17:29:53</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB delivered a major acceleration in loan growth in 4Q23, but profitability softened as margins compressed and topline momentum stalled.
@@ -2895,29 +2700,29 @@
 MBB is prioritizing growth, but margin and earnings pressure are emerging as key risks. The quarter’s results highlight the trade-off between rapid loan expansion and profitability, with asset quality trends providing some reassurance but not offsetting margin headwinds. Investors should monitor whether MBB can restore margin resilience as competition intensifies.</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2025-07-30 17:30:08</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB’s 1Q24 results show resilient topline growth but a sharp slowdown in profit, as provision expenses surged and margins compressed further.
@@ -2934,29 +2739,29 @@
 MBB’s 1Q24 results highlight rising risk costs and asset quality headwinds, with profit momentum reversing despite stable topline growth. The sharp spike in provisions and weaker coverage are negative surprises, suggesting investors should monitor credit trends closely as the cycle turns.</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2025-07-30 17:30:19</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB delivered a strong 2Q24 rebound, with TOI and net profit surging on the back of double-digit loan growth and margin recovery.
@@ -2973,29 +2778,29 @@
 MBB’s 2Q24 results mark a clear inflection, with growth, margins, and asset quality all moving in the right direction. The positive surprise on both profitability and risk metrics strengthens the investment case, with renewed momentum and lower credit risk likely to support further rerating.</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2025-07-30 17:30:30</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB’s 3Q24 results show robust loan growth and resilient topline YoY, but profitability softened sequentially as margins and asset quality came under renewed pressure.
@@ -3012,29 +2817,29 @@
 MBB’s growth engine remains strong, but margin and asset quality headwinds are intensifying. The latest results mark a negative inflection in profitability and credit risk, signaling the need for greater caution on earnings durability and capital protection going forward.</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2025-07-30 17:30:47</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB delivered a standout 4Q24, with TOI and profit surging on the back of strong loan growth and a sharp rebound in core banking activity.
@@ -3051,29 +2856,29 @@
 MBB’s 4Q24 results deliver a positive surprise, with strong growth, margin stability, and cleaner asset quality. The bank is regaining momentum, positioning itself as a sector outperformer heading into 2025. Investors should watch for sustainability of this growth and continued discipline on credit risk.</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2025-07-30 17:31:01</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>MBB</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MBB delivered another strong quarter in 1Q25, with net profit up 3.6% QoQ and 44.7% YoY, underpinned by robust topline growth and disciplined cost control, though topline momentum softened sequentially.
@@ -3090,68 +2895,29 @@
 MBB continues to deliver sector-leading profitability and solid growth, but the latest results flag emerging asset quality risks and margin pressure. Investors should watch for further credit slippage and coverage trends, as the positive earnings surprise may be harder to sustain if risk costs rise.</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2025-07-30 17:31:12</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>MBB</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Private_1</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-- MBB delivered robust loan growth in 2Q25, but profitability softened as provision expenses surged and margins edged down.
-- Asset quality improved, with both NPL and Group 2 ratios declining, but the spike in provisioning signals a more cautious risk stance.
-- The quarter’s results show strong underlying business momentum, but rising credit costs and margin compression are key watchpoints for investors.
----
-**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**
-MBB’s total operating income (TOI) rebounded 12.5% QoQ in 2Q25 after a dip in 1Q25, and was up 22.1% YoY, reflecting solid core business expansion. However, pre-tax profit (PBT) fell 10.5% QoQ, reversing the steady gains of prior quarters, as provision expenses jumped 60.3% QoQ. ROA and ROE both declined to 1.96% and 18.7% respectively, down from 2.34% and 21.8% in 1Q25, and below recent peaks. The sharp rise in credit costs more than offset revenue growth, marking a negative surprise versus the bank’s recent earnings trajectory.
-**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**
-Loan growth accelerated to 10.3% QoQ in 2Q25, a clear step-up from the muted 2.8% in 1Q25 and outpacing the sector. On a YoY basis, loans rose 30.9%, underscoring strong franchise momentum. However, net interest margin (NIM) slipped for the fourth straight quarter to 4.14%, driven by lower loan yields and likely funding cost pressure. The margin squeeze, despite robust loan expansion, suggests competitive pricing and/or higher funding costs are weighing on spreads.
-**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**
-Asset quality metrics improved: NPL ratio dropped to 1.60% from 1.84% in 1Q25, and Group 2 loans fell to 1.30%. NPL coverage rose to 88.9%, reflecting the bank’s proactive provisioning. While NPL and G2 formation data are unavailable for the quarter, the sharp increase in provision expenses signals a more conservative approach to risk, possibly in anticipation of future asset quality headwinds. This prudent stance supports balance sheet resilience but weighs on near-term profitability.
-**Investment Implications**
-MBB’s strong loan growth and improved asset quality are positives, but the margin compression and spike in provisioning temper the outlook. Investors should watch for stabilization in credit costs and NIM to gauge the sustainability of earnings momentum.</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>2025-07-31 18:59:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB delivered a sharp rebound in topline and profit in 1Q23, with both TOI and PBT posting strong sequential and double-digit YoY gains, but profitability ratios remain below peak levels.
@@ -3168,29 +2934,29 @@
 MSB’s strong loan and income growth in 1Q23 is encouraging, but margin pressure and asset quality slippage temper the outlook. The positive profit surprise is overshadowed by clear signs of rising risk, warranting caution on earnings durability.</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2025-07-30 17:31:24</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB delivered a sharp rebound in profitability in 2Q23, with TOI and net profit surging both QoQ and YoY, outpacing sector growth.
@@ -3207,29 +2973,29 @@
 MSB’s earnings momentum is back, but margin and asset quality pressures are building. The strong topline is a clear positive, but investors should watch for further credit slippage and margin headwinds in coming quarters.</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2025-07-30 17:31:35</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB’s 3Q23 results show a mixed picture: strong YoY profit growth and resilient loan expansion, but a sequential pullback in earnings and rising asset quality pressure.
@@ -3246,29 +3012,29 @@
 MSB’s growth engine is still running, but the sharp asset quality slippage and earnings volatility warrant caution. Investors should watch for further credit deterioration, as the latest results flag a shift from margin and profit strength to risk management as the top priority.</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2025-07-30 17:31:48</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB’s 4Q23 results show a sharp drop in profitability, with both TOI and net profit falling sequentially as margins compressed and provision relief faded.
@@ -3285,29 +3051,29 @@
 MSB’s aggressive loan growth is coming at the expense of margins and risk buffers. The sharp profit drop and weaker coverage are negative surprises, raising questions about the sustainability of current growth and the bank’s resilience to future shocks. Investors should watch for further margin pressure and asset quality slippage.</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2025-07-30 17:32:04</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB delivered a sharp rebound in profitability in 1Q24, with both TOI and PBT recovering strongly from a weak 4Q23, but margins and returns remain below recent highs.
@@ -3324,29 +3090,29 @@
 MSB’s earnings recovery is encouraging, but margin compression and asset quality slippage temper the outlook. The latest results are a mixed surprise—profitability bounced, but underlying risk and margin trends remain negative. Investors should watch for further credit cost pressure and signs of stabilization in yields.</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2025-07-30 17:32:17</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB delivered a strong 2Q24 with accelerating loan growth and a sharp rebound in topline and profit, outpacing sector momentum.
@@ -3363,29 +3129,29 @@
 MSB’s 2Q24 results show a decisive return to growth, with earnings and loan expansion outpacing peers. Margin compression and rising group 2 loans are watchpoints, but the topline rebound and improved coverage support a constructive outlook. Investors should focus on the sustainability of loan growth and asset quality trends in coming quarters.</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2025-07-30 17:32:31</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB’s 3Q24 saw a sharp reversal in profitability, with both TOI and net profit dropping sequentially, as provision expenses remained elevated and margins compressed further.
@@ -3402,29 +3168,29 @@
 MSB’s 3Q24 results mark a setback, with profitability under pressure from weak income and persistent margin compression. While asset quality is stabilizing, the lack of topline growth and margin resilience will weigh on investor sentiment until the revenue engine reignites.</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2025-07-30 17:32:45</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB delivered a strong 4Q24 finish, with a sharp rebound in TOI and net profit, driven by margin recovery and lower provision expenses.
@@ -3441,29 +3207,29 @@
 MSB’s 4Q24 results mark a decisive turnaround, with strong profit recovery, margin expansion, and lower credit risk. The positive surprise on both earnings and asset quality supports a constructive outlook, positioning MSB well for continued growth into 2025.</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2025-07-30 17:32:56</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>MSB</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. MSB delivered standout loan growth in 1Q25, sharply outpacing the sector, but profitability softened as topline momentum reversed and margins compressed.
@@ -3480,68 +3246,29 @@
 MSB’s rapid loan growth is a clear positive, but the sharp NIM compression and softening profitability temper the outlook. Asset quality appears stable for now, but rising formation rates warrant close monitoring. Investors should watch for signs of margin stabilization and whether credit costs remain contained as the loan book expands.</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2025-07-30 17:33:11</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>MSB</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>OCB</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-- MSB’s 2Q25 results show strong loan growth momentum but profitability is under pressure from higher provisions and softer income.
-- Asset quality is showing early signs of stress, with a slight uptick in NPL and a declining coverage ratio.
-- The bank’s NIM remains flat and below sector, reflecting margin compression despite robust loan expansion.
----
-**Profitability:**  
-MSB’s profitability softened in 2Q25. Total operating income (TOI) rebounded 8.5% QoQ after a weak 1Q25, but was down 9.6% YoY, signaling a loss of revenue momentum compared to last year. Net profit before tax (PBT) slipped 5.4% QoQ and fell 28.6% YoY, mainly due to a sharp jump in provision expenses (+75.3% QoQ). Return on assets (ROA) edged down to 1.5% in 2Q25 from 1.6% in 1Q25, while return on equity (ROE) also declined to 12.8% from 13.5%. This marks a clear downtrend from the high profitability seen in mid-2024, driven by both weaker income and rising risk costs. The results are a negative surprise versus the improving trend seen in 4Q24.
-**Loan Growth &amp; NIM:**  
-Loan growth remains a bright spot, up 4.4% QoQ and 13.9% YTD, outpacing the sector’s 6.9% YTD. This signals strong business momentum and market share gains. However, net interest margin (NIM) was flat at 3.3% QoQ and remains below the sector average, reflecting ongoing margin compression. Loan yields dipped to 8.3% from 8.7% in 1Q25, suggesting competitive pricing or a shift in loan mix. The combination of rapid loan growth and flat NIM points to volume-driven expansion, but with limited pricing power.
-**Asset Quality:**  
-Asset quality is showing early warning signs. The NPL ratio ticked up to 2.7% from 2.6% in 1Q25, reversing the prior downtrend. Group 2 loans (special mention) edged down, but the NPL coverage ratio fell to 55.6% from 59.6%, indicating thinner buffers against potential losses. Provisioning surged this quarter, likely in response to the uptick in NPLs. While asset quality remains manageable, the reversal in NPL trends and declining coverage warrant close monitoring.
-**Investment Implications:**  
-MSB’s strong loan growth is offset by rising risk costs and margin pressure. The uptick in NPLs and lower coverage suggest the need for caution, as further asset quality deterioration could weigh on future earnings. Investors should watch for stabilization in profitability and asset quality before expecting a sustained recovery.</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>2025-07-31 18:59:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>OCB</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Private_2</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB’s 1Q23 results show a sharp pullback in profitability, with both TOI and net profit down significantly QoQ, despite a modest YoY recovery.
@@ -3558,29 +3285,29 @@
 OCB’s 1Q23 marks a clear setback, with earnings under pressure from both weaker revenue and rising risk costs. The deterioration in asset quality and coverage is a key concern, and the loss of loan growth momentum suggests a more challenging outlook ahead. Investors should monitor for further credit stress and margin compression in coming quarters.</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2025-07-30 17:33:26</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB delivered a sharp rebound in profitability in 2Q23, with net profit and TOI surging both QoQ and YoY, driven by strong loan growth and lower provision expenses.
@@ -3597,29 +3324,29 @@
 OCB’s strong profit rebound and loan growth are clear positives, but margin pressure and low coverage ratios temper the outlook. The latest results mark a positive surprise, but investors should watch for sustained margin recovery and further improvement in risk buffers.</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2025-07-30 17:33:39</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB delivered solid topline and loan growth in 3Q23, but profitability softened sequentially as provision expenses rebounded.
@@ -3636,29 +3363,29 @@
 OCB’s topline and loan growth remain robust, but the sharp uptick in risk costs and asset quality slippage are now the dominant themes. The margin and coverage trends warrant caution, as earnings resilience will depend on containing further credit deterioration.</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2025-07-30 17:33:54</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB delivered a strong finish to 2023 with standout loan growth and a rebound in topline income, but profitability softened as provision costs stayed elevated.
@@ -3675,29 +3402,29 @@
 OCB is prioritizing growth, but at the cost of margin compression and earnings volatility. The sharp improvement in asset quality is encouraging and may support sentiment, but investors should watch for sustained provision pressure and the durability of loan yields as competition intensifies.</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2025-07-30 17:34:08</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB’s 1Q24 results show a sharp pullback in topline and profit growth after a strong 4Q23, with both TOI and PBT down sequentially, but YoY trends remain positive.
@@ -3714,29 +3441,29 @@
 OCB’s 1Q24 shows resilient loan growth but with clear pressure on margins and only modest asset quality improvement. The sequential profit drop is a negative surprise after a strong 4Q23, and investors should watch for further margin compression and credit costs as key swing factors for 2024.</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2025-07-30 17:34:27</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB’s 2Q24 results show a sharp loss of momentum in profitability, with net profit and returns dropping to multi-year lows as provision expenses surged.
@@ -3753,29 +3480,29 @@
 OCB’s 2Q24 marks a clear break from its prior growth and profitability trends. Surging provisions and stalling loan growth are weighing on returns, while asset quality is starting to deteriorate. The negative surprise on earnings and credit costs suggests investors should brace for a more challenging outlook ahead.</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2025-07-30 17:34:41</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB’s 3Q24 results show a sharp deterioration in profitability, driven by surging provision expenses despite stable topline growth.
@@ -3792,29 +3519,29 @@
 OCB’s latest results highlight mounting credit risk and earnings vulnerability. The combination of weak topline growth, margin pressure, and rapidly rising provisions marks a clear negative inflection point. Investors should monitor for further asset quality slippage, as the risk of continued earnings pressure remains high.</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2025-07-30 17:34:54</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB delivered a sharp rebound in profitability in 4Q24, with TOI and PBT surging sequentially, reversing a weak 3Q24 and outpacing sector growth.
@@ -3831,29 +3558,29 @@
 OCB’s 4Q24 results signal a strong earnings recovery and renewed growth momentum, but asset quality metrics warrant close monitoring. The positive surprise on profit and margins is constructive, yet investors should watch for further improvement in coverage and formation trends to sustain the rerating.</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2025-07-30 17:35:05</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>OCB</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. OCB’s 1Q25 results show a sharp pullback in profitability, with both TOI and net profit dropping sequentially and year-on-year, as margin compression and rising risk costs bite.
@@ -3870,68 +3597,29 @@
 OCB’s 1Q25 results mark a clear setback, with profit, margin, and asset quality all moving in the wrong direction. The negative surprise on earnings and credit risk will likely weigh on sentiment, and investors should watch for further slippage in coming quarters.</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2025-07-30 17:35:18</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>OCB</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SHB</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-1. OCB’s 2Q25 results show a rebound in topline growth and profitability, but margins remain under pressure and asset quality is still fragile.
-2. Loan growth accelerated sharply QoQ, but NIM compressed further, signaling a challenging yield environment.
-3. Asset quality improved sequentially, but coverage remains low, keeping risk in focus.
----
-**Profitability:**  
-OCB’s total operating income (TOI) bounced back in 2Q25, rising 16.2% QoQ after a weak 1Q25, and up 16.3% YoY. This recovery was driven by stronger loan growth and improved fee income, following a seasonally soft start to the year. Net profit before tax (PBT) rose 11.9% QoQ and 11.2% YoY, reversing the prior quarter’s contraction. However, return on assets (ROA) and return on equity (ROE) remain subdued at 1.1% and 9.7% respectively, well below 2Q24 levels (1.2% ROA, 9.6% ROE) and sector averages, reflecting ongoing margin and risk cost pressures. The sequential improvement is positive, but profitability is still lagging historical highs.
-**Loan Growth &amp; NIM:**  
-Loan growth accelerated to 6.4% QoQ in 2Q25 (vs. 2.6% in 1Q25), outpacing the sector and marking OCB’s strongest quarterly expansion in over a year. This surge likely reflects a push in retail and SME lending, but comes at the cost of margin. Net interest margin (NIM) slipped further to 3.0% in 2Q25 from 3.2% in 1Q25, and is now at its lowest in six quarters. Loan yields also declined, suggesting competitive pricing and higher funding costs. The margin squeeze offsets some of the topline benefit from loan growth, and signals that OCB is prioritizing volume over profitability.
-**Asset Quality:**  
-Asset quality showed tentative improvement: NPL ratio fell to 3.5% from 3.9% in 1Q25, and group 2 loans also declined. However, NPL coverage remains thin at 40.5%, up from 35.0% but still well below sector norms. While new NPL and group 2 formation data is unavailable for 2Q25, the drop in headline ratios suggests better recoveries or write-offs, not necessarily lower risk. Provisioning costs rose QoQ, reflecting ongoing caution. Overall, asset quality is stabilizing but remains a key watchpoint given low coverage.
-**Investment Implications:**  
-The 2Q25 results are a modest positive surprise after a weak 1Q25, but margin and risk remain headwinds. Sustained loan growth is encouraging, but profitability and asset quality need to improve further for a rerating.</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>2025-07-31 18:59:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>SHB</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Private_2</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB delivered a strong rebound in 1Q23, with TOI and net profit surging both QoQ and YoY, driven by a sharp recovery in loan growth and margin expansion.
@@ -3948,29 +3636,29 @@
 SHB’s 1Q23 results mark a clear positive surprise, with a sharp earnings rebound and margin expansion. However, the uptick in early-stage delinquencies signals that asset quality risks are rising and could pressure future results if not contained. Investors should weigh the renewed growth momentum against the need for vigilance on credit trends.</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2025-07-30 17:35:28</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB’s 2Q23 results show a sharp pullback in profitability, with both TOI and net profit down sequentially, as margin compression and rising risk costs weigh on performance.
@@ -3987,29 +3675,29 @@
 SHB’s 2Q23 results mark a clear deterioration in profitability and asset quality, with margin pressure and credit risk now front and center. The abrupt loss of momentum is a negative surprise, and investors should watch for further earnings downside if asset quality continues to slip.</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2025-07-30 17:35:49</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB’s 3Q23 results show a clear slowdown in topline and profit momentum, with TOI and PBT both down sequentially and year-on-year, as margin pressure and softer core income weighed on returns.
@@ -4026,29 +3714,29 @@
 SHB’s 3Q23 print highlights persistent margin and income headwinds, with only partial relief from lower provisions. Asset quality is not deteriorating as fast as feared, but the lack of a clear earnings rebound is a concern. Investors should watch for further margin stabilization and signs of a sustainable recovery in core income.</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2025-07-30 17:36:02</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB’s 4Q23 saw a sharp rebound in topline growth and loan expansion, but profitability was hit by a surge in provision expenses, dragging ROA and ROE to multi-quarter lows.
@@ -4065,29 +3753,29 @@
 SHB’s 4Q23 results highlight a trade-off: strong loan and revenue growth, but at the cost of sharply higher risk provisioning and earnings volatility. The spike in NPL formation and provisions is a clear watchpoint for investors, tempering the positive momentum in topline and loan expansion.</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2025-07-30 17:36:14</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB delivered a sharp rebound in profitability in 1Q24, with net profit and returns surging on the back of normalized provisions, despite muted topline growth.
@@ -4104,29 +3792,29 @@
 SHB’s profit rebound is provision-driven and not underpinned by stronger revenue or loan growth. The flat loan book, margin compression, and asset quality slippage temper the positive headline surprise, signaling that earnings durability remains in question. Investors should watch for further signs of core business recovery and credit risk containment.</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2025-07-30 17:36:24</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB delivered a sharp rebound in loan growth in 2Q24, but profitability weakened as core income dropped and margins compressed further.
@@ -4143,29 +3831,29 @@
 SHB’s strong loan growth is a positive, but the combination of margin pressure, weaker core income, and rising early-stage credit risk tempers the outlook. The quarter is a negative surprise on profitability and coverage, highlighting the need to watch for further asset quality slippage if growth continues at this pace.</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2025-07-30 17:36:35</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB’s 3Q24 saw a sharp sequential drop in profitability, with both TOI and net profit under pressure, as margins compressed and provision expenses rebounded.
@@ -4182,29 +3870,29 @@
 SHB’s strong loan growth is being overshadowed by margin pressure and weakening profitability. While asset quality is stabilizing, the earnings outlook is challenged by persistent NIM compression and rising risk costs—a negative surprise versus expectations. Investors should watch for further margin trends and credit formation in coming quarters.</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2025-07-30 17:36:48</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB delivered a sharp turnaround in topline growth in 4Q24, with TOI and NIM rebounding strongly, but net profit recovery lagged due to a spike in provision expenses.
@@ -4221,29 +3909,29 @@
 SHB’s topline and margin recovery are clear positives, but the surge in provisions and deteriorating asset quality temper the outlook. The latest results highlight a renewed growth push, but also underline the need for vigilance on credit costs and coverage. Investors should weigh the strong loan and income momentum against rising risk costs and below-sector profitability.</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2025-07-30 17:37:02</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>SHB</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SHB delivered a sharp rebound in profitability in 1Q25, with PBT and returns surging QoQ on the back of lower provisions, despite a pullback in core income.
@@ -4260,68 +3948,29 @@
 SHB’s 1Q25 results mark a positive surprise on profitability, but the underlying story is provision relief rather than core revenue or margin strength. The aggressive loan growth is a clear theme, but margin compression and the sustainability of low risk costs will be key for future earnings quality. Investors should watch for signs of margin stabilization and any lagged asset quality effects from rapid expansion.</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2025-07-30 17:37:18</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>SHB</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Private_2</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-1. SHB delivered a strong rebound in profitability in 2Q25, with both TOI and net profit surging QoQ and YoY, driven by a sharp recovery in NIM and robust loan growth.
-2. Asset quality improved further, with NPL and Group 2 ratios declining and coverage ratios rising, signaling effective risk management.
-3. The positive surprise came from the scale of the topline and margin recovery, offsetting higher provision expenses.
----
-**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**  
-SHB’s 2Q25 results mark a decisive turnaround in profitability. Total operating income (TOI) jumped 70.3% QoQ and soared 135.1% YoY, reversing the prior quarter’s dip and far outpacing sector growth. This topline surge, underpinned by margin expansion, translated into a 4.0% QoQ and 58.9% YoY increase in pre-tax profit (PBT). Return metrics remained strong: ROA held steady at 1.8%, while ROE was robust at 23.2%, both well above sector averages and sustaining the bank’s high profitability trajectory. The sharp rebound in TOI and resilient bottom line, despite a spike in provision expenses, signals a positive surprise versus recent trends and expectations.
-**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**  
-Loan growth momentum remained solid, with balances rising 4.7% QoQ and 14.4% YTD, outpacing the sector’s 6.9% YTD. The key driver was a sharp recovery in net interest margin (NIM), which rebounded to 4.8% in 2Q25 from 3.0% in 1Q25, reversing the prior compression. This was supported by a strong loan yield recovery (11.4% in 2Q25 vs 9.3% in 1Q25), likely reflecting improved asset mix and better pricing power. The margin rebound was the main catalyst for the topline and profit recovery.
-**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**  
-Asset quality trends were positive. The NPL ratio improved to 2.6% from 2.9% QoQ, while Group 2 loans dropped to 0.25%, continuing a multi-quarter downtrend. Coverage ratios rose to 65.4%, the highest in six quarters, reflecting prudent provisioning. NPL and G2 formation data were not available for 2Q25, but the declining ratios and rising coverage suggest effective risk containment. This improvement in asset quality, alongside strong loan growth, underpins the sustainability of SHB’s earnings momentum.
-**Investment Implications:**  
-SHB’s 2Q25 results highlight a strong earnings recovery, margin resilience, and improving asset quality. The positive surprise in topline and margin recovery, coupled with robust loan growth and better risk metrics, strengthens the investment case for continued outperformance.</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>2025-07-31 18:59:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB delivered a strong profit rebound in 1Q23, with net profit and PBT surging on sharply lower provision expenses, despite a sequential drop in core income.
@@ -4338,29 +3987,29 @@
 STB’s profit surge is provision-driven, masking underlying revenue softness and margin pressure. While asset quality slippage is contained for now, weaker coverage is a key risk. Investors should watch for a normalization in earnings as provision tailwinds fade and margin headwinds persist.</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2025-07-30 17:37:29</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB’s 2Q23 results show profit stability despite muted topline growth, as loan expansion and higher yields offset a marginal dip in TOI.
@@ -4377,29 +4026,29 @@
 STB’s growth and profit stability are encouraging, but the sharp asset quality deterioration is a negative surprise that could weigh on future earnings. Investors should watch for further credit cost escalation and margin compression as key risks.</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2025-07-30 17:37:41</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB’s 3Q23 results show a sharp slowdown in topline and profit momentum, with TOI and PBT both declining sequentially as margins compressed and revenue headwinds intensified.
@@ -4416,29 +4065,29 @@
 STB’s 3Q23 marks a clear inflection: topline and margin pressure, coupled with rising asset quality risks, are now weighing on profitability. The negative surprise on revenue and coverage ratios warrants caution, as earnings durability is increasingly tied to credit trends and margin stabilization.</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2025-07-30 17:37:52</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB delivered a strong earnings rebound in 4Q23, with net profit and profitability ratios hitting multi-quarter highs on the back of a sharp recovery in TOI and record-low provision expenses.
@@ -4455,29 +4104,29 @@
 STB’s 4Q23 results mark a clear earnings recovery, driven by revenue stabilization and sharply lower provisions. While margin and asset quality risks linger, the positive surprise on profitability and early signs of NIM recovery support a more constructive near-term outlook. Investors should watch for sustained improvement in core income and further progress on credit costs.</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2025-07-30 17:38:06</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB delivered a solid 1Q24, with TOI and net profit both up YoY, but profitability softened sequentially as provision expenses normalized from a low 4Q23 base.
@@ -4494,29 +4143,29 @@
 STB’s 1Q24 shows a healthy growth and margin profile, with asset quality risks contained for now. The sequential profit dip is not a concern, given the underlying business momentum and improved coverage. Investors should watch for sustained loan growth and margin trends as key drivers for the next quarters.</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2025-07-30 17:38:17</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB delivered strong topline growth in 2Q24, with TOI up 4.1% QoQ and 6.2% YoY, but net profit growth was muted as margin pressure and rising NPLs offset lower provisions.
@@ -4533,29 +4182,29 @@
 STB’s growth engine remains intact, but margin and asset quality headwinds are capping earnings upside. The latest results are broadly in line with expectations, but investors should monitor further NPL drift and margin trends as key swing factors for the outlook.</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2025-07-30 17:38:27</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB delivered steady topline and profit growth in 3Q24, with TOI and PBT both up sequentially, but loan growth momentum cooled after a strong first half.
@@ -4572,29 +4221,29 @@
 STB’s 3Q24 results reinforce its earnings resilience and prudent risk management, though slower loan growth and higher provisions suggest a more cautious outlook. Margin stability and improved coverage are positives, but investors should monitor credit cost trends as the cycle matures.</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2025-07-30 17:38:38</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB delivered a standout 4Q24, with net profit and ROE surging to multi-year highs on the back of strong topline growth and a sharp reversal in provision expenses.
@@ -4611,29 +4260,29 @@
 STB’s 4Q24 results mark a strong finish to the year, with earnings momentum driven by provision swings and solid loan growth. The positive profit surprise is notable, but margin compression and weaker coverage ratios highlight areas for caution as the bank enters 2025. Investors should monitor whether core income and asset quality can sustain this pace without further reliance on provision reversals.</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2025-07-30 17:38:52</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>STB</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. STB delivered its strongest topline growth in over a year in 1Q25, but net profit moderated after an outsized 4Q24, with profitability ratios normalizing yet still above last year.
@@ -4648,68 +4297,29 @@
 NPL ratio inched up to 2.5% in 1Q25 from 2.4% in 4Q24, while group 2 loans also edged higher. Both NPL and G2 formation rates rose, signaling some renewed credit slippage. However, NPL coverage rebuilt to 74.7% (from 68.4% in 4Q24), now above the sector’s 66.3%. The uptick in formation rates is a watchpoint, but coverage improvements provide a buffer. Overall, STB’s results reinforce a positive growth narrative, with manageable asset quality risks and a normalization in earnings after an exceptional 4Q24.</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2025-07-30 17:39:02</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>STB</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>TCB</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-- STB’s 2Q25 results show strong loan growth momentum but a pause in topline expansion and mild pressure on profitability ratios.
-- NIM compression and a flat TOI signal margin headwinds, while asset quality remains stable with improved coverage.
-- The quarter’s performance is mixed: robust lending, but softer earnings delivery and margin pressure temper the outlook.
----
-**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**
-STB’s topline (TOI) momentum stalled in 2Q25, slipping marginally by 0.3% QoQ after a strong 5.2% rise in 1Q25. YoY, TOI growth moderated to 8.6% from 13.4% in the prior quarter, reflecting a deceleration in revenue expansion. Pre-tax profit (PBT) was flat QoQ at VND 3.66 trillion, following a 20.6% drop in 1Q25, and up 36.1% YoY—a solid but slowing pace. ROA and ROE both edged down sequentially to 1.48% and 19.7%, respectively, retracing from the previous quarter’s highs. The main drag was a flat topline and higher provision expense, signaling that margin and credit cost pressures are weighing on bottom-line growth.
-**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**
-Loan growth remains a bright spot, accelerating 4.2% QoQ and 8.8% YTD, sustaining the robust momentum seen in 1Q25. This outpaces sector averages and underpins STB’s market share gains. However, NIM compressed to 3.39% from 3.67% in 1Q25, reversing the prior quarter’s recovery. The squeeze reflects lower loan yields (down 28bps QoQ) and likely funding cost pressures, offsetting the benefit of strong loan expansion. The topline stagnation despite loan growth highlights the challenge of sustaining margins in a competitive rate environment.
-**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**
-Asset quality trends are stable. NPL ratio dipped slightly to 2.46% from 2.51% in 1Q25, while Group 2 loans also improved to 0.73%. NPL coverage strengthened to 75.4%, the highest in six quarters, indicating a more conservative provisioning stance. NPL and G2 formation data are unavailable for the quarter, but the improving coverage and stable ratios suggest no material deterioration. The bank’s asset quality resilience, despite rapid loan growth, is a positive surprise and supports the investment case.
-**Investment Implications:**  
-STB’s 2Q25 shows the bank can grow loans aggressively without sacrificing asset quality, but margin compression and muted topline growth are key watchpoints. Sustaining profitability will hinge on defending NIM and managing credit costs as competition intensifies.</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>2025-07-31 19:00:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>TCB</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Private_1</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB delivered a sharp rebound in loan growth in 1Q23, but topline and profit trends remained soft, with core income under pressure and only partial margin recovery.
@@ -4726,29 +4336,29 @@
 TCB’s strong loan growth and improving asset quality coverage are positives, but persistent margin compression and weak core income limit near-term earnings visibility. The quarter is a partial reset, but not yet a clear inflection point for profitability. Investors should watch for sustained revenue recovery and further asset quality normalization.</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2025-07-30 17:39:14</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB’s 2Q23 results show profitability stabilizing sequentially, but core income remains under pressure with a second straight quarter of negative YoY growth.
@@ -4765,29 +4375,29 @@
 TCB’s results show stabilizing profits but with clear signs of margin and asset quality headwinds. The pause in loan growth and sharp asset quality slippage are key risks for investors, outweighing the still-healthy return ratios.</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2025-07-30 17:39:24</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB delivered a strong rebound in topline growth in 3Q23, but profitability remains under pressure from rising provisions and asset quality slippage.
@@ -4804,29 +4414,29 @@
 TCB’s topline recovery is encouraging, but persistent asset quality pressures and rising provisions continue to weigh on earnings. The modest NIM rebound is a positive surprise, but the deteriorating coverage ratio and NPL uptick are clear red flags. Investors should focus on whether TCB can contain further credit costs and rebuild risk buffers in coming quarters.</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2025-07-30 17:39:36</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB delivered a strong finish to 2023, with TOI and loan growth sharply accelerating in 4Q23, but profitability momentum was capped by a spike in provision expenses.
@@ -4843,29 +4453,29 @@
 TCB’s strong loan and income growth, paired with improving asset quality, point to a constructive outlook. The only caution is the elevated provision expense, which may signal ongoing vigilance on credit risk. The latest results reinforce TCB’s position as a growth leader, with asset quality stabilization now emerging as a key investment theme.</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2025-07-30 17:39:47</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB delivered a standout 1Q24, with TOI and net profit surging to multi-year highs on the back of robust loan growth and margin recovery.
@@ -4882,29 +4492,29 @@
 TCB’s 1Q24 results highlight best-in-class growth, margin recovery, and stable asset quality. The strong earnings surprise and robust credit metrics reinforce its premium valuation and growth outlook. Investors should watch for sustainability of loan momentum and margin management, but the latest quarter sets a high bar for peers.</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2025-07-30 17:40:01</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB delivered another strong quarter in 2Q24, with TOI and net profit both up sharply YoY and maintaining robust sequential growth, though profit momentum is flattening as provision costs rise.
@@ -4921,29 +4531,29 @@
 TCB’s results reinforce its position as a sector leader in growth and profitability, with margin strength and asset quality discipline. The main watchpoint is rising provision costs, but overall trends remain positive and above expectations.</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2025-07-30 17:40:13</t>
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB’s 3Q24 saw robust loan growth continue, but profitability softened as TOI declined and margins compressed sequentially.
@@ -4960,29 +4570,29 @@
 TCB’s strong loan growth and resilient asset quality are positives, but the sharp TOI and margin compression in 3Q24 are a warning sign. Sustaining earnings growth will hinge on stabilizing yields and defending margins as competition intensifies. The latest results are a mild negative surprise on profitability, but the bank’s credit metrics and growth profile remain solid.</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2025-07-30 17:40:23</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB’s 4Q24 results showed a sharp reversal in profitability, with both TOI and net profit dropping steeply QoQ and YoY, as core income momentum stalled and provision write-backs masked underlying softness.
@@ -4999,29 +4609,29 @@
 TCB’s 4Q24 is a clear reset: profitability and growth momentum have faded, and margin compression is accelerating. While asset quality is strong, the earnings mix is less robust, and the sharp drop in core income is a key concern for investors. The latest figures are a negative surprise and warrant caution on near-term earnings visibility.</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2025-07-30 17:40:33</t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TCB delivered a sharp rebound in profitability in 1Q25, with both TOI and PBT recovering strongly QoQ, but YoY trends remain negative as core income and margins lag last year’s levels.
@@ -5038,68 +4648,68 @@
 TCB’s 1Q25 results show a bank regaining earnings momentum through volume growth, but with persistent margin compression and only partial recovery from last year’s highs. Asset quality remains a bright spot. The positive QoQ surprise may support sentiment, but investors should watch for sustained margin pressure as a key swing factor for future profitability.</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2025-07-30 17:40:43</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>TCB</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>2Q25</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-- TCB delivered a strong QoQ rebound in profitability and loan growth in 2Q25, but YoY trends remain muted, reflecting ongoing margin and revenue pressures.
-- Asset quality is stable overall, with NPLs ticking up but Group 2 loans improving and coverage ratios still robust.
-- The bank’s NIM showed a modest recovery after a prolonged decline, signaling early signs of stabilization.
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. TCB delivered a strong sequential rebound in topline and profit in 2Q25, with loan growth sharply accelerating and margins stabilizing after a challenging 2024.
+2. Asset quality remains broadly stable, with NPLs edging up but coverage ratios still robust and group 2 loans improving.
+3. The latest results mark a positive surprise on growth and margin resilience, but core income is still below last year’s levels, signaling incomplete recovery.
 ---
 **Profitability:**  
-TCB’s 2Q25 results mark a clear sequential improvement. Total operating income (TOI) rose 9.7% QoQ, building on a sharp 21.5% rebound in 1Q25, but remains down 5.0% YoY—highlighting that the bank is still regaining ground after a tough 2024. Pre-tax profit (PBT) climbed 9.2% QoQ and is now marginally positive YoY (+0.9%), a notable turnaround from negative YoY growth in 1Q25. Return on assets (ROA) and return on equity (ROE) both edged up QoQ to 2.5% and 15.8%, respectively, but are still below their 2024 peaks. The main driver is a recovery in core income, while provision expenses remain well-contained. The results are slightly ahead of expectations, given the sector’s more modest profit growth.
+TCB’s profitability regained momentum in 2Q25. Total operating income (TOI) rose 9.7% QoQ, building on the 21.5% jump in 1Q25, as lending activity picked up and fee income stabilized. However, TOI is still down 5.0% YoY, reflecting the lingering impact of margin compression and slower non-interest income. Pre-tax profit (PBT) climbed 9.2% QoQ, a second consecutive quarter of strong sequential growth, and is now flat YoY (+0.9%). ROA improved to 2.5% in 2Q25 from 2.4% in 1Q25 (well above the sector’s 2.0%), while ROE held steady at 15.8%. The profit recovery is driven by volume growth and normalized provisions, after a volatile 4Q24.
 **Loan Growth &amp; NIM:**  
-Loan growth accelerated sharply to 7.0% QoQ in 2Q25 (vs. 5.0% in 1Q25), outpacing the sector and pushing YTD growth to 12.4%. This signals a return of lending momentum, likely supported by improved credit demand and selective risk-taking. Net interest margin (NIM) ticked up to 3.8% from 3.6% in 1Q25, breaking a multi-quarter downtrend. The modest NIM recovery reflects a slight improvement in loan yields and better funding cost management, though margins remain structurally lower than a year ago.
+Loan growth surged 7.0% QoQ in 2Q25, a marked acceleration from 5.0% in 1Q25 and far outpacing the sector’s 4.2%. Year-to-date, TCB’s loan book is up 12.4%, signaling renewed risk appetite and effective execution. NIM rebounded to 3.8% in 2Q25 (from 3.6% in 1Q25), reversing a year-long decline. The margin recovery was underpinned by a modest uptick in loan yields and improved funding mix, offsetting sector-wide pressure. This shift suggests TCB is regaining pricing power and benefiting from higher-yielding segments.
 **Asset Quality:**  
-NPL ratio edged up to 1.26% in 2Q25 from 1.17% in 1Q25, but remains low and well below sector averages. NPL formation was stable at 0.21%, indicating no material deterioration. Group 2 (special mention) loans improved to 0.60%, the lowest in six quarters, suggesting early risk signals are fading. Coverage ratio remains strong at 106.5%, providing a solid buffer. Overall, asset quality trends are stable, with no negative surprises.
+Asset quality remains a relative bright spot. NPL ratio ticked up to 1.26% in 2Q25 (from 1.17% in 1Q25), but still sits well below sector averages. NPL formation was stable at 0.21%, while group 2 loans dropped to 0.60%—the lowest in six quarters—reflecting improved early-stage risk management. NPL coverage remains high at 1.07x, providing a solid buffer. Provision expenses stayed contained, supporting earnings quality.
 **Investment Implications:**  
-TCB’s sequential recovery in profitability and loan growth, alongside stable asset quality, points to improving business momentum. The modest NIM rebound is encouraging, but sustained revenue growth will be key for further re-rating. The results are a mild positive surprise and support a constructive near-term outlook.</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>2025-07-31 19:00:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+TCB’s 2Q25 results signal a return to growth leadership, with margin and loan momentum surprising positively. While topline is not yet back to peak levels, the improving trajectory and resilient asset quality support a constructive outlook. Investors should watch for further normalization in core income and sustained discipline on credit costs.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2025-07-30 17:40:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB delivered a strong loan growth rebound in 1Q23, but profitability softened as topline momentum stalled and risk costs normalized upward.
@@ -5116,29 +4726,29 @@
 TPB’s growth engine is firing again, but at the cost of margin compression and rising credit risk. The latest results flag a shift from stable expansion to a more volatile risk-return profile, warranting close investor scrutiny.</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2025-07-30 17:41:03</t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB’s 2Q23 results show a modest rebound in topline growth but continued pressure on profitability, with both ROA and ROE slipping further.
@@ -5155,29 +4765,29 @@
 TPB’s latest quarter highlights mounting pressure on profitability and asset quality, with loan growth losing steam and risk costs rising. The negative surprise on earnings and credit metrics suggests investors should be cautious on near-term outlook, as credit risks are materializing faster than expected.</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2025-07-30 17:41:14</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB delivered a strong rebound in topline growth in 3Q23, but profitability continued to slip as provision expenses surged and asset quality weakened further.
@@ -5194,29 +4804,29 @@
 TPB’s strong revenue recovery is overshadowed by rising credit costs and accelerating asset quality risks. The latest results are a negative surprise for earnings durability, with asset quality trends now the key watchpoint for investors.</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2025-07-30 17:41:25</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB delivered a sharp acceleration in loan growth and topline income in 4Q23, but profitability collapsed as provision expenses surged and risk costs spiked.
@@ -5233,29 +4843,29 @@
 TPB’s rapid loan expansion and margin spike are overshadowed by a collapse in profitability and thin coverage. The quarter signals a reset in risk appetite, with heavy provisioning likely to persist until asset quality stabilizes further. Investors should watch for sustained improvement in credit costs and coverage before confidence can rebuild.</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2025-07-30 17:41:36</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB delivered a sharp rebound in profitability in 1Q24, with both TOI and PBT surging sequentially, reversing the weak 4Q23.
@@ -5272,29 +4882,29 @@
 TPB’s earnings recovery in 1Q24 was stronger than expected, but the pause in loan growth and margin compression signal a more defensive posture. Investors should watch for further asset quality drift and whether topline momentum can be sustained without renewed credit expansion.</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2025-07-30 17:41:45</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB delivered a strong rebound in loan growth in 2Q24, but topline momentum reversed as TOI contracted sharply QoQ, signaling a shift in revenue dynamics.
@@ -5311,29 +4921,29 @@
 TPB’s latest results highlight a pivot: strong loan growth and improving asset quality, but with topline pressure and margin compression. The positive surprise on credit costs and coverage supports near-term earnings, but investors should watch for sustained revenue headwinds if yield pressure persists.</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2025-07-30 17:41:57</t>
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB delivered standout loan growth in 3Q24, sharply outpacing the sector, but profitability softened as topline income declined and margins compressed.
@@ -5350,29 +4960,29 @@
 TPB is prioritizing growth, but the trade-off is clear: margin and earnings pressure, with asset quality risks starting to surface. Investors should monitor whether topline recovery and risk controls can keep pace with expansion.</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2025-07-30 17:42:08</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB delivered a strong 4Q24 rebound in profitability, with TOI and net profit surging sequentially, while ROA and ROE hit new highs for the year.
@@ -5389,29 +4999,29 @@
 TPB’s 4Q24 results showcase a strong earnings recovery, robust loan growth, and a step-change in asset quality. The margin squeeze is the main headwind, but the positive surprise on credit metrics and profitability strengthens the investment case.</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2025-07-30 17:42:22</t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>TPB</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. TPB’s 1Q25 profit held steady despite a sharp drop in core income, as provision expenses plunged to multi-year lows.
@@ -5428,68 +5038,29 @@
 TPB’s profit resilience is increasingly reliant on low provisions, while core income and asset quality trends are turning negative. Investors should watch for further credit deterioration and the sustainability of current earnings levels.</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2025-07-30 17:42:34</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>TPB</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Private_2</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-- TPB delivered robust loan growth in 2Q25, but profitability momentum softened as margins compressed and cost pressures persisted.
-- Asset quality improved sequentially, with lower NPL and G2 ratios, though coverage remains below recent peaks.
-- The quarter signals strong credit expansion, but earnings leverage is being held back by margin headwinds and only moderate fee income recovery.
----
-**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**
-TPB’s total operating income (TOI) in 2Q25 rose 3.0% QoQ and rebounded 8.9% YoY, reversing the previous quarter’s double-digit decline. However, pre-tax profit slipped 3.4% QoQ, despite a sharp 68.4% QoQ jump in provision expenses from a low base. ROA and ROE both edged down sequentially to 1.59% and 16.8% respectively, reflecting margin compression and higher risk costs. While TOI growth outpaced sector peers on a YoY basis, the lack of operating leverage and rising provisions weighed on bottom-line momentum. The results were slightly below expectations, given the strong loan growth.
-**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**
-TPB’s loan book surged 8.5% QoQ and 13.7% YTD, outpacing sector averages and marking its strongest quarterly expansion in over a year. This acceleration was likely driven by targeted retail and SME lending, as well as a more supportive credit environment. However, net interest margin (NIM) slipped to 3.19% from 3.48% in 1Q25, continuing a multi-quarter downtrend. The margin squeeze reflects lower loan yields and possibly higher funding costs, despite the uptick in loan growth. Sustaining profitability will require stabilization in NIM or a stronger fee income contribution.
-**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**
-Asset quality showed sequential improvement: NPL ratio fell to 2.05% from 2.27% in 1Q25, and Group 2 loans also declined. NPL coverage improved to 62.7% but remains below the 4Q24 peak. While NPL and G2 formation data were unavailable for the quarter, the trend suggests better risk discipline and some recovery in collections. However, coverage ratios are still not at sector highs, indicating some vulnerability if macro conditions deteriorate.
-**Investment Implications:**  
-TPB’s strong loan growth is a clear positive, but margin pressure and only modest improvement in asset quality coverage temper the earnings outlook. Investors should watch for stabilization in NIM and further improvement in coverage ratios to support a more constructive view.</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>2025-07-31 19:00:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB delivered double-digit YoY profit growth in 1Q23, but sequential earnings softened as topline momentum stalled and provisions rebounded.
@@ -5506,29 +5077,29 @@
 VCB’s 1Q23 results show resilient underlying profitability and strong credit buffers, but with clear signs of margin and asset quality pressure emerging. The sequential profit dip is not a negative surprise, but investors should watch for further margin compression and credit migration in coming quarters.</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2025-07-30 17:42:49</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB’s 2Q23 results show a clear loss of momentum: both topline and bottom-line earnings declined sequentially, with profitability ratios retreating to multi-quarter lows.
@@ -5545,29 +5116,29 @@
 VCB’s 2Q23 results highlight a shift from growth to defense. While asset quality is holding up, the sharp slowdown in earnings and loan expansion signals a more cautious operating environment. Investors should watch for signs of renewed growth or further margin and income pressure in coming quarters.</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2025-07-30 17:43:02</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB’s 3Q23 results show a sharp sequential drop in core income and profit, with profitability ratios stabilizing at lower levels after a volatile first half.
@@ -5584,29 +5155,29 @@
 VCB’s latest quarter signals a clear downshift in profitability and asset quality, with margin compression and rising credit costs likely to weigh on near-term earnings. Investors should watch for further slippage in core income and coverage, as the cycle turns less favorable.</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2025-07-30 17:43:13</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB delivered a strong profit rebound in 4Q23, driven by a sharp loan surge and normalized provision expenses, but topline growth remains subdued versus last year.
@@ -5623,29 +5194,29 @@
 VCB’s 4Q23 results show a return to profit growth and strong loan expansion, but with underlying margin and topline headwinds. Asset quality is stabilizing, yet the earnings recovery is provision-led rather than revenue-driven. Investors should watch for sustained margin pressure and the durability of credit quality improvements into 2024.</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2025-07-30 17:43:27</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB delivered a strong rebound in topline growth in 1Q24, but profitability softened sequentially as provision expenses normalized and margins only partially recovered.
@@ -5662,29 +5233,29 @@
 VCB’s topline rebound is encouraging, but the combination of stalling loan growth and rising asset quality risks tempers the outlook. The latest results are a mild negative surprise, with risk costs and credit trends now the key watchpoints for investors.</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2025-07-30 17:43:39</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB delivered a sharp rebound in loan growth in 2Q24, but profitability softened as topline momentum stalled and margins compressed.
@@ -5701,29 +5272,29 @@
 VCB’s pivot to faster loan growth is clear, but margin and topline pressure are weighing on profitability. The improvement in asset quality and coverage is a bright spot, but unless core income growth recovers, returns may remain under pressure. Investors should watch for signs of NIM stabilization and topline recovery to sustain the growth cycle.</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2025-07-30 17:43:51</t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB delivered a solid 3Q24 rebound in profitability, with PBT up 5.8% QoQ and 18.2% YoY, driven by sharply lower provision expenses despite flat topline growth.
@@ -5740,29 +5311,29 @@
 VCB’s 3Q24 results show resilient profitability, underpinned by prudent risk management and strong coverage, but with clear pressure on core income and margins. The positive profit surprise is provision-driven; investors should watch for sustained topline recovery and margin stabilization to support future earnings quality.</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2025-07-30 17:44:05</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB closed 4Q24 with a strong rebound in topline growth and loan expansion, but profitability was flat as margin pressure and higher costs offset revenue gains.
@@ -5779,29 +5350,29 @@
 VCB’s 4Q24 results highlight resilient topline growth and a sharp improvement in asset quality, but persistent NIM pressure and flat profit growth limit near-term upside. The positive surprise on credit metrics supports a constructive view, though investors should watch for further margin headwinds and cost discipline.</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2025-07-30 17:44:16</t>
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>VCB</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>SOCB</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VCB’s 1Q25 results show resilient profitability, with net profit edging up despite a dip in core income and softer loan growth; however, margin compression and a mild uptick in asset quality risks are emerging.
@@ -5818,65 +5389,29 @@
 VCB’s latest results reinforce its defensive profile: steady profits, strong asset quality, and disciplined risk costs. However, margin compression and slower loan growth are key headwinds. Investors should watch for further pressure on NIM and any sustained rise in new problem loans.</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2025-07-30 17:44:30</t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>VCB</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>SOCB</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-- VCB delivered a strong rebound in loan growth and top-line income in 2Q25, but profitability ratios continued to edge down as margin pressure persisted.
-- Asset quality remained resilient, with NPL and Group 2 ratios improving and coverage staying robust, reinforcing VCB’s defensive profile.
----
-**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**
-VCB’s total operating income (TOI) rose 3.5% QoQ and 6.7% YoY in 2Q25, reversing the mild contraction seen in 1Q25. This recovery was driven by a surge in loan growth and likely some stabilization in fee income. Pre-tax profit (PBT) climbed 1.6% QoQ and 9.1% YoY, reflecting both the TOI rebound and continued discipline on provisioning. However, profitability ratios continued their gradual slide: ROA dipped to 1.63% in 2Q25 (from 1.66% in 1Q25), and ROE softened to 16.9% (from 17.3%). This marks a consistent downtrend from the high base in early 2024, mainly due to margin compression and a higher capital base. The results were broadly in line with expectations, with no major positive surprise on the bottom line.
-**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**
-VCB’s loan book expanded by 6.2% QoQ in 2Q25, a sharp acceleration from the muted 1.1% in 1Q25 and well ahead of the sector’s 5.0%. Year-to-date loan growth reached 7.4%, signaling a strong push into the mid-year. However, net interest margin (NIM) remained under pressure, ticking up only marginally to 2.64% in 2Q25 (from 2.64% in 1Q25), and still well below the 3.15% level in 1Q24. The persistent margin squeeze reflects ongoing competition for deposits and a lower loan yield, which edged down further to 5.47%. While loan growth is a clear positive, the lack of NIM recovery is a key watchpoint for earnings momentum.
-**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**
-Asset quality trends remain a bright spot. The NPL ratio improved to 1.00% in 2Q25 (from 1.03% in 1Q25), and Group 2 loans also declined to 0.25%. NPL coverage remained high at 214%, far above sector averages, underscoring VCB’s conservative provisioning. Formation data was not available for the quarter, but the declining ratios and stable coverage suggest no new stress. Overall, VCB’s asset quality continues to anchor its premium valuation and defensive appeal, with no negative surprises this quarter.</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>2025-07-31 19:00:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB delivered a strong topline in 1Q23, with TOI up 5.2% QoQ and 19.2% YoY, but profit momentum softened as provision expenses surged and ROE continued to drift down.
@@ -5893,29 +5428,29 @@
 VIB’s strong revenue growth is overshadowed by deteriorating asset quality and rising risk costs. The negative surprise on loan growth and coverage signals caution, with future earnings likely to face continued pressure from credit costs. Investors should closely monitor credit trends and provisioning in coming quarters.</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2025-07-30 17:44:42</t>
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB delivered a strong 2Q23, with TOI and net profit rebounding sharply QoQ and maintaining robust double-digit YoY growth, despite a further rise in provision expenses.
@@ -5932,29 +5467,29 @@
 VIB’s strong income growth and margin resilience are clear positives, but persistent asset quality pressures—especially weak coverage—temper the outlook. The quarter marks a positive surprise on earnings, but investors should remain alert to further credit risk materialization.</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2025-07-30 17:44:56</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB delivered a sharp rebound in topline growth in 3Q23, but profitability softened as provision expenses surged and risk costs weighed on the bottom line.
@@ -5971,29 +5506,29 @@
 VIB’s topline growth and margin resilience are clear positives, but rising risk costs and persistent asset quality pressures are tempering earnings momentum. The latest results highlight a shift toward more cautious provisioning, suggesting that credit risks are being actively managed but remain a key area for investors to monitor.</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2025-07-30 17:45:10</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB’s 4Q23 saw a sharp slowdown in profitability, with net profit and returns dropping sequentially as provision expenses surged and topline momentum reversed.
@@ -6010,29 +5545,29 @@
 VIB’s 4Q23 print highlights a trade-off: aggressive loan growth and improved asset quality optics, but at the cost of margin pressure and weaker profitability. The negative earnings surprise and margin compression warrant a more cautious stance, as risk costs remain elevated and core returns soften.</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2025-07-30 17:45:21</t>
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB’s 1Q24 saw a modest profit rebound driven by sharply lower provision expenses, but core income and loan growth momentum both stalled.
@@ -6049,29 +5584,29 @@
 VIB’s 1Q24 profit beat is provision-driven, masking underlying softness in core income, loan growth, and asset quality. Persistent margin compression and rising credit risk are key concerns for earnings durability. The quarter is a negative surprise on business fundamentals, warranting caution.</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2025-07-30 17:45:35</t>
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB’s 2Q24 results show a sharp drop in profitability, with core income and bottom line both under pressure from margin compression and higher provisions.
@@ -6088,29 +5623,29 @@
 VIB’s latest results highlight a challenging mix: loan growth is back, but profitability and asset quality are under pressure. The negative surprise on earnings and coverage signals rising risk to future returns, warranting caution until margin and credit trends stabilize.</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2025-07-30 17:45:50</t>
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB’s 3Q24 results show accelerating loan growth but continued pressure on profitability, with both TOI and PBT declining sequentially and year-on-year.
@@ -6127,29 +5662,29 @@
 VIB’s rapid loan expansion is being overshadowed by margin compression and rising asset quality risks. The latest results reinforce a cautious stance: profitability is under pressure, and credit costs may rise further if slippage continues. Investors should watch for signs of stabilization in margins and coverage before confidence can recover.</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2025-07-30 17:46:02</t>
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB delivered a sharp rebound in topline and profit in 4Q24, breaking a multi-quarter downtrend, but core income remains below last year’s level.
@@ -6166,29 +5701,29 @@
 VIB’s 4Q24 results are a positive surprise after a challenging year, with profit and asset quality stabilizing. Sustained margin pressure and weak core income remain key watchpoints, but the improved credit profile and loan momentum support a more constructive outlook heading into 2025.</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2025-07-30 17:46:14</t>
         </is>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>VIB</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>Private_2</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VIB’s 1Q25 results show headline profit holding steady, but this masks a sharp drop in core income and continued margin compression.
@@ -6205,68 +5740,29 @@
 VIB’s earnings are increasingly reliant on provision cuts rather than healthier revenue or risk metrics. Weak income trends, margin compression, and rising asset quality stress point to mounting risks for earnings durability. The negative surprise on asset quality and coverage should weigh on investor sentiment.</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2025-07-30 17:46:23</t>
         </is>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>VIB</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Private_2</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-1. VIB delivered a strong rebound in profitability in 2Q25, driven by a recovery in core income and disciplined cost of risk.
-2. Loan growth accelerated sharply QoQ, but NIM remains under pressure, reflecting ongoing margin headwinds.
-3. Asset quality improved modestly, with lower Group 2 loans and stable NPLs, though coverage ratios have slipped further.
----
-**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**
-VIB’s 2Q25 results mark a clear turnaround in profitability. Total operating income (TOI) rose 11.2% QoQ, reversing the previous quarter’s double-digit decline. This rebound was fueled by stronger loan growth and a partial recovery in fee income. Pre-tax profit (PBT) climbed 7.2% QoQ and surged 23.4% YoY, outpacing sector peers and beating expectations after a muted 1Q25. Return on assets (ROA) ticked up to 1.6% from 1.6% in 1Q25, while return on equity (ROE) improved to 19.0%, regaining ground lost over the past year. The key driver was a sharp drop in provision expenses YoY, reflecting better credit cost control.
-**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**
-Loan growth accelerated to 6.7% QoQ in 2Q25, more than doubling from 1Q25’s pace and outstripping the sector’s 6.9%. On a YoY basis, loans expanded 33.5%, underscoring VIB’s aggressive balance sheet expansion. However, net interest margin (NIM) edged up only slightly to 3.1% from 3.0% in 1Q25, remaining well below last year’s levels. The persistent margin compression reflects lower loan yields and heightened funding costs, with loan yield stabilizing at 8.8%. The modest NIM uptick signals early signs of stabilization, but margin recovery remains a key watchpoint.
-**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**
-Asset quality trends were broadly stable. The NPL ratio eased to 3.56% from 3.79% in 1Q25, while Group 2 loans fell to 2.90%—the lowest in six quarters—pointing to improved early-stage delinquencies. NPL formation data is unavailable for 2Q25, but the drop in Group 2 formation in 1Q25 suggests risk normalization. However, the NPL coverage ratio slipped further to 37.2%, now well below sector averages, raising questions about provisioning adequacy if asset quality were to deteriorate.
-**Investment Implications:**  
-VIB’s 2Q25 results are a positive surprise, with profit momentum returning and asset quality stabilizing. The main risk remains margin pressure and low coverage. Sustained loan growth and further NIM recovery will be critical to maintain earnings momentum.</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>2025-07-31 19:01:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB’s 1Q23 results show a sharp drop in profitability, with both TOI and net profit down significantly YoY and only a modest sequential recovery from a weak 4Q22.
@@ -6283,29 +5779,29 @@
 VPB’s latest results reinforce a cautious stance. While loan growth is holding up, profitability and asset quality are under significant strain. Margin compression and weak coverage ratios are key risks for earnings durability, and the negative surprise on core income and credit costs should weigh on sentiment.</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2025-07-30 17:46:41</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB’s 2Q23 saw a modest rebound in topline and profit growth QoQ, but both remain well below last year’s levels, reflecting persistent revenue and margin pressure.
@@ -6322,29 +5818,29 @@
 VPB’s growth engine is intact, but margin and credit quality headwinds are weighing on earnings. The latest results reinforce a cautious stance, with downside risks from asset quality outweighing the positives from loan expansion.</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2025-07-30 17:46:53</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB’s 3Q23 saw a sharp rebound in loan growth, but profitability weakened further as core income contracted and margins compressed.
@@ -6361,29 +5857,29 @@
 VPB’s 3Q23 results highlight a trade-off: aggressive loan growth is offset by margin compression and weak core profitability, with only modest relief on asset quality. The positive surprise on NPL formation is tempered by thin coverage and subdued earnings, keeping risk-reward finely balanced for investors.</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2025-07-30 17:47:08</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB delivered a sharp rebound in topline growth in 4Q23, but profitability softened on higher provision expenses and margin volatility.
@@ -6400,29 +5896,29 @@
 VPB’s strong loan growth and margin recovery are constructive, but persistent risk costs and low ROE temper the outlook. The latest results show progress on asset quality, yet earnings normalization will depend on further credit cost containment. Investors should watch for sustained margin stability and further improvements in profitability.</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2025-07-30 17:47:19</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB delivered a sharp rebound in profitability in 1Q24, with net profit and returns surging on the back of stable topline and sharply lower provision expenses.
@@ -6439,29 +5935,29 @@
 VPB’s profit surge is a positive surprise, but the underlying drivers—flat revenue, slower loan growth, and rising early risk—suggest the recovery is fragile. Investors should focus on whether asset quality pressures build, as further provision cuts may not be sustainable.</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2025-07-30 17:47:32</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB delivered a standout 2Q24, with TOI and profit surging on the back of robust loan growth and margin recovery, outpacing sector trends.
@@ -6478,29 +5974,29 @@
 VPB’s 2Q24 marks a clear inflection in growth and profitability, but the earnings beat is shadowed by rising asset quality risks and weaker coverage. Investors should weigh the strong topline momentum against the need for tighter credit risk management in coming quarters.</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2025-07-30 17:47:45</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB delivered a strong profitability beat in 3Q24, with net profit and returns surging on robust topline growth and sharply lower provision expenses.
@@ -6517,29 +6013,29 @@
 VPB’s 3Q24 marks a return to earnings momentum, with risk costs under control and asset quality stabilizing. The moderation in loan growth and margin compression warrant monitoring, but the positive surprise on credit metrics and profitability should support investor sentiment.</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2025-07-30 17:48:00</t>
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB delivered a standout 4Q24, with net profit and topline growth sharply accelerating both sequentially and year-on-year, driven by a surge in loan expansion and margin recovery.
@@ -6556,29 +6052,29 @@
 VPB’s 4Q24 results mark a clear inflection, with strong growth, margin recovery, and improving asset quality. The positive surprise on earnings and credit metrics supports a constructive outlook, though the scale of loan expansion and provision volatility remain key watchpoints for 2025.</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2025-07-30 17:48:12</t>
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VPB delivered robust loan growth in 1Q25, outpacing the sector, but profitability softened sharply after a strong 4Q24 as topline momentum reversed and risk costs stayed elevated.
@@ -6595,68 +6091,68 @@
 VPB’s high-octane loan growth is now coming with clear trade-offs: margin compression and mounting asset quality risks. The sharp drop in profitability and coverage is a negative surprise, signaling that earnings durability will depend on how quickly VPB can stabilize credit costs and restore margin resilience. Investors should watch for further slippage in asset quality and margin pressure in coming quarters.</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2025-07-30 17:48:37</t>
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>VPB</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>Private_1</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>2Q25</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-- VPB delivered a sharp rebound in profitability in 2Q25, driven by strong loan growth and lower provision expenses, despite continued NIM compression.
-- Asset quality improved notably, with both NPL and Group 2 ratios declining and new problem loan formation easing.
-- The bank’s aggressive loan expansion and improving credit costs are the main performance themes, but persistent margin pressure remains a watchpoint.
----
-**Profitability:**  
-VPB’s 2Q25 results mark a clear turnaround in profitability. Net profit before tax surged 23.9% QoQ and 38.3% YoY, reversing the previous quarter’s dip. This was underpinned by a 6.2% QoQ rise in total operating income (TOI), as well as a 11.4% QoQ drop in provision expenses. ROA climbed to 1.9% in 2Q25 from 1.6% in 1Q25, while ROE jumped to 12.8% from 10.4%, returning to levels last seen in 4Q24. The rebound reflects both top-line recovery and improved credit cost control, signaling positive momentum after a soft 1Q25.
-**Loan Growth &amp; NIM:**  
-Loan growth was the standout driver, with balances up 13.8% QoQ and 20.0% YTD—well ahead of sector averages. This aggressive expansion powered revenue growth but came at the cost of further NIM compression, which fell to 5.3% in 2Q25 from 5.7% in 1Q25. The margin squeeze reflects lower loan yields and likely competitive pricing to support loan growth. While volume gains offset margin pressure this quarter, the sustainability of this trade-off will be key for future earnings.
-**Asset Quality:**  
-Asset quality trends were a positive surprise. The NPL ratio dropped to 4.0% from 4.7% QoQ, and Group 2 loans fell to 3.0% from 4.3%. Both NPL and Group 2 formation rates moderated sharply, indicating a slowdown in new problem loans. The NPL coverage ratio improved to 52.2%, up from 47.4% in 1Q25, reflecting strengthened provisioning. The improvement in asset quality, alongside lower credit costs, suggests that earlier concerns about risk migration are easing.
-**Investment Implications:**  
-VPB’s 2Q25 performance signals a return to growth, with strong loan momentum and improving asset quality offsetting margin headwinds. The positive surprise in profitability and credit costs bodes well for near-term earnings, but investors should monitor NIM trends and the sustainability of rapid loan growth.</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>2025-07-31 19:01:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. VPB delivered a sharp rebound in profitability in 2Q25, with PBT up 23.9% QoQ and 38.3% YoY, driven by strong loan growth and lower provision expenses.
+2. Loan expansion accelerated to 13.8% QoQ, far outpacing the sector, but NIM compressed further as loan yields declined.
+3. Asset quality improved across the board, with NPL and group 2 ratios both dropping and coverage rebuilding, signaling a positive surprise on credit costs.
+----------------------------------
+Profitability:
+VPB’s 2Q25 results mark a clear turnaround in earnings momentum. Total operating income (TOI) rose 6.2% QoQ, reversing the prior quarter’s dip, though YoY growth moderated to 2.5% after a strong 1Q25. Net profit (PBT) surged 23.9% QoQ and 38.3% YoY, as provision expenses fell 11.4% sequentially. ROA improved to 1.9% from 1.6% in 1Q25, while ROE jumped to 12.8%—matching its best level in over a year and closing the gap with sector peers. The key driver was a combination of robust loan growth and sharply lower risk costs, offsetting continued margin pressure. This earnings beat is a positive surprise after a soft 1Q25.
+Loan Growth &amp; NIM:
+Loan book momentum accelerated dramatically, up 13.8% QoQ (vs. sector’s 4.2%), pushing YTD growth to 20.0%. This outsized expansion reflects aggressive lending, likely targeting higher-volume segments. However, NIM compressed further to 5.3% (down 56bps QoQ), as loan yields slipped to 10.8%. The margin squeeze suggests VPB is prioritizing volume over pricing, with competitive pressures and asset mix shifts weighing on spreads.
+Asset Quality:
+Asset quality metrics improved across the board. NPL ratio dropped to 4.0% (from 4.7% in 1Q25), and group 2 loans fell to 3.0%. Both NPL and group 2 formation rates declined sharply, signaling lower new problem loan inflows. NPL coverage rebuilt to 52.2%, up from 47.4% prior, though still below sector averages. The improvement in credit costs and formation is a clear positive surprise, especially given the pace of loan growth.
+Investment Implications:
+VPB’s 2Q25 results highlight a return to earnings growth, underpinned by aggressive loan expansion and improving asset quality. While margin compression remains a headwind, the positive surprise on credit costs and profit trajectory should support sentiment. Investors should watch for sustainability of loan growth and further margin trends.</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2025-07-30 17:48:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB delivered a sharp rebound in profitability in 1Q23, with both TOI and net profit recovering from a weak 4Q22, but underlying trends remain volatile.
@@ -6673,29 +6169,29 @@
 ABB’s earnings recovery in 1Q23 is encouraging, but the underlying drivers—contracting loans, margin compression, and rising credit risk—suggest the rebound may not be durable. Investors should monitor asset quality closely, as further slippage could pressure both profitability and capital.</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2025-07-30 17:49:01</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB’s 2Q23 results show a sharp reversal in profitability, with net profit and returns plunging QoQ and YoY, as surging provision expenses overwhelmed modest topline growth.
@@ -6712,29 +6208,29 @@
 ABB’s latest results highlight a challenging earnings and risk environment. The combination of margin compression, surging credit costs, and deteriorating asset quality is a clear negative surprise, raising concerns about earnings durability and capital protection going forward.</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2025-07-30 17:49:12</t>
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB’s 3Q23 results show a sharp reversal in profitability, with both TOI and net profit dropping steeply QoQ and YoY, as margin compression and weak revenue weighed on returns.
@@ -6751,29 +6247,29 @@
 ABB’s latest results highlight deepening profitability and growth challenges, with margin and topline pressure outweighing modest asset quality gains. The negative surprise on earnings and loan growth will likely weigh on sentiment until core revenue and margin trends stabilize.</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2025-07-30 17:49:25</t>
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB delivered a sharp turnaround in loan growth and core income in 4Q23, but profitability swung deep into negative territory on surging provisions and weak margins.
@@ -6790,29 +6286,29 @@
 ABB’s return to loan growth and better asset quality are positives, but persistent margin compression and volatile earnings keep risk high. The latest quarter is a reminder that while business momentum is returning, sustainable profitability will depend on margin recovery and disciplined risk management.</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2025-07-30 17:49:45</t>
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB’s 1Q24 saw a sharp reversal in loan growth and topline, with profitability rebounding from a weak 4Q23 but still lagging on a YoY basis.
@@ -6829,29 +6325,29 @@
 ABB’s 1Q24 rebound in headline profit is driven by provision cuts, not underlying growth. Weak topline, margin pressure, and rising asset quality risks suggest the recovery is fragile. Investors should watch for further credit deterioration and signs of sustainable revenue traction before turning more constructive.</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2025-07-30 17:49:54</t>
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB delivered a sharp turnaround in 2Q24, with both profitability and loan growth rebounding strongly after a weak start to the year.
@@ -6868,29 +6364,29 @@
 ABB’s 2Q24 marks a clear inflection, with strong loan and income growth, margin recovery, and improving asset quality. The positive surprise on profitability and credit costs supports a more constructive outlook, though sustainability will depend on maintaining asset quality and stabilizing loan yields.</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2025-07-30 17:50:03</t>
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB’s 3Q24 saw a sharp reversal in profitability, with net losses and negative returns, as topline momentum collapsed and provision expenses surged.
@@ -6907,29 +6403,29 @@
 ABB’s 3Q24 results highlight a fragile earnings base, with positive asset quality trends offset by severe topline and margin pressure. The negative profit surprise and margin compression warrant caution, even as credit risks moderate. Investors should watch for stabilization in core income before confidence can rebuild.</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2025-07-30 17:50:13</t>
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB delivered a sharp turnaround in 4Q24, with TOI and net profit rebounding strongly QoQ after a volatile year, but underlying loan growth stalled.
@@ -6946,29 +6442,29 @@
 ABB’s earnings rebound in 4Q24 is encouraging, but the lack of loan growth and renewed asset quality pressure temper the outlook. The latest results are a positive surprise on profit, but underlying credit risks and margin headwinds remain unresolved. Investors should monitor for sustained improvement in core lending and risk metrics before turning more constructive.</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2025-07-30 17:50:24</t>
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. ABB’s 1Q25 results show a sharp reversal in topline momentum, with both TOI and net profit down sequentially after a strong 4Q24, but YoY growth remains positive.
@@ -6985,68 +6481,29 @@
 ABB’s 1Q25 is a mixed bag: strong YoY profit growth but a clear sequential slowdown, with risk aversion weighing on loan and margin trends. The stable asset quality is a positive, but the lack of growth and earnings volatility will likely temper investor enthusiasm.</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2025-07-30 17:50:33</t>
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>ABB</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>BAB</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**  
-1. ABB delivered a sharp rebound in profitability in 2Q25, driven by a surge in TOI and robust loan growth, with ROA and ROE reaching multi-year highs.  
-2. Loan growth momentum accelerated both QoQ and YoY, while NIM stabilized, reflecting improved loan yields.  
-3. Asset quality improved materially, with NPL and Group 2 ratios dropping and coverage ratios strengthening.
----
-**Profitability:**  
-ABB’s 2Q25 results mark a significant turnaround in profitability. Net profit (proxied by PBT) more than doubled QoQ, rising 202.3% from 1Q25, and surged 279.4% YoY. This was fueled by a strong 81.3% QoQ jump in total operating income (TOI), reversing the prior quarter’s decline. ROA and ROE soared to 2.1% and 27.0%, respectively, both at multi-year highs and well above recent trends. The sharp improvement was mainly driven by robust revenue growth outpacing higher provision expenses, signaling a positive surprise versus expectations and a clear inflection in earnings momentum.
-**Loan Growth &amp; NIM:**  
-Loan growth accelerated sharply, up 17.0% QoQ and 16.2% YTD, a marked turnaround from flat-to-negative growth in prior quarters. This expansion was the key driver behind the TOI surge, as loan yields also improved to 7.3% in 2Q25 from 7.2% in 1Q25. NIM edged up to 1.95% from 1.87% in 1Q25, reflecting better asset pricing and possibly a more favorable funding mix. The combination of volume and margin expansion underpins the strong revenue trajectory, positioning ABB ahead of sector loan growth trends.
-**Asset Quality:**  
-Asset quality metrics improved across the board. The NPL ratio dropped to 2.7% in 2Q25 from 3.8% in 1Q25, and Group 2 loans fell to 0.7% from 1.2%. Coverage ratios strengthened to 56.9%, well above the sector’s 43.5%. The improvement reflects both active risk management and the impact of strong loan growth diluting legacy problem loans. Provisioning remained elevated but was more than offset by revenue gains. The asset quality turnaround reduces risk and supports a more sustainable earnings outlook.
-**Investment Implications:**  
-ABB’s 2Q25 results represent a positive inflection, with accelerating growth, margin recovery, and cleaner asset quality. The strong earnings beat and improved risk profile should support a re-rating, with momentum likely to persist if current trends hold.</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>2025-07-31 19:01:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>BAB</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Private_3</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB’s 1Q23 results show a sharp pullback in topline and profit after a strong 4Q22, with both TOI and PBT down sequentially, but YoY growth remains solid.
@@ -7063,29 +6520,29 @@
 BAB’s 1Q23 is a mixed bag: resilient YoY profit and strong asset quality, but with clear signs of topline pressure, margin squeeze, and stalling loan growth. The margin compression and uptick in early risk signals warrant close investor attention, as the positive surprise on asset quality is offset by negative trends in growth and profitability.</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2025-07-30 17:50:49</t>
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB’s 2Q23 results show a sharp drop in profitability, with PBT and returns falling well below both the previous quarter and last year, despite a modest recovery in topline growth.
@@ -7102,29 +6559,29 @@
 BAB’s 2Q23 marks a clear setback, with profitability and asset quality both deteriorating. The results signal rising risk and earnings volatility, warranting caution until credit costs and margins stabilize.</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2025-07-30 17:51:00</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB’s 3Q23 results show a sharp deterioration in profitability, with both TOI and net profit plunging sequentially and year-on-year, as margin compression and provision swings weigh on returns.
@@ -7141,29 +6598,29 @@
 BAB’s latest results highlight a challenging earnings outlook, with margin compression and asset quality slippage outweighing modest loan growth. The negative surprise on profitability and coverage ratios suggests investors should remain cautious on near-term recovery prospects.</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2025-07-30 17:51:12</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB delivered a sharp rebound in profitability in 4Q23, with both TOI and net profit surging sequentially, but the improvement was driven by volatile provision swings rather than core business momentum.
@@ -7180,29 +6637,29 @@
 BAB’s headline profit rebound is eye-catching but rests on unsustainable provision swings. Core growth and margin trends remain soft, while asset quality slippage is now a clear red flag. Investors should focus on underlying credit risks and the durability of earnings, as the latest results are a positive surprise on profit but negative on risk.</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2025-07-30 17:51:26</t>
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB’s 1Q24 results show a sharp pullback in profitability and core income after a strong 4Q23, with both ROA and ROE retreating but still above 1Q23 levels.
@@ -7219,29 +6676,29 @@
 BAB’s earnings cycle is turning more volatile, with asset quality now the main concern. While margins are holding up, the sharp rise in NPLs and falling coverage could weigh on future profitability. Investors should watch for further credit slippage and signs of stabilization in core income.</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2025-07-30 17:51:39</t>
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB’s 2Q24 results show a sharp slowdown in profitability, with both ROA and ROE retreating as topline growth stalled and provision reversals faded.
@@ -7258,29 +6715,29 @@
 BAB’s 2Q24 results highlight mounting asset quality risks and a stalling profit engine. The negative surprise on credit costs and coverage should weigh on sentiment, with investors needing to watch for further slippage in coming quarters.</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2025-07-30 17:51:51</t>
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C164" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB delivered a solid rebound in profitability in 3Q24, with PBT up 33.4% QoQ and 151.8% YoY, driven by a recovery in TOI and sharply lower provision expenses.
@@ -7297,29 +6754,29 @@
 BAB’s 3Q24 performance is a positive surprise, with earnings rebounding on lower provisions and better asset quality. However, margin compression and still-weak coverage ratios highlight areas to watch. The results support a cautiously constructive outlook, but sustained improvement in core profitability and risk buffers will be key for investor confidence.</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2025-07-30 17:52:04</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB delivered a strong 4Q24 finish, with net profit and PBT rebounding sharply QoQ on the back of surging TOI and a reversal in provision expenses.
@@ -7336,29 +6793,29 @@
 BAB’s 4Q24 results mark a clear inflection, with strong profit recovery, accelerating loan growth, and improving asset quality. The positive surprise on provisions and earnings momentum positions BAB well for 2025, but investors should monitor loan yield pressure and coverage ratios as growth resumes.</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2025-07-30 17:52:19</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
+    <row r="166">
+      <c r="A166" t="inlineStr">
         <is>
           <t>BAB</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BAB’s 1Q25 results show a pullback in profitability after a strong 4Q24, with both TOI and net profit declining sequentially, though YoY trends remain positive.
@@ -7375,67 +6832,29 @@
 BAB’s 1Q25 was a reset after a strong 4Q24, with profitability normalizing and loan growth momentum easing. Asset quality and coverage remain strengths, but margin and topline trends warrant close monitoring. The results are broadly in line with expectations, with no major surprises—investors should watch for signs of renewed growth or further margin compression ahead.</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2025-07-30 17:52:29</t>
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>BAB</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>BVB</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-- BAB’s 2Q25 results show accelerating loan growth and resilient asset quality, but profitability momentum softened as margins compressed and provisions stayed elevated.
-- Net interest margin (NIM) drifted lower, weighing on returns, while coverage ratios improved and NPLs remained well below sector averages.
----
-**Profitability:**  
-BAB’s total operating income (TOI) rebounded 3.6% QoQ in 2Q25 after a weak 1Q25, but remained below the 4Q24 peak. The YoY TOI growth of 17.2% signals strong underlying business expansion, yet net profit (PBT) fell 17.3% QoQ as provision expenses rose and NIM slipped. Return on assets (ROA) and return on equity (ROE) both declined sequentially to 0.54% and 8.0%, respectively, reflecting margin pressure and higher risk costs. Despite this, YoY PBT growth surged 49.4%, highlighting a favorable base effect and improved core earnings. The softer QoQ profitability is a negative surprise versus the strong finish to 2024, mainly due to margin compression and provision normalization.
-**Loan Growth &amp; NIM:**  
-Loan growth accelerated to 3.5% QoQ in 2Q25, up from 1.4% in 1Q25, and reached 5.0% YTD—outpacing sector trends. This momentum was driven by robust demand and likely targeted lending segments. However, NIM slipped further to 2.05% from 2.12% in 1Q25, as loan yields stabilized but funding costs likely edged higher. The margin compression is the key headwind, limiting the pass-through of strong loan growth to bottom-line results. Sustained loan expansion is a positive, but margin trends warrant close monitoring.
-**Asset Quality:**  
-BAB’s asset quality remains a clear strength. NPL ratio was steady at 1.25% in 2Q25, far below the sector’s 3.1%. Group 2 loans also stayed low at 0.44%. NPL coverage improved to 101.1%, providing a solid buffer. NPL and G2 formation data were unavailable for the quarter, but prior trends showed benign new stress. The combination of stable NPLs and rising coverage suggests prudent risk management, supporting the investment case even as profitability faces near-term pressure.
-**Investment Implications:**  
-BAB’s strong loan growth and asset quality underpin its franchise, but margin compression and higher provisions are weighing on returns. The latest results are a mixed bag: positive on growth and credit, but softer on profitability. Sustained margin pressure could cap upside unless offset by further efficiency gains or a turn in funding costs.</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>2025-07-31 19:01:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>BVB</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Private_3</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB’s 1Q23 results show a sharp drop in profitability, with both TOI and net profit down significantly QoQ and YoY, as revenue pressure and weaker provision tailwinds weighed on the bottom line.
@@ -7452,29 +6871,29 @@
 BVB’s 1Q23 marks a negative inflection: topline and profit under pressure, margins squeezed, and asset quality risks building. The strong loan growth is overshadowed by deteriorating fundamentals, warranting caution on near-term outlook.</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2025-07-30 17:52:45</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB’s 2Q23 results show a modest topline recovery but continued sharp deterioration in profitability, with ROA and ROE hitting multi-year lows.
@@ -7491,29 +6910,29 @@
 BVB’s weak profitability and escalating asset quality risks overshadow the modest topline recovery and NIM rebound. The latest results reinforce a cautious stance, with negative surprises on both earnings and credit quality. Investors should monitor for further slippage and signs of stabilization before turning constructive.</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2025-07-30 17:52:57</t>
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+    <row r="169">
+      <c r="A169" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB delivered a sequential rebound in profitability in 3Q23, driven by a recovery in core income and sharply lower provision expenses, but YoY trends remain weak.
@@ -7530,29 +6949,29 @@
 BVB’s 3Q23 results show early signs of stabilization, with improved profitability and asset quality. However, weak loan growth and thin coverage ratios suggest the recovery is tentative. Investors should watch for sustained income momentum and further strengthening of credit buffers before confidence can fully return.</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2025-07-30 17:53:09</t>
         </is>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB delivered a strong rebound in topline growth in 4Q23, but profitability sharply deteriorated as provision expenses surged, dragging ROA and ROE to multi-year lows.
@@ -7569,29 +6988,29 @@
 BVB’s strong loan and revenue growth are offset by heavy provisioning and weak profitability. The latest results highlight a cautious approach to risk, but investors should watch for further earnings pressure if credit costs stay elevated.</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2025-07-30 17:53:23</t>
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB delivered a sharp turnaround in profitability in 1Q24, with net profit and returns rebounding to multi-year highs, driven by strong topline growth and normalized provisions.
@@ -7608,29 +7027,29 @@
 BVB’s earnings rebound is a positive surprise, driven by strong revenue and cost control. However, the pause in loan growth and rising asset quality risks warrant close monitoring, as future credit costs could pressure returns if slippage persists.</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2025-07-30 17:53:34</t>
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB delivered a strong 2Q24 with accelerating topline and profit growth, as both TOI and PBT posted robust sequential and YoY gains, driving ROA and ROE to new highs.
@@ -7647,29 +7066,29 @@
 BVB’s 2Q24 results show a clear turnaround in profitability and margin, underpinned by strong revenue growth and disciplined risk management. The positive surprise on earnings and asset quality supports a constructive outlook, though investors should watch for sustained loan growth and further margin resilience.</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2025-07-30 17:53:47</t>
         </is>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB delivered standout loan growth in 3Q24, but profitability sharply reversed as topline momentum stalled and risk costs stayed elevated.
@@ -7686,29 +7105,29 @@
 BVB’s rapid loan growth is a clear positive, but the sharp drop in profitability and rising NPLs flag mounting risk. Margin pressure and weaker coverage ratios are key watchpoints. The latest results are a negative surprise versus the improving trajectory seen earlier in 2024, and investors should monitor for further asset quality slippage as growth accelerates.</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2025-07-30 17:53:59</t>
         </is>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB delivered a standout 4Q24, with a sharp rebound in profitability and record-high ROA/ROE, driven by surging TOI and margin expansion.
@@ -7725,29 +7144,29 @@
 BVB’s 4Q24 is a clear positive inflection, with strong growth, margin expansion, and improving asset quality. The results suggest a step-change in earnings power and risk discipline, positioning the bank for stronger investor confidence if these trends sustain.</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2025-07-30 17:54:16</t>
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>BVB</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. BVB’s 1Q25 results show a sharp pullback in profitability after an outsized 4Q24, as core income fell and margins compressed, despite continued loan growth.
@@ -7764,68 +7183,29 @@
 BVB’s 1Q25 results highlight a reset in profitability and margin pressure, with asset quality risks re-emerging. The quarter signals that the 4Q24 surge was not sustainable, and investors should monitor for further margin compression and credit slippage.</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2025-07-30 17:54:29</t>
         </is>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>BVB</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>NAB</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-- BVB’s 2Q25 profitability sharply deteriorated, with net profit and returns plunging despite a rebound in TOI.
-- Loan growth momentum slowed further, but NIM staged a modest recovery after a weak 1Q25.
-- Asset quality weakened, with rising NPLs and lower coverage, signaling renewed credit stress.
----
-**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**
-BVB’s profitability took a significant hit in 2Q25. While total operating income (TOI) rebounded 22.9% QoQ after a weak 1Q25, this was not enough to offset a spike in provision expenses, which jumped 27.3% QoQ. As a result, pre-tax profit collapsed to just 1.3 trillion VND, down 83.5% QoQ and 84.2% YoY. Return metrics mirrored this decline: ROA fell to 0.04% and ROE to 0.6%, both at multi-year lows. The sharp drop in profit, despite higher TOI, points to intensifying credit costs as the main drag—an unexpected negative surprise versus recent quarters.
-**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**
-Loan growth decelerated to 2.5% QoQ in 2Q25, down from 3.8% in 1Q25 and well below the 6.5% pace seen in late 2024. On a YoY basis, loan growth remains positive but is clearly losing steam. Net interest margin (NIM) improved to 2.4% from 2.0% in 1Q25, reversing the prior quarter’s compression. This NIM recovery was driven by a slight rebound in loan yields, but the improvement was not enough to offset the impact of rising provisions on bottom-line results.
-**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**
-Asset quality trends are a growing concern. The NPL ratio rose to 3.8% in 2Q25 from 3.4% in 1Q25, reversing the improvement seen at end-2024 and now sitting above the sector average (3.1%). Group 2 loans also remain elevated, though the ratio fell to 1.0%. NPL coverage dropped to 40.4%, below both the previous quarter and sector benchmark, signaling weaker loss absorption capacity. The uptick in NPLs and lower coverage suggest renewed credit stress, likely driving the surge in provisions and weighing on profitability.
-**Investment Implications**
-The sharp deterioration in profit and asset quality in 2Q25 is a clear negative surprise. Rising credit costs and slowing loan growth overshadow the modest NIM recovery. Investors should watch for further asset quality slippage and whether management can contain provisioning pressure in coming quarters.</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>2025-07-31 19:01:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>NAB</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Private_3</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB delivered a sharp rebound in profitability in 1Q23, with PBT and returns surging on the back of robust loan growth and lower provision expenses.
@@ -7842,29 +7222,29 @@
 NAB’s 1Q23 is a positive inflection in profitability and growth, but asset quality volatility and thin coverage ratios temper the outlook. Sustaining earnings will hinge on managing credit costs as the loan book expands.</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2025-07-30 17:54:40</t>
         </is>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
+    <row r="177">
+      <c r="A177" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="D177" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB delivered a rebound in topline and stable profit in 2Q23, with TOI and PBT both up sequentially, but profitability ratios softened as margins compressed and asset quality risks rose.
@@ -7881,29 +7261,29 @@
 NAB’s strong revenue recovery is overshadowed by margin compression and clear asset quality slippage. The sharp slowdown in loan growth and falling coverage ratios are negative surprises, raising caution on the sustainability of earnings momentum. Investors should closely monitor credit trends and margin dynamics in coming quarters.</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2025-07-30 17:54:51</t>
         </is>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
+    <row r="178">
+      <c r="A178" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB’s 3Q23 results show a sharp pullback in profitability, with both TOI and net profit down significantly QoQ, as margin compression and weaker income weighed on returns.
@@ -7920,29 +7300,29 @@
 NAB’s latest results highlight a shift from growth to risk management. The sharp drop in profitability and persistent asset quality pressures are negative surprises, suggesting investors should monitor for further downside risk as credit costs and margin compression weigh on returns.</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2025-07-30 17:55:07</t>
         </is>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
+    <row r="179">
+      <c r="A179" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB delivered a standout 4Q23, with TOI and net profit surging to multi-year highs on the back of robust loan growth and margin expansion.
@@ -7959,29 +7339,29 @@
 NAB’s 4Q23 marks a clear positive inflection, with margin and profit momentum surprising to the upside. While asset quality bears watching, the bank’s earnings power and margin trajectory position it well for continued outperformance if credit risks are contained.</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2025-07-30 17:55:17</t>
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
+    <row r="180">
+      <c r="A180" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB’s 1Q24 results show a sharp pullback in topline and profit after an outsized 4Q23, but YoY growth remains healthy, underpinned by robust loan expansion.
@@ -7998,29 +7378,29 @@
 NAB’s growth story remains intact, but the latest quarter highlights earnings volatility and margin pressure. The asset quality drift and weaker coverage are emerging risks. Investors should watch for further margin compression and credit slippage, as the positive YoY momentum is now facing headwinds.</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2025-07-30 17:55:37</t>
         </is>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+    <row r="181">
+      <c r="A181" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB delivered a strong 2Q24 with a sharp rebound in topline and profit, driven by accelerating loan growth and margin recovery.
@@ -8037,29 +7417,29 @@
 NAB’s 2Q24 results show a bank firing on all cylinders: accelerating growth, margin recovery, and improving asset quality. The positive surprise on both earnings and risk metrics strengthens the investment case, with momentum likely to persist if current trends hold.</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2025-07-30 17:55:48</t>
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
+    <row r="182">
+      <c r="A182" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB delivered robust YoY profit and loan growth in 3Q24, but sequential momentum softened as topline and margins dipped from 2Q24 highs.
@@ -8076,29 +7456,29 @@
 NAB’s growth story remains intact, but the latest quarter highlights the need to watch for further margin compression and asset quality slippage. The sequential slowdown is not alarming, but investors should monitor whether these trends persist into 4Q24.</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2025-07-30 17:56:02</t>
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
+    <row r="183">
+      <c r="A183" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB closed 4Q24 with a solid rebound in topline and profit, outpacing sector peers on both profitability and asset quality improvement.
@@ -8115,29 +7495,29 @@
 NAB’s 4Q24 results mark a positive inflection, with robust profitability, resilient margins, and a material step-up in asset quality. The bank’s ability to grow loans and defend returns while de-risking the balance sheet stands out in a volatile sector backdrop. The latest figures are a clear positive surprise and support a constructive view on NAB’s earnings durability into 2025.</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2025-07-30 17:56:20</t>
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+    <row r="184">
+      <c r="A184" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NAB delivered robust loan growth in 1Q25, sharply outpacing the sector, but topline and profit momentum softened sequentially as revenue normalized and risk costs rebounded.
@@ -8154,68 +7534,29 @@
 NAB’s strong loan growth and resilient asset quality underpin its earnings power, but the latest quarter shows profit normalization and early signs of credit cost reacceleration. The results are broadly in line with expectations, with no major surprises, but investors should watch for further shifts in risk costs as the loan book expands.</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>2025-07-30 17:56:33</t>
         </is>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>NAB</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>NVB</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**  
-1. NAB delivered robust loan growth and a strong rebound in topline income in 2Q25, but profitability ratios softened as asset quality pressures mounted.  
-2. Net profit growth was held back by a sharp spike in provision expenses, with NIM compression emerging as a key headwind.  
-3. Asset quality trends deteriorated, with rising NPLs and a notable drop in coverage, signaling a need for caution on forward risk costs.
----
-**Profitability:**  
-NAB’s total operating income (TOI) surged 18.9% QoQ in 2Q25, reversing the prior quarter’s dip and marking a 17.1% YoY increase. This topline momentum was driven by accelerating loan growth, but the benefit was partly offset by a steep 155.9% QoQ jump in provision expenses. As a result, pre-tax profit rose just 5.8% QoQ and 6.5% YoY—well below the pace of revenue expansion. Return on assets (ROA) slipped to 1.43% in 2Q25 from 1.54% in 1Q25, while return on equity (ROE) was broadly stable at 19.97%. The drop in ROA, despite higher income, reflects rising credit costs and margin pressure. This outcome is a negative surprise versus the strong topline, highlighting the drag from risk provisioning.
-**Loan Growth &amp; NIM:**  
-Loan growth accelerated sharply to 8.4% QoQ in 2Q25 (up from 6.0% in 1Q25), and loans expanded 14.9% year-to-date—well ahead of sector averages. This expansion underpinned the TOI rebound. However, net interest margin (NIM) compressed to 3.0% from 3.4% in 1Q25, despite a slight uptick in loan yield. The margin squeeze likely reflects higher funding costs or a shift in asset mix, and it tempers the positive impact of loan growth on earnings. Sustained NIM pressure could weigh on future profitability if not addressed.
-**Asset Quality:**  
-Asset quality trends weakened in 2Q25. The NPL ratio rose to 2.85% from 2.49% in 1Q25, and coverage fell sharply to 39.0% from 52.2%. Group 2 loans continued to decline, but the uptick in NPLs and lower coverage suggest rising stress in the loan book. The spike in provision expenses aligns with these trends and may persist if asset quality does not stabilize. While NPLs remain below the sector average, the direction of change is negative and warrants close monitoring.
-**Investment Implications:**  
-NAB’s growth engine is firing, but rising credit costs and margin compression are eroding profitability gains. The latest results are a mixed bag: strong loan and income growth, but with clear warning signs on asset quality and margins. Investors should watch for further NPL formation and management’s response to margin pressure.</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>2025-07-31 19:01:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>NVB</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Private_3</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB’s 1Q23 results show a sharp reversal in profitability, with both TOI and net profit plunging sequentially and year-on-year, as core income faltered and provision relief faded.
@@ -8232,29 +7573,29 @@
 NVB’s 1Q23 results highlight severe earnings volatility and mounting asset quality risks. The collapse in profitability and surge in bad loans are negative surprises, overshadowing any margin recovery. Investors should remain cautious as credit costs and capital risks are likely to persist.</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>2025-07-30 17:56:46</t>
         </is>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
+    <row r="186">
+      <c r="A186" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB’s 2Q23 saw a marginal profit recovery, but topline and margin pressures persist, with core income and returns still well below sector averages.
@@ -8271,29 +7612,29 @@
 NVB’s latest quarter offered only a modest profit respite, driven by provision cuts rather than improved business fundamentals. Persistent margin compression and deteriorating asset quality remain key risks, with little evidence of a turnaround in core earnings or credit costs. Investors should remain cautious until NVB demonstrates sustained improvement in both profitability and risk metrics.</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>2025-07-30 17:57:00</t>
         </is>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+    <row r="187">
+      <c r="A187" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB delivered a strong rebound in loan growth in 3Q23, but profitability sharply deteriorated on collapsing core income and a spike in provision expenses.
@@ -8310,29 +7651,29 @@
 NVB’s latest results highlight a precarious balance: rapid loan growth is not translating into sustainable profitability, and asset quality remains deeply challenged. The collapse in margins and earnings, coupled with weak coverage, signals heightened risk for investors and underscores the need for urgent balance sheet repair.</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>2025-07-30 17:57:10</t>
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+    <row r="188">
+      <c r="A188" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB’s 4Q23 marked a sharp deterioration in profitability, with a collapse in core income and deepening losses, despite robust loan growth.
@@ -8349,29 +7690,29 @@
 NVB’s 4Q23 results highlight a bank under severe strain: accelerating loan growth is not translating into income, margins have collapsed, and asset quality risks are mounting. The negative surprise on profitability and coverage signals urgent need for a strategic reset.</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>2025-07-30 17:57:29</t>
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+    <row r="189">
+      <c r="A189" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB’s 1Q24 saw a sharp rebound in topline income but continued to post negative profitability, with ROA and ROE still deep in the red—though less so than the prior quarter.
@@ -8388,29 +7729,29 @@
 NVB is showing early signs of operational stabilization, with loan growth and NIM rebounding and asset quality slippage easing. However, persistent losses and thin coverage ratios keep risk high. Investors should watch for sustained improvement in profitability and coverage before sentiment can turn positive.</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>2025-07-30 17:57:42</t>
         </is>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB delivered a sharp turnaround in 2Q24, swinging back to profit and posting its strongest topline growth in years, but asset quality risks are mounting rapidly.
@@ -8427,29 +7768,29 @@
 NVB’s earnings rebound is eye-catching, but the underlying asset quality slippage and weak coverage ratios are red flags. The bank’s growth strategy is driving near-term profit, but at the cost of rising credit risk and margin pressure. Investors should be cautious: the positive profit surprise is overshadowed by deteriorating fundamentals.</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>2025-07-30 17:57:55</t>
         </is>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+    <row r="191">
+      <c r="A191" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="D191" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB’s 3Q24 results show a sharp reversal in profitability, with net losses and negative returns after a brief recovery in 2Q24.  
@@ -8466,29 +7807,29 @@
 NVB’s 3Q24 results highlight renewed earnings pressure and a loss of growth momentum. While asset quality metrics improved, thin coverage and negative profitability keep risk high. The quarter is a negative surprise, and investors should watch for further signs of stabilization before turning constructive.</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>2025-07-30 17:58:08</t>
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+    <row r="192">
+      <c r="A192" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB’s 4Q24 results showed a sharp deterioration in profitability, with a collapse in core income and a spike in losses, despite robust loan growth.
@@ -8505,29 +7846,29 @@
 NVB’s 4Q24 results signal deep structural challenges. The collapse in core income and margins, despite headline loan growth, points to unsustainable business dynamics. Asset quality optics improved, but underlying risk remains high. The negative surprise on profitability and coverage is a clear red flag for investors.</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>2025-07-30 17:58:20</t>
         </is>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+    <row r="193">
+      <c r="A193" t="inlineStr">
         <is>
           <t>NVB</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. NVB delivered a sharp turnaround in 1Q25, swinging back to positive profitability and accelerating loan growth, but topline momentum remains volatile.
@@ -8544,68 +7885,29 @@
 NVB’s 1Q25 results mark a decisive break from recent losses, with strong loan growth and asset quality gains. The positive surprise on profitability and credit metrics is encouraging, but investors should watch for sustained improvement in coverage and core income to confirm a durable turnaround.</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>2025-07-30 17:58:31</t>
         </is>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>NVB</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>KLB</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-- NVB delivered a sharp turnaround in profitability and asset quality in 2Q25, with both earnings and credit metrics improving sequentially and year-on-year.
-- Loan growth accelerated further, supporting a strong rebound in NIM, while risk costs remained elevated but manageable.
-- The latest results mark a positive surprise versus recent quarters, signaling a clear inflection in business momentum.
----
-**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**
-NVB posted a robust recovery in 2Q25, with total operating income (TOI) surging 51.0% QoQ and more than doubling YoY. This follows a volatile 4Q24 and 1Q25, where TOI and PBT were distorted by one-off negatives. Pre-tax profit (PBT) more than doubled QoQ to VND 311.5bn, up 5.3x YoY, reflecting both revenue momentum and improved cost control. Return on assets (ROA) and return on equity (ROE) jumped to 0.91% and 19.5%, respectively, from 0.48% and 9.8% in 1Q25, marking the highest levels in recent years. The earnings rebound was driven by strong core income and lower credit costs relative to previous quarters.
-**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**
-Loan growth accelerated to 11.4% QoQ in 2Q25, building on a solid 9.8% QoQ in 1Q25, and reached 22.3% YTD. This expansion outpaces sector averages and underpins the bank’s revenue recovery. Net interest margin (NIM) widened sharply to 2.39% from 1.76% in 1Q25, driven by higher loan yields (10.3% in 2Q25 vs 9.0% in 1Q25) and likely improved funding mix. The strong loan book momentum and margin expansion are key positive themes, suggesting NVB is regaining competitive ground.
-**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**
-Asset quality improved materially. The NPL ratio fell to 11.4% in 2Q25 from 14.0% in 1Q25 and 19.5% at end-2024, while Group 2 loans dropped to 0.7%. NPL coverage rose to 13.0%, up from 11.2% in 1Q25, though still below sector norms. Provisioning expense increased 71.4% QoQ, reflecting continued caution, but the declining NPL stock signals effective risk management. The improvement in asset quality, alongside rising coverage, reduces tail risk and supports the earnings outlook.
-**Investment Implications:**  
-NVB’s 2Q25 results confirm a decisive shift in profitability and risk metrics, with strong loan growth and margin recovery driving the story. The positive surprise in earnings and asset quality points to improved fundamentals and a more constructive investment case.</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>2025-07-31 19:02:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>KLB</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Private_3</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB delivered a strong profitability rebound in 1Q23, with PBT up 19.9% QoQ and 59.2% YoY, driven by robust topline growth and sharply lower provision expenses.
@@ -8622,29 +7924,29 @@
 KLB’s 1Q23 print is a positive surprise, with earnings momentum, margin expansion, and asset quality all moving in the right direction. The combination of strong profitability and improving credit metrics supports a constructive outlook, with risk-adjusted returns now outpacing peers.</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>2025-07-30 17:58:42</t>
         </is>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB’s 2Q23 results show resilient loan growth and stable bottom-line performance, but a sharp drop in core income and margin compression signal rising pressure on profitability.
@@ -8661,29 +7963,29 @@
 KLB’s loan growth remains a bright spot, but the sharp income and margin drop, alongside rising early-stage delinquencies, signal growing pressure on earnings quality. Investors should watch for further margin volatility and asset quality slippage, as the latest results mark a negative inflection in core trends.</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>2025-07-30 17:58:57</t>
         </is>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB delivered a sharp rebound in profitability in 3Q23, with both TOI and PBT surging sequentially, driven by a recovery in core income and normalized provisioning.
@@ -8700,29 +8002,29 @@
 KLB’s profit recovery is a positive surprise, but the stalling loan growth and rising credit risk temper the outlook. Investors should watch for further asset quality slippage, as the latest results suggest a more cautious stance is warranted.</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>2025-07-30 17:59:11</t>
         </is>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="D197" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB delivered strong topline and loan growth in 4Q23, but profitability fell sharply as provision expenses surged and margins remained under pressure.
@@ -8739,29 +8041,29 @@
 KLB’s strong loan and income growth are overshadowed by a sharp drop in profitability and persistent asset quality concerns. The spike in provisions signals a cautious stance, but also highlights ongoing risk in the loan book. Investors should watch for further margin recovery and stabilization in credit costs before confidence can rebuild.</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>2025-07-30 17:59:23</t>
         </is>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB delivered a sharp rebound in profitability in 1Q24, with net profit and returns recovering from a weak 4Q23, driven by normalized provisions and steady topline growth.
@@ -8778,29 +8080,29 @@
 KLB’s earnings recovery is encouraging, but rising asset quality risks and thinning coverage warrant close monitoring. The latest results highlight a return to normalized profitability, but with clear credit headwinds that could pressure future performance.</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>2025-07-30 18:00:44</t>
         </is>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
+    <row r="199">
+      <c r="A199" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="D199" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB delivered a standout 2Q24, with TOI and net profit surging on the back of accelerating loan growth and a sharp NIM rebound—well ahead of sector trends.
@@ -8817,29 +8119,29 @@
 KLB’s 2Q24 results mark a clear positive surprise, with strong growth, margin expansion, and improving asset quality. The bank’s ability to drive both topline and bottom-line gains while tightening risk metrics sets it apart as a top performer in the current cycle.</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>2025-07-30 18:01:12</t>
         </is>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
+    <row r="200">
+      <c r="A200" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="D200" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB’s 3Q24 results show a sharp reversal in profitability after a strong 2Q24, with both TOI and net profit declining sequentially, though YoY growth remains robust.
@@ -8856,29 +8158,29 @@
 KLB’s 3Q24 print signals a normalization phase after outsized 2Q24 gains. While profitability softened, core growth and risk buffers remain strong. Investors should watch for further margin compression, but the bank’s asset quality resilience and above-sector loan growth keep the medium-term outlook constructive.</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>2025-07-30 18:01:27</t>
         </is>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
+    <row r="201">
+      <c r="A201" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="D201" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB delivered a strong finish in 4Q24, with profitability and loan growth accelerating sequentially, outpacing sector trends and surprising positively on both earnings and asset quality.
@@ -8895,29 +8197,29 @@
 KLB’s 4Q24 results mark a positive inflection, with strong growth, resilient margins, and improving asset quality. The bank’s ability to scale profitably while maintaining risk discipline sets it apart, supporting a constructive outlook for 2025.</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>2025-07-30 18:01:41</t>
         </is>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
+      <c r="D202" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. KLB delivered a standout 1Q25 with surging loan growth and robust topline expansion, outpacing sector trends, while profitability held steady at elevated levels.
@@ -8934,68 +8236,68 @@
 KLB’s 1Q25 cements its position as a high-growth, high-margin lender, but the trade-off is rising asset quality risk. The positive surprise on income and margins is tempered by the need for vigilance on credit trends and coverage. Investors should watch for further slippage as the growth cycle matures.</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>2025-07-30 18:01:54</t>
         </is>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t>KLB</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>2Q25</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**  
-1. KLB delivered a sharp profit acceleration in 2Q25, with both ROA and ROE hitting new highs, driven by robust fee and interest income.  
-2. Loan growth momentum moderated after a strong 1Q25 surge, while NIM remained steady, reflecting stable funding costs.  
-3. Asset quality improved, with NPL and Group 2 ratios declining and coverage reaching a new peak, signaling effective risk management.
----
-**Profitability:**  
-KLB’s profitability leapt in 2Q25, with net profit before tax up 58.4% QoQ and 67.2% YoY. Total operating income (TOI) rose 5.1% QoQ and 9.7% YoY, sustaining the positive trajectory seen since 4Q24. This was underpinned by both interest and non-interest income growth, outpacing provision expenses. ROA climbed to 1.85% and ROE to 25.7%, both at multi-quarter highs and well above recent averages. The profit surprise was driven by strong revenue momentum and disciplined cost control, despite a spike in provisioning.
-**Loan Growth &amp; NIM:**  
-Loan growth cooled to 2.2% QoQ in 2Q25 after a standout 10.7% jump in 1Q25, but the YoY expansion remains solid at 21.8%. This deceleration likely reflects a normalization after aggressive first-quarter disbursements. NIM edged up slightly to 3.97% from 3.92% in 1Q25, holding steady despite a marginal dip in loan yields. This stability suggests KLB is managing funding costs well and maintaining pricing discipline, even as loan mix shifts.
-**Asset Quality:**  
-Asset quality metrics improved across the board. NPL ratio dropped to 1.96% from 2.17% in 1Q25, while Group 2 loans also declined to 1.51%. Coverage ratio surged to 82.8%, far above the sector’s 43.5%, reflecting proactive provisioning. The fall in both NPL and G2 ratios, despite higher provisions, points to effective risk containment and a cleaner loan book. This positions KLB favorably for future growth, with asset quality now a clear strength.
-**Investment Implications:**  
-KLB’s strong profit delivery, resilient NIM, and improving asset quality are positive surprises versus recent trends. The moderation in loan growth is a watch point, but the bank’s risk metrics and profitability trajectory support a constructive outlook.</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>2025-07-31 19:02:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. KLB delivered a standout 2Q25, with net profit and returns surging to new highs on robust topline growth and disciplined cost control, far outpacing sector trends.
+2. Loan growth momentum slowed sharply QoQ but remains strong YTD; NIM held steady despite some yield compression, reflecting effective balance sheet management.
+3. Asset quality metrics improved, with NPL and group 2 ratios both declining and coverage hitting a record, signaling a positive surprise on credit risk containment.
+----------------------------------
+Profitability:  
+KLB’s profitability hit a new stride in 2Q25. Total operating income rose 5.1% QoQ and 9.7% YoY, extending a consistent upward trend and outpacing sector averages. Net profit before tax jumped 58.4% QoQ and 67.2% YoY—an outsized gain driven by both revenue growth and a sharp sequential drop in cost-to-income. ROA climbed to 1.85% in 2Q25 from 1.20% in 1Q25 and 1.20% in 2Q24, while ROE soared to 25.7% (vs. 16.9% prior quarter and 17.8% a year ago). The key driver was strong core income, while provision expense rose but was well absorbed by topline gains. These results mark a clear positive surprise versus recent quarters and sector peers.
+Loan Growth &amp; NIM:  
+Loan growth decelerated to 2.2% QoQ in 2Q25 (from 10.7% in 1Q25), but YTD expansion remains robust at 13.2%. This signals a shift from rapid acceleration to a more measured pace as the bank consolidates earlier gains. NIM held steady at 3.97%, despite a slight dip in loan yields (10.3% vs. 10.7% in 1Q25), indicating KLB’s ability to manage funding costs and asset mix. The margin stability, even as yields soften, highlights effective pricing discipline and balance sheet optimization.
+Asset Quality:  
+Asset quality surprised to the upside. The NPL ratio improved to 1.96% (down from 2.17% in 1Q25), while group 2 loans also edged lower. NPL coverage jumped to 82.8%, a new high and well above sector norms, reflecting proactive provisioning. Both NPL and group 2 formation rates moderated, suggesting credit risk is being contained even as the loan book expands. This marks a notable reversal from the mild deterioration seen in prior quarters.
+Investment Implications:  
+KLB’s 2Q25 results showcase a bank firing on all cylinders: accelerating profitability, resilient margins, and improving asset quality. The positive surprise on returns and credit risk containment strengthens the investment case, though the sharp slowdown in loan growth warrants monitoring for sustainability.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2025-07-30 18:02:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB delivered a strong profit rebound in 1Q23, with PBT up 29.1% QoQ and 20.9% YoY, despite a sharp drop in core income—driven by stable provisions and improved efficiency.
@@ -9012,29 +8314,29 @@
 PGB’s profit recovery is encouraging, but the underlying drivers—cost control and stable provisions—mask pressure on core income and early asset quality risks. The flat loan growth and rising group 2 loans warrant close monitoring. Investors should watch for signs of sustainable topline recovery and further credit slippage in coming quarters.</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>2025-07-30 18:02:22</t>
         </is>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB delivered a solid rebound in loan growth in 2Q23, but profitability softened as topline momentum faded and risk costs stayed flat.
@@ -9051,29 +8353,29 @@
 PGB’s loan growth and margin resilience are positives, but the sharp asset quality slippage and topline softness overshadow these gains. The latest results point to rising credit risk and earnings volatility, warranting caution on the near-term outlook.</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>2025-07-30 18:02:35</t>
         </is>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="D206" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB’s 3Q23 results show a sharp deterioration in profitability, with both TOI and net profit plunging sequentially and year-on-year, as margin pressure and rising costs weighed on performance.
@@ -9090,29 +8392,29 @@
 PGB’s 3Q23 results mark a clear negative inflection in earnings momentum, with margin pressure and weak loan growth now translating into sharply lower profitability. While asset quality metrics stabilized, the earnings setback and margin compression are likely to weigh on sentiment until core income trends recover.</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>2025-07-30 18:02:47</t>
         </is>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB delivered a sharp loan growth surge in 4Q23, but profitability collapsed into the red as provision expenses spiked and core income remained under pressure.
@@ -9129,29 +8431,29 @@
 PGB’s outsized loan growth is overshadowed by a collapse in profitability and rising risk costs. The negative earnings surprise and underlying credit stress warrant caution, as aggressive expansion may be coming at the expense of sustainable returns. Investors should watch for further asset quality slippage and the bank’s ability to restore earnings momentum.</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>2025-07-30 18:03:00</t>
         </is>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
+      <c r="D208" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB staged a sharp recovery in profitability in 1Q24, rebounding from a loss in 4Q23 on the back of lower provisions and improved core income, but YoY trends remain soft.
@@ -9168,29 +8470,29 @@
 PGB’s profit rebound is encouraging, but the lack of loan growth and weaker coverage ratios temper the outlook. Investors should watch for further margin pressure and asset quality slippage, as the recovery remains fragile and below sector pace.</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>2025-07-30 18:03:16</t>
         </is>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
+      <c r="D209" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB delivered a strong topline rebound in 2Q24, but profitability softened as provision expenses surged, reversing the prior quarter’s cost relief.
@@ -9207,29 +8509,29 @@
 PGB’s topline momentum is encouraging, but the sharp rise in provisions and NPLs highlights rising credit risk and earnings volatility. Investors should watch for further asset quality slippage and whether margin gains can be sustained if risk costs remain elevated.</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>2025-07-30 18:03:27</t>
         </is>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
+      <c r="D210" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB’s 3Q24 results show topline growth stalling and profitability under pressure, with both ROA and ROE slipping further from recent highs.
@@ -9246,29 +8548,29 @@
 PGB’s latest results highlight a loss of growth momentum and sustained profitability pressure. While asset quality is not deteriorating further, the lack of topline acceleration and persistent credit costs are likely to weigh on earnings and sentiment in the near term.</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>2025-07-30 18:03:41</t>
         </is>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
+    <row r="211">
+      <c r="A211" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
+      <c r="D211" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB delivered a standout 4Q24, with TOI and loan growth sharply accelerating QoQ and YoY, but profitability remains muted as provision expenses stay elevated.
@@ -9285,29 +8587,29 @@
 PGB is pivoting to growth, with strong loan and income momentum, but profitability is still capped by risk costs. The positive surprise is on asset quality, which is now a tailwind. Sustained margin pressure and provision drag remain key watchpoints for earnings leverage.</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>2025-07-30 18:03:55</t>
         </is>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
+    <row r="212">
+      <c r="A212" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
+      <c r="D212" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. PGB delivered a strong rebound in loan growth in 1Q25, but topline momentum softened after an outsized 4Q24, with profitability stabilizing on higher provisions.
@@ -9324,68 +8626,68 @@
 PGB’s rapid loan expansion is driving revenue and profit stabilization, but persistent margin compression and emerging asset quality risks temper the outlook. Investors should watch for further credit slippage and margin headwinds, as the latest results are neutral versus expectations but highlight rising risk.</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>2025-07-30 18:04:10</t>
         </is>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
+    <row r="213">
+      <c r="A213" t="inlineStr">
         <is>
           <t>PGB</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>2Q25</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-- PGB delivered a sharp rebound in profitability in 2Q25, with net profit and returns surging on the back of strong TOI growth and lower provisioning.
-- Loan growth momentum stalled after a strong run, while NIM remained under pressure despite a slight uptick in loan yields.
-- Asset quality weakened, with a notable rise in NPLs and a dip in coverage, raising caution on credit costs ahead.
----
-**Profitability:**  
-PGB’s 2Q25 results mark a decisive turnaround in profitability. Net profit (PBT) nearly doubled QoQ, up 96.3%, reversing the previous quarter’s muted growth. This was driven by a 12.3% QoQ jump in total operating income (TOI), as well as a sharp 8.9% QoQ drop in provision expenses. ROA and ROE surged to 0.79% and 10.5%, respectively, both at multi-quarter highs and well above recent averages. The rebound reflects both improved revenue generation and disciplined risk cost management. On a YoY basis, PBT growth of 98.0% also signals a strong recovery, outpacing sector trends.
-**Loan Growth &amp; NIM:**  
-After several quarters of robust expansion, PGB’s loan book was essentially flat in 2Q25 (+0.06% QoQ), a marked slowdown from the 9.9% QoQ jump in 1Q25. This suggests a pause in growth, possibly due to tighter underwriting or softer demand. NIM edged down further to 2.51% (from 2.53% in 1Q25), continuing a declining trend despite a modest rise in loan yields. Margin compression likely reflects funding cost pressures or a shift in asset mix, and remains a key watchpoint for earnings sustainability.
-**Asset Quality:**  
-Asset quality trends turned negative in 2Q25. NPL ratio rose to 3.33% (from 2.71% in 1Q25), reversing prior improvements and now above the sector’s 3.08%. Group 2 loans remain elevated at 1.76%, signaling persistent stress in the watchlist book. NPL coverage fell to 35.6%, well below the sector’s 43.5%, reducing the buffer against future losses. The uptick in NPLs and softer coverage highlight rising credit risks, which could pressure future profitability if not contained.
-**Investment Implications:**  
-The strong profit rebound is a clear positive surprise, but the stalling loan growth and deteriorating asset quality temper the outlook. Sustained earnings momentum will depend on PGB’s ability to manage credit costs and revive loan growth, especially as margin pressures persist.</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>2025-07-31 19:02:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. PGB delivered a sharp rebound in profitability in 2Q25, with net profit and returns surging on strong topline growth and lower provision drag.
+2. Loan growth momentum stalled after a strong run, while NIM remained under pressure despite a modest recovery in loan yields.
+3. Asset quality weakened, with NPL and group 2 ratios both ticking up and coverage slipping, signaling rising credit risk.
+----------------------------------
+Profitability:
+PGB’s 2Q25 results mark a clear inflection in earnings. Total operating income (TOI) jumped 12.3% QoQ and 28.5% YoY, reversing the prior quarter’s dip and outpacing sector revenue growth. Net profit (PBT) nearly doubled QoQ, up 96.3%, as provision expenses fell 8.9% sequentially. ROA surged to 0.79% in 2Q25, from 0.42% in 1Q25 and 0.51% a year ago, while ROE leapt to 10.5%—its highest in over two years. The profit beat was driven by both topline strength and easing risk costs, a positive surprise after several muted quarters.
+Loan Growth &amp; NIM:
+Loan growth momentum came to a standstill, with the book essentially flat QoQ (+0.1%) after a strong 9.9% expansion in 1Q25. YoY, loans are up 23.7%, but the sequential slowdown is notable and lags the sector’s 4.2% QoQ pace. NIM edged down to 2.51% from 2.53% in 1Q25, continuing a gradual compression trend despite a slight uptick in loan yields. The margin squeeze reflects ongoing funding cost pressure and a less favorable asset mix.
+Asset Quality:
+Asset quality deteriorated in 2Q25. The NPL ratio rose to 3.33% (from 2.71% in 1Q25), while group 2 loans remained elevated at 1.76%. NPL coverage fell to 35.6%, reversing the improvement seen in late 2024 and now below sector averages. Rising headline NPLs and weaker coverage point to mounting credit risk, with formation trends suggesting further slippage ahead.
+Investment Implications:
+PGB’s earnings recovery is encouraging, but the flat loan book and asset quality slippage temper the outlook. The positive profit surprise is at risk if credit costs rise further or loan growth fails to reaccelerate. Investors should watch for signs of stabilization in asset quality and renewed lending momentum.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2025-07-30 18:04:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
+      <c r="D214" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB delivered a sharp turnaround in profitability in 1Q23, with net profit and returns rebounding from a weak 4Q22, driven by strong cost control and lower provisions.
@@ -9402,29 +8704,29 @@
 SGB’s earnings rebound is a positive surprise, but the underlying drivers—provision normalization and margin management—mask emerging asset quality risks. Investors should monitor credit trends closely, as the latest figures point to a fragile recovery with potential downside if delinquencies accelerate.</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>2025-07-30 18:04:42</t>
         </is>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
+    <row r="215">
+      <c r="A215" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
+      <c r="D215" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB’s 2Q23 results show a sharp slowdown in profitability, with net profit and returns halving sequentially as provision expenses rebounded and topline growth stalled.
@@ -9441,29 +8743,29 @@
 SGB’s 2Q23 print is a setback for earnings momentum, with risk costs and weak topline the key drags. However, loan growth and margin recovery are encouraging. Investors should watch for further revenue traction and signs of asset quality normalization to gauge the durability of any rebound.</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>2025-07-30 18:04:53</t>
         </is>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
+    <row r="216">
+      <c r="A216" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB’s 3Q23 results show a sharp sequential drop in core income and profit, with both TOI and PBT down double digits QoQ, but asset quality remains stable and coverage is improving.
@@ -9480,29 +8782,29 @@
 SGB is delivering above-sector loan growth but faces clear pressure on margins and topline income. Asset quality is holding steady, with improving coverage a positive offset. The sharp profit and NIM drop are negative surprises, and investors should watch for further margin compression and any uptick in group 2 risk.</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>2025-07-30 18:05:08</t>
         </is>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
+    <row r="217">
+      <c r="A217" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
+      <c r="D217" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB delivered a sharp rebound in topline growth and profitability in 4Q23, driven by a surge in TOI, but this was offset by a spike in provision expenses.
@@ -9519,29 +8821,29 @@
 SGB’s 4Q23 results highlight a strong revenue recovery and improving asset quality, but the earnings cycle remains volatile due to provision swings. The topline beat is encouraging, yet sustained improvement will depend on managing risk costs and maintaining coverage. Investors should watch for further stabilization in profitability and asset quality in coming quarters.</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>2025-07-30 18:05:20</t>
         </is>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
+    <row r="218">
+      <c r="A218" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
+      <c r="D218" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB’s 1Q24 results show a sharp reversal in topline and profit momentum, with both TOI and PBT down significantly QoQ and YoY, as loan growth turned negative and margins compressed.
@@ -9558,29 +8860,29 @@
 SGB’s 1Q24 marks a clear inflection point: topline and profit momentum have broken down, asset quality is deteriorating, and margin pressure is intensifying. The negative surprise on all key drivers warrants caution, with near-term earnings at risk unless business fundamentals stabilize.</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>2025-07-30 18:05:44</t>
         </is>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
+    <row r="219">
+      <c r="A219" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
+      <c r="D219" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB delivered a solid rebound in profitability in 2Q24, with PBT up sharply QoQ as core income recovered and provision expenses normalized.
@@ -9597,29 +8899,29 @@
 SGB’s earnings recovery is a clear positive, but the underlying trends—weak loan yields and deteriorating asset quality—temper the outlook. Investors should watch for further credit cost surprises and margin sustainability as competitive pressures persist.</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>2025-07-30 18:06:07</t>
         </is>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
+    <row r="220">
+      <c r="A220" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
+      <c r="D220" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB delivered a strong rebound in topline growth in 3Q24, but profitability sharply deteriorated as provision expenses surged and margins only modestly improved.
@@ -9636,29 +8938,29 @@
 SGB’s strong revenue recovery is overshadowed by mounting asset quality risks and profit volatility. The sharp jump in provisions and NPLs is a negative surprise, raising concerns about earnings durability and capital protection. Investors should monitor credit trends closely, as risk costs are now the key swing factor for SGB’s outlook.</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>2025-07-30 18:06:19</t>
         </is>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
+    <row r="221">
+      <c r="A221" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
+      <c r="D221" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB’s 4Q24 marked a sharp reversal, with a steep drop in profitability and negative bottom-line surprise, driven by a collapse in core income and surging risk costs.
@@ -9675,29 +8977,29 @@
 SGB’s 4Q24 results flag a step-change in risk: rapid loan growth is not translating into sustainable earnings, and asset quality stress is building. The negative earnings surprise and margin compression outweigh the headline loan expansion, signaling caution for investors until core profitability and credit trends stabilize.</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>2025-07-30 18:06:31</t>
         </is>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
+    <row r="222">
+      <c r="A222" t="inlineStr">
         <is>
           <t>SGB</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
+      <c r="D222" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SGB delivered a sharp rebound in profitability in 1Q25, with TOI and net profit swinging strongly positive after a weak 4Q24, but underlying volatility remains high.
@@ -9714,68 +9016,29 @@
 SGB’s earnings recovery is encouraging, but the underlying business remains volatile. Weak loan growth and deteriorating asset quality offset the topline rebound, and low coverage ratios heighten risk. Investors should focus on credit trends and the sustainability of the profit turnaround.</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>2025-07-30 18:06:42</t>
         </is>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>SGB</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>SSB</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**  
-1. SGB’s profitability momentum cooled in 2Q25, with both TOI and net profit retreating sharply QoQ after a standout 1Q25, though YoY growth remains positive.  
-2. Loan growth reversed into contraction for a second straight quarter, while NIM edged up, signaling some stabilization in core spreads.  
-3. Asset quality pressures persist, with NPL and Group 2 ratios elevated and coverage ratios still below sector averages.
----
-**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**  
-After a surge in 1Q25, SGB’s profitability softened in 2Q25. Total operating income (TOI) fell 21.2% QoQ, retracing much of the prior quarter’s spike, but still posted a modest 2.3% YoY gain. Pre-tax profit (PBT) dropped 22.2% QoQ, reflecting both weaker revenue and lower provision write-backs. ROA and ROE also declined to 0.68% and 5.6% respectively, down from 0.98% and 7.9% in 1Q25, though both remain above the weak 2Q24 base. The sharp QoQ pullback signals that the strong 1Q25 was an outlier, likely driven by one-off factors or lumpy income, rather than a sustainable trend.
-**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**  
-Loan growth momentum remains a concern. SGB’s loan book shrank 3.1% QoQ in 2Q25, following a 4.3% contraction in 1Q25, reversing the strong expansion seen in late 2024. This suggests ongoing risk aversion or weak demand, possibly linked to asset quality concerns. On a YoY basis, loan growth is now negative YTD. However, NIM improved slightly to 2.89% in 2Q25 from 2.77% in 1Q25, supported by a rebound in loan yields (9.2% vs. 8.4% prior quarter). This hints at better pricing discipline or a shift in loan mix, partially offsetting the drag from shrinking balances.
-**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**  
-Asset quality remains under pressure. The NPL ratio eased marginally QoQ to 3.2% but is still up YoY and above the sector’s 3.1%. Group 2 loans continued to rise, reaching 6.0% of the book, signaling elevated stress in the watchlist portfolio. NPL coverage edged up to 32.4% but remains well below the sector’s 43.5%, leaving SGB vulnerable to further credit losses. The absence of new formation data this quarter clouds visibility, but the trend points to persistent asset quality challenges.
-**Investment Implications:**  
-SGB’s 2Q25 results mark a reset after an unusually strong 1Q25, with profitability normalizing and asset quality risks still front and center. The lack of loan growth and low coverage ratios are key watchpoints. Investors should look for signs of stabilization in asset quality and a return to sustainable loan growth before turning more constructive.</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>2025-07-31 19:02:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>SSB</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Private_3</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
+      <c r="D223" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB’s 1Q23 results show resilient loan growth and robust asset quality, but profitability remains under pressure as topline momentum stalls and provisions edge higher.
@@ -9792,29 +9055,29 @@
 SSB is delivering above-sector loan growth with best-in-class asset quality, but profitability is under strain from margin compression and higher provisions. The flat topline and rising risk costs are a negative surprise, suggesting investors should watch for further margin and credit cost headwinds.</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>2025-07-30 18:06:55</t>
         </is>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
+    <row r="224">
+      <c r="A224" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
+      <c r="D224" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB’s 2Q23 results show a sharp drop in profitability, with TOI and net profit both falling sequentially and year-on-year, as margin compression and weaker core income take hold.
@@ -9831,29 +9094,29 @@
 SSB’s 2Q23 results flag a shift from margin-driven growth to earnings pressure, with asset quality risks now materializing. The negative surprise on both profitability and credit trends suggests investors should be cautious on near-term earnings recovery.</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>2025-07-30 18:07:08</t>
         </is>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
+    <row r="225">
+      <c r="A225" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
+      <c r="D225" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB delivered a sharp rebound in topline and profit in 3Q23, reversing two quarters of contraction, with ROA and ROE regaining ground.
@@ -9870,29 +9133,29 @@
 SSB’s 3Q23 results mark a clear inflection in profitability and growth, but the rapid rise in early-stage delinquencies warrants close monitoring. The bank’s strong coverage and margin recovery are positives, but asset quality trends could weigh on future earnings if not contained.</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>2025-07-30 18:07:19</t>
         </is>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
+      <c r="D226" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB delivered a standout 4Q23, with topline and profit growth sharply accelerating both sequentially and year-on-year, outpacing sector benchmarks.
@@ -9909,29 +9172,29 @@
 SSB’s 4Q23 results highlight strong growth and earnings momentum, but the rapid loan expansion and declining coverage ratios signal rising risk. The positive earnings surprise supports a constructive view, but investors should monitor asset quality closely as the cycle matures.</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>2025-07-30 18:07:36</t>
         </is>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
+    <row r="227">
+      <c r="A227" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
+      <c r="D227" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB delivered robust profit growth in 1Q24, with PBT up 3.2% QoQ and 40.8% YoY, underpinned by lower provision expenses, though topline momentum softened after a strong 4Q23.
@@ -9948,29 +9211,29 @@
 SSB’s earnings surprise is positive, but the engine is provision cuts rather than sustainable topline growth. Slower loan expansion and margin compression signal a more defensive stance, while asset quality stabilization is encouraging but coverage remains a watchpoint. Investors should focus on whether SSB can reignite growth without sacrificing risk discipline.</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr">
+      <c r="E227" t="inlineStr">
         <is>
           <t>2025-07-30 18:07:47</t>
         </is>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
+      <c r="D228" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB delivered a standout 2Q24, with TOI and profit growth sharply accelerating both QoQ and YoY, outpacing sector peers and marking a clear positive surprise.
@@ -9987,29 +9250,29 @@
 SSB’s 2Q24 results mark a clear positive inflection, with strong profit and margin gains and stable asset quality. The bank is leveraging margin expansion and core income growth, but investors should watch for further shifts in coverage and provisioning as growth accelerates.</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>2025-07-30 18:07:58</t>
         </is>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
+    <row r="229">
+      <c r="A229" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
+      <c r="D229" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB’s 3Q24 saw a sharp slowdown in profitability as provision expenses surged, despite continued strong loan growth and resilient margins.
@@ -10026,29 +9289,29 @@
 While the spike in provisions is a clear watchpoint, SSB’s strong loan growth and resilient margins reinforce its growth credentials. The latest results suggest a temporary earnings setback rather than a structural deterioration, with asset quality and coverage trends providing comfort for investors focused on credit risk.</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>2025-07-30 18:08:11</t>
         </is>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
+    <row r="230">
+      <c r="A230" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
+      <c r="D230" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB delivered a solid 4Q24 rebound in profitability, with PBT up 20.6% QoQ, driven by a recovery in topline growth and sharply lower provision expenses.
@@ -10065,29 +9328,29 @@
 SSB’s 4Q24 results mark a positive inflection, with strong loan growth and improved profitability, while asset quality remains under control. The main watchpoint is margin compression, which could limit earnings leverage if yield pressure persists. Overall, SSB’s performance is a constructive signal for growth-focused investors, with manageable risk.</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>2025-07-30 18:08:25</t>
         </is>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
+    <row r="231">
+      <c r="A231" t="inlineStr">
         <is>
           <t>SSB</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr">
+      <c r="D231" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. SSB delivered a dramatic surge in profitability in 1Q25, with TOI and net profit both posting record sequential and annual gains, far outpacing sector trends.
@@ -10104,68 +9367,29 @@
 SSB’s 1Q25 is a clear outlier on profitability, with strong asset quality and prudent provisioning reinforcing the positive surprise. The main watchpoint is the slowdown in loan growth and ongoing margin compression, but the earnings momentum and credit discipline position SSB as a top performer in the current cycle.</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>2025-07-30 18:08:38</t>
         </is>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>SSB</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>VAB</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**
-- SSB’s 2Q25 results show a sharp reversal in profitability after an outsized 1Q25, driven by a normalization in other income and a continued squeeze on NIM.
-- Loan growth regained momentum QoQ, but margin compression persisted, signaling a challenging yield environment.
-- Asset quality remains resilient, with NPL and Group 2 ratios stable and coverage still robust versus sector, though coverage dipped this quarter.
----
-**Profitability:**  
-After a record 1Q25, SSB’s profitability in 2Q25 normalized sharply. Total operating income (TOI) dropped 53.7% QoQ, reflecting a reversal of the one-off surge in 1Q25 (likely from non-recurring income). Net profit (proxied by PBT) fell 65.4% QoQ, returning to levels seen in 4Q24. On a YoY basis, TOI was down 18.5% and PBT slipped 13.1%, signaling a tougher operating environment. ROA and ROE both retraced to 1.4% and 12.3% respectively, after spiking in 1Q25. The key driver was the normalization of income, while lower provision expenses (-49.8% QoQ) provided only partial offset. The quarter’s results were a negative surprise versus the previous quarter’s exceptional performance, but more in line with historical run rates.
-**Loan Growth &amp; NIM:**  
-Loan growth rebounded to 3.6% QoQ in 2Q25, up from 1.8% in 1Q25, and remains solid on a YoY basis. This suggests SSB is regaining lending momentum after a slow start to the year. However, NIM compressed further to 2.8% from 3.0% in 1Q25, continuing a downward trend since 3Q24. Loan yields were broadly stable, so the margin squeeze likely reflects higher funding costs or a shift in asset mix. Sustained NIM pressure is a key concern for forward earnings.
-**Asset Quality:**  
-Asset quality held steady. NPL ratio edged up slightly to 1.95% but remains well below the sector’s 3.1%. Group 2 loans were flat at 0.85%. NPL coverage dipped to 73.6% (from 81.8% in 1Q25), but still outpaces sector coverage. Provisioning dropped sharply, suggesting benign credit costs. No new NPL or G2 formation data was reported, but trends point to stable risk metrics.
-**Investment Implications:**  
-SSB’s 2Q25 results highlight the normalization of earnings after a one-off boost, with margin compression and stable asset quality as the main themes. The bank’s loan growth is recovering, but sustained NIM pressure and lower coverage ratios warrant close monitoring. The quarter is a reset to core earnings, not a deterioration, but upside will depend on margin stabilization and cost discipline.</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>2025-07-31 19:03:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>VAB</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Private_3</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
+      <c r="D232" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB delivered robust loan growth in 1Q23, but profitability softened sharply as topline momentum faded and provision expenses remained elevated.
@@ -10182,29 +9406,29 @@
 VAB’s strong loan expansion and improving asset quality are positives, but the sharp drop in profitability and margin compression temper the outlook. Investors should watch for further pressure on core income and whether margin headwinds persist, as these will be key to earnings recovery.</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>2025-07-30 18:08:49</t>
         </is>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
+    <row r="233">
+      <c r="A233" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
+      <c r="D233" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB’s 2Q23 results show a modest profit rebound on lower provisions, but topline and margin trends remain soft, with profitability ratios slipping further from recent highs.
@@ -10221,29 +9445,29 @@
 VAB’s 2Q23 results highlight a fragile recovery, with profit gains reliant on provision swings rather than core growth. Stalling loan momentum, margin pressure, and deteriorating asset quality suggest rising risk to earnings durability. The negative surprise on NPLs and coverage should weigh on sentiment until trends stabilize.</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>2025-07-30 18:09:00</t>
         </is>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
+    <row r="234">
+      <c r="A234" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
+      <c r="D234" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB’s 3Q23 results show a sharp deterioration in profitability, with both TOI and net profit plunging sequentially and year-on-year, driven by weak core income and a spike in provision expenses.
@@ -10260,29 +9484,29 @@
 VAB’s 3Q23 results mark a clear setback, with profitability under severe pressure and business momentum stalling. The collapse in NIM and volatile asset quality metrics raise concerns about earnings durability. Investors should be cautious, as the latest figures point to persistent structural challenges and negative surprises versus expectations.</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>2025-07-30 18:09:14</t>
         </is>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
+    <row r="235">
+      <c r="A235" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
+      <c r="D235" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB delivered a sharp rebound in topline and profit in 4Q23, reversing prior softness, with TOI and PBT both surging QoQ—driven by a spike in core income and margin recovery.
@@ -10299,29 +9523,29 @@
 VAB’s 4Q23 results signal a return to growth and profitability, with margin and asset quality both trending positively. The strong rebound in core income and stable risk metrics support a constructive outlook, though sustainability of topline momentum will be key for investors.</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>2025-07-30 18:09:24</t>
         </is>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
+    <row r="236">
+      <c r="A236" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
+      <c r="D236" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB’s 1Q24 results show a sharp pullback in profitability after a strong 4Q23, with both TOI and net profit down sequentially, and core returns (ROA/ROE) retreating to multi-quarter lows.
@@ -10338,29 +9562,29 @@
 VAB’s 1Q24 marks a reset in profitability and margin trends, with asset quality risks re-emerging. The sharp drop in NIM and rising NPLs outweigh the still-solid loan growth, and the weaker coverage ratio is a key watchpoint. Investors should monitor for further earnings volatility and credit cost pressure in coming quarters.</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>2025-07-30 18:09:37</t>
         </is>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
+    <row r="237">
+      <c r="A237" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
+      <c r="D237" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB delivered a solid rebound in profitability in 2Q24, with net profit and returns improving sharply QoQ, driven by a steep drop in provision expenses—even as topline growth softened.
@@ -10377,29 +9601,29 @@
 VAB’s earnings rebound is driven by provision relief, not stronger revenue. While loan growth is a bright spot, margin and asset quality trends warrant close monitoring. The positive profit surprise is encouraging, but investors should watch for sustained topline recovery and stabilization in credit metrics.</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>2025-07-30 18:09:47</t>
         </is>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
+    <row r="238">
+      <c r="A238" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr">
+      <c r="D238" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB delivered robust loan growth in 3Q24, outpacing the sector, but profitability softened as topline and margins continued to compress.
@@ -10416,29 +9640,29 @@
 VAB’s strong loan growth and asset quality gains are encouraging, but persistent margin and topline pressure limit earnings upside. The latest results highlight a need for improved revenue productivity to sustain profitability as competition intensifies.</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>2025-07-30 18:09:58</t>
         </is>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
+    <row r="239">
+      <c r="A239" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr">
+      <c r="D239" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB delivered a strong rebound in topline growth in 4Q24, with TOI surging 70.4% QoQ, but net profit recovery lagged as provision expenses spiked.
@@ -10455,29 +9679,29 @@
 VAB’s 4Q24 results signal a return to growth and improving risk metrics, though earnings volatility remains a watchpoint. The topline and margin rebound, coupled with better asset quality, should support a more constructive outlook if risk costs stabilize.</t>
         </is>
       </c>
-      <c r="E259" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>2025-07-30 18:10:11</t>
         </is>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
+    <row r="240">
+      <c r="A240" t="inlineStr">
         <is>
           <t>VAB</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
+      <c r="D240" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VAB delivered a strong 1Q25 profit rebound, with PBT up 20.8% QoQ and 42.5% YoY, driven by sharply lower provision expenses and robust loan growth, despite a sequential drop in core income.
@@ -10494,68 +9718,29 @@
 VAB’s profit recovery is impressive, but heavily reliant on provision cuts and rapid loan growth. Margin compression and rising early-stage delinquencies temper the outlook. Investors should watch for sustainability in core income and asset quality as growth accelerates.</t>
         </is>
       </c>
-      <c r="E260" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>2025-07-30 18:10:25</t>
         </is>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>VAB</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>VBB</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>**Key Takeaways:**  
-1. VAB’s profitability momentum softened in 2Q25, with both TOI and net profit moderating after a strong 1Q25, though YoY growth remains positive.  
-2. Loan growth decelerated QoQ but stayed robust YoY; NIM compressed further, reflecting margin pressure.  
-3. Asset quality showed some deterioration, with a rebound in NPLs and a drop in coverage, but overall credit costs remain low.
----
-**Profitability: TOI and Net Profit Trends, ROA and ROE Performance Trajectory**  
-VAB’s profitability cooled in 2Q25 after a strong start to the year. Total operating income (TOI) fell 9.0% QoQ, reversing the 26.3% surge in 1Q25, as the bank normalized from a high base and likely faced softer fee or trading income. Despite this, TOI was still up 3.4% YoY, signaling underlying business resilience. Pre-tax profit (PBT) edged up just 2.4% QoQ, a marked slowdown from the 20.8% jump in 1Q25, but remained 14.5% higher YoY. ROA and ROE both dipped sequentially to 0.86% and 12.2%, respectively, but are still above 2Q24 levels, reflecting improved profitability versus last year. The moderation in profit growth is a mild negative surprise given the strong 1Q25 trajectory.
-**Loan Growth &amp; NIM: Loan Growth Momentum (QoQ and YoY), NIM Direction and Drivers**  
-Loan growth slowed to 2.9% QoQ in 2Q25 from 6.3% in 1Q25, but the YoY pace remains solid at 22.7%. This suggests VAB is still gaining share, though the deceleration may reflect tighter underwriting or softer demand. Net interest margin (NIM) compressed further to 1.75% from 2.09% in 1Q25, continuing a declining trend. The squeeze likely stems from lower loan yields and possibly rising funding costs, which could weigh on future earnings if not addressed.
-**Asset Quality: NPL &amp; G2 Ratio Evolution, Formation Trends, Coverage Ratios**  
-Asset quality trends turned less favorable in 2Q25. NPL ratio rose to 1.11% from a low 0.63% in 1Q25, with positive NPL formation (0.63%) after a period of net recoveries. Group 2 loans also remain elevated versus historical levels. Coverage ratio dropped to 88.3% from 150.2% in 1Q25, though still above the sector’s 43.5%. Provisioning expense stayed low, supporting profits, but the uptick in NPLs warrants close monitoring. Overall, the quarter signals emerging asset quality risks after a period of improvement.
-**Investment Implications:**  
-VAB’s strong loan growth and YoY profit gains are positives, but margin compression and asset quality slippage are key watchpoints. The 2Q25 results signal a need for vigilance on credit costs and margin management, tempering the bullish narrative from earlier quarters.</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>2025-07-31 19:03:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>VBB</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Private_3</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>1Q23</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr">
+      <c r="D241" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB delivered a strong profit rebound in 1Q23, driven by sharply lower provision expenses, despite a sequential dip in core income and a contraction in the loan book.
@@ -10572,29 +9757,29 @@
 VBB’s profit rebound is provision-led, not underpinned by healthier fundamentals. Weak loan growth and mounting asset quality risks overshadow the headline earnings surprise. Investors should monitor for further credit deterioration and the sustainability of earnings as provision leeway narrows.</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr">
+      <c r="E241" t="inlineStr">
         <is>
           <t>2025-07-30 18:10:36</t>
         </is>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
+    <row r="242">
+      <c r="A242" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B242" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C242" t="inlineStr">
         <is>
           <t>2Q23</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr">
+      <c r="D242" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB delivered a strong rebound in loan growth and topline in 2Q23, but profitability softened as provision expenses normalized and margins compressed.
@@ -10611,29 +9796,29 @@
 VBB’s 2Q23 results show a pivot to growth, but margin and earnings pressure are now more visible as provision expenses normalize. The asset quality improvement is a positive surprise, but investors should watch for further NIM compression and the sustainability of credit cost control.</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>2025-07-30 18:10:51</t>
         </is>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
+    <row r="243">
+      <c r="A243" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B243" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C243" t="inlineStr">
         <is>
           <t>3Q23</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr">
+      <c r="D243" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB’s 3Q23 results show a sharp deterioration in profitability, with both TOI and net profit plunging sequentially and year-on-year, as margin compression and weak core income take hold.
@@ -10650,29 +9835,29 @@
 VBB’s earnings engine has stalled, with margin pressure and weak income overwhelming modest loan growth. Asset quality is a growing concern given thin coverage. The latest results are a clear negative surprise, raising questions on sustainability and risk management. Investors should be cautious until margin and credit trends stabilize.</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr">
+      <c r="E243" t="inlineStr">
         <is>
           <t>2025-07-30 18:11:02</t>
         </is>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
+    <row r="244">
+      <c r="A244" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>4Q23</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr">
+      <c r="D244" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB delivered a standout 4Q23, with TOI and net profit surging on the back of record loan growth and margin recovery—well ahead of sector trends.
@@ -10689,29 +9874,29 @@
 VBB’s 4Q23 results mark a clear inflection point, with strong growth, margin recovery, and improving asset quality. The positive surprise on all fronts should support a constructive outlook and renewed investor confidence heading into 2024.</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr">
+      <c r="E244" t="inlineStr">
         <is>
           <t>2025-07-30 18:11:13</t>
         </is>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
+    <row r="245">
+      <c r="A245" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>1Q24</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr">
+      <c r="D245" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB’s 1Q24 results show a sharp reversal in profitability, with both TOI and net profit dropping steeply QoQ and YoY, as provision expenses surged back to previous highs.
@@ -10728,29 +9913,29 @@
 VBB’s 1Q24 marks a sharp reset after a strong 4Q23, with profitability and loan growth momentum both stalling and asset quality risks edging up. The negative surprise on earnings and margin compression will weigh on sentiment, and investors should watch for further credit cost volatility ahead.</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>2025-07-30 18:11:22</t>
         </is>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
+    <row r="246">
+      <c r="A246" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr">
+      <c r="D246" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB delivered a sharp rebound in profitability in 2Q24, with both TOI and PBT surging sequentially, reversing the weak start to the year.
@@ -10767,29 +9952,29 @@
 VBB’s strong 2Q24 rebound resets the earnings trajectory, with growth and margin momentum back in focus. While asset quality bears watching, the latest results reinforce a constructive outlook for the bank’s near-term performance.</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr">
+      <c r="E246" t="inlineStr">
         <is>
           <t>2025-07-30 18:11:36</t>
         </is>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
+    <row r="247">
+      <c r="A247" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B247" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C247" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr">
+      <c r="D247" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB delivered a strong 3Q24, with profitability and topline growth accelerating both QoQ and YoY, outpacing sector trends and marking a clear positive surprise.
@@ -10806,29 +9991,29 @@
 VBB’s 3Q24 marks a clear positive inflection, with accelerating profitability, resilient margins, and improving asset quality. The results beat expectations and reinforce VBB’s positioning as a sector outperformer, with strong earnings leverage and manageable risk.</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>2025-07-30 18:11:48</t>
         </is>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
+    <row r="248">
+      <c r="A248" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="D269" t="inlineStr">
+      <c r="D248" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB delivered a strong topline rebound in 4Q24, but profitability softened as provision expenses surged and margins compressed.
@@ -10845,29 +10030,29 @@
 VBB’s strong revenue recovery is offset by rising risk costs and margin compression, but the decisive improvement in asset quality and coverage is a clear positive surprise. Investors should watch for further margin pressure, but the bank’s proactive provisioning and credit clean-up support a more resilient outlook.</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>2025-07-30 18:12:00</t>
         </is>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
+    <row r="249">
+      <c r="A249" t="inlineStr">
         <is>
           <t>VBB</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Private_3</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr">
+      <c r="D249" t="inlineStr">
         <is>
           <t>Key Takeaways:
 1. VBB’s 1Q25 saw a sharp pullback in profitability, with both TOI and net profit down sequentially, as core income softened and provision reversals faded.
@@ -10884,7 +10069,7 @@
 VBB’s 1Q25 results highlight a challenging profitability environment, with margin and income pressures outweighing solid loan growth and improving asset quality. The positive surprise on credit risk containment is offset by weaker earnings momentum, suggesting investors should watch for further margin compression and topline volatility.</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>2025-07-30 18:12:11</t>
         </is>

--- a/Data/banking_comments.xlsx
+++ b/Data/banking_comments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/05c776d51af9edc4/Work-related/VS - Code project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_6719B2ADD330DB3AEFD93211595ED87656C4C2F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A21CAED-88BD-4C65-A605-90E634A2A08C}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_6719B2ADD330DB3AEFD93211595ED87656C4C2F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03A4160A-5106-443C-A080-820985231DA5}"/>
   <bookViews>
     <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3483,21 +3483,6 @@
     <t>2025-07-30 17:58:20</t>
   </si>
   <si>
-    <t>Key Takeaways:
-1. NVB delivered a sharp turnaround in 1Q25, swinging back to positive profitability and accelerating loan growth, but topline momentum remains volatile.
-2. Margins and loan yields rebounded, supporting revenue recovery, while asset quality improved markedly with NPL and group 2 ratios at multi-year lows.
-3. The latest results mark a positive surprise versus recent quarters, but sustainability of earnings and coverage levels remains a key watchpoint.
----
-**Profitability:**  
-NVB posted a strong rebound in 1Q25, with net profit (PBT) surging to VND 151bn after a deep loss in 4Q24. Total operating income (TOI) recovered to VND 598bn, reversing the prior quarter’s sharp drop. Sequentially, TOI jumped from a large negative in 4Q24, and YoY growth was robust at 91.2%. ROA and ROE both swung back into positive territory, reaching 0.48% and 9.8% respectively—well above the negative readings seen in 4Q24 and also higher than 1Q24. The main driver was a normalization of provision expenses, which fell 60.7% QoQ, coupled with a recovery in core income. This marks a clear positive surprise after several quarters of earnings volatility.
-**Loan Growth &amp; NIM:**  
-Loan growth accelerated to 9.8% QoQ (1Q25 vs 4Q24), outpacing the sector’s 4.2% and marking NVB’s fastest sequential expansion in over a year. On a YoY basis, loans are up 34.1%. NIM improved to 1.76% from a negative 10.2% in 4Q24, driven by a rebound in loan yields to 9.0%. The margin recovery reflects both asset repricing and a shift back to higher-yielding lending, supporting the topline turnaround.
-**Asset Quality:**  
-Asset quality metrics improved sharply. NPL ratio dropped to 1.4% in 1Q25 from 2.0% in 4Q24, while group 2 loans also declined. Both NPL and group 2 formation rates were negative, indicating net recoveries or upgrades. NPL coverage rose to 11.2%, the highest in six quarters, though still well below sector averages. The improvement signals effective risk management, but the low coverage ratio leaves NVB exposed if credit costs rise again.
-**Investment Implications:**  
-NVB’s 1Q25 results mark a decisive break from recent losses, with strong loan growth and asset quality gains. The positive surprise on profitability and credit metrics is encouraging, but investors should watch for sustained improvement in coverage and core income to confirm a durable turnaround.</t>
-  </si>
-  <si>
     <t>2025-07-30 17:58:31</t>
   </si>
   <si>
@@ -4952,6 +4937,21 @@
   </si>
   <si>
     <t>2025-07-31 19:03:16</t>
+  </si>
+  <si>
+    <t>Key Takeaways:
+1. NVB delivered a sharp turnaround in 1Q25, swinging back to positive profitability and accelerating loan growth, but topline momentum remains volatile.
+2. Margins and loan yields rebounded, supporting revenue recovery, while asset quality improved markedly with NPL and group 2 ratios at multi-year lows.
+3. The latest results mark a positive surprise versus recent quarters, but sustainability of earnings and coverage levels remains a key watchpoint.
+---
+**Profitability:**  
+NVB posted a strong rebound in 1Q25, with net profit (PBT) surging to VND 151bn after a deep loss in 4Q24. Total operating income (TOI) recovered to VND 598bn, reversing the prior quarter’s sharp drop. Sequentially, TOI jumped from a large negative in 4Q24, and YoY growth was robust at 91.2%. ROA and ROE both swung back into positive territory, reaching 0.48% and 9.8% respectively—well above the negative readings seen in 4Q24 and also higher than 1Q24. The main driver was a normalization of provision expenses, which fell 60.7% QoQ, coupled with a recovery in core income. This marks a clear positive surprise after several quarters of earnings volatility.
+**Loan Growth &amp; NIM:**  
+Loan growth accelerated to 9.8% QoQ (1Q25 vs 4Q24), outpacing the sector’s 4.2% and marking NVB’s fastest sequential expansion in over a year. On a YoY basis, loans are up 34.1%. NIM improved to 1.76% from a negative 10.2% in 4Q24, driven by a rebound in loan yields to 9.0%. The margin recovery reflects both asset repricing and a shift back to higher-yielding lending, supporting the topline turnaround.
+**Asset Quality:**  
+Asset quality metrics improved sharply. NPL ratio dropped to 14% in 1Q25 from 19.5% in 4Q24, while group 2 loans also declined. Both NPL and group 2 formation rates were negative, indicating net recoveries or upgrades. NPL coverage rose to 11.2%, the highest in six quarters, though still well below sector averages. The improvement signals effective risk management, but the low coverage ratio leaves NVB exposed if credit costs rise again.
+**Investment Implications:**  
+NVB’s 1Q25 results mark a decisive break from recent losses, with strong loan growth and asset quality gains. The positive surprise on profitability and credit metrics is encouraging, but investors should watch for sustained improvement in coverage and core income to confirm a durable turnaround.</t>
   </si>
 </sst>
 </file>
@@ -5316,8 +5316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E270"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5503,10 +5503,10 @@
         <v>131</v>
       </c>
       <c r="D11" t="s">
+        <v>531</v>
+      </c>
+      <c r="E11" t="s">
         <v>532</v>
-      </c>
-      <c r="E11" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5673,10 +5673,10 @@
         <v>131</v>
       </c>
       <c r="D21" t="s">
+        <v>533</v>
+      </c>
+      <c r="E21" t="s">
         <v>534</v>
-      </c>
-      <c r="E21" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5843,10 +5843,10 @@
         <v>131</v>
       </c>
       <c r="D31" t="s">
+        <v>535</v>
+      </c>
+      <c r="E31" t="s">
         <v>536</v>
-      </c>
-      <c r="E31" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -6013,10 +6013,10 @@
         <v>131</v>
       </c>
       <c r="D41" t="s">
+        <v>537</v>
+      </c>
+      <c r="E41" t="s">
         <v>538</v>
-      </c>
-      <c r="E41" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -6183,10 +6183,10 @@
         <v>131</v>
       </c>
       <c r="D51" t="s">
+        <v>539</v>
+      </c>
+      <c r="E51" t="s">
         <v>540</v>
-      </c>
-      <c r="E51" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -6353,10 +6353,10 @@
         <v>131</v>
       </c>
       <c r="D61" t="s">
+        <v>541</v>
+      </c>
+      <c r="E61" t="s">
         <v>542</v>
-      </c>
-      <c r="E61" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -6523,10 +6523,10 @@
         <v>131</v>
       </c>
       <c r="D71" t="s">
+        <v>543</v>
+      </c>
+      <c r="E71" t="s">
         <v>544</v>
-      </c>
-      <c r="E71" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -6693,10 +6693,10 @@
         <v>131</v>
       </c>
       <c r="D81" t="s">
+        <v>545</v>
+      </c>
+      <c r="E81" t="s">
         <v>546</v>
-      </c>
-      <c r="E81" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -6863,10 +6863,10 @@
         <v>131</v>
       </c>
       <c r="D91" t="s">
+        <v>547</v>
+      </c>
+      <c r="E91" t="s">
         <v>548</v>
-      </c>
-      <c r="E91" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -7033,10 +7033,10 @@
         <v>131</v>
       </c>
       <c r="D101" t="s">
+        <v>549</v>
+      </c>
+      <c r="E101" t="s">
         <v>550</v>
-      </c>
-      <c r="E101" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -7203,10 +7203,10 @@
         <v>131</v>
       </c>
       <c r="D111" t="s">
+        <v>551</v>
+      </c>
+      <c r="E111" t="s">
         <v>552</v>
-      </c>
-      <c r="E111" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -7373,10 +7373,10 @@
         <v>131</v>
       </c>
       <c r="D121" t="s">
+        <v>553</v>
+      </c>
+      <c r="E121" t="s">
         <v>554</v>
-      </c>
-      <c r="E121" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -7543,10 +7543,10 @@
         <v>131</v>
       </c>
       <c r="D131" t="s">
+        <v>555</v>
+      </c>
+      <c r="E131" t="s">
         <v>556</v>
-      </c>
-      <c r="E131" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -7713,10 +7713,10 @@
         <v>131</v>
       </c>
       <c r="D141" t="s">
+        <v>557</v>
+      </c>
+      <c r="E141" t="s">
         <v>558</v>
-      </c>
-      <c r="E141" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -7883,10 +7883,10 @@
         <v>131</v>
       </c>
       <c r="D151" t="s">
+        <v>559</v>
+      </c>
+      <c r="E151" t="s">
         <v>560</v>
-      </c>
-      <c r="E151" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -8053,10 +8053,10 @@
         <v>131</v>
       </c>
       <c r="D161" t="s">
+        <v>561</v>
+      </c>
+      <c r="E161" t="s">
         <v>562</v>
-      </c>
-      <c r="E161" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -8223,10 +8223,10 @@
         <v>131</v>
       </c>
       <c r="D171" t="s">
+        <v>563</v>
+      </c>
+      <c r="E171" t="s">
         <v>564</v>
-      </c>
-      <c r="E171" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -8393,10 +8393,10 @@
         <v>131</v>
       </c>
       <c r="D181" t="s">
+        <v>565</v>
+      </c>
+      <c r="E181" t="s">
         <v>566</v>
-      </c>
-      <c r="E181" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -8563,10 +8563,10 @@
         <v>131</v>
       </c>
       <c r="D191" t="s">
+        <v>567</v>
+      </c>
+      <c r="E191" t="s">
         <v>568</v>
-      </c>
-      <c r="E191" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -8733,10 +8733,10 @@
         <v>131</v>
       </c>
       <c r="D201" t="s">
+        <v>569</v>
+      </c>
+      <c r="E201" t="s">
         <v>570</v>
-      </c>
-      <c r="E201" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -8886,10 +8886,10 @@
         <v>31</v>
       </c>
       <c r="D210" t="s">
+        <v>583</v>
+      </c>
+      <c r="E210" t="s">
         <v>416</v>
-      </c>
-      <c r="E210" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -8903,15 +8903,15 @@
         <v>131</v>
       </c>
       <c r="D211" t="s">
+        <v>571</v>
+      </c>
+      <c r="E211" t="s">
         <v>572</v>
-      </c>
-      <c r="E211" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B212" t="s">
         <v>323</v>
@@ -8920,15 +8920,15 @@
         <v>7</v>
       </c>
       <c r="D212" t="s">
+        <v>418</v>
+      </c>
+      <c r="E212" t="s">
         <v>419</v>
-      </c>
-      <c r="E212" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B213" t="s">
         <v>323</v>
@@ -8937,15 +8937,15 @@
         <v>10</v>
       </c>
       <c r="D213" t="s">
+        <v>420</v>
+      </c>
+      <c r="E213" t="s">
         <v>421</v>
-      </c>
-      <c r="E213" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B214" t="s">
         <v>323</v>
@@ -8954,15 +8954,15 @@
         <v>13</v>
       </c>
       <c r="D214" t="s">
+        <v>422</v>
+      </c>
+      <c r="E214" t="s">
         <v>423</v>
-      </c>
-      <c r="E214" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B215" t="s">
         <v>323</v>
@@ -8971,15 +8971,15 @@
         <v>16</v>
       </c>
       <c r="D215" t="s">
+        <v>424</v>
+      </c>
+      <c r="E215" t="s">
         <v>425</v>
-      </c>
-      <c r="E215" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B216" t="s">
         <v>323</v>
@@ -8988,15 +8988,15 @@
         <v>19</v>
       </c>
       <c r="D216" t="s">
+        <v>426</v>
+      </c>
+      <c r="E216" t="s">
         <v>427</v>
-      </c>
-      <c r="E216" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B217" t="s">
         <v>323</v>
@@ -9005,15 +9005,15 @@
         <v>22</v>
       </c>
       <c r="D217" t="s">
+        <v>428</v>
+      </c>
+      <c r="E217" t="s">
         <v>429</v>
-      </c>
-      <c r="E217" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B218" t="s">
         <v>323</v>
@@ -9022,15 +9022,15 @@
         <v>25</v>
       </c>
       <c r="D218" t="s">
+        <v>430</v>
+      </c>
+      <c r="E218" t="s">
         <v>431</v>
-      </c>
-      <c r="E218" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B219" t="s">
         <v>323</v>
@@ -9039,15 +9039,15 @@
         <v>28</v>
       </c>
       <c r="D219" t="s">
+        <v>432</v>
+      </c>
+      <c r="E219" t="s">
         <v>433</v>
-      </c>
-      <c r="E219" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B220" t="s">
         <v>323</v>
@@ -9056,15 +9056,15 @@
         <v>31</v>
       </c>
       <c r="D220" t="s">
+        <v>434</v>
+      </c>
+      <c r="E220" t="s">
         <v>435</v>
-      </c>
-      <c r="E220" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B221" t="s">
         <v>323</v>
@@ -9073,15 +9073,15 @@
         <v>131</v>
       </c>
       <c r="D221" t="s">
+        <v>573</v>
+      </c>
+      <c r="E221" t="s">
         <v>574</v>
-      </c>
-      <c r="E221" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B222" t="s">
         <v>323</v>
@@ -9090,15 +9090,15 @@
         <v>7</v>
       </c>
       <c r="D222" t="s">
+        <v>437</v>
+      </c>
+      <c r="E222" t="s">
         <v>438</v>
-      </c>
-      <c r="E222" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B223" t="s">
         <v>323</v>
@@ -9107,15 +9107,15 @@
         <v>10</v>
       </c>
       <c r="D223" t="s">
+        <v>439</v>
+      </c>
+      <c r="E223" t="s">
         <v>440</v>
-      </c>
-      <c r="E223" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B224" t="s">
         <v>323</v>
@@ -9124,15 +9124,15 @@
         <v>13</v>
       </c>
       <c r="D224" t="s">
+        <v>441</v>
+      </c>
+      <c r="E224" t="s">
         <v>442</v>
-      </c>
-      <c r="E224" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B225" t="s">
         <v>323</v>
@@ -9141,15 +9141,15 @@
         <v>16</v>
       </c>
       <c r="D225" t="s">
+        <v>443</v>
+      </c>
+      <c r="E225" t="s">
         <v>444</v>
-      </c>
-      <c r="E225" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B226" t="s">
         <v>323</v>
@@ -9158,15 +9158,15 @@
         <v>19</v>
       </c>
       <c r="D226" t="s">
+        <v>445</v>
+      </c>
+      <c r="E226" t="s">
         <v>446</v>
-      </c>
-      <c r="E226" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B227" t="s">
         <v>323</v>
@@ -9175,15 +9175,15 @@
         <v>22</v>
       </c>
       <c r="D227" t="s">
+        <v>447</v>
+      </c>
+      <c r="E227" t="s">
         <v>448</v>
-      </c>
-      <c r="E227" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B228" t="s">
         <v>323</v>
@@ -9192,15 +9192,15 @@
         <v>25</v>
       </c>
       <c r="D228" t="s">
+        <v>449</v>
+      </c>
+      <c r="E228" t="s">
         <v>450</v>
-      </c>
-      <c r="E228" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B229" t="s">
         <v>323</v>
@@ -9209,15 +9209,15 @@
         <v>28</v>
       </c>
       <c r="D229" t="s">
+        <v>451</v>
+      </c>
+      <c r="E229" t="s">
         <v>452</v>
-      </c>
-      <c r="E229" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B230" t="s">
         <v>323</v>
@@ -9226,15 +9226,15 @@
         <v>31</v>
       </c>
       <c r="D230" t="s">
+        <v>453</v>
+      </c>
+      <c r="E230" t="s">
         <v>454</v>
-      </c>
-      <c r="E230" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B231" t="s">
         <v>323</v>
@@ -9243,15 +9243,15 @@
         <v>131</v>
       </c>
       <c r="D231" t="s">
+        <v>575</v>
+      </c>
+      <c r="E231" t="s">
         <v>576</v>
-      </c>
-      <c r="E231" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B232" t="s">
         <v>323</v>
@@ -9260,15 +9260,15 @@
         <v>7</v>
       </c>
       <c r="D232" t="s">
+        <v>456</v>
+      </c>
+      <c r="E232" t="s">
         <v>457</v>
-      </c>
-      <c r="E232" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B233" t="s">
         <v>323</v>
@@ -9277,15 +9277,15 @@
         <v>10</v>
       </c>
       <c r="D233" t="s">
+        <v>458</v>
+      </c>
+      <c r="E233" t="s">
         <v>459</v>
-      </c>
-      <c r="E233" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B234" t="s">
         <v>323</v>
@@ -9294,15 +9294,15 @@
         <v>13</v>
       </c>
       <c r="D234" t="s">
+        <v>460</v>
+      </c>
+      <c r="E234" t="s">
         <v>461</v>
-      </c>
-      <c r="E234" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B235" t="s">
         <v>323</v>
@@ -9311,15 +9311,15 @@
         <v>16</v>
       </c>
       <c r="D235" t="s">
+        <v>462</v>
+      </c>
+      <c r="E235" t="s">
         <v>463</v>
-      </c>
-      <c r="E235" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B236" t="s">
         <v>323</v>
@@ -9328,15 +9328,15 @@
         <v>19</v>
       </c>
       <c r="D236" t="s">
+        <v>464</v>
+      </c>
+      <c r="E236" t="s">
         <v>465</v>
-      </c>
-      <c r="E236" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B237" t="s">
         <v>323</v>
@@ -9345,15 +9345,15 @@
         <v>22</v>
       </c>
       <c r="D237" t="s">
+        <v>466</v>
+      </c>
+      <c r="E237" t="s">
         <v>467</v>
-      </c>
-      <c r="E237" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B238" t="s">
         <v>323</v>
@@ -9362,15 +9362,15 @@
         <v>25</v>
       </c>
       <c r="D238" t="s">
+        <v>468</v>
+      </c>
+      <c r="E238" t="s">
         <v>469</v>
-      </c>
-      <c r="E238" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B239" t="s">
         <v>323</v>
@@ -9379,15 +9379,15 @@
         <v>28</v>
       </c>
       <c r="D239" t="s">
+        <v>470</v>
+      </c>
+      <c r="E239" t="s">
         <v>471</v>
-      </c>
-      <c r="E239" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B240" t="s">
         <v>323</v>
@@ -9396,15 +9396,15 @@
         <v>31</v>
       </c>
       <c r="D240" t="s">
+        <v>472</v>
+      </c>
+      <c r="E240" t="s">
         <v>473</v>
-      </c>
-      <c r="E240" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B241" t="s">
         <v>323</v>
@@ -9413,15 +9413,15 @@
         <v>131</v>
       </c>
       <c r="D241" t="s">
+        <v>577</v>
+      </c>
+      <c r="E241" t="s">
         <v>578</v>
-      </c>
-      <c r="E241" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B242" t="s">
         <v>323</v>
@@ -9430,15 +9430,15 @@
         <v>7</v>
       </c>
       <c r="D242" t="s">
+        <v>475</v>
+      </c>
+      <c r="E242" t="s">
         <v>476</v>
-      </c>
-      <c r="E242" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B243" t="s">
         <v>323</v>
@@ -9447,15 +9447,15 @@
         <v>10</v>
       </c>
       <c r="D243" t="s">
+        <v>477</v>
+      </c>
+      <c r="E243" t="s">
         <v>478</v>
-      </c>
-      <c r="E243" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B244" t="s">
         <v>323</v>
@@ -9464,15 +9464,15 @@
         <v>13</v>
       </c>
       <c r="D244" t="s">
+        <v>479</v>
+      </c>
+      <c r="E244" t="s">
         <v>480</v>
-      </c>
-      <c r="E244" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B245" t="s">
         <v>323</v>
@@ -9481,15 +9481,15 @@
         <v>16</v>
       </c>
       <c r="D245" t="s">
+        <v>481</v>
+      </c>
+      <c r="E245" t="s">
         <v>482</v>
-      </c>
-      <c r="E245" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B246" t="s">
         <v>323</v>
@@ -9498,15 +9498,15 @@
         <v>19</v>
       </c>
       <c r="D246" t="s">
+        <v>483</v>
+      </c>
+      <c r="E246" t="s">
         <v>484</v>
-      </c>
-      <c r="E246" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B247" t="s">
         <v>323</v>
@@ -9515,15 +9515,15 @@
         <v>22</v>
       </c>
       <c r="D247" t="s">
+        <v>485</v>
+      </c>
+      <c r="E247" t="s">
         <v>486</v>
-      </c>
-      <c r="E247" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B248" t="s">
         <v>323</v>
@@ -9532,15 +9532,15 @@
         <v>25</v>
       </c>
       <c r="D248" t="s">
+        <v>487</v>
+      </c>
+      <c r="E248" t="s">
         <v>488</v>
-      </c>
-      <c r="E248" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B249" t="s">
         <v>323</v>
@@ -9549,15 +9549,15 @@
         <v>28</v>
       </c>
       <c r="D249" t="s">
+        <v>489</v>
+      </c>
+      <c r="E249" t="s">
         <v>490</v>
-      </c>
-      <c r="E249" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B250" t="s">
         <v>323</v>
@@ -9566,15 +9566,15 @@
         <v>31</v>
       </c>
       <c r="D250" t="s">
+        <v>491</v>
+      </c>
+      <c r="E250" t="s">
         <v>492</v>
-      </c>
-      <c r="E250" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B251" t="s">
         <v>323</v>
@@ -9583,15 +9583,15 @@
         <v>131</v>
       </c>
       <c r="D251" t="s">
+        <v>579</v>
+      </c>
+      <c r="E251" t="s">
         <v>580</v>
-      </c>
-      <c r="E251" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B252" t="s">
         <v>323</v>
@@ -9600,15 +9600,15 @@
         <v>7</v>
       </c>
       <c r="D252" t="s">
+        <v>494</v>
+      </c>
+      <c r="E252" t="s">
         <v>495</v>
-      </c>
-      <c r="E252" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B253" t="s">
         <v>323</v>
@@ -9617,15 +9617,15 @@
         <v>10</v>
       </c>
       <c r="D253" t="s">
+        <v>496</v>
+      </c>
+      <c r="E253" t="s">
         <v>497</v>
-      </c>
-      <c r="E253" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B254" t="s">
         <v>323</v>
@@ -9634,15 +9634,15 @@
         <v>13</v>
       </c>
       <c r="D254" t="s">
+        <v>498</v>
+      </c>
+      <c r="E254" t="s">
         <v>499</v>
-      </c>
-      <c r="E254" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B255" t="s">
         <v>323</v>
@@ -9651,15 +9651,15 @@
         <v>16</v>
       </c>
       <c r="D255" t="s">
+        <v>500</v>
+      </c>
+      <c r="E255" t="s">
         <v>501</v>
-      </c>
-      <c r="E255" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B256" t="s">
         <v>323</v>
@@ -9668,15 +9668,15 @@
         <v>19</v>
       </c>
       <c r="D256" t="s">
+        <v>502</v>
+      </c>
+      <c r="E256" t="s">
         <v>503</v>
-      </c>
-      <c r="E256" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B257" t="s">
         <v>323</v>
@@ -9685,15 +9685,15 @@
         <v>22</v>
       </c>
       <c r="D257" t="s">
+        <v>504</v>
+      </c>
+      <c r="E257" t="s">
         <v>505</v>
-      </c>
-      <c r="E257" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B258" t="s">
         <v>323</v>
@@ -9702,15 +9702,15 @@
         <v>25</v>
       </c>
       <c r="D258" t="s">
+        <v>506</v>
+      </c>
+      <c r="E258" t="s">
         <v>507</v>
-      </c>
-      <c r="E258" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B259" t="s">
         <v>323</v>
@@ -9719,15 +9719,15 @@
         <v>28</v>
       </c>
       <c r="D259" t="s">
+        <v>508</v>
+      </c>
+      <c r="E259" t="s">
         <v>509</v>
-      </c>
-      <c r="E259" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B260" t="s">
         <v>323</v>
@@ -9736,15 +9736,15 @@
         <v>31</v>
       </c>
       <c r="D260" t="s">
+        <v>510</v>
+      </c>
+      <c r="E260" t="s">
         <v>511</v>
-      </c>
-      <c r="E260" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B261" t="s">
         <v>323</v>
@@ -9753,15 +9753,15 @@
         <v>131</v>
       </c>
       <c r="D261" t="s">
+        <v>581</v>
+      </c>
+      <c r="E261" t="s">
         <v>582</v>
-      </c>
-      <c r="E261" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B262" t="s">
         <v>323</v>
@@ -9770,15 +9770,15 @@
         <v>7</v>
       </c>
       <c r="D262" t="s">
+        <v>513</v>
+      </c>
+      <c r="E262" t="s">
         <v>514</v>
-      </c>
-      <c r="E262" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B263" t="s">
         <v>323</v>
@@ -9787,15 +9787,15 @@
         <v>10</v>
       </c>
       <c r="D263" t="s">
+        <v>515</v>
+      </c>
+      <c r="E263" t="s">
         <v>516</v>
-      </c>
-      <c r="E263" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B264" t="s">
         <v>323</v>
@@ -9804,15 +9804,15 @@
         <v>13</v>
       </c>
       <c r="D264" t="s">
+        <v>517</v>
+      </c>
+      <c r="E264" t="s">
         <v>518</v>
-      </c>
-      <c r="E264" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B265" t="s">
         <v>323</v>
@@ -9821,15 +9821,15 @@
         <v>16</v>
       </c>
       <c r="D265" t="s">
+        <v>519</v>
+      </c>
+      <c r="E265" t="s">
         <v>520</v>
-      </c>
-      <c r="E265" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B266" t="s">
         <v>323</v>
@@ -9838,15 +9838,15 @@
         <v>19</v>
       </c>
       <c r="D266" t="s">
+        <v>521</v>
+      </c>
+      <c r="E266" t="s">
         <v>522</v>
-      </c>
-      <c r="E266" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B267" t="s">
         <v>323</v>
@@ -9855,15 +9855,15 @@
         <v>22</v>
       </c>
       <c r="D267" t="s">
+        <v>523</v>
+      </c>
+      <c r="E267" t="s">
         <v>524</v>
-      </c>
-      <c r="E267" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B268" t="s">
         <v>323</v>
@@ -9872,15 +9872,15 @@
         <v>25</v>
       </c>
       <c r="D268" t="s">
+        <v>525</v>
+      </c>
+      <c r="E268" t="s">
         <v>526</v>
-      </c>
-      <c r="E268" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B269" t="s">
         <v>323</v>
@@ -9889,15 +9889,15 @@
         <v>28</v>
       </c>
       <c r="D269" t="s">
+        <v>527</v>
+      </c>
+      <c r="E269" t="s">
         <v>528</v>
-      </c>
-      <c r="E269" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B270" t="s">
         <v>323</v>
@@ -9906,10 +9906,10 @@
         <v>31</v>
       </c>
       <c r="D270" t="s">
+        <v>529</v>
+      </c>
+      <c r="E270" t="s">
         <v>530</v>
-      </c>
-      <c r="E270" t="s">
-        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/Data/banking_comments.xlsx
+++ b/Data/banking_comments.xlsx
@@ -12517,915 +12517,20 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>VBB</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>Private_3</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>1Q24</t>
+          <t>2Q25</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
-        <is>
-          <t>**Sector Analysis for 1Q24**
-1. **Overall Sector Performance Metrics and Trends**: The sector's balance sheet (BS.12) reached approximately $10.09 trillion in 1Q24, reflecting a significant year-over-year increase. However, quarter-over-quarter comparisons are unavailable. Revenue (IS.14) showed a slight decline from previous quarters, indicating potential stagnation in growth.
-2. **Asset Quality Across the Sector**: Asset quality remains a concern, with non-performing assets (IS.17) increasing to approximately -$31.6 billion. This trend suggests rising credit risk, potentially due to economic pressures impacting borrowers.
-3. **Sector Profitability Analysis**: Profitability metrics indicate mixed results. While net income (IS.18) improved to approximately $72.27 billion, the overall return on assets (CA.7) decreased to 0.87, signaling challenges in maintaining profitability amidst rising costs and asset quality issues.
-4. **Key Sector Strengths and Challenges**: Strengths include a robust capital base and diversified revenue streams. However, challenges persist, including increasing credit risks and potential regulatory pressures that could impact profitability.
-5. **Sector Outlook and Implications**: The outlook for the sector remains cautiously optimistic. While the growth in assets and revenue indicates resilience, the rising non-performing loans and declining profitability metrics warrant close monitoring. Strategic focus on improving asset quality and managing operational efficiencies will be crucial for sustaining growth in a potentially volatile economic environment.</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Sector_1Q24</t>
-        </is>
-      </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:50:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>SOCB</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>1Q24</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>**Sector Analysis for SOCB (1Q24)**
-1. **Overall Sector Performance Metrics and Trends**: The sector shows a modest increase in total assets, reaching approximately 4.47 trillion, reflecting a slight recovery from previous quarters. However, year-over-year comparisons are hindered by prior declines, indicating a cautious recovery trajectory.
-2. **Asset Quality Across the Sector**: Asset quality remains a concern, with non-performing loans (NPLs) still prevalent. The sector's capital adequacy ratio (CA.7) has decreased to 1.64, suggesting potential vulnerabilities in absorbing losses, despite a slight improvement in the capital ratios of some institutions.
-3. **Sector Profitability Analysis**: Profitability metrics indicate a mixed performance. The sector's net income (IS.14) has stabilized around 53.5 billion, but the persistent negative figures in provisions (IS.17) reflect ongoing challenges in managing credit risk. The return on assets remains subdued, suggesting inefficiencies in capital utilization.
-4. **Key Sector Strengths and Challenges**: Strengths include a robust deposit base and improved liquidity ratios. However, challenges persist, including regulatory pressures, rising interest rates impacting lending margins, and the need for digital transformation to enhance customer engagement.
-5. **Sector Outlook and Implications**: The outlook for SOCB is cautiously optimistic, with potential for gradual recovery as economic conditions stabilize. However, the sector must address asset quality issues and enhance operational efficiencies to sustain profitability</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>SOCB_1Q24</t>
-        </is>
-      </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:50:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Private_1</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>1Q24</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>**Sector Analysis of Private_1 for 1Q24**
-1. **Overall Sector Performance Metrics and Trends**: In 1Q24, Private_1 reported a balance sheet total of approximately $2.72 trillion, reflecting a steady growth trajectory from the previous quarter. Revenue (IS.14) increased to $52.73 billion, indicating a positive trend in operational performance despite prior fluctuations.
-2. **Asset Quality Across the Sector**: The sector shows signs of improving asset quality, with a notable decrease in net losses (IS.17) to approximately $10.87 billion. This reduction suggests enhanced credit management and risk mitigation strategies.
-3. **Sector Profitability Analysis**: Profitability remains a concern, with a year-over-year decline in net income (IS.18) to $25.33 billion. However, the quarterly increase indicates potential recovery, driven by improved operational efficiencies and revenue growth.
-4. **Key Sector Strengths and Challenges**: Strengths include a robust balance sheet and improved asset quality, while challenges persist in profitability and managing operational costs. The sector's reliance on interest income amid fluctuating rates poses additional risks.
-5. **Sector Outlook and Implications**: The outlook for Private_1 appears cautiously optimistic, with potential for continued revenue growth and improved profitability if asset quality trends persist. However, external economic pressures and regulatory changes may impact future performance, necessitating strategic agility and proactive risk management.</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>Private_1_1Q24</t>
-        </is>
-      </c>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:50:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Private_2</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>1Q24</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>### Sector Analysis for Private_2 (1Q24)
-**1. Overall Sector Performance Metrics and Trends:**  
-In 1Q24, Private_2 reported a total balance sheet of approximately $2 trillion, reflecting a steady increase from the previous quarter. However, year-over-year comparisons are unavailable due to data limitations. The income statement shows a revenue of $35 billion, indicating a slight recovery from the previous quarter's decline.
-**2. Asset Quality Across the Sector:**  
-The sector's asset quality appears stable, with a capital adequacy ratio (CA.17) of 0.203, suggesting a robust capital position. However, the non-performing assets (IS.17) remain concerning, with a significant loss reported, indicating potential credit risk.
-**3. Sector Profitability Analysis:**  
-Profitability metrics show mixed results, with a net income of approximately $18.7 billion. Despite a decline in some profitability ratios, the sector's return on assets (CA.16) remains competitive at 0.019, indicating efficient asset utilization.
-**4. Key Sector Strengths and Challenges:**  
-Strengths include strong capital buffers and a diversified revenue base. Challenges persist with rising credit losses and pressure on net interest margins due to competitive lending rates and economic uncertainty.
-**5. Sector Outlook and Implications:**  
-The outlook for Private_2 remains cautiously optimistic. Continued economic recovery could bolster profitability, but potential interest rate hikes and inflationary pressures may pose risks. Stakeholders should</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Private_2_1Q24</t>
-        </is>
-      </c>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:50:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Private_3</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>1Q24</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>**Sector Analysis of Private_3 for 1Q24**
-1. **Overall Sector Performance Metrics and Trends**: The Private_3 sector has shown a mixed performance through the last six quarters. Total assets (BS.12) peaked in 4Q23 at approximately $877.57 billion, slightly declining to $872.33 billion in 1Q24. Revenue (IS.14) increased to $9.77 billion in 1Q24, reflecting a positive trend despite prior volatility.
-2. **Asset Quality**: Asset quality remains a concern, with significant fluctuations in net income (IS.17) and operating income (IS.18). The sector has faced challenges, as evidenced by negative net income figures in recent quarters, indicating potential credit quality issues.
-3. **Sector Profitability Analysis**: Profitability metrics have been inconsistent. While revenue showed a slight increase in 1Q24, the sector continues to grapple with high operating losses, suggesting inefficiencies and cost pressures.
-4. **Key Sector Strengths and Challenges**: Strengths include a robust asset base and improving revenue streams. However, challenges such as deteriorating asset quality and profitability pressures from rising operational costs and competition persist.
-5. **Sector Outlook and Implications**: The outlook for Private_3 remains cautiously optimistic. If the sector can stabilize asset quality and enhance operational efficiencies, it may see improved profitability. However, ongoing economic uncertainties and competitive pressures could hinder growth, necessitating strategic adjustments to</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Private_3_1Q24</t>
-        </is>
-      </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:50:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>2Q24</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>### Sector Analysis for 2Q24
-1. **Overall Sector Performance Metrics and Trends**: The sector shows a modest increase in total assets, reaching approximately $10.69 trillion in 2Q24, up from $10.09 trillion in 1Q24. However, year-over-year comparisons remain challenging, with a decline in both total assets and income metrics over the past year.
-2. **Asset Quality**: Asset quality appears stable, with capital adequacy ratios (CA.16) hovering around 0.016, indicating a solid buffer against potential losses. However, the slight decline in the CA.7 ratio suggests a need for vigilance in managing asset quality.
-3. **Sector Profitability Analysis**: Profitability metrics remain under pressure. Net income (IS.14) increased to $163.66 billion, but this is still lower than previous peaks, indicating ongoing challenges in revenue generation. The sector's return on assets remains subdued, reflecting competitive pressures and rising costs.
-4. **Key Sector Strengths and Challenges**: Strengths include robust capital positions and a diversified asset base. Challenges encompass declining profitability, increased regulatory scrutiny, and potential credit risks amid economic uncertainties.
-5. **Sector Outlook and Implications**: The outlook remains cautiously optimistic. While asset growth is positive, profitability recovery will depend on effective cost management and strategic investments. Continued focus on asset quality and risk management will be crucial as the sector navigates potential economic headwinds.</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Sector_2Q24</t>
-        </is>
-      </c>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:50:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>SOCB</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>2Q24</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>**Sector Analysis for SOCB - 2Q24**
-1. **Overall Sector Performance Metrics and Trends**: The SOCB sector shows a positive trend in total assets, increasing from approximately 4.47 trillion in 1Q24 to 4.72 trillion in 2Q24. However, year-over-year comparisons are not available due to data limitations. Revenue (IS.14) also rose to 56.62 billion, indicating a recovery phase.
-2. **Asset Quality**: The sector's asset quality appears stable, with a slight increase in the capital adequacy ratio (CA.17) to 0.1793, suggesting improved resilience against potential losses. However, the sector's reliance on certain asset classes remains a concern.
-3. **Sector Profitability Analysis**: Profitability metrics indicate mixed results. The net income (IS.18) increased to 25.02 billion, reflecting a rebound from previous quarters. However, the continued presence of negative net income from IS.17 (-14.69 billion) highlights underlying challenges.
-4. **Key Sector Strengths and Challenges**: Strengths include a solid capital base and improving revenue streams. Challenges encompass asset quality concerns, particularly in non-performing loans, and external economic pressures that could impact growth.
-5. **Sector Outlook and Implications**: The outlook for SOCB is cautiously optimistic, with potential for growth driven by improved profitability and asset management. However, ongoing vigilance regarding asset quality and external economic conditions</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>SOCB_2Q24</t>
-        </is>
-      </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:51:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Private_1</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>2Q24</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>**Sector Analysis of Private_1 for 2Q24**
-1. **Overall Sector Performance Metrics and Trends**: In 2Q24, Private_1 reported a balance sheet of approximately $2.91 trillion, indicating a sustained upward trajectory from previous quarters. However, year-over-year comparisons remain challenging due to a significant decline in total assets, reflecting a broader trend of contraction in the sector.
-2. **Asset Quality Across the Sector**: The sector's asset quality appears under pressure, with non-performing loans (IS.17) increasing to approximately $13.02 billion in 2Q24. This trend raises concerns about credit risk management, especially in a tightening economic environment.
-3. **Sector Profitability Analysis**: The sector's profitability, as indicated by net income (IS.14), increased to $59.49 billion in 2Q24, suggesting a recovery in operational efficiency. However, the year-over-year growth is tempered by previous declines, highlighting volatility in earnings.
-4. **Key Sector Strengths and Challenges**: Strengths include a robust capital adequacy ratio (CA.17) of 0.178, reflecting sound financial health. Conversely, challenges include rising credit losses and a competitive landscape that pressures margins.
-5. **Sector Outlook and Implications**: The outlook for Private_1 remains cautiously optimistic, contingent on effective risk management and economic stabilization. Continued focus on asset quality and operational efficiency will be crucial for sustaining profitability and navigating potential economic head</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Private_1_2Q24</t>
-        </is>
-      </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:51:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Private_2</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>2Q24</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>### Sector Analysis of Private_2 for 2Q24
-1. **Overall Sector Performance Metrics and Trends**: The sector shows a modest growth trajectory with total assets reaching approximately $2.09 trillion in 2Q24, reflecting a steady increase from previous quarters. However, year-over-year comparisons indicate a decline in total assets, suggesting potential market saturation or competitive pressures.
-2. **Asset Quality**: Asset quality remains a concern, as evidenced by a consistent negative trend in non-performing assets (IS.17), which has seen a slight increase in losses. The sector's capital adequacy ratios (CA.7) indicate a stable position, but the rising non-performing loans could pose risks.
-3. **Sector Profitability Analysis**: Profitability metrics show mixed results. Net income (IS.14) has stabilized around $34.9 billion, but the sector's return on assets remains under pressure due to increasing operational costs and lower margins. The profitability ratios indicate a need for improved efficiency.
-4. **Key Sector Strengths and Challenges**: Strengths include a robust capital base and diversified revenue streams. However, challenges such as rising credit risks, regulatory pressures, and competition from fintech disruptors threaten profitability and market share.
-5. **Sector Outlook and Implications**: The outlook for Private_2 is cautiously optimistic, with potential for growth driven by digital transformation and enhanced customer engagement strategies. However, vigilance is required regarding asset quality and operational efficiency to navigate potential headwinds effectively</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Private_2_2Q24</t>
-        </is>
-      </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:51:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Private_3</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>2Q24</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>**Sector Analysis of Private_3 for 2Q24**
-1. **Overall Sector Performance Metrics and Trends**: In 2Q24, Private_3's balance sheet (BS.12) reached approximately $923.57 billion, indicating a significant recovery from the previous quarter. However, year-over-year comparisons are not available. Revenue (IS.14) increased to $12.11 billion, suggesting a positive trend in operational performance.
-2. **Asset Quality**: The sector's asset quality appears to be under pressure, with non-performing assets (IS.17) increasing to approximately -$2.26 billion. This indicates a deterioration in asset quality, which could impact future earnings.
-3. **Sector Profitability Analysis**: The net income (IS.18) for 2Q24 improved to around $4.80 billion, reflecting a rebound from earlier quarters. However, profitability ratios need close monitoring as the sector grapples with rising non-performing loans.
-4. **Key Sector Strengths and Challenges**: Strengths include a robust capital base and improved revenue generation capabilities. Challenges encompass rising credit risk and potential economic headwinds that could affect asset quality and profitability.
-5. **Sector Outlook and Implications**: The outlook for Private_3 remains cautiously optimistic, contingent on effective risk management strategies and economic stabilization. Continued focus on asset quality and operational efficiency will be critical to sustaining profitability and growth. Overall, while recovery is evident, vigilance against credit risks is essential for</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>Private_3_2Q24</t>
-        </is>
-      </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:51:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>3Q24</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>### Sector Analysis for 3Q24
-1. **Overall Sector Performance Metrics and Trends**: The sector showed a modest increase in total assets, reaching approximately $1.103 trillion in 3Q24, up from $1.069 trillion in 2Q24. However, year-over-year comparisons are lacking due to data limitations. Revenue (IS.14) decreased slightly to $156.2 billion, indicating a potential slowdown in growth.
-2. **Asset Quality Across the Sector**: Asset quality remains a concern, with non-performing assets (IS.17) at approximately -$32.9 billion, reflecting ongoing credit risks. The sector's capital adequacy ratios (CA.16, CA.17) indicate stability, but the slight decline in CA.7 suggests potential vulnerabilities.
-3. **Sector Profitability Analysis**: Profitability metrics show mixed results. The sector's core earnings (IS.18) improved to $70.3 billion, but the overall profitability remains under pressure, with a declining trend in key profitability ratios.
-4. **Key Sector Strengths and Challenges**: Strengths include a solid capital base and improved operational efficiencies. However, challenges persist, including rising credit risks and a competitive landscape that pressures margins.
-5. **Sector Outlook and Implications**: The outlook for the sector is cautiously optimistic. While asset growth and profitability improvements are expected, ongoing economic uncertainties and potential regulatory changes could pose risks. Stakeholders should focus on enhancing asset quality and</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:54:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>SOCB</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>3Q24</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>**Sector Analysis for SOCB (3Q24)**
-1. **Overall Sector Performance Metrics and Trends**: The SOCB sector shows a modest increase in total assets, reaching approximately $4.85 trillion in 3Q24, up from $4.72 trillion in 2Q24. However, year-over-year comparisons indicate a decline in total assets, reflecting a contraction trend. Revenue from interest income remains stable, but net income continues to be pressured, with significant fluctuations in net interest margins.
-2. **Asset Quality**: Asset quality appears to be under strain, with non-performing loans (NPLs) remaining a concern. The sector's capital adequacy ratios are stable, but the rising NPLs could pose risks if economic conditions worsen, impacting overall asset quality.
-3. **Sector Profitability Analysis**: Profitability metrics are mixed. While interest income has shown slight recovery, net income remains volatile due to increased provisions for loan losses. The return on assets (ROA) and return on equity (ROE) are under pressure, indicating challenges in maintaining profitability amidst rising costs.
-4. **Key Sector Strengths and Challenges**: Strengths include a robust capital base and diversified income streams. However, challenges such as rising interest rates, regulatory pressures, and economic uncertainties are significant headwinds.
-5. **Sector Outlook and Implications**: The outlook for SOCB remains cautious. While asset growth is anticipated, profitability may remain constrained in the near term due to</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:54:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Private_1</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>3Q24</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>**Sector Analysis for Private_1 (3Q24)**
-1. **Overall Sector Performance Metrics and Trends**: The sector shows a steady increase in total assets, reaching approximately $2.99 trillion in 3Q24, up from $2.90 trillion in 2Q24. However, year-over-year comparisons are hindered by prior quarters' declines, indicating a potential stabilization phase.
-2. **Asset Quality**: Asset quality appears mixed, with a slight deterioration in the capital adequacy ratio (CA.7) to 0.675 in 3Q24, down from 0.692 in 2Q24. This suggests increasing risk exposure, potentially due to rising non-performing loans.
-3. **Sector Profitability Analysis**: Net income (IS.14) decreased to $54.9 billion in 3Q24 from $59.5 billion in 2Q24, reflecting a challenging profitability environment. The sector's return on equity (ROE) remains under pressure, primarily due to rising operational costs and competitive market conditions.
-4. **Key Sector Strengths and Challenges**: Strengths include robust asset growth and improved capital ratios in certain areas. Challenges consist of declining profitability, asset quality concerns, and macroeconomic pressures such as inflation and interest rate volatility.
-5. **Sector Outlook and Implications**: The outlook remains cautiously optimistic, with potential for recovery as economic conditions stabilize. However, ongoing scrutiny of asset quality and profitability will be crucial</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:54:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Private_2</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>3Q24</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>**Sector Analysis for Private_2 (3Q24)**
-1. **Overall Sector Performance Metrics and Trends**: The sector shows a gradual increase in total assets, reaching approximately $2.18 trillion in 3Q24, up from $2.09 trillion in 2Q24. However, the year-over-year growth remains uncertain due to inconsistent quarterly performance.
-2. **Asset Quality**: The sector's asset quality appears stable, with non-performing loans (IS.17) showing a slight increase in losses, indicating potential stress. The capital adequacy ratios (CA.16, CA.17) suggest a solid buffer, albeit with a slight decline in recent quarters.
-3. **Sector Profitability Analysis**: Profitability metrics (IS.14) reflect a decline in net income, with 3Q24 reporting approximately $33.58 billion, down from $34.94 billion in 2Q24. This trend is concerning, as it indicates challenges in revenue generation amid rising costs and competitive pressures.
-4. **Key Sector Strengths and Challenges**: Strengths include robust capital ratios and a diversified asset base. However, challenges persist, such as tightening margins, increasing credit risk, and regulatory pressures affecting operational flexibility.
-5. **Sector Outlook and Implications**: The outlook for the sector remains cautious. While asset growth is positive, profitability concerns and asset quality issues could hinder future performance. Strategic focus on cost management and risk mitigation will be crucial for sustaining growth</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:54:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Private_3</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>3Q24</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>### Sector Analysis for Private_3 (3Q24)
-1. **Overall Sector Performance Metrics and Trends**: The sector shows a mixed performance in 3Q24, with total assets reaching approximately $963.56 billion, reflecting a steady increase from previous quarters. However, year-over-year comparisons remain challenging, indicating a potential stagnation in growth.
-2. **Asset Quality**: Asset quality appears under pressure, as evidenced by the negative trends in key indicators. The increase in non-performing assets (IS.17) suggests rising credit risk, with a significant decline from previous quarters, indicating potential stress in the loan portfolio.
-3. **Sector Profitability Analysis**: Profitability metrics show signs of recovery, with net income (IS.14) increasing to approximately $11.13 billion in 3Q24, up from prior quarters. However, year-over-year profitability remains subdued, reflecting ongoing operational challenges.
-4. **Key Sector Strengths and Challenges**: Strengths include a robust capital base and improved liquidity ratios (CA.7), which provide a buffer against economic volatility. Challenges include deteriorating asset quality and pressure on profit margins due to rising operational costs and competitive pricing.
-5. **Sector Outlook and Implications**: The outlook for Private_3 remains cautiously optimistic. While there are signs of recovery in profitability, the sector must address asset quality concerns and operational efficiencies to sustain growth. Continued monitoring of credit risks and market conditions will be crucial for future performance.</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:54:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>4Q24</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>**Sector Analysis for 4Q24**
-1. **Overall Sector Performance Metrics and Trends**: The sector shows a gradual increase in total assets, reaching approximately $1.17 trillion in 4Q24, reflecting a steady recovery from previous quarters. However, year-over-year growth remains uncertain due to inconsistent quarterly performance.
-2. **Asset Quality**: Asset quality indicators suggest a mixed picture. While the sector's capital adequacy ratios (CA.17) have shown slight improvement, the overall asset quality remains under pressure, with significant fluctuations in non-performing loans.
-3. **Sector Profitability Analysis**: Profitability metrics indicate a challenging environment. Net income (IS.14) increased to $181.67 billion in 4Q24, but the sector continues to face pressure from rising operational costs and declining margins. The return on assets remains subdued, reflecting ongoing challenges in revenue generation.
-4. **Key Sector Strengths and Challenges**: Strengths include a robust capital base and improved liquidity positions. However, challenges persist, including regulatory pressures, rising interest rates, and economic uncertainties that could impact loan demand and asset quality.
-5. **Sector Outlook and Implications**: The outlook for the sector remains cautiously optimistic. Continued asset growth and potential improvements in profitability could occur if economic conditions stabilize. However, vigilance is required regarding asset quality and operational efficiency as external pressures persist. Overall, the sector must adapt to a dynamic economic landscape to sustain growth.</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:54:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>SOCB</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>4Q24</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>### Sector Analysis for SOCB (4Q24)
-1. **Overall Sector Performance Metrics and Trends**: The SOCB sector has shown a gradual recovery in 4Q24, with total assets reaching approximately $5.12 trillion, reflecting a steady growth trajectory. However, year-over-year comparisons are hindered by previous declines, indicating a cautious optimism in the sector's recovery.
-2. **Asset Quality**: Asset quality remains a concern, with non-performing loans (NPLs) continuing to impact profitability. The sector's capital adequacy ratios have shown slight improvements, but elevated NPL ratios suggest ongoing credit risk challenges.
-3. **Sector Profitability Analysis**: Profitability metrics reveal a mixed performance. Net interest income has improved, driven by higher interest rates, yet net income remains under pressure due to rising provisions for loan losses. The sector's return on assets (ROA) is stabilizing but still below pre-pandemic levels.
-4. **Key Sector Strengths and Challenges**: Strengths include robust capital buffers and improved liquidity positions. However, challenges persist in managing asset quality and adapting to regulatory changes. The sector must navigate economic uncertainties and potential interest rate volatility.
-5. **Sector Outlook and Implications**: The outlook for SOCB is cautiously optimistic, with expectations of gradual recovery in profitability and asset quality. Continued focus on risk management and operational efficiency will be crucial. The sector may benefit from a favorable economic environment, but vigilance against credit risks remains essential as the</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:54:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Private_1</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>4Q24</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>### Sector Analysis of Private_1 for 4Q24
-1. **Overall Sector Performance Metrics and Trends**: The sector shows a steady increase in total assets, reaching approximately $3.17 trillion in 4Q24, up from $2.62 trillion in 4Q23. However, year-over-year comparisons indicate a decline in growth rates, reflecting broader economic challenges.
-2. **Asset Quality**: The sector's asset quality appears stable, with the capital adequacy ratio (CA.7) improving to 73.39% in 4Q24, indicating strong capital buffers. However, the increase in non-performing assets (IS.17) suggests potential stress, with losses persisting.
-3. **Sector Profitability Analysis**: Profitability metrics remain under pressure, with net income (IS.14) showing marginal growth to $59.73 billion in 4Q24, but still below prior peaks. The return on assets remains subdued, reflecting ongoing operational challenges.
-4. **Key Sector Strengths and Challenges**: Strengths include robust capital positions and diversified income streams. However, challenges such as rising interest rates, regulatory pressures, and economic uncertainty could hinder growth and profitability.
-5. **Sector Outlook and Implications**: The outlook for Private_1 remains cautiously optimistic. While asset growth is promising, profitability may be constrained by external economic factors. Continued focus on asset quality and operational efficiency will be crucial for navigating potential headwinds in the coming quarters.</t>
-        </is>
-      </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:54:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Private_2</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>4Q24</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>### Sector Analysis: Private_2 for 4Q24
-1. **Overall Sector Performance Metrics and Trends**: The Private_2 sector shows a gradual increase in total assets, reaching approximately $2.35 trillion in 4Q24, reflecting a 7.3% quarter-over-quarter growth. However, year-over-year comparisons are not available due to data limitations. Revenue (IS.14) has shown volatility, with a notable increase to $45.4 billion in 4Q24, indicating potential recovery from previous declines.
-2. **Asset Quality Across the Sector**: The sector's asset quality remains under scrutiny, with non-performing assets (IS.17) continuing to be a concern, showing a loss of approximately $10.7 billion in 4Q24. This trend suggests ongoing challenges in credit risk management.
-3. **Sector Profitability Analysis**: Profitability metrics are mixed. While revenue has increased, the sector's net income remains under pressure, reflecting a persistent negative trend in net interest margins and operational costs. The cost-to-income ratio remains elevated, indicating inefficiencies.
-4. **Key Sector Strengths and Challenges**: Strengths include a solid asset base and improving revenue streams. However, challenges persist in asset quality and profitability, compounded by rising operational costs and competitive pressures.
-5. **Sector Outlook and Implications**: The outlook for Private_2 appears cautiously optimistic, with potential for growth driven by increased lending and improved economic conditions. However,</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:55:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Private_3</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>4Q24</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>### Sector Analysis of Private_3 for 4Q24
-1. **Overall Sector Performance Metrics and Trends**: The sector has shown a mixed performance over the past six quarters. While total assets increased to approximately $1 trillion in 4Q24, the year-over-year growth remains uncertain due to fluctuating asset values and declining income metrics. 
-2. **Asset Quality Across the Sector**: Asset quality appears to be under pressure, with significant fluctuations in key indicators. The negative trends in capital adequacy ratios (CA.16, CA.17) signal potential risks, indicating a need for improved asset management and risk assessment.
-3. **Sector Profitability Analysis**: Profitability metrics reveal a concerning trend, with net income (IS.14) declining significantly in 4Q24. The sector's return on assets and equity ratios are under strain, reflecting challenges in maintaining profitability amid rising costs and competitive pressures.
-4. **Key Sector Strengths and Challenges**: Strengths include a robust asset base and a diversified portfolio. However, challenges such as increasing credit risk, regulatory pressures, and market volatility pose significant threats to sustained growth.
-5. **Sector Outlook and Implications**: The outlook for Private_3 remains cautious. While asset growth is a positive sign, the declining profitability and asset quality metrics suggest that strategic adjustments are necessary. Continued focus on risk management and operational efficiency will be crucial for navigating the evolving financial landscape.</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:55:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>1Q25</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>**Sector Analysis for 1Q25**
-1. **Overall Sector Performance Metrics and Trends**: The sector shows a slight recovery in 1Q25 with total assets reaching approximately $12.14 trillion, reflecting a consistent upward trend from previous quarters. However, year-over-year comparisons are not available, indicating potential volatility.
-2. **Asset Quality**: Asset quality appears stable, with a capital adequacy ratio (CA.7) of 0.803, suggesting a solid buffer against potential losses. However, the decline in certain capital adequacy ratios (CA.25) raises concerns about specific asset classes.
-3. **Sector Profitability Analysis**: Net income (IS.14) has improved to approximately $165.88 billion, indicating a positive trajectory despite previous declines. The net interest margin remains under pressure, but the sector is managing to stabilize profitability through operational efficiencies.
-4. **Key Sector Strengths and Challenges**: Strengths include robust capital ratios and a gradual recovery in profitability. Challenges persist, including pressure on net interest margins and potential credit quality deterioration due to economic uncertainties.
-5. **Sector Outlook and Implications**: The outlook for the sector remains cautiously optimistic. Continued asset growth and profitability recovery are expected, but external economic factors could pose risks. Institutions must focus on maintaining asset quality and enhancing operational efficiencies to navigate potential headwinds effectively.</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:55:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>SOCB</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>1Q25</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>### Sector Analysis for SOCB (1Q25)
-1. **Overall Sector Performance Metrics and Trends**: The SOCB sector shows a modest increase in total assets, reaching approximately 5.26 trillion, indicating a recovery trend. However, year-over-year comparisons are lacking due to data limitations. Recent quarters reflect a stabilization in asset growth after a decline in 2023.
-2. **Asset Quality Across the Sector**: The sector's asset quality appears mixed. The ratio of non-performing loans (NPLs) remains a concern, as evidenced by the negative trends in IS.17 (net interest income) and IS.18 (net income), suggesting potential asset quality deterioration.
-3. **Sector Profitability Analysis**: Profitability metrics indicate a challenging environment. The operating income (IS.14) shows slight recovery but remains below previous highs, reflecting pressure on margins. The sector's return on assets (ROA) is likely constrained by rising operational costs and competitive pressures.
-4. **Key Sector Strengths and Challenges**: Strengths include a solid capital base and improved liquidity ratios (CA.7). Challenges encompass rising credit risks, regulatory pressures, and the need for digital transformation to enhance service delivery and efficiency.
-5. **Sector Outlook and Implications**: The outlook for SOCB is cautiously optimistic, contingent on effective risk management and strategic investments in technology. Continued focus on asset quality and profitability will be crucial for sustainable growth, with potential for improved performance if economic conditions stabilize</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:55:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Private_1</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>1Q25</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>**Sector Analysis of Private_1 for 1Q25**
-1. **Overall Sector Performance Metrics and Trends**: The sector shows a moderate growth trajectory with total assets reaching approximately $3.3 trillion in 1Q25, indicating a steady increase from previous quarters. However, year-over-year comparisons are not available due to data limitations.
-2. **Asset Quality**: The sector's asset quality appears stable, with a capital adequacy ratio (CA.7) of 66.3%. This suggests a robust buffer against potential losses, although some indicators like CA.25 show a significant decline, indicating potential risks in specific asset classes.
-3. **Sector Profitability Analysis**: The sector's net income (IS.14) stands at $58.2 billion, reflecting a slight decrease from prior quarters. The profitability ratios indicate challenges in maintaining margins, particularly with the net interest margin under pressure.
-4. **Key Sector Strengths and Challenges**: Strengths include a strong capital base and diversified asset portfolios. Challenges encompass rising operational costs and competitive pressures that may impact profitability.
-5. **Sector Outlook and Implications**: The outlook for Private_1 remains cautiously optimistic, driven by asset growth and solid capital ratios. However, the sector must navigate profitability challenges and potential economic headwinds. Strategic focus on cost management and enhancing operational efficiencies will be crucial for sustaining growth and improving margins moving forward.</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:55:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Private_2</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>1Q25</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>**Sector Analysis: Private_2 for 1Q25**
-1. **Overall Sector Performance Metrics and Trends**: As of 1Q25, the sector's balance sheet (BS.12) shows a significant increase to approximately $2.48 trillion, indicating growth despite previous quarterly declines. However, year-over-year comparisons remain unavailable due to missing data. Revenue (IS.14) has stabilized at around $36.37 billion, reflecting a cautious recovery from prior volatility.
-2. **Asset Quality**: The sector exhibits mixed asset quality indicators. The ratio of non-performing assets (IS.17) has improved slightly, with losses decreasing to approximately $3.95 billion. However, the persistent negative trends in certain asset categories (CA.25) suggest underlying vulnerabilities.
-3. **Sector Profitability Analysis**: Profitability remains under pressure, with net income (IS.18) at approximately $20.79 billion. While this marks a recovery from previous quarters, it reflects ongoing challenges in maintaining margins amid competitive pressures and economic uncertainties.
-4. **Key Sector Strengths and Challenges**: Strengths include a robust capital base and improved asset management practices. Challenges encompass rising operational costs, regulatory pressures, and potential economic headwinds that could affect loan performance.
-5. **Sector Outlook and Implications**: The outlook for Private_2 is cautiously optimistic, with potential for growth driven by digital transformation and enhanced customer engagement. However, the sector must navigate economic uncertainties and evolving regulatory landscapes</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:55:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Private_3</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>1Q25</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>### Sector Analysis of Private_3 for 1Q25
-1. **Overall Sector Performance Metrics and Trends**: In 1Q25, Private_3 reported a total balance sheet of approximately $1.05 trillion, reflecting a significant recovery from previous quarters. The sector's revenue (IS.14) increased to $14.93 billion, signaling a positive trajectory after a challenging 2024.
-2. **Asset Quality**: Asset quality appears mixed, with notable fluctuations in key metrics. The sector's capital adequacy ratios (CA.16 and CA.17) indicate a solid foundation, but the increase in non-performing assets (IS.17) suggests ongoing credit risk concerns.
-3. **Sector Profitability Analysis**: Profitability metrics show improvement, with net income (IS.18) rebounding to approximately $7.74 billion. This recovery is supported by a favorable increase in net interest margins, although the sector continues to face pressure from rising operational costs.
-4. **Key Sector Strengths and Challenges**: Strengths include robust capital buffers and improved revenue generation capabilities. However, challenges persist with asset quality and potential regulatory pressures, particularly in managing non-performing loans.
-5. **Sector Outlook and Implications**: The outlook for Private_3 is cautiously optimistic, driven by improving economic conditions and consumer confidence. However, vigilance is required regarding asset quality and regulatory compliance. Continued focus on digital transformation and cost management will be crucial for sustaining profitability and competitive advantage in the</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>2025-08-08 10:55:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>VBB</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Private_3</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
         <is>
           <t>**VBB (Private_3 Bank) 2Q25 Analysis**
 1. **Key Performance Metrics and Trends**: VBB's total assets reached approximately $96.04 billion in 1Q25, reflecting a steady increase from previous quarters. However, the bank's income statement shows a decline in net income, with a significant drop in net interest income and a negative trend in net income from previous quarters.
@@ -13435,52 +12540,1084 @@
 5. **Forward Outlook**: The outlook for VBB remains cautious. The bank must address asset quality issues and enhance profitability through better risk management and operational efficiency. Future performance will</t>
         </is>
       </c>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>2025-08-08 10:56:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>1Q24</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Sector profitability in 1Q24 remained solid, with PBT up 6.2% QoQ and 9.5% YoY, but topline growth softened after a strong 4Q23, and margins edged lower.
+2. Loan growth momentum slowed sharply to just 2.0% QoQ, while NIM compressed, reflecting weaker loan yields and a more competitive lending environment.
+3. Asset quality risks are re-emerging: both NPL and group 2 ratios rose sequentially, new formation picked up, and coverage ratios slipped to multi-year lows.
+----------------------------------
+Profitability:  
+The sector delivered another quarter of resilient profit in 1Q24, with PBT rising 6.2% QoQ and 9.5% YoY. However, total operating income (TOI) dipped 3.3% QoQ after a double-digit surge in 4Q23, signaling a normalization from year-end highs. ROA nudged up to 1.56% from 1.52% in 4Q23, and ROE improved to 17.3% from 16.9%, both slightly above the prior year. The main driver was lower provision expense (-5.0% QoQ), which offset the softer topline. The sequential profit beat is a mild positive surprise, but the underlying revenue trend is losing steam as margin pressure builds.
+Loan Growth &amp; NIM:  
+Loan growth decelerated sharply to 2.0% QoQ in 1Q24, down from 8.1% in 4Q23, as credit demand cooled and banks grew more selective. NIM slipped to 3.4% from 3.6% in the prior quarter, continuing a gradual downtrend. The key factor was a notable drop in loan yields to 8.4% from 9.6% in 4Q23, reflecting both competitive pricing and a shift toward lower-yielding segments. This margin compression is likely to weigh on core income if the trend persists.
+Asset Quality:  
+Asset quality metrics deteriorated in 1Q24. The NPL ratio rose to 2.17% from 1.93% in 4Q23, while group 2 loans also increased. New NPL formation jumped to 0.49% from 0.28% QoQ, and group 2 formation spiked to 0.72%. NPL coverage fell to 0.87x, the lowest in years, leaving the sector more exposed to future credit losses. The uptick in formation and weaker coverage are clear warning signs that credit costs may rise.
+Investment Implications:  
+The sector’s profit resilience masks growing margin and asset quality headwinds. Investors should watch for further credit slippage and margin compression, as the latest figures point to rising risk and a less supportive earnings backdrop.</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2Q24</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Sector profitability accelerated in 2Q24, with TOI and PBT both posting strong sequential and YoY gains, while ROA and ROE continued their gradual upward trajectory.
+2. Loan growth momentum picked up sharply QoQ, supporting a modest NIM rebound despite ongoing loan yield compression.
+3. Asset quality trends are mixed: NPL and NPL formation edged higher, coverage ratios weakened further, but Group 2 loans improved—signaling a nuanced risk environment.
+----------------------------------
+Profitability:
+Sector profitability strengthened in 2Q24, with total operating income (TOI) up 7.8% QoQ and 15.7% YoY—the fastest topline expansion in over a year. Pre-tax profit (PBT) climbed 5.1% QoQ and surged 22.4% YoY, reflecting both revenue momentum and scale benefits. ROA improved to 1.60% in 2Q24 from 1.56% in 1Q24, while ROE edged up to 17.5% from 17.3%. The sequential improvement was driven by robust income growth, which more than offset a 13.4% QoQ jump in provision expenses. The sector’s profitability cycle is clearly in an upswing, with the latest results exceeding recent trend expectations.
+Loan Growth &amp; NIM:
+Loan growth accelerated to 5.9% QoQ in 2Q24, a marked step-up from 2.0% in 1Q24 and the strongest quarterly pace since 4Q23. This expansion underpinned a modest NIM recovery to 3.54% (from 3.44% in 1Q24), even as loan yields slipped further to 7.99%. The margin uptick suggests banks are managing funding costs effectively and benefiting from scale, despite persistent yield pressure. The sector’s loan growth YTD reached 8.1%, signaling renewed credit demand and improved business sentiment.
+Asset Quality:
+Asset quality signals remain mixed. The NPL ratio ticked up to 2.23% in 2Q24, with NPL formation rising to 0.54%—both up sequentially and pointing to some ongoing slippage. However, Group 2 loans fell to 1.85%, and G2 formation moderated, hinting at early stabilization in watchlist exposures. NPL coverage slipped further to 0.81x, the lowest in recent years, raising a flag on loss absorption capacity. The sector’s risk profile is evolving: while credit growth is back, coverage erosion and rising NPL formation warrant close monitoring.
+Investment Implications:
+Sector banks are delivering strong growth and margin resilience, but the asset quality picture is less clear-cut. The positive surprise on profitability is tempered by weaker coverage and higher NPL formation, suggesting investors should stay alert to emerging credit risks even as earnings momentum builds.</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:24:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>3Q24</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Sector profitability softened in 3Q24 as both TOI and PBT declined sequentially, with ROA and ROE retreating from recent highs—marking a negative surprise after a strong 2Q24.
+2. Loan growth momentum slowed sharply QoQ, while NIM compressed as loan yields continued to drift lower.
+3. Asset quality showed modest improvement, with NPL and group 2 ratios stable to better, and new formation rates easing; coverage ratios rebounded but remain below early-2024 levels.
+----------------------------------
+Profitability:
+The sector’s profitability cycle lost steam in 3Q24. Total operating income (TOI) fell 4.5% QoQ, reversing the 7.8% jump in 2Q24, though still up 13.0% YoY. Pre-tax profit (PBT) dropped 7.4% QoQ, the first sequential decline in three quarters, despite remaining 17.8% higher YoY. ROA slipped to 1.4% from 1.6% in 2Q24, and ROE fell to 15.7% from 17.5%. This pullback was driven by softer core income and a normalization in provision expenses (down 8.3% QoQ after a spike last quarter). The reversal in profitability is a negative surprise, signaling that the sector’s earnings momentum is cooling faster than expected.
+Loan Growth &amp; NIM:
+Loan growth decelerated to 3.2% QoQ in 3Q24, down from 5.9% in 2Q24, as credit demand moderated post mid-year surge. Year-to-date, loan growth reached 11.5%. Net interest margin (NIM) compressed to 3.3%, down from 3.5% last quarter, reflecting continued pressure on loan yields, which slipped to 7.7%. The margin squeeze points to persistent competition and asset repricing headwinds, limiting the sector’s ability to sustain topline growth.
+Asset Quality:
+Asset quality trends were stable to positive. The NPL ratio held steady at 2.2%, while group 2 loans improved to 1.7% from 1.9% in 2Q24. New NPL and group 2 formation rates both eased sharply, suggesting credit stress is not accelerating. NPL coverage rebounded to 83.1% from 80.9%, though still below 1Q24 levels. The improvement in formation and coverage is a mild positive, but the sector remains exposed if macro conditions deteriorate.
+Investment Implications:
+The sector’s 3Q24 results flag a shift from rapid earnings growth to a more cautious phase, with margin compression and slower loan growth now in focus. While asset quality is holding, the loss of profitability momentum and persistent yield pressure are key risks for investors tracking sector earnings durability.</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:25:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>4Q24</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Sector profitability rebounded sharply in 4Q24, driven by a strong recovery in TOI and PBT, with ROA and ROE regaining ground after a soft 3Q24.
+2. Loan growth momentum accelerated QoQ and YoY, but NIM remained flat as loan yields stabilized at a low base.
+3. Asset quality improved across the board, with NPL and group 2 ratios declining and coverage ratios rebuilding, signaling a positive surprise versus recent trends.
+----------------------------------
+Profitability:  
+The sector delivered a strong finish to 2024, with total operating income (TOI) jumping 16.3% QoQ and 15.7% YoY in 4Q24—its best sequential performance in over a year. This topline surge translated into a 16.4% QoQ and 20.3% YoY rise in pre-tax profit (PBT), reversing the 7.4% dip seen in 3Q24. ROA climbed to 1.54% in 4Q24 from 1.42% in 3Q24, while ROE improved to 17.2% from 15.7%. The key driver was broad-based revenue growth, as provision expenses remained stable (+2.0% QoQ). The sector’s profitability cycle is back on an upward trajectory, outperforming expectations after a mid-year lull.
+Loan Growth &amp; NIM:  
+Loan growth accelerated to 6.0% QoQ in 4Q24 (vs 3.2% in 3Q24), pushing YTD expansion to 18.2%. This marks a clear reacceleration after a muted 3Q24. However, NIM was largely flat at 3.34% (vs 3.30% prior), as loan yields stabilized at 7.75% after a prolonged decline. The margin plateau reflects ongoing competition and a low-yield environment, but the stabilization itself is a positive signal after several quarters of compression.
+Asset Quality:  
+Asset quality metrics improved notably. The NPL ratio dropped to 1.92% in 4Q24 from 2.23% in 3Q24, while group 2 loans also edged down. Both NPL and group 2 formation rates fell to multi-quarter lows, indicating reduced slippage. NPL coverage rebuilt to 90.6% (from 83.1%), reversing the prior downtrend. These improvements suggest that credit risk is being contained more effectively, providing a tailwind for sector sentiment.
+Investment Implications:  
+The sector’s 4Q24 results mark a positive surprise, with strong earnings recovery, renewed loan growth, and improving asset quality. The stabilization in NIM and credit costs supports a more constructive outlook heading into 2025.</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:25:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>1Q25</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Sector profitability in 1Q25 softened sequentially, with TOI and margins under pressure, but YoY growth remains solid.
+2. Loan growth momentum cooled from 4Q24’s peak, while NIM compressed sharply on lower loan yields.
+3. Asset quality trends are mixed: NPL and G2 formation spiked, and coverage ratios weakened, signaling rising credit risk.
+----------------------------------
+Profitability:
+Sector profitability in 1Q25 lost steam after a strong 4Q24. Total operating income (TOI) fell 8.7% QoQ, reversing the prior quarter’s surge, though still up 9.3% YoY. Net profit (PBT) was essentially flat, up just 1.3% QoQ, as lower provision expenses (-7.3% QoQ) offset weaker core income. ROA dipped to 1.52% from 1.54% in 4Q24, and ROE was steady at 17.1%. The sequential slowdown reflects fading one-off drivers and margin compression, with YoY gains now moderating. The latest figures are a mild negative surprise versus the robust finish to 2024.
+Loan Growth &amp; NIM:
+Loan growth decelerated to 3.8% QoQ in 1Q25, down from 6.0% in 4Q24, as credit demand normalized post-year-end. On a YoY basis, loan growth remains healthy, but the sequential loss of momentum is clear. NIM dropped sharply to 3.0% from 3.3% in 4Q24, marking the lowest level in over a year. The key driver is persistent loan yield compression, now at 7.5% versus 7.8% in 4Q24, as competition and asset repricing weigh on margins. This margin squeeze is the main headwind to sector revenue growth.
+Asset Quality:
+Asset quality signals are flashing caution. The NPL ratio rose to 2.15% in 1Q25, up from 1.92% in 4Q24. NPL formation jumped to 0.53%, reversing the benign trend of late 2024. Group 2 loans held steady, but G2 formation also spiked. Critically, NPL coverage fell to 80.3% from 90.6%, the weakest since 2Q24, leaving the sector more exposed to further credit losses. The uptick in new problem loans and weaker coverage are the biggest red flags in the latest results.
+Investment Implications:
+The sector is entering a phase of slower growth and rising risk costs. Margin compression and asset quality slippage are now the key themes, tempering the positive momentum seen in late 2024. Investors should watch for further credit deterioration and margin trends as the main drivers of sector earnings in coming quarters.</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:25:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. The sector delivered a strong 2Q25, with profitability and loan growth both accelerating QoQ and YoY, while asset quality metrics improved sharply after a volatile 1Q25.
+2. NIM rebounded modestly, reversing the prior quarter’s compression, as loan yields stabilized and loan growth regained momentum.
+3. Asset quality saw a marked improvement, with NPL and group 2 ratios both declining and new formation dropping to multi-quarter lows, easing near-term credit risk concerns.
+----------------------------------
+Profitability:
+Sector profitability rebounded in 2Q25, with TOI up 10.5% QoQ and 11.9% YoY—marking the fastest topline expansion in over a year. Net profit (proxied by PBT) rose 8.1% QoQ and 18.0% YoY, outpacing expectations and reversing the flat trend seen in 1Q25. ROA improved to 1.6% in 2Q25 from 1.5% in 1Q25, while ROE climbed to 17.8% from 17.1%. The key drivers were a surge in core income and a manageable increase in provision expenses (+20.0% QoQ), which did not offset the topline gains. The sector’s earnings cycle is back on an upward trajectory, with positive surprises on both revenue and bottom line.
+Loan Growth &amp; NIM:
+Loan growth accelerated to 5.7% QoQ in 2Q25, a clear step-up from 3.8% in 1Q25 and the strongest sequential pace since 4Q24. YTD loan growth reached 9.7%, reflecting broad-based credit demand. NIM recovered to 3.2% from 3.0% in 1Q25, breaking a two-quarter downtrend. The margin rebound was driven by a slight uptick in loan yields (to 7.6%) and robust loan expansion, suggesting improved pricing discipline and better asset mix.
+Asset Quality:
+Asset quality metrics improved sharply. The NPL ratio fell to 2.0% from 2.1% in 1Q25, while group 2 loans dropped to 1.3% from 1.6%. New NPL formation plunged to just 0.04%, the lowest in over a year, and group 2 formation turned negative, indicating active resolution and recoveries. NPL coverage edged up to 80.6%, stabilizing after a dip. The sector’s credit risk profile is now on firmer footing, reducing immediate provisioning risk.
+Investment Implications:
+The sector’s 2Q25 results mark a positive inflection, with synchronized improvements in growth, margins, and asset quality. The strong topline and credit recovery should support further earnings momentum, while the asset quality turnaround reduces downside risk for investors.</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:25:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>SOCB</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>1Q24</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. SOCB’s 1Q24 results show a sharp sequential slowdown in profitability and loan growth after a strong 4Q23, with core income and margins both under pressure.
+2. Asset quality metrics deteriorated, as NPL and Group 2 ratios rose and coverage weakened—marking a clear reversal from prior improvements.
+3. The quarter signals rising risk costs and a more cautious outlook, with performance lagging sector momentum and raising questions on earnings durability.
+---
+**Profitability:**  
+SOCB’s profitability lost steam in 1Q24. Total operating income (TOI) fell 2.8% QoQ, reversing the 7.8% surge in 4Q23, and YoY growth slowed to just 1.3%. Net profit before tax dropped 10.9% QoQ, erasing much of the prior quarter’s gain, and provision expenses nearly doubled sequentially. ROA slipped to 1.26% from 1.46% in 4Q23, while ROE fell to 18.2% from 21.0%. Both ratios are now below recent peaks and sector averages, reflecting margin compression and higher risk costs. The abrupt reversal is a negative surprise after the strong finish to 2023, driven by weaker core income and a normalization in provisions.
+**Loan Growth &amp; NIM:**  
+Loan growth momentum stalled: SOCB’s loan book expanded just 1.1% QoQ in 1Q24, a sharp deceleration from 7.5% in 4Q23 and trailing the sector’s 2.0%. YoY loan growth also moderated. Net interest margin (NIM) edged down to 2.8% from 2.9% in 4Q23, continuing a gradual decline. Loan yields compressed further to 6.8%, down from 7.6% in the previous quarter, reflecting ongoing repricing pressure and a more competitive lending environment. The data points to persistent headwinds on both growth and margin fronts.
+**Asset Quality:**  
+Asset quality trends turned negative. The NPL ratio rose to 1.37% from 1.13% in 4Q23, while Group 2 loans also increased to 1.48%. Both NPL and G2 formation rates jumped, signaling renewed credit stress. Critically, NPL coverage dropped to 1.64x from 1.89x, erasing prior improvements and leaving SOCB more exposed to future losses. The deterioration stands out versus the sector, where coverage remains higher and formation less volatile.
+**Investment Implications:**  
+SOCB’s 1Q24 marks a clear inflection point: growth and profitability are under pressure, and asset quality risks are rising. The negative surprise on both earnings and credit metrics suggests a more cautious stance is warranted. Investors should watch for further slippage in coming quarters.</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:25:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>SOCB</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>2Q24</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. SOCB delivered a strong rebound in topline growth and loan expansion in 2Q24, but profitability gains were modest as risk costs stayed elevated.
+2. Margins remained under pressure, with NIM and loan yields slipping further despite robust loan growth.
+3. Asset quality signals are mixed: NPLs edged up and coverage weakened, but group 2 loans improved, leaving the credit cycle in a watch zone.
+----------------------------------
+Profitability:
+SOCB’s total operating income (TOI) jumped 5.8% QoQ and 7.8% YoY in 2Q24, reversing the prior quarter’s dip and marking its best sequential pace in over a year. However, net profit growth lagged, with PBT up just 2.9% QoQ and 9.9% YoY, as provision expenses remained high—up 5.3% QoQ and 13.4% YoY. Return metrics softened: ROA was steady at 1.26% (vs. 1.26% in 1Q24, down from 1.46% in 4Q23), while ROE edged down to 17.9% from 18.2% in 1Q24 and 21.0% in 4Q23. The main drag was heavier provisioning, which offset the topline recovery and kept earnings growth muted relative to expectations.
+Loan Growth &amp; NIM:
+Loan growth accelerated sharply to 5.6% QoQ in 2Q24 (vs. 1.1% in 1Q24), outpacing the sector’s 5.9% and bringing YTD loan growth to 6.7%. This signals renewed business momentum after a slow start to the year. However, NIM slipped again to 2.81% from 2.82% in 1Q24, as loan yields continued to compress (down 40bps QoQ to 6.4%). The margin squeeze reflects ongoing repricing pressure and a shift toward lower-yielding assets, which is constraining revenue leverage from loan growth.
+Asset Quality:
+NPL ratio ticked up to 1.45% in 2Q24 (from 1.37% in 1Q24), with new NPL formation rising to 0.60%—the highest in over a year. Group 2 loans improved, falling to 1.19% from 1.48%, but formation remains elevated. Critically, NPL coverage dropped to 1.45x (from 1.64x), signaling reduced protection against future losses. The asset quality picture is mixed: while headline ratios remain below sector averages, rising NPL formation and weaker coverage warrant close monitoring.
+Investment Implications:
+SOCB’s topline and loan growth are back on track, but margin compression and asset quality slippage are tempering the earnings recovery. The latest results are a mild positive surprise on growth, but risk costs and coverage trends suggest investors should stay alert to further credit cycle pressures.</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:25:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>SOCB</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>3Q24</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. SOCB’s 3Q24 results show steady loan growth and resilient topline, but profitability softened as margins compressed and risk costs remained elevated.
+2. NIM and loan yields continued to decline, weighing on core income, while asset quality ratios edged up but coverage remains robust.
+3. The latest quarter signals a cautious outlook: growth is intact, but margin and credit cost pressures are limiting earnings upside.
+----------------------------------
+Profitability:
+SOCB’s topline held up in 3Q24, with TOI down just 1.1% QoQ after a strong 2Q24, and still up 9.7% YoY—outpacing the sector’s 13.0% YoY. However, net profit momentum stalled: PBT fell 5.1% QoQ, reversing the modest gain in 2Q24. ROA slipped to 1.1% from 1.3% in 2Q24, and ROE dropped to 16.4% from 17.9%, both now below sector averages and at their lowest levels in over a year. The main drag was margin compression and steady provision expenses, which, despite easing 4.4% QoQ, remain high versus history. The earnings cycle is showing fatigue, with limited positive surprise.
+Loan Growth &amp; NIM:
+Loan growth remained positive at 2.7% QoQ (vs 5.6% in 2Q24), keeping YTD expansion at 9.6%. This is slightly behind the sector’s 11.5% YTD, but still healthy. NIM compressed sharply to 2.6% from 2.8% in 2Q24, marking the lowest level in two years. Loan yields continued their downtrend, falling to 6.2%. The margin squeeze reflects ongoing repricing pressure and a shift toward lower-yielding assets, which is now a clear headwind for revenue growth.
+Asset Quality:
+Asset quality trends are mixed. The NPL ratio ticked up to 1.49% from 1.45% in 2Q24, while group 2 loans also edged higher. However, new NPL formation dropped sharply to 0.19%, suggesting some stabilization after a spike last quarter. NPL coverage improved to 1.48x, well above sector norms and providing a buffer against further slippage. Still, the gradual uptick in headline NPL and group 2 ratios signals that underlying credit risk remains.
+Investment Implications:
+SOCB is delivering steady growth, but margin compression and persistent risk costs are capping earnings. The latest results are a mild negative surprise, with profitability and margin trends now lagging the sector. Investors should watch for further margin pressure and asset quality drift, as these will dictate the pace of future earnings recovery.</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:26:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>SOCB</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>4Q24</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. SOCB delivered a strong finish in 4Q24, with a sharp rebound in profitability and topline growth, driven by robust loan expansion and lower provision expenses.
+2. Loan growth momentum accelerated QoQ, while NIM stabilized after earlier compression—reflecting improved balance sheet deployment despite persistent yield pressure.
+3. Asset quality improved, with NPL and group 2 ratios both declining and coverage ratios rebuilding, marking a positive surprise versus recent trends.
+---
+**Profitability:**  
+SOCB’s profitability surged in 4Q24, with PBT up 38.5% QoQ and 20.6% YoY, reversing the softness seen in 3Q24. Total operating income jumped 16.8% QoQ and 18.8% YoY, marking the bank’s best topline growth in over a year. This was fueled by strong loan growth and a notable drop in provision expenses, which fell 33.5% QoQ. ROA climbed to 1.5% from 1.1% in 3Q24, while ROE improved to 21.8%—both at multi-quarter highs and well above the sector. The earnings beat was driven by a combination of revenue acceleration and normalized risk costs, signaling a positive inflection after several quarters of margin and profit volatility.
+**Loan Growth &amp; NIM:**  
+Loan growth accelerated to 5.6% QoQ in 4Q24, up from 2.7% in 3Q24 and outpacing the sector’s 6.0%. On a YoY basis, loan growth reached 15.8%, reflecting a strong lending push in the final quarter. NIM stabilized at 2.7% after sequential declines, as loan yields flattened at 6.2%. The margin stabilization suggests that SOCB is managing funding costs and asset mix more effectively, even as competitive pressure keeps yields subdued. The topline lift was primarily volume-driven, with asset repricing and loan mix supporting the recovery.
+**Asset Quality:**  
+Asset quality trends turned positive in 4Q24. The NPL ratio fell to 1.2% from 1.5% in 3Q24, while group 2 loans also edged down. New NPL formation dropped sharply to 0.06%, the lowest in six quarters, and NPL coverage rebuilt to 1.65x—well above both history and sector averages. The improvement reflects disciplined credit management and a lower pace of new problem loans, reducing risk to future earnings.
+**Investment Implications:**  
+SOCB’s 4Q24 results mark a clear turnaround, with strong growth, margin stabilization, and improving asset quality. The positive surprise on profit and risk metrics supports a constructive outlook, though sustainability will hinge on maintaining credit discipline as loan growth remains elevated.</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:26:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>SOCB</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>1Q25</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. SOCB’s 1Q25 results show a sharp reversal in profitability, with both TOI and net profit dropping sequentially after a strong 4Q24, as margins compressed and risk costs rebounded.
+2. Loan growth momentum slowed markedly QoQ, while NIM and loan yields continued to decline, signaling persistent pressure on core income.
+3. Asset quality weakened, with NPL and group 2 ratios rising and coverage ratios falling, highlighting rising credit risk and a negative surprise versus recent improvements.
+---
+**Profitability:**  
+SOCB’s profitability took a clear step back in 1Q25. Total operating income (TOI) fell 14.9% QoQ, reversing the 16.8% surge in 4Q24, and YoY growth slowed to just 3.9%. Net profit (PBT) dropped 23.7% QoQ, erasing much of the prior quarter’s gain, as provision expenses jumped 43.9% QoQ. ROA slid to 1.1% from 1.5% in 4Q24 (and 1.3% in 1Q24), while ROE dropped sharply to 15.9% from 21.8%—both now below sector averages. The main driver was a combination of weaker core income and a normalization in risk costs, after a benign 4Q24. The magnitude of the profit decline is a negative surprise, especially given the sector’s relative stability.
+**Loan Growth &amp; NIM:**  
+Loan growth slowed to 2.8% QoQ in 1Q25, down from 5.6% in 4Q24 and trailing the sector’s 3.8%. This marks a clear loss of momentum after a strong end to 2024. Net interest margin (NIM) compressed further to 2.4% (from 2.7% in 4Q24), the lowest in over a year, as loan yields slipped to 5.9%. The persistent margin squeeze reflects both lower asset yields and limited repricing power, weighing directly on topline growth.
+**Asset Quality:**  
+Asset quality trends deteriorated in 1Q25. The NPL ratio rose to 1.54% (from 1.22% in 4Q24), and group 2 loans also ticked up. New NPL formation spiked to 0.57%, reversing the prior quarter’s improvement. NPL coverage fell to 1.32x, its lowest since 2023, leaving SOCB less cushioned against further credit losses. The uptick in both NPL and group 2 formation signals rising underlying stress, a negative surprise after recent progress.
+**Investment Implications:**  
+SOCB’s 1Q25 marks a clear setback, with weaker profitability, slowing loan growth, and rising asset quality risks. The negative surprise on margins and credit costs suggests earnings pressure may persist, warranting caution for investors.</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:26:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>SOCB</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. SOCB delivered a strong rebound in 2Q25, with both topline and profit growth accelerating sharply QoQ and YoY, driven by robust loan expansion and normalized provision expenses.
+2. Loan growth momentum surged, but NIM remained under pressure, reflecting continued yield compression despite volume gains.
+3. Asset quality metrics improved sequentially, with NPL and group 2 ratios declining and new formation nearly flat, though coverage ratios slipped further.
+----------------------------------
+Profitability:  
+SOCB’s profitability regained traction in 2Q25. Total operating income (TOI) jumped 9.5% QoQ and 7.5% YoY, reversing the prior quarter’s contraction. Pre-tax profit (PBT) surged 26.5% QoQ and 26.9% YoY, as provision expenses dropped 26.5% QoQ. The profit recovery was underpinned by stronger revenue and a normalization of risk costs after a spike in 1Q25. ROA improved to 1.34% from 1.10% in 1Q25, while ROE climbed to 19.2% from 15.9%, both rebounding from recent lows but still trailing sector averages. The sequential profit beat is a positive surprise, signaling improved earnings quality after a volatile start to the year.
+Loan Growth &amp; NIM:  
+Loan growth accelerated to 5.0% QoQ in 2Q25, up from 2.8% in 1Q25, and outpacing the sector’s 3.8%. This marks SOCB’s fastest quarterly expansion in over a year, reflecting renewed business demand and effective loan origination. However, NIM remained flat at 2.39% (vs. 2.38% in 1Q25), well below the sector’s 3.15%. Loan yields edged up slightly but are still at multi-year lows, highlighting ongoing margin pressure from competitive lending and asset repricing. The topline recovery is thus volume-driven, not margin-led.
+Asset Quality:  
+Asset quality trends improved in 2Q25. The NPL ratio declined to 1.48% from 1.54% in 1Q25, while group 2 loans fell to 0.99%. New NPL and group 2 formation nearly halted, signaling stabilization after prior slippage. However, the NPL coverage ratio dropped further to 1.26x, now at a multi-year low and well above sector averages, but the declining trend warrants attention. The improvement in headline asset quality is encouraging, though lower coverage could limit future loss absorption.
+Investment Implications:  
+SOCB’s 2Q25 results mark a clear turnaround in profit and loan growth, but margin and coverage headwinds persist. The positive surprise on earnings and asset quality stabilization supports a more constructive near-term outlook, though investors should monitor for sustained margin compression and coverage erosion.</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Private_1</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>1Q24</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Private_1 delivered a strong 1Q24, with TOI and profit growth accelerating both QoQ and YoY, outpacing sector trends and reversing last year’s margin pressure.
+2. Loan growth momentum moderated after a robust 4Q23, but remains well ahead of the sector on an annual basis; NIM held steady despite falling loan yields.
+3. Asset quality showed some renewed stress, with NPL and group 2 ratios rising and coverage slipping, signaling that credit risk remains a watchpoint.
+---
+Profitability:  
+Private_1’s profitability rebounded in 1Q24, with TOI up 3.0% QoQ and surging 9.2% YoY—well above the sector’s 7.8% YoY pace. Net profit (PBT) jumped 12.2% QoQ and 13.9% YoY, a clear positive surprise after a flat 4Q23. ROA improved to 2.0% from 1.9% in 4Q23 and 2.1% in 1Q23, while ROE climbed to 16.4% from 15.3% in the prior quarter. The key driver was topline growth, as provision expenses normalized after a spike in late 2023. This marks a return to Private_1’s historical earnings trajectory, with margin resilience and cost control supporting the bottom line.
+Loan Growth &amp; NIM:  
+Loan growth cooled to 3.6% QoQ in 1Q24, down from 8.7% in 4Q23, but still outpacing the sector’s 2.0% sequentially and 20.7% YoY. NIM was broadly stable at 4.36%, holding its ground despite a further drop in loan yields to 9.38%. The margin stability reflects disciplined funding cost management and a shift toward higher-yielding segments earlier in 2023, offsetting the sector-wide yield compression.
+Asset Quality:  
+Asset quality trends turned less favorable in 1Q24. NPL ratio rose to 2.48% (from 2.29% in 4Q23), and group 2 loans also ticked up. New NPL formation doubled QoQ to 0.59%, while NPL coverage slipped to 70.1%, now below both history and sector averages. Group 2 formation also spiked, suggesting latent stress. The data points to a need for vigilance, as rapid loan expansion is now translating into higher credit costs.
+Investment Implications:  
+Private_1 is regaining earnings momentum and defending margins, but asset quality slippage is a growing risk. The positive profit surprise is encouraging, yet investors should watch for further credit deterioration as the loan book matures.</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:26:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Private_1</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2Q24</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Private_1 delivered a standout 2Q24, with TOI and PBT growth sharply accelerating both QoQ and YoY, outpacing sector averages and signaling a strong earnings surprise.
+2. Loan growth momentum surged, with NIM rebounding despite continued pressure on loan yields—highlighting effective balance sheet management.
+3. Asset quality metrics improved sequentially, with lower NPL and G2 ratios and stable formation, but coverage ratios remain below sector norms and warrant monitoring.
+----------------------------------
+Profitability:
+Private_1 posted its strongest topline in over a year, with TOI jumping 12.8% QoQ and 22.8% YoY in 2Q24—well ahead of the sector’s 7.8% QoQ and 15.7% YoY. Net profit (PBT) rose 11.5% QoQ and 30.2% YoY, extending the bank’s earnings momentum after a solid 1Q24. ROA climbed to 2.2% in 2Q24 from 2.0% in 1Q24 and 1.9% a year ago, while ROE improved to 17.8%, up from 16.4% in 1Q24 and 15.3% in 2Q23. The key driver was robust revenue growth, which more than offset a 19.7% QoQ rise in provision expenses. The result marks a positive surprise and signals Private_1’s ability to convert topline gains into bottom-line strength.
+Loan Growth &amp; NIM:
+Loan growth accelerated to 7.1% QoQ in 2Q24, more than double the sector’s 5.9%, and lifted YTD expansion to 10.9%. NIM rebounded to 4.6% from 4.4% in 1Q24, bucking the sector’s flat trend. This margin recovery came despite loan yields slipping further to 9.0%, reflecting disciplined funding cost management and a shift toward higher-margin lending. The data points to a well-executed growth strategy, with Private_1 capturing market share and protecting spreads.
+Asset Quality:
+Asset quality improved sequentially. The NPL ratio edged down to 2.4% from 2.5% in 1Q24, while group 2 loans also fell to 2.5%. NPL and G2 formation rates moderated, signaling contained new slippage. However, NPL coverage dipped to 69.2%, trailing the sector’s 80.9% and leaving some room for improvement. The overall risk profile is stable, but coverage levels remain a watchpoint.
+Investment Implications:
+Private_1’s 2Q24 results reinforce its position as a growth leader with resilient profitability and improving asset quality. The strong earnings beat and margin recovery are key positives, though investors should monitor coverage ratios as loan growth accelerates.</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:27:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Private_1</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>3Q24</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Private_1’s 3Q24 results show a clear slowdown in topline and profit momentum after a strong 2Q24, with both TOI and PBT declining sequentially but still posting robust double-digit YoY growth.
+2. Loan growth moderated sharply QoQ, while NIM compressed as loan yields continued to slide, signaling margin pressure ahead.
+3. Asset quality remains stable with modest NPL and G2 ratios, but coverage continues to erode, leaving the bank less cushioned against future credit risks.
+----------------------------------
+Profitability:
+After a standout 2Q24, Private_1’s profitability cooled in 3Q24. Total operating income (TOI) fell 7.7% QoQ, reversing the 12.8% surge in the prior quarter, though still up 14.1% YoY. Net profit (PBT) dipped 3.3% QoQ, a mild pullback after two quarters of double-digit sequential growth, but remains up 16.9% YoY. ROA slipped to 2.05% from 2.19% in 2Q24, and ROE eased to 16.8% from 17.8%. The sequential drop was driven by weaker core income and a normalization in provision expenses, which fell nearly 20% QoQ after a spike last quarter. While the YoY trajectory remains positive, the latest figures mark a negative surprise versus the bank’s recent run-rate.
+Loan Growth &amp; NIM:
+Loan growth slowed to 2.9% QoQ in 3Q24, down sharply from 7.1% in 2Q24 and now only slightly below the sector’s 3.2%. On a YoY basis, loan growth remains strong at 14.2%. However, NIM compressed to 4.34% from 4.61% last quarter, as loan yields continued to decline (8.71% vs 9.04% in 2Q24). The margin squeeze reflects ongoing competitive pressure and a shift toward lower-yielding assets, which could weigh on future revenue growth.
+Asset Quality:
+Asset quality held steady in 3Q24. The NPL ratio was broadly flat at 2.48%, while group 2 loans edged down to 2.32%. Both NPL and G2 formation rates moderated, signaling no immediate deterioration. However, the NPL coverage ratio slipped further to 67.5% (from 69.2%), extending a multi-quarter decline and now well below sector averages. This thinning buffer is a key watchpoint if credit costs rise.
+Investment Implications:
+Private_1’s growth engine is losing steam, with margin compression and weaker topline momentum emerging as headwinds. While asset quality is stable for now, declining coverage ratios leave the bank more exposed to future shocks. Investors should monitor for further margin pressure and signs of credit cost normalization.</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:27:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Private_1</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>4Q24</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Private_1 delivered a strong finish to 2024, with a sharp rebound in topline and profit growth in 4Q24, outpacing sector averages on both a sequential and annual basis.
+2. Loan growth momentum accelerated, but NIM compressed further as loan yields stabilized at lower levels, signaling ongoing margin pressure.
+3. Asset quality improved across all key metrics, with NPL and group 2 ratios declining and coverage rebuilding, marking a positive surprise versus recent trends.
+----------------------------------
+Profitability:
+Private_1’s profitability regained momentum in 4Q24. Total operating income (TOI) jumped 8.8% QoQ and 16.7% YoY, reversing the prior quarter’s dip and outpacing the sector’s 16.3% YoY growth. Net profit before tax (PBT) rose 7.1% QoQ and 29.6% YoY, a clear acceleration after a soft 3Q24. ROA held steady at 2.1% in 4Q24, flat QoQ but well above the sector’s 1.5%. ROE was stable at 16.6%, slightly below the sector’s 17.2% but up from 15.3% a year ago. The key driver was robust revenue growth, with provision expenses contained (+3.8% QoQ, -2.5% YoY), supporting earnings resilience.
+Loan Growth &amp; NIM:
+Loan growth accelerated to 5.9% QoQ in 4Q24, above the sector’s 6.0% and marking the bank’s fastest pace in 2024. Full-year loan growth reached 20.9%, well ahead of the sector’s 18.2%. However, NIM slipped further to 4.2% in 4Q24 from 4.3% in 3Q24, as loan yields stabilized at 8.7% after a prolonged decline. The margin compression reflects a shift to lower-yielding assets and competitive pricing, partially offset by scale-driven revenue gains.
+Asset Quality:
+Asset quality posted a broad-based improvement. NPL ratio dropped to 2.2% in 4Q24 from 2.5% in 3Q24, while group 2 loans fell to 2.1%. New NPL and group 2 formation both declined sharply, with NPL formation at just 0.19%—the lowest in six quarters. NPL coverage rebuilt to 73.4%, reversing the prior downtrend, though still below sector norms. The improvement signals effective risk management and a positive surprise versus earlier slippage.
+Investment Implications:
+Private_1 ended 2024 with renewed growth and improving credit quality, though margin pressure remains a watchpoint. The strong topline and asset quality surprise support a constructive outlook, but investors should monitor for further NIM compression as competition intensifies.</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:27:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Private_1</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>1Q25</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Private_1 delivered double-digit YoY growth in both TOI and PBT in 1Q25, but sequential momentum softened as topline and profit edged down from 4Q24 highs.
+2. Loan growth remained robust, outpacing the sector QoQ, but NIM continued to compress on weaker loan yields.
+3. Asset quality showed mixed signals: NPLs and new formation rates rose, while group 2 loans improved, but coverage ratios slipped to multi-year lows.
+----------------------------------
+Profitability:
+Private_1’s profitability cycle moderated in 1Q25 after a strong 4Q24. Total operating income dipped 2.5% QoQ but still posted a solid 10.4% YoY gain, reflecting sustained business expansion. Net profit (PBT) was nearly flat sequentially (-1.1% QoQ), but up 14.1% YoY, as provision expenses rose 6.9% QoQ. ROA softened to 2.0% from 2.1% in 4Q24, and ROE edged down to 16.4% from 16.6%, both still above sector averages but trending lower from mid-2024 peaks. The profit moderation was mainly driven by higher risk costs and a pullback in topline growth after a strong year-end.
+Loan Growth &amp; NIM:
+Loan growth remained a bright spot, up 4.2% QoQ (vs sector’s 3.8%) and 21% YoY, sustaining Private_1’s above-sector expansion. However, NIM compressed further to 4.1% from 4.2% in 4Q24, continuing a steady downtrend. The main drag was loan yield, which slipped to 8.6% from 8.7% QoQ and is now well below early-2024 levels. This signals ongoing margin pressure as competition and asset mix shift toward lower-yielding segments.
+Asset Quality:
+Asset quality trends were mixed. The NPL ratio rose to 2.4% (from 2.2% in 4Q24), with new NPL formation jumping to 0.66%—the highest in over a year and above sector levels. Group 2 loans improved to 1.8%, down from 2.1%, but group 2 formation also picked up. Critically, NPL coverage fell sharply to 66.3%, a multi-year low and well below the sector, leaving the bank more exposed to future credit losses.
+Investment Implications:
+Private_1’s growth engine remains strong, but the latest quarter signals rising risk costs and margin compression. The uptick in NPL formation and weaker coverage are negative surprises, suggesting investors should watch for further asset quality slippage even as topline growth holds up.</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:27:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Private_1</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Private_1 delivered a standout 2Q25, with both profit and loan growth sharply accelerating QoQ and well ahead of sector momentum.
+2. Margins continued to compress, but topline growth and improved asset quality offset the drag, driving a positive earnings surprise.
+3. Asset quality metrics improved across the board, with NPL and group 2 ratios falling and coverage ratios rebuilding, signaling effective risk management.
+----------------------------------
+Profitability:
+Private_1’s profitability rebounded in 2Q25, with PBT up 8.5% QoQ and 11.1% YoY—outpacing the sector’s 8.1% QoQ. TOI jumped 9.2% QoQ, reversing last quarter’s dip and marking a 6.9% YoY rise. This topline strength filtered through despite provision expenses rising 13.1% QoQ, as revenue growth outstripped risk costs. ROA edged up to 2.0% from 2.0% in 1Q25, while ROE climbed to 17.0% from 16.4%. Both ratios remain comfortably above sector averages, reflecting Private_1’s superior earnings power. The quarter marks a positive surprise, with profit momentum reaccelerating after a muted 1Q25.
+Loan Growth &amp; NIM:
+Loan growth surged 8.6% QoQ in 2Q25, more than doubling the sector’s 5.7% pace and marking Private_1’s strongest sequential expansion in over a year. YTD loan growth reached 13.1%, again well ahead of peers. However, NIM slipped further to 4.0% from 4.1% last quarter, as loan yields continued to drift down (8.4% vs. 8.6% in 1Q25). The margin squeeze reflects ongoing competitive pressure and asset repricing, but robust loan volumes and topline growth more than compensated.
+Asset Quality:
+Asset quality improved notably. The NPL ratio dropped to 2.2% (from 2.4% in 1Q25), and group 2 loans fell to 1.3% (from 1.8%). Both NPL and group 2 formation rates declined sharply, signaling lower new problem loans. NPL coverage rebuilt to 71.7% from 66.3%, reversing last quarter’s dip. These trends point to effective credit risk management and a cleaner loan book, reducing downside risk to future earnings.
+Investment Implications:
+Private_1 is delivering sector-beating growth and a clear improvement in asset quality, even as margins compress. The strong profit and loan momentum, coupled with cleaner credit metrics, should support a constructive outlook and investor confidence.</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:27:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Private_2</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>1Q24</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Private_2 delivered a strong rebound in profitability in 1Q24, with net profit and returns surging on sharply lower provisions, despite a sequential dip in core income.
+2. Loan growth remained robust, outpacing the sector both QoQ and YoY, while NIM softened as loan yields compressed further.
+3. Asset quality showed mild deterioration, with NPL and group 2 ratios edging up and coverage ratios slipping, though formation trends remain manageable.
+----------------------------------
+Profitability:
+Private_2’s 1Q24 results mark a sharp turnaround in earnings. Pre-tax profit jumped 29.6% QoQ and 18.4% YoY, driven almost entirely by a 52.5% drop in provision expense from 4Q23. This provision normalization offset an 8.6% sequential decline in total operating income (TOI), which had spiked in the previous quarter. Despite the TOI pullback, ROA rebounded to 1.9% (from 1.5% in 4Q23 and 1.9% in 1Q23), while ROE climbed to 20.3%, regaining its historical highs and outpacing the sector. The profit beat is a positive surprise, but the underlying driver is lower risk costs rather than stronger revenue momentum.
+Loan Growth &amp; NIM:
+Loan growth momentum stayed strong at 3.5% QoQ in 1Q24, well above the sector’s 2.0% and building on a robust 8.5% surge in 4Q23. YoY, loans expanded 17.4%, again outpacing the sector. However, NIM compressed to 4.0% from 4.3% in 4Q23, reflecting a continued decline in loan yields (down to 10.1%). The margin squeeze signals persistent pressure on asset yields, even as balance sheet expansion remains a key growth lever.
+Asset Quality:
+Asset quality trends softened in 1Q24. The NPL ratio rose to 2.6% (from 2.4% in 4Q23), and group 2 loans held steady at 2.7%. Both NPL and group 2 formation ticked up but remain within historical ranges. NPL coverage slipped to 59.5%, below both the prior quarter and sector average, leaving the bank more exposed to future credit losses.
+Investment Implications:
+Private_2’s earnings surprise is provision-driven, masking underlying revenue and margin headwinds. Strong loan growth is a clear positive, but asset quality slippage and weaker coverage ratios warrant close monitoring. Investors should watch for sustainability in core income and any further credit cost normalization.</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:27:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Private_2</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>2Q24</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Private_2 delivered robust loan growth in 2Q24, outpacing the sector, but topline and profit momentum stalled as margin compression and softer core income weighed.
+2. Asset quality held steady, with NPL and group 2 ratios flat QoQ and formation easing, but coverage remains below sector averages.
+3. The latest results show strong balance sheet expansion, but profitability is under pressure from falling yields and persistent margin headwinds.
+---
+**Profitability:**  
+Private_2’s profitability moderated in 2Q24. Total operating income (TOI) was essentially flat sequentially, dipping 0.3% QoQ after an 8.6% drop in 1Q24, despite a solid 12.6% YoY gain. Net profit (PBT) slipped 4.1% QoQ, reversing the prior quarter’s rebound, as margin pressure and subdued income offset stable provision expenses. ROA softened to 1.8% from 1.9% in 1Q24, while ROE fell to 18.7% from 20.3%. Both ratios remain above sector levels but are trending down from recent highs, reflecting the drag from lower asset yields and margin compression. The lack of sequential profit growth is a mild negative surprise given the bank’s strong loan expansion.
+**Loan Growth &amp; NIM:**  
+Loan growth accelerated to 4.7% QoQ in 2Q24 (vs. 3.5% in 1Q24), outpacing the sector’s 5.9% and lifting YTD growth to 8.4%. This signals strong business momentum and market share gains. However, NIM continued to compress, falling to 3.9% from 4.0% in 1Q24, as loan yields dropped further to 9.4%. The persistent decline in yields—now down 0.7ppt QoQ—reflects competitive lending and asset repricing, which are eroding margin gains from volume growth.
+**Asset Quality:**  
+Asset quality was stable in 2Q24. The NPL ratio held at 2.6%, and group 2 loans edged down slightly. Both NPL and group 2 formation rates eased QoQ, suggesting credit slippage is contained for now. However, NPL coverage dipped to 58.6%, well below the sector’s 80.9%, leaving the bank less cushioned against future stress. The steady asset quality is a positive, but low coverage is a key watchpoint.
+**Investment Implications:**  
+Private_2 is delivering strong loan growth but faces mounting pressure on profitability as margins and yields compress. Asset quality is holding, but weak coverage could amplify future risks. Investors should monitor for further margin erosion and coverage rebuilding.</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:28:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Private_2</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>3Q24</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Private_2’s 3Q24 saw robust loan growth momentum, but profitability softened as topline and margins came under pressure.
+2. NIM compressed further, reflecting persistent yield erosion, while asset quality indicators improved modestly with stable coverage.
+3. The quarter marks a shift: growth is strong, but earnings and margin trends are now a clear watchpoint for investors.
+---
+**Profitability:**  
+Private_2’s profitability lost steam in 3Q24. Total operating income (TOI) fell 3.9% QoQ and 8.7% YoY, extending a sequential decline that began in 2Q24. Net profit before tax (PBT) dropped 11.5% QoQ, a sharper contraction than the sector’s 7.4% decline, as provision expenses jumped 10.8% QoQ. ROA slipped to 1.5% from 1.8% in 2Q24 and 1.9% in 1Q24, now only in line with the sector. ROE also retreated to 16.0%, down from 18.7% in 2Q24 and well below the 20.3% peak in 1Q24. The main drag was weaker core income and rising risk costs, signaling that the bank’s earnings cycle is now under pressure after a strong start to the year.
+**Loan Growth &amp; NIM:**  
+Loan growth remained a bright spot, up 4.3% QoQ and 13.0% YTD—outpacing the sector’s 3.2% QoQ and 11.5% YTD. This reflects continued business expansion and strong credit demand. However, NIM compressed to 3.5% from 3.9% in 2Q24, marking a third straight quarterly drop. Loan yields slipped further to 9.1%, down from 9.4% in 2Q24 and 10.1% in 1Q24, as competitive pressures and asset mix shifts weighed on pricing. The margin squeeze is now the key headwind for revenue growth.
+**Asset Quality:**  
+Asset quality trends were stable to slightly positive. NPL ratio edged down to 2.6% from 2.6% in 2Q24, and group 2 loans improved to 2.3% from 2.7%. NPL and group 2 formation rates both moderated, while NPL coverage held steady at 58.8%. While coverage remains below sector averages, the improvement in early warning indicators is a positive surprise, suggesting credit risk is contained for now.
+**Investment Implications:**  
+Private_2 is delivering strong loan growth but faces mounting pressure on margins and earnings. The quarter signals a transition: asset quality is holding, but profitability is now the key risk to monitor. Investors should watch for further margin compression and any signs of renewed credit cost escalation.</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:28:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Private_2</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>4Q24</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Private_2 delivered a standout 4Q24, with a sharp rebound in topline and profit growth, outpacing both its own recent history and sector trends.
+2. Loan growth momentum surged QoQ, while NIM staged a strong recovery on improved loan yields—signaling renewed pricing power.
+3. Asset quality metrics improved further, with NPL and G2 ratios declining and coverage ratios edging up, despite a spike in new formation.
+---
+**Profitability:**  
+Private_2 posted a strong finish to 2024, with TOI jumping 35.2% QoQ and 18.5% YoY—its fastest topline expansion in over a year and well ahead of the sector’s 16.3% YoY pace. Net profit (PBT) surged 24.6% QoQ and 37.1% YoY, reversing the prior quarter’s dip and marking a clear positive surprise. ROA climbed to 1.8% in 4Q24 from 1.5% in 3Q24, while ROE improved to 19.4% from 16.0%—both comfortably above sector averages and Private_2’s own recent run-rate. The key driver was a sharp recovery in core income, more than offsetting a near-doubling of provision expenses QoQ, which signals robust underlying business momentum.
+**Loan Growth &amp; NIM:**  
+Loan growth accelerated to 7.4% QoQ in 4Q24 (vs. 4.3% in 3Q24), far outpacing the sector’s 6.0%. Full-year loan growth reached 21.4%, a clear sign of aggressive balance sheet expansion. NIM rebounded to 4.2% from 3.5% in 3Q24, reversing two quarters of compression. The main catalyst was a recovery in loan yields (up to 9.8% from 9.1%), reflecting improved asset pricing and possibly a shift toward higher-yield segments. This margin recovery underpinned the topline beat and signals renewed pricing discipline.
+**Asset Quality:**  
+Asset quality trends were constructive. The NPL ratio fell to 2.4% in 4Q24 (from 2.6% in 3Q24), and Group 2 loans edged down to 2.2%. However, new NPL and G2 formation both spiked QoQ, suggesting some latent risk beneath the surface. NPL coverage improved to 60.3%, up from 58.8%, though still well below sector norms. The improvement in headline ratios, despite higher formation, points to effective resolution and write-offs, but the underlying risk cycle warrants monitoring.
+**Investment Implications:**  
+Private_2’s 4Q24 results mark a clear positive inflection, with strong growth, margin recovery, and improving asset quality. The topline and profit beat, alongside robust loan expansion, support a constructive outlook—though rising formation rates mean credit vigilance remains key.</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:28:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Private_2</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>1Q25</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Private_2 delivered a solid profit beat in 1Q25, with PBT up 5.2% QoQ and 11.4% YoY, driven by sharply lower provision expenses despite a pullback in core income.
+2. Loan growth momentum stayed strong at 5.5% QoQ, well ahead of the sector, but NIM compressed sharply on weaker loan yields.
+3. Asset quality trends turned negative: NPL and group 2 ratios both rose, new formation spiked, and coverage ratios fell to multi-year lows—flagging rising credit risk.
+---
+**Profitability:**  
+Private_2’s 1Q25 profitability surprised to the upside, with PBT rising 5.2% QoQ and 11.4% YoY, despite a 19.9% sequential drop in total operating income (TOI). The profit beat was almost entirely provision-driven, as credit costs fell 63.1% QoQ after a spike in 4Q24. ROA held steady at 1.8%, matching the prior quarter and above the sector’s 1.5%. ROE was stable at 19.5%, also outpacing sector averages. The underlying story is one of volatile earnings, with profits now reliant on provision swings rather than core revenue growth—a mixed signal for earnings durability.
+**Loan Growth &amp; NIM:**  
+Loan growth remained a bright spot, accelerating to 5.5% QoQ in 1Q25 (vs. 4Q24), far outpacing the sector’s 3.8%. This marks a strong continuation of Private_2’s expansion strategy. However, NIM compressed sharply to 3.3% from 4.2% in 4Q24, as loan yields dropped to 8.9%. The margin squeeze reflects both competitive lending and a shift toward lower-yield assets, offsetting the benefit of loan book expansion. Sustained NIM pressure could weigh on future topline growth if not addressed.
+**Asset Quality:**  
+Asset quality deteriorated in 1Q25. The NPL ratio rose to 2.7% (from 2.4% in 4Q24), while group 2 loans also ticked up. New NPL formation jumped to 0.58%, its highest in over a year, and group 2 formation spiked to 0.79%. Critically, NPL coverage fell to 51.8%, a multi-year low and well below sector norms. This signals rising credit risk and leaves Private_2 more exposed to further slippage.
+**Investment Implications:**  
+Private_2’s profit resilience is masking underlying pressure on margins and asset quality. The strong loan growth is a positive, but the sharp drop in coverage and rising formation rates are a clear warning sign. Investors should watch for further credit deterioration and margin headwinds, as the current profit trajectory may not be sustainable without a turnaround in core income and risk metrics.</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:28:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Private_2</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Private_2 delivered a strong rebound in topline growth and loan expansion in 2Q25, but profitability softened as provision expenses surged.
+2. Loan growth sharply outpaced the sector, while NIM bounced back on improved loan yields.
+3. Asset quality trends stabilized, with NPL and group 2 ratios improving sequentially and new formation dropping, though coverage remains below sector norms.
+---
+**Profitability:**  
+Private_2’s total operating income (TOI) jumped 23.0% QoQ in 2Q25, reversing the prior quarter’s contraction and outpacing the sector’s 10.5% rise. This topline surge was driven by both robust loan growth and a recovery in margins. However, profit before tax (PBT) slipped 3.4% QoQ as provision expenses nearly tripled from 1Q25, erasing much of the topline gain. On a YoY basis, PBT rose 12.1%, but the sequential dip marks a negative surprise versus the strong start to the year. ROA edged down to 1.6% from 1.8% in 1Q25, while ROE softened to 18.1% from 19.5%, both still above sector averages but off recent highs. The main drag was the spike in credit costs, signaling a more cautious stance on risk.
+**Loan Growth &amp; NIM:**  
+Loan growth accelerated to 6.9% QoQ in 2Q25, well ahead of the sector’s 5.7% and marking the fastest pace for Private_2 in over a year. Year-to-date, loans are up 12.8%, underscoring strong business momentum. Net interest margin (NIM) rebounded to 3.9% from 3.3% in 1Q25, driven by a recovery in loan yields (up to 9.3% from 8.9%) and likely improved asset mix. This margin recovery stands out against the sector’s more modest improvement and signals effective repricing and lending discipline.
+**Asset Quality:**  
+Asset quality metrics improved sequentially. The NPL ratio dipped to 2.6% from 2.7% in 1Q25, while group 2 loans fell to 1.8% from 2.3%. New NPL and group 2 formation both dropped sharply, suggesting stabilization after earlier slippage. However, NPL coverage edged up only slightly to 52.8%—still well below the sector’s 80.6%. The data points to a more stable credit environment, but the low coverage ratio remains a vulnerability if asset quality pressures re-emerge.
+**Investment Implications:**  
+Private_2 is delivering sector-leading growth and margin recovery, but the spike in provisions and still-weak coverage highlight ongoing risk management challenges. The topline rebound is a positive, but investors should watch for further volatility in credit costs and coverage.</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:28:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Private_3</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>1Q24</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Key Takeaways:
+1. Private_3’s 1Q24 profitability held up, with PBT up 6.1% QoQ and 1.9% YoY, but topline momentum reversed after a strong 4Q23.
+2. Loan growth stalled, with a rare sequential contraction, while NIM compressed—signaling pressure on core banking spreads.
+3. Asset quality weakened further: NPL and G2 ratios rose, and coverage slipped to a new low, raising concerns about credit risk management.
+---
+**Profitability:**  
+Private_3’s profit before tax rose 6.1% QoQ in 1Q24, marking a modest gain after the sharp rebound in 4Q23. Year-on-year, PBT growth slowed to just 1.9%. The main driver was a steep drop in provision expenses (down 59.4% QoQ), which offset a 16.5% QoQ decline in total operating income (TOI). This topline reversal follows an outsized 53.2% jump in 4Q23, highlighting volatility in core revenue streams. ROA edged up to 0.87% in 1Q24 (from 0.81% in 4Q23), and ROE improved to 10.8%, but both remain well below sector averages. The profit beat is provision-driven, not a sign of underlying business strength.
+**Loan Growth &amp; NIM:**  
+Loan growth momentum broke down in 1Q24, with the book shrinking 0.6% QoQ—an abrupt reversal from the 8.3% surge in 4Q23 and well below the sector’s 2.0% sequential gain. This signals a pause in business expansion and possible risk aversion. NIM compressed to 2.44% from 2.78% in the prior quarter, reflecting weaker loan yields (down sharply to 9.7%). The margin squeeze points to competitive pressure and a less favorable asset mix.
+**Asset Quality:**  
+Asset quality deteriorated further. The NPL ratio climbed to 4.28% (up from 3.84% in 4Q23), with NPL formation still elevated at 0.42%. Group 2 loans remain high at 1.80%, and coverage fell to 31.6%—the lowest in the bank’s recent history and far below sector norms. This leaves Private_3 exposed to future credit losses, with risk costs likely to rise if slippage continues.
+**Investment Implications:**  
+The quarter’s profit resilience masks underlying weakness: core income is falling, loan growth has stalled, and asset quality is under pressure. The negative surprise on asset quality and margins should weigh on sentiment, with investors needing to watch for further credit deterioration.</t>
+        </is>
+      </c>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr">
         <is>
-          <t>2025-08-08 10:56:04</t>
+          <t>2025-08-08 11:29:07</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
+          <t>Private_3</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
           <t>Sector</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>2Q25</t>
+          <t>2Q24</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>**Sector Analysis for 2Q25**
-1. **Overall Sector Performance Metrics and Trends**: In 2Q25, the sector's balance sheet (BS.12) reached approximately $12.83 trillion, reflecting a significant increase from previous quarters. However, year-over-year (yoy) comparisons are not available due to data limitations. The income statement (IS.14) indicates revenue of about $183.25 billion, suggesting a recovery trend in operational performance.
-2. **Asset Quality**: Asset quality remains a concern, with non-performing assets (IS.17) showing a substantial negative figure of approximately $37.32 billion. This indicates ongoing challenges in asset management and credit risk, necessitating close monitoring.
-3. **Sector Profitability Analysis**: Profitability metrics reveal a mixed picture. The sector's net income (IS.18) stands at approximately $89.61 billion, indicating positive earnings. However, profitability ratios are not available for detailed analysis, suggesting a need for improved operational efficiency.
-4. **Key Sector Strengths and Challenges**: Strengths include a robust revenue base and improving balance sheet metrics. Challenges encompass deteriorating asset quality and potential economic headwinds affecting credit performance.
-5. **Sector Outlook and Implications**: The outlook for the sector appears cautiously optimistic, driven by revenue growth and balance sheet expansion. However, the persistent asset quality issues could hinder sustainable profitability. Stakeholders should focus on enhancing risk management practices and operational efficiencies to navigate potential</t>
+          <t>Key Takeaways:
+1. Private_3 delivered a sharp rebound in profitability in 2Q24, with both TOI and net profit surging QoQ and YoY, outpacing sector growth.
+2. Loan growth momentum returned strongly after a flat 1Q24, but margin gains were driven by NIM expansion rather than loan yields.
+3. Asset quality pressures intensified, with NPL and G2 formation spiking and coverage ratios falling further below sector norms.
+----------------------------------
+Profitability:  
+Private_3 posted a standout quarter in 2Q24, with TOI up 24.0% QoQ and 37.5% YoY—well ahead of sector averages. Net profit (PBT) jumped 26.9% QoQ and more than doubled YoY (+71.1%), reversing the muted growth seen in 1Q24. ROA climbed to 1.1% from 0.9% in the prior quarter and 0.7% a year ago, while ROE reached 13.3%, up from 10.8% in 1Q24 and 8.5% in 2Q23. The key driver was a surge in core income, which more than offset a doubling in provision expenses. This marks a positive surprise versus recent quarters, signaling improved operating leverage and cost discipline.
+Loan Growth &amp; NIM:  
+Loan growth rebounded to 5.9% QoQ in 2Q24 after a slight contraction in 1Q24, matching the sector’s pace and lifting YTD growth to 5.2%. NIM expanded sharply to 3.1% from 2.4% in 1Q24, bucking the sector’s more modest margin gains. However, this margin lift came despite a further dip in loan yields (down to 9.4%), suggesting improved funding costs or asset mix shifts rather than pricing power. The strong NIM recovery was the main engine behind the topline beat.
+Asset Quality:  
+Asset quality trends deteriorated in 2Q24. NPL ratio rose to 4.8% (from 4.3% in 1Q24), and NPL formation more than doubled QoQ to 0.8%. Group 2 loans edged down, but G2 formation also spiked. Critically, NPL coverage slid to 28.2%, now well below sector levels and the bank’s own history, leaving Private_3 more exposed to future credit losses. The rising risk costs and weak coverage are a clear red flag, tempering the otherwise strong earnings momentum.
+Investment Implications:  
+Private_3’s earnings surprise is underpinned by margin and income recovery, but asset quality slippage and thin coverage ratios are emerging risks. Investors should weigh the sustainability of profit growth against rising credit costs.</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="inlineStr">
         <is>
-          <t>2025-08-08 10:56:15</t>
+          <t>2025-08-08 11:29:19</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>SOCB</t>
+          <t>Private_3</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -13490,31 +13627,38 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2Q25</t>
+          <t>3Q24</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>**Sector Analysis for SOCB (2Q25)**
-1. **Overall Sector Performance Metrics and Trends**: In 2Q25, SOCB reported total assets of approximately $5.53 trillion, reflecting a steady increase from previous quarters. However, year-over-year comparisons are limited due to data constraints. The quarter-on-quarter growth in total assets suggests a resilient sector, albeit with some volatility.
-2. **Asset Quality Across the Sector**: The sector's asset quality remains a concern, with a notable increase in non-performing loans (NPLs) indicated by the negative performance in IS.17 (net interest income). The ratio of NPLs to total loans is a critical metric to monitor, particularly given the economic pressures.
-3. **Sector Profitability Analysis**: Profitability metrics show mixed results. While net interest income (IS.14) increased to $60.88 billion, the sector continues to face challenges with declining margins and rising operational costs. The profitability ratio (CA.7) remains relatively stable, indicating some resilience.
-4. **Key Sector Strengths and Challenges**: Strengths include a robust asset base and improved capital adequacy ratios. However, challenges such as rising NPLs, regulatory pressures, and economic uncertainty pose risks to sustained profitability.
-5. **Sector Outlook and Implications**: The outlook for SOCB remains cautiously optimistic, with potential for growth driven by digital transformation and improved risk management practices. However, vigilance is required regarding asset quality</t>
+          <t>Key Takeaways:
+1. Private_3’s 3Q24 saw a sharp pullback in profitability after a strong 2Q24, with both ROA and ROE retreating as topline momentum stalled and provisions remained elevated.
+2. Loan growth stayed robust, outpacing the sector on both QoQ and YoY, but NIM slipped from recent highs as loan yields softened.
+3. Asset quality improved sequentially, with NPL and Group 2 ratios both declining and negative new formation, but coverage remains thin versus sector norms.
+---
+**Profitability:**  
+After a standout 2Q24, Private_3’s profitability reversed course in 3Q24. Total operating income (TOI) fell 8.1% QoQ, giving up much of the prior quarter’s gain, though still up 45.8% YoY. Net profit (PBT) dropped 32.5% QoQ, as provision expenses stayed high and topline growth faltered. ROA slipped to 0.7% from 1.1% in 2Q24, and ROE fell to 8.6% from 13.3%. Both ratios are now back near 1Q24 levels and well below sector averages. The main driver was a weaker revenue base, with loan yields drifting lower and provision costs remaining sticky. The magnitude of the profit drop was a negative surprise, signaling that the prior quarter’s strength was not sustainable.
+**Loan Growth &amp; NIM:**  
+Loan growth remained a bright spot, up 4.3% QoQ and 9.8% YTD, outpacing the sector’s 3.2% QoQ and 11.5% YTD. This reflects continued business expansion and strong credit demand. However, NIM compressed to 2.8% from 3.1% in 2Q24, as loan yields slipped to 9.0% from 9.4%. The margin squeeze points to competitive pressure and a shift toward lower-yielding assets, partially offsetting the benefit of volume growth.
+**Asset Quality:**  
+Asset quality metrics improved in 3Q24. NPL ratio dropped to 4.4% from 4.8% in 2Q24, and Group 2 loans fell to 1.0% from 1.6%. Both NPL and G2 formation turned negative, indicating net recoveries or upgrades. NPL coverage rebuilt to 32.1% from 28.2%, but remains far below the sector’s 83.1%. While the sequential improvement is encouraging, thin coverage leaves Private_3 exposed to future credit shocks.
+**Investment Implications:**  
+Private_3’s growth engine is intact, but the sharp earnings reversal and thin provisioning highlight ongoing volatility. The latest results suggest investors should watch for further margin compression and ensure asset quality gains are durable, as coverage remains a key vulnerability.</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr">
         <is>
-          <t>2025-08-08 10:56:23</t>
+          <t>2025-08-08 11:29:33</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Private_1</t>
+          <t>Private_3</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -13524,31 +13668,38 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>2Q25</t>
+          <t>4Q24</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>**Sector Analysis of Private_1 for 2Q25**
-1. **Overall Sector Performance Metrics and Trends**: The sector shows a positive trajectory in total assets, reaching approximately $3.58 trillion in 2Q25, reflecting a steady growth trend. However, year-over-year comparisons are unavailable, indicating potential volatility or data gaps.
-2. **Asset Quality Across the Sector**: Asset quality appears mixed, with a notable increase in non-performing loans (IS.17) at -$13.09 billion, suggesting rising credit risk. The capital adequacy ratios (CA.16, CA.17) indicate stable capital buffers, though some metrics show slight declines.
-3. **Sector Profitability Analysis**: Profitability metrics (IS.14) indicate a revenue increase to $63.59 billion in 2Q25, suggesting improved operational efficiency. However, net income remains under pressure due to elevated provisions for credit losses.
-4. **Key Sector Strengths and Challenges**: Strengths include robust asset growth and improved revenue generation. Challenges stem from rising credit risk and potential economic headwinds affecting loan performance.
-5. **Sector Outlook and Implications**: The outlook remains cautiously optimistic, driven by asset growth and revenue improvements. However, the sector must address rising credit risks and maintain capital adequacy to navigate potential economic downturns. Continued focus on asset quality and operational efficiency will be crucial for sustainable growth.</t>
+          <t>Key Takeaways:
+1. Private_3’s 4Q24 results mark a sharp reversal, with net profit swinging negative despite continued loan growth and a resilient NPL ratio.
+2. Profitability collapsed as margins compressed and provision expenses climbed, while core income shrank for a second straight quarter.
+3. Asset quality metrics improved on the surface, but the underlying credit cycle remains volatile, with coverage ratios only now rebuilding.
+---
+**Profitability:**  
+Private_3’s profitability unraveled in 4Q24. Total operating income (TOI) fell 5.9% QoQ and 10.4% YoY, extending a sequential decline that began in 3Q24. Net profit swung to a loss, with PBT plunging to -0.2 trillion VND from 3.2 trillion in 3Q24—a negative surprise after a strong 2Q24. ROA dropped to -0.3% (from 0.7% in 3Q24), while ROE fell to -4.0% (from 8.6%), both well below sector averages and the bank’s own history. The main drivers: margin compression and a 6.9% QoQ rise in provision expenses, which erased earnings momentum. The abrupt profit reversal signals a challenging end to the year, with core revenue under pressure and risk costs rising.
+**Loan Growth &amp; NIM:**  
+Loan growth remained solid at 4.7% QoQ and 14.9% YTD, slightly trailing the sector’s 6.0% QoQ pace but still robust. However, NIM contracted sharply to 1.9% from 2.8% in 3Q24, as loan yields fell to 7.7% (down 130bps QoQ). This margin squeeze reflects both competitive lending and asset repricing headwinds, undermining topline growth. Despite healthy loan expansion, the bank’s ability to convert volume into earnings is weakening.
+**Asset Quality:**  
+Asset quality showed mixed signals. The NPL ratio improved to 3.5% (down 91bps QoQ), and group 2 loans edged up slightly. Both NPL and group 2 formation rates turned negative, indicating some recoveries or write-offs. Critically, NPL coverage rebounded to 39.6% (from 32.1%), but remains well below sector norms. While headline ratios improved, the volatility in formation and low coverage suggest underlying credit risks are not fully resolved.
+**Investment Implications:**  
+Private_3’s 4Q24 is a clear negative surprise: earnings power has deteriorated, and margin pressure is intensifying even as loan growth holds up. Asset quality optics are better, but coverage remains thin. Investors should watch for further margin compression and credit cost volatility, as the bank’s earnings cycle has turned sharply negative.</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr">
         <is>
-          <t>2025-08-08 10:56:30</t>
+          <t>2025-08-08 11:29:45</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Private_2</t>
+          <t>Private_3</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -13558,24 +13709,31 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>2Q25</t>
+          <t>1Q25</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>**Sector Analysis for Private_2 - 2Q25**
-1. **Overall Sector Performance Metrics and Trends**: The sector shows a gradual increase in total assets, reaching approximately $2.65 trillion in 2Q25, reflecting a steady growth trajectory. However, year-over-year comparisons are limited due to data gaps, indicating potential volatility in growth rates.
-2. **Asset Quality**: The sector's asset quality appears mixed, with a notable increase in non-performing loans (IS.17) reaching approximately -$11.73 billion in 2Q25, suggesting rising credit risk. The capital adequacy ratios (CA.16, CA.17) remain stable, indicating a reasonable buffer against potential losses.
-3. **Sector Profitability Analysis**: Profitability metrics indicate a decline in net income (IS.14) to approximately $44.73 billion, reflecting a challenging environment. The sector's return on assets and equity ratios are under pressure, primarily due to increased provisioning for loan losses.
-4. **Key Sector Strengths and Challenges**: Strengths include a robust asset base and diversified revenue streams. However, challenges persist, including rising credit defaults and pressure on net interest margins due to competitive lending rates and economic uncertainty.
-5. **Sector Outlook and Implications**: The outlook remains cautious. While growth in assets is positive, the increasing non-performing loans and profitability pressures could hinder future expansion. Strategic focus on risk management and operational efficiency will be crucial for navigating potential head</t>
+          <t>Key Takeaways:
+1. Private_3 delivered a sharp turnaround in 1Q25, with TOI and net profit rebounding strongly after a weak 4Q24, driving ROA and ROE to multi-year highs.
+2. Loan growth momentum remained solid both QoQ and YoY, while NIM recovered from its 4Q24 trough, reflecting improved asset yields.
+3. Asset quality strengthened further, with NPL and G2 ratios declining and coverage ratios reaching new highs, signaling effective risk management.
+----------------------------------
+Profitability:
+Private_3 posted a standout recovery in 1Q25, with TOI surging 42.5% QoQ and 52.9% YoY—its best topline growth in recent memory. This marks a decisive reversal from the 5.9% sequential decline in 4Q24, as core income rebounded and provision expenses fell 21.2% QoQ. Net profit (PBT) swung back to VND 7.74tn from a loss in 4Q24, up over 1,000% YoY. ROA jumped to 1.5% in 1Q25 from -0.3% in 4Q24 (and 0.9% in 1Q24), while ROE soared to 19.4% from -4.0% prior, both well above sector averages. The key driver was the normalization of core revenue and lower risk costs, delivering a positive surprise versus recent quarters.
+Loan Growth &amp; NIM:
+Loan growth remained robust at 4.2% QoQ and 20.5% YoY, outpacing the sector’s 3.8% sequential gain. This sustained momentum reflects strong demand and effective origination. NIM rebounded to 2.5% in 1Q25 from 1.9% in 4Q24, reversing a multi-quarter slide. The improvement was driven by a partial recovery in loan yields (up to 8.8% from 7.7%), suggesting better pricing discipline and a shift toward higher-yielding assets.
+Asset Quality:
+Asset quality metrics improved further. The NPL ratio declined to 3.1% in 1Q25 from 3.5% in 4Q24, while group 2 loans edged up slightly but remain well-contained. Both NPL and G2 formation rates stayed negative, indicating net recoveries and effective resolution. NPL coverage rose to 44.1%, its highest in six quarters, reflecting proactive provisioning. These trends point to a stabilizing credit environment and reduced downside risk.
+Investment Implications:
+Private_3’s 1Q25 results mark a clear inflection point, with earnings and asset quality both surprising positively. The strong rebound in profitability and margins, coupled with improving credit metrics, strengthens the investment case and signals renewed momentum for the rest of the year.</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="inlineStr">
         <is>
-          <t>2025-08-08 10:56:38</t>
+          <t>2025-08-08 11:29:59</t>
         </is>
       </c>
     </row>
@@ -13597,19 +13755,26 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>**Sector Analysis of Private_3 for 2Q25**
-1. **Overall Sector Performance Metrics and Trends**: The sector shows a mixed performance in 2Q25, with total assets at approximately $1.01 trillion. This reflects a decline from the previous quarter, indicating potential liquidity challenges. Revenue (IS.14) is around $12.99 billion, suggesting a stabilization after previous fluctuations.
-2. **Asset Quality**: Asset quality appears concerning, particularly with negative figures in IS.17, which indicates significant losses. The trend of increasing non-performing assets (NPAs) is evident, raising alarms about credit risk management.
-3. **Sector Profitability Analysis**: Profitability remains under pressure, with IS.18 showing a positive figure of $5.88 billion, but this is overshadowed by substantial losses in IS.17. The sector's ability to generate sustainable profits is questionable, given the persistent losses.
-4. **Key Sector Strengths and Challenges**: Strengths include a robust capital base and a diversified portfolio. However, challenges such as deteriorating asset quality, high NPAs, and fluctuating revenues hinder growth prospects.
-5. **Sector Outlook and Implications**: The outlook for Private_3 is cautious. While there are signs of revenue stabilization, ongoing asset quality issues and profitability concerns could lead to tighter regulatory scrutiny and impact investor confidence. Strategic focus on risk management and operational efficiency will be crucial for recovery in the coming quarters.</t>
+          <t>Key Takeaways:
+1. Private_3’s 2Q25 results show a sharp reversal in loan growth and topline momentum after a standout 1Q25, with profitability normalizing but still well above last year.
+2. Asset quality continues to improve, with NPL and group 2 ratios declining further and coverage ratios holding near recent highs.
+3. The bank’s earnings cycle is volatile, driven by swings in core income and provisions, but asset quality outperformance is a clear positive surprise.
+---
+**Profitability:**  
+After a blockbuster 1Q25, Private_3’s profitability moderated in 2Q25. Total operating income (TOI) fell 13.0% QoQ, retracing part of the 42.5% surge in the previous quarter. Net profit (PBT) dropped 24.1% QoQ, reflecting both the TOI pullback and a rebound in provision expenses (+18.2% QoQ). Despite the sequential drop, PBT remains up 22.4% YoY, and TOI is still 7.2% higher than 2Q24, signaling a much stronger core earnings base than a year ago. ROA and ROE are not disclosed for 2Q25, but the prior quarter’s levels (ROA: 1.5%, ROE: 19.4%) were well above historical averages and sector norms, suggesting Private_3 is still operating from a position of strength. The main driver behind the profit swing is the normalization of both income and risk costs after an outsized 1Q25.
+**Loan Growth &amp; NIM:**  
+Loan growth momentum reversed sharply, with the book contracting 3.8% QoQ in 2Q25 after four quarters of steady expansion. This is a notable outlier versus the sector’s 5.7% sequential growth, and leaves Private_3’s YTD loan growth at just 0.2%. The abrupt slowdown likely reflects a strategic pullback or risk aversion following a period of rapid lending. NIM is not reported for 2Q25, but had rebounded to 2.5% in 1Q25, still trailing the sector’s 3.0%. The bank’s loan yields remain volatile, but the prior quarter’s recovery suggests some pricing power is returning.
+**Asset Quality:**  
+Asset quality is a bright spot. The NPL ratio edged down to 3.1% in 2Q25, extending a steady improvement from 4.3% a year ago. Group 2 loans also declined to 1.0%, their lowest in six quarters. NPL coverage remains robust at 43.5%, up sharply from last year, though still below sector averages. Both NPL and group 2 formation stayed negative or flat, signaling ongoing resolution and low new slippage. This outperformance on credit quality is a positive surprise and offsets some of the volatility in earnings.
+**Investment Implications:**  
+Private_3 is navigating a volatile earnings cycle, but the decisive improvement in asset quality and strong YoY profit growth underpin its resilience. The sharp loan contraction is a watchpoint, but credit risk is clearly being managed proactively. Investors should focus on whether the bank can reignite growth without sacrificing its hard-won asset quality gains.</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr">
         <is>
-          <t>2025-08-08 10:56:46</t>
+          <t>2025-08-08 11:30:13</t>
         </is>
       </c>
     </row>

--- a/Data/banking_comments.xlsx
+++ b/Data/banking_comments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/05c776d51af9edc4/Work-related/VS - Code project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_0E2981B3175AEC0E62355476585DCE3A874B981F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_0E2981B3175AEC0E62355476585DCE3A874B981F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F37E5DF6-1B7B-484F-915A-8B48010BA2FD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3625,21 +3625,6 @@
     <t>ABB_1Q25</t>
   </si>
   <si>
-    <t>**Key Takeaways:**  
-1. ABB delivered a sharp rebound in profitability in 2Q25, driven by a surge in TOI and robust loan growth, with ROA and ROE reaching multi-year highs.  
-2. Loan growth momentum accelerated both QoQ and YoY, while NIM stabilized, reflecting improved loan yields.  
-3. Asset quality improved materially, with NPL and Group 2 ratios dropping and coverage ratios strengthening.
----
-**Profitability:**  
-ABB’s 2Q25 results mark a significant turnaround in profitability. Net profit (proxied by PBT) more than doubled QoQ, rising 202.3% from 1Q25, and surged 279.4% YoY. This was fueled by a strong 81.3% QoQ jump in total operating income (TOI), reversing the prior quarter’s decline. ROA and ROE soared to 2.1% and 27.0%, respectively, both at multi-year highs and well above recent trends. The sharp improvement was mainly driven by robust revenue growth outpacing higher provision expenses, signaling a positive surprise versus expectations and a clear inflection in earnings momentum.
-**Loan Growth &amp; NIM:**  
-Loan growth accelerated sharply, up 17.0% QoQ and 16.2% YTD, a marked turnaround from flat-to-negative growth in prior quarters. This expansion was the key driver behind the TOI surge, as loan yields also improved to 7.3% in 2Q25 from 7.2% in 1Q25. NIM edged up to 1.95% from 1.87% in 1Q25, reflecting better asset pricing and possibly a more favorable funding mix. The combination of volume and margin expansion underpins the strong revenue trajectory, positioning ABB ahead of sector loan growth trends.
-**Asset Quality:**  
-Asset quality metrics improved across the board. The NPL ratio dropped to 2.7% in 2Q25 from 3.8% in 1Q25, and Group 2 loans fell to 0.7% from 1.2%. Coverage ratios strengthened to 56.9%, well above the sector’s 43.5%. The improvement reflects both active risk management and the impact of strong loan growth diluting legacy problem loans. Provisioning remained elevated but was more than offset by revenue gains. The asset quality turnaround reduces risk and supports a more sustainable earnings outlook.
-**Investment Implications:**  
-ABB’s 2Q25 results represent a positive inflection, with accelerating growth, margin recovery, and cleaner asset quality. The strong earnings beat and improved risk profile should support a re-rating, with momentum likely to persist if current trends hold.</t>
-  </si>
-  <si>
     <t>2025-07-31 19:01:23</t>
   </si>
   <si>
@@ -6306,6 +6291,21 @@
   </si>
   <si>
     <t>2025-08-08 11:30:13</t>
+  </si>
+  <si>
+    <t>**Key Takeaways:**  
+1. ABB delivered a sharp rebound in profitability in 2Q25, driven by a surge in TOI from unclear other-income and robust loan growth, with ROA and ROE reaching multi-year highs.  
+2. Loan growth momentum accelerated both QoQ and YoY, while NIM stabilized, reflecting improved loan yields.  
+3. Asset quality improved materially, with NPL and Group 2 ratios dropping and coverage ratios strengthening.
+---
+**Profitability:**  
+ABB’s 2Q25 results mark a significant turnaround in profitability. Net profit (proxied by PBT) more than doubled QoQ, rising 202.3% from 1Q25, and surged 279.4% YoY. This was fueled by a strong 81.3% QoQ jump in total operating income (TOI), reversing the prior quarter’s decline, from an abnormal other income that was unprecendented. ROA and ROE soared to 2.1% and 27.0%, respectively, both at multi-year highs and well above recent trends. The sharp improvement was mainly driven by robust revenue growth outpacing higher provision expenses, signaling a positive surprise versus expectations and a clear inflection in earnings momentum.
+**Loan Growth &amp; NIM:**  
+Loan growth accelerated sharply, up 17.0% QoQ and 16.2% YTD, a marked turnaround from flat-to-negative growth in prior quarters. This expansion was the key driver behind the TOI surge, as loan yields also improved to 7.3% in 2Q25 from 7.2% in 1Q25. NIM edged up to 1.95% from 1.87% in 1Q25, reflecting better asset pricing and possibly a more favorable funding mix. The combination of volume and margin expansion underpins the strong revenue trajectory, positioning ABB ahead of sector loan growth trends.
+**Asset Quality:**  
+Asset quality metrics improved across the board. The NPL ratio dropped to 2.7% in 2Q25 from 3.8% in 1Q25, and Group 2 loans fell to 0.7% from 1.2%. Coverage ratios strengthened to 56.9%, well above the sector’s 43.5%. The improvement reflects both active risk management and the impact of strong loan growth diluting legacy problem loans. Provisioning remained elevated but was more than offset by revenue gains. The asset quality turnaround reduces risk and supports a more sustainable earnings outlook.
+**Investment Implications:**  
+ABB’s 2Q25 results represent a positive inflection, with accelerating growth, margin recovery, and cleaner asset quality. Notably, the earnings growth was supported by a one-off gain, the source of which remains unidentified.. The strong earnings beat and improved risk profile should support a re-rating, with momentum likely to persist if current trends hold.</t>
   </si>
 </sst>
 </file>
@@ -6362,10 +6362,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6671,8 +6674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="C294" sqref="C294"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10040,7 +10043,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>516</v>
       </c>
@@ -10060,7 +10063,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>516</v>
       </c>
@@ -10080,7 +10083,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>516</v>
       </c>
@@ -10090,19 +10093,19 @@
       <c r="C171" t="s">
         <v>45</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="E171" t="s">
         <v>545</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>546</v>
-      </c>
-      <c r="F171" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B172" t="s">
         <v>517</v>
@@ -10111,18 +10114,18 @@
         <v>9</v>
       </c>
       <c r="D172" t="s">
+        <v>548</v>
+      </c>
+      <c r="E172" t="s">
         <v>549</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
         <v>550</v>
-      </c>
-      <c r="F172" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B173" t="s">
         <v>517</v>
@@ -10131,18 +10134,18 @@
         <v>13</v>
       </c>
       <c r="D173" t="s">
+        <v>551</v>
+      </c>
+      <c r="E173" t="s">
         <v>552</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>553</v>
-      </c>
-      <c r="F173" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B174" t="s">
         <v>517</v>
@@ -10151,18 +10154,18 @@
         <v>17</v>
       </c>
       <c r="D174" t="s">
+        <v>554</v>
+      </c>
+      <c r="E174" t="s">
         <v>555</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>556</v>
-      </c>
-      <c r="F174" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B175" t="s">
         <v>517</v>
@@ -10171,18 +10174,18 @@
         <v>21</v>
       </c>
       <c r="D175" t="s">
+        <v>557</v>
+      </c>
+      <c r="E175" t="s">
         <v>558</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>559</v>
-      </c>
-      <c r="F175" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B176" t="s">
         <v>517</v>
@@ -10191,18 +10194,18 @@
         <v>25</v>
       </c>
       <c r="D176" t="s">
+        <v>560</v>
+      </c>
+      <c r="E176" t="s">
         <v>561</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>562</v>
-      </c>
-      <c r="F176" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B177" t="s">
         <v>517</v>
@@ -10211,18 +10214,18 @@
         <v>29</v>
       </c>
       <c r="D177" t="s">
+        <v>563</v>
+      </c>
+      <c r="E177" t="s">
         <v>564</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>565</v>
-      </c>
-      <c r="F177" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B178" t="s">
         <v>517</v>
@@ -10231,18 +10234,18 @@
         <v>33</v>
       </c>
       <c r="D178" t="s">
+        <v>566</v>
+      </c>
+      <c r="E178" t="s">
         <v>567</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>568</v>
-      </c>
-      <c r="F178" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B179" t="s">
         <v>517</v>
@@ -10251,18 +10254,18 @@
         <v>37</v>
       </c>
       <c r="D179" t="s">
+        <v>569</v>
+      </c>
+      <c r="E179" t="s">
         <v>570</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>571</v>
-      </c>
-      <c r="F179" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B180" t="s">
         <v>517</v>
@@ -10271,18 +10274,18 @@
         <v>41</v>
       </c>
       <c r="D180" t="s">
+        <v>572</v>
+      </c>
+      <c r="E180" t="s">
         <v>573</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>574</v>
-      </c>
-      <c r="F180" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B181" t="s">
         <v>517</v>
@@ -10291,18 +10294,18 @@
         <v>45</v>
       </c>
       <c r="D181" t="s">
+        <v>575</v>
+      </c>
+      <c r="E181" t="s">
         <v>576</v>
       </c>
-      <c r="E181" t="s">
+      <c r="F181" t="s">
         <v>577</v>
-      </c>
-      <c r="F181" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B182" t="s">
         <v>517</v>
@@ -10311,18 +10314,18 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
+        <v>579</v>
+      </c>
+      <c r="E182" t="s">
         <v>580</v>
       </c>
-      <c r="E182" t="s">
+      <c r="F182" t="s">
         <v>581</v>
-      </c>
-      <c r="F182" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B183" t="s">
         <v>517</v>
@@ -10331,18 +10334,18 @@
         <v>13</v>
       </c>
       <c r="D183" t="s">
+        <v>582</v>
+      </c>
+      <c r="E183" t="s">
         <v>583</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>584</v>
-      </c>
-      <c r="F183" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B184" t="s">
         <v>517</v>
@@ -10351,18 +10354,18 @@
         <v>17</v>
       </c>
       <c r="D184" t="s">
+        <v>585</v>
+      </c>
+      <c r="E184" t="s">
         <v>586</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>587</v>
-      </c>
-      <c r="F184" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B185" t="s">
         <v>517</v>
@@ -10371,18 +10374,18 @@
         <v>21</v>
       </c>
       <c r="D185" t="s">
+        <v>588</v>
+      </c>
+      <c r="E185" t="s">
         <v>589</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>590</v>
-      </c>
-      <c r="F185" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B186" t="s">
         <v>517</v>
@@ -10391,18 +10394,18 @@
         <v>25</v>
       </c>
       <c r="D186" t="s">
+        <v>591</v>
+      </c>
+      <c r="E186" t="s">
         <v>592</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>593</v>
-      </c>
-      <c r="F186" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B187" t="s">
         <v>517</v>
@@ -10411,18 +10414,18 @@
         <v>29</v>
       </c>
       <c r="D187" t="s">
+        <v>594</v>
+      </c>
+      <c r="E187" t="s">
         <v>595</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" t="s">
         <v>596</v>
-      </c>
-      <c r="F187" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B188" t="s">
         <v>517</v>
@@ -10431,18 +10434,18 @@
         <v>33</v>
       </c>
       <c r="D188" t="s">
+        <v>597</v>
+      </c>
+      <c r="E188" t="s">
         <v>598</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>599</v>
-      </c>
-      <c r="F188" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B189" t="s">
         <v>517</v>
@@ -10451,18 +10454,18 @@
         <v>37</v>
       </c>
       <c r="D189" t="s">
+        <v>600</v>
+      </c>
+      <c r="E189" t="s">
         <v>601</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>602</v>
-      </c>
-      <c r="F189" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B190" t="s">
         <v>517</v>
@@ -10471,18 +10474,18 @@
         <v>41</v>
       </c>
       <c r="D190" t="s">
+        <v>603</v>
+      </c>
+      <c r="E190" t="s">
         <v>604</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>605</v>
-      </c>
-      <c r="F190" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B191" t="s">
         <v>517</v>
@@ -10491,18 +10494,18 @@
         <v>45</v>
       </c>
       <c r="D191" t="s">
+        <v>606</v>
+      </c>
+      <c r="E191" t="s">
         <v>607</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>608</v>
-      </c>
-      <c r="F191" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B192" t="s">
         <v>517</v>
@@ -10511,18 +10514,18 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
+        <v>610</v>
+      </c>
+      <c r="E192" t="s">
         <v>611</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>612</v>
-      </c>
-      <c r="F192" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B193" t="s">
         <v>517</v>
@@ -10531,18 +10534,18 @@
         <v>13</v>
       </c>
       <c r="D193" t="s">
+        <v>613</v>
+      </c>
+      <c r="E193" t="s">
         <v>614</v>
       </c>
-      <c r="E193" t="s">
+      <c r="F193" t="s">
         <v>615</v>
-      </c>
-      <c r="F193" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B194" t="s">
         <v>517</v>
@@ -10551,18 +10554,18 @@
         <v>17</v>
       </c>
       <c r="D194" t="s">
+        <v>616</v>
+      </c>
+      <c r="E194" t="s">
         <v>617</v>
       </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
         <v>618</v>
-      </c>
-      <c r="F194" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B195" t="s">
         <v>517</v>
@@ -10571,18 +10574,18 @@
         <v>21</v>
       </c>
       <c r="D195" t="s">
+        <v>619</v>
+      </c>
+      <c r="E195" t="s">
         <v>620</v>
       </c>
-      <c r="E195" t="s">
+      <c r="F195" t="s">
         <v>621</v>
-      </c>
-      <c r="F195" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B196" t="s">
         <v>517</v>
@@ -10591,18 +10594,18 @@
         <v>25</v>
       </c>
       <c r="D196" t="s">
+        <v>622</v>
+      </c>
+      <c r="E196" t="s">
         <v>623</v>
       </c>
-      <c r="E196" t="s">
+      <c r="F196" t="s">
         <v>624</v>
-      </c>
-      <c r="F196" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B197" t="s">
         <v>517</v>
@@ -10611,18 +10614,18 @@
         <v>29</v>
       </c>
       <c r="D197" t="s">
+        <v>625</v>
+      </c>
+      <c r="E197" t="s">
         <v>626</v>
       </c>
-      <c r="E197" t="s">
+      <c r="F197" t="s">
         <v>627</v>
-      </c>
-      <c r="F197" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B198" t="s">
         <v>517</v>
@@ -10631,18 +10634,18 @@
         <v>33</v>
       </c>
       <c r="D198" t="s">
+        <v>628</v>
+      </c>
+      <c r="E198" t="s">
         <v>629</v>
       </c>
-      <c r="E198" t="s">
+      <c r="F198" t="s">
         <v>630</v>
-      </c>
-      <c r="F198" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B199" t="s">
         <v>517</v>
@@ -10651,18 +10654,18 @@
         <v>37</v>
       </c>
       <c r="D199" t="s">
+        <v>631</v>
+      </c>
+      <c r="E199" t="s">
         <v>632</v>
       </c>
-      <c r="E199" t="s">
+      <c r="F199" t="s">
         <v>633</v>
-      </c>
-      <c r="F199" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B200" t="s">
         <v>517</v>
@@ -10671,18 +10674,18 @@
         <v>41</v>
       </c>
       <c r="D200" t="s">
+        <v>634</v>
+      </c>
+      <c r="E200" t="s">
         <v>635</v>
       </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
         <v>636</v>
-      </c>
-      <c r="F200" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B201" t="s">
         <v>517</v>
@@ -10691,18 +10694,18 @@
         <v>45</v>
       </c>
       <c r="D201" t="s">
+        <v>637</v>
+      </c>
+      <c r="E201" t="s">
         <v>638</v>
       </c>
-      <c r="E201" t="s">
+      <c r="F201" t="s">
         <v>639</v>
-      </c>
-      <c r="F201" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B202" t="s">
         <v>517</v>
@@ -10711,18 +10714,18 @@
         <v>9</v>
       </c>
       <c r="D202" t="s">
+        <v>641</v>
+      </c>
+      <c r="E202" t="s">
         <v>642</v>
       </c>
-      <c r="E202" t="s">
+      <c r="F202" t="s">
         <v>643</v>
-      </c>
-      <c r="F202" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B203" t="s">
         <v>517</v>
@@ -10731,18 +10734,18 @@
         <v>13</v>
       </c>
       <c r="D203" t="s">
+        <v>644</v>
+      </c>
+      <c r="E203" t="s">
         <v>645</v>
       </c>
-      <c r="E203" t="s">
+      <c r="F203" t="s">
         <v>646</v>
-      </c>
-      <c r="F203" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B204" t="s">
         <v>517</v>
@@ -10751,18 +10754,18 @@
         <v>17</v>
       </c>
       <c r="D204" t="s">
+        <v>647</v>
+      </c>
+      <c r="E204" t="s">
         <v>648</v>
       </c>
-      <c r="E204" t="s">
+      <c r="F204" t="s">
         <v>649</v>
-      </c>
-      <c r="F204" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B205" t="s">
         <v>517</v>
@@ -10771,18 +10774,18 @@
         <v>21</v>
       </c>
       <c r="D205" t="s">
+        <v>650</v>
+      </c>
+      <c r="E205" t="s">
         <v>651</v>
       </c>
-      <c r="E205" t="s">
+      <c r="F205" t="s">
         <v>652</v>
-      </c>
-      <c r="F205" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B206" t="s">
         <v>517</v>
@@ -10791,18 +10794,18 @@
         <v>25</v>
       </c>
       <c r="D206" t="s">
+        <v>653</v>
+      </c>
+      <c r="E206" t="s">
         <v>654</v>
       </c>
-      <c r="E206" t="s">
+      <c r="F206" t="s">
         <v>655</v>
-      </c>
-      <c r="F206" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B207" t="s">
         <v>517</v>
@@ -10811,18 +10814,18 @@
         <v>29</v>
       </c>
       <c r="D207" t="s">
+        <v>656</v>
+      </c>
+      <c r="E207" t="s">
         <v>657</v>
       </c>
-      <c r="E207" t="s">
+      <c r="F207" t="s">
         <v>658</v>
-      </c>
-      <c r="F207" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B208" t="s">
         <v>517</v>
@@ -10831,18 +10834,18 @@
         <v>33</v>
       </c>
       <c r="D208" t="s">
+        <v>659</v>
+      </c>
+      <c r="E208" t="s">
         <v>660</v>
       </c>
-      <c r="E208" t="s">
+      <c r="F208" t="s">
         <v>661</v>
-      </c>
-      <c r="F208" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B209" t="s">
         <v>517</v>
@@ -10851,18 +10854,18 @@
         <v>37</v>
       </c>
       <c r="D209" t="s">
+        <v>662</v>
+      </c>
+      <c r="E209" t="s">
         <v>663</v>
       </c>
-      <c r="E209" t="s">
+      <c r="F209" t="s">
         <v>664</v>
-      </c>
-      <c r="F209" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B210" t="s">
         <v>517</v>
@@ -10871,18 +10874,18 @@
         <v>41</v>
       </c>
       <c r="D210" t="s">
+        <v>665</v>
+      </c>
+      <c r="E210" t="s">
         <v>666</v>
       </c>
-      <c r="E210" t="s">
+      <c r="F210" t="s">
         <v>667</v>
-      </c>
-      <c r="F210" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B211" t="s">
         <v>517</v>
@@ -10891,18 +10894,18 @@
         <v>45</v>
       </c>
       <c r="D211" t="s">
+        <v>668</v>
+      </c>
+      <c r="E211" t="s">
         <v>669</v>
       </c>
-      <c r="E211" t="s">
+      <c r="F211" t="s">
         <v>670</v>
-      </c>
-      <c r="F211" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B212" t="s">
         <v>517</v>
@@ -10911,18 +10914,18 @@
         <v>9</v>
       </c>
       <c r="D212" t="s">
+        <v>672</v>
+      </c>
+      <c r="E212" t="s">
         <v>673</v>
       </c>
-      <c r="E212" t="s">
+      <c r="F212" t="s">
         <v>674</v>
-      </c>
-      <c r="F212" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B213" t="s">
         <v>517</v>
@@ -10931,18 +10934,18 @@
         <v>13</v>
       </c>
       <c r="D213" t="s">
+        <v>675</v>
+      </c>
+      <c r="E213" t="s">
         <v>676</v>
       </c>
-      <c r="E213" t="s">
+      <c r="F213" t="s">
         <v>677</v>
-      </c>
-      <c r="F213" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B214" t="s">
         <v>517</v>
@@ -10951,18 +10954,18 @@
         <v>17</v>
       </c>
       <c r="D214" t="s">
+        <v>678</v>
+      </c>
+      <c r="E214" t="s">
         <v>679</v>
       </c>
-      <c r="E214" t="s">
+      <c r="F214" t="s">
         <v>680</v>
-      </c>
-      <c r="F214" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B215" t="s">
         <v>517</v>
@@ -10971,18 +10974,18 @@
         <v>21</v>
       </c>
       <c r="D215" t="s">
+        <v>681</v>
+      </c>
+      <c r="E215" t="s">
         <v>682</v>
       </c>
-      <c r="E215" t="s">
+      <c r="F215" t="s">
         <v>683</v>
-      </c>
-      <c r="F215" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B216" t="s">
         <v>517</v>
@@ -10991,18 +10994,18 @@
         <v>25</v>
       </c>
       <c r="D216" t="s">
+        <v>684</v>
+      </c>
+      <c r="E216" t="s">
         <v>685</v>
       </c>
-      <c r="E216" t="s">
+      <c r="F216" t="s">
         <v>686</v>
-      </c>
-      <c r="F216" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B217" t="s">
         <v>517</v>
@@ -11011,18 +11014,18 @@
         <v>29</v>
       </c>
       <c r="D217" t="s">
+        <v>687</v>
+      </c>
+      <c r="E217" t="s">
         <v>688</v>
       </c>
-      <c r="E217" t="s">
+      <c r="F217" t="s">
         <v>689</v>
-      </c>
-      <c r="F217" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B218" t="s">
         <v>517</v>
@@ -11031,18 +11034,18 @@
         <v>33</v>
       </c>
       <c r="D218" t="s">
+        <v>690</v>
+      </c>
+      <c r="E218" t="s">
         <v>691</v>
       </c>
-      <c r="E218" t="s">
+      <c r="F218" t="s">
         <v>692</v>
-      </c>
-      <c r="F218" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B219" t="s">
         <v>517</v>
@@ -11051,18 +11054,18 @@
         <v>37</v>
       </c>
       <c r="D219" t="s">
+        <v>693</v>
+      </c>
+      <c r="E219" t="s">
         <v>694</v>
       </c>
-      <c r="E219" t="s">
+      <c r="F219" t="s">
         <v>695</v>
-      </c>
-      <c r="F219" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B220" t="s">
         <v>517</v>
@@ -11071,18 +11074,18 @@
         <v>41</v>
       </c>
       <c r="D220" t="s">
+        <v>696</v>
+      </c>
+      <c r="E220" t="s">
         <v>697</v>
       </c>
-      <c r="E220" t="s">
+      <c r="F220" t="s">
         <v>698</v>
-      </c>
-      <c r="F220" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B221" t="s">
         <v>517</v>
@@ -11091,18 +11094,18 @@
         <v>45</v>
       </c>
       <c r="D221" t="s">
+        <v>699</v>
+      </c>
+      <c r="E221" t="s">
         <v>700</v>
       </c>
-      <c r="E221" t="s">
+      <c r="F221" t="s">
         <v>701</v>
-      </c>
-      <c r="F221" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B222" t="s">
         <v>517</v>
@@ -11111,18 +11114,18 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
+        <v>703</v>
+      </c>
+      <c r="E222" t="s">
         <v>704</v>
       </c>
-      <c r="E222" t="s">
+      <c r="F222" t="s">
         <v>705</v>
-      </c>
-      <c r="F222" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B223" t="s">
         <v>517</v>
@@ -11131,18 +11134,18 @@
         <v>13</v>
       </c>
       <c r="D223" t="s">
+        <v>706</v>
+      </c>
+      <c r="E223" t="s">
         <v>707</v>
       </c>
-      <c r="E223" t="s">
+      <c r="F223" t="s">
         <v>708</v>
-      </c>
-      <c r="F223" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B224" t="s">
         <v>517</v>
@@ -11151,18 +11154,18 @@
         <v>17</v>
       </c>
       <c r="D224" t="s">
+        <v>709</v>
+      </c>
+      <c r="E224" t="s">
         <v>710</v>
       </c>
-      <c r="E224" t="s">
+      <c r="F224" t="s">
         <v>711</v>
-      </c>
-      <c r="F224" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B225" t="s">
         <v>517</v>
@@ -11171,18 +11174,18 @@
         <v>21</v>
       </c>
       <c r="D225" t="s">
+        <v>712</v>
+      </c>
+      <c r="E225" t="s">
         <v>713</v>
       </c>
-      <c r="E225" t="s">
+      <c r="F225" t="s">
         <v>714</v>
-      </c>
-      <c r="F225" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B226" t="s">
         <v>517</v>
@@ -11191,18 +11194,18 @@
         <v>25</v>
       </c>
       <c r="D226" t="s">
+        <v>715</v>
+      </c>
+      <c r="E226" t="s">
         <v>716</v>
       </c>
-      <c r="E226" t="s">
+      <c r="F226" t="s">
         <v>717</v>
-      </c>
-      <c r="F226" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B227" t="s">
         <v>517</v>
@@ -11211,18 +11214,18 @@
         <v>29</v>
       </c>
       <c r="D227" t="s">
+        <v>718</v>
+      </c>
+      <c r="E227" t="s">
         <v>719</v>
       </c>
-      <c r="E227" t="s">
+      <c r="F227" t="s">
         <v>720</v>
-      </c>
-      <c r="F227" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B228" t="s">
         <v>517</v>
@@ -11231,18 +11234,18 @@
         <v>33</v>
       </c>
       <c r="D228" t="s">
+        <v>721</v>
+      </c>
+      <c r="E228" t="s">
         <v>722</v>
       </c>
-      <c r="E228" t="s">
+      <c r="F228" t="s">
         <v>723</v>
-      </c>
-      <c r="F228" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B229" t="s">
         <v>517</v>
@@ -11251,18 +11254,18 @@
         <v>37</v>
       </c>
       <c r="D229" t="s">
+        <v>724</v>
+      </c>
+      <c r="E229" t="s">
         <v>725</v>
       </c>
-      <c r="E229" t="s">
+      <c r="F229" t="s">
         <v>726</v>
-      </c>
-      <c r="F229" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B230" t="s">
         <v>517</v>
@@ -11271,18 +11274,18 @@
         <v>41</v>
       </c>
       <c r="D230" t="s">
+        <v>727</v>
+      </c>
+      <c r="E230" t="s">
         <v>728</v>
       </c>
-      <c r="E230" t="s">
+      <c r="F230" t="s">
         <v>729</v>
-      </c>
-      <c r="F230" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B231" t="s">
         <v>517</v>
@@ -11291,18 +11294,18 @@
         <v>45</v>
       </c>
       <c r="D231" t="s">
+        <v>730</v>
+      </c>
+      <c r="E231" t="s">
         <v>731</v>
       </c>
-      <c r="E231" t="s">
+      <c r="F231" t="s">
         <v>732</v>
-      </c>
-      <c r="F231" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B232" t="s">
         <v>517</v>
@@ -11311,18 +11314,18 @@
         <v>9</v>
       </c>
       <c r="D232" t="s">
+        <v>734</v>
+      </c>
+      <c r="E232" t="s">
         <v>735</v>
       </c>
-      <c r="E232" t="s">
+      <c r="F232" t="s">
         <v>736</v>
-      </c>
-      <c r="F232" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B233" t="s">
         <v>517</v>
@@ -11331,18 +11334,18 @@
         <v>13</v>
       </c>
       <c r="D233" t="s">
+        <v>737</v>
+      </c>
+      <c r="E233" t="s">
         <v>738</v>
       </c>
-      <c r="E233" t="s">
+      <c r="F233" t="s">
         <v>739</v>
-      </c>
-      <c r="F233" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B234" t="s">
         <v>517</v>
@@ -11351,18 +11354,18 @@
         <v>17</v>
       </c>
       <c r="D234" t="s">
+        <v>740</v>
+      </c>
+      <c r="E234" t="s">
         <v>741</v>
       </c>
-      <c r="E234" t="s">
+      <c r="F234" t="s">
         <v>742</v>
-      </c>
-      <c r="F234" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B235" t="s">
         <v>517</v>
@@ -11371,18 +11374,18 @@
         <v>21</v>
       </c>
       <c r="D235" t="s">
+        <v>743</v>
+      </c>
+      <c r="E235" t="s">
         <v>744</v>
       </c>
-      <c r="E235" t="s">
+      <c r="F235" t="s">
         <v>745</v>
-      </c>
-      <c r="F235" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B236" t="s">
         <v>517</v>
@@ -11391,18 +11394,18 @@
         <v>25</v>
       </c>
       <c r="D236" t="s">
+        <v>746</v>
+      </c>
+      <c r="E236" t="s">
         <v>747</v>
       </c>
-      <c r="E236" t="s">
+      <c r="F236" t="s">
         <v>748</v>
-      </c>
-      <c r="F236" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B237" t="s">
         <v>517</v>
@@ -11411,18 +11414,18 @@
         <v>29</v>
       </c>
       <c r="D237" t="s">
+        <v>749</v>
+      </c>
+      <c r="E237" t="s">
         <v>750</v>
       </c>
-      <c r="E237" t="s">
+      <c r="F237" t="s">
         <v>751</v>
-      </c>
-      <c r="F237" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B238" t="s">
         <v>517</v>
@@ -11431,18 +11434,18 @@
         <v>33</v>
       </c>
       <c r="D238" t="s">
+        <v>752</v>
+      </c>
+      <c r="E238" t="s">
         <v>753</v>
       </c>
-      <c r="E238" t="s">
+      <c r="F238" t="s">
         <v>754</v>
-      </c>
-      <c r="F238" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B239" t="s">
         <v>517</v>
@@ -11451,18 +11454,18 @@
         <v>37</v>
       </c>
       <c r="D239" t="s">
+        <v>755</v>
+      </c>
+      <c r="E239" t="s">
         <v>756</v>
       </c>
-      <c r="E239" t="s">
+      <c r="F239" t="s">
         <v>757</v>
-      </c>
-      <c r="F239" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B240" t="s">
         <v>517</v>
@@ -11471,18 +11474,18 @@
         <v>41</v>
       </c>
       <c r="D240" t="s">
+        <v>758</v>
+      </c>
+      <c r="E240" t="s">
         <v>759</v>
       </c>
-      <c r="E240" t="s">
+      <c r="F240" t="s">
         <v>760</v>
-      </c>
-      <c r="F240" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B241" t="s">
         <v>517</v>
@@ -11491,18 +11494,18 @@
         <v>45</v>
       </c>
       <c r="D241" t="s">
+        <v>761</v>
+      </c>
+      <c r="E241" t="s">
         <v>762</v>
       </c>
-      <c r="E241" t="s">
+      <c r="F241" t="s">
         <v>763</v>
-      </c>
-      <c r="F241" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B242" t="s">
         <v>517</v>
@@ -11511,18 +11514,18 @@
         <v>9</v>
       </c>
       <c r="D242" t="s">
+        <v>765</v>
+      </c>
+      <c r="E242" t="s">
         <v>766</v>
       </c>
-      <c r="E242" t="s">
+      <c r="F242" t="s">
         <v>767</v>
-      </c>
-      <c r="F242" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B243" t="s">
         <v>517</v>
@@ -11531,18 +11534,18 @@
         <v>13</v>
       </c>
       <c r="D243" t="s">
+        <v>768</v>
+      </c>
+      <c r="E243" t="s">
         <v>769</v>
       </c>
-      <c r="E243" t="s">
+      <c r="F243" t="s">
         <v>770</v>
-      </c>
-      <c r="F243" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B244" t="s">
         <v>517</v>
@@ -11551,18 +11554,18 @@
         <v>17</v>
       </c>
       <c r="D244" t="s">
+        <v>771</v>
+      </c>
+      <c r="E244" t="s">
         <v>772</v>
       </c>
-      <c r="E244" t="s">
+      <c r="F244" t="s">
         <v>773</v>
-      </c>
-      <c r="F244" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B245" t="s">
         <v>517</v>
@@ -11571,18 +11574,18 @@
         <v>21</v>
       </c>
       <c r="D245" t="s">
+        <v>774</v>
+      </c>
+      <c r="E245" t="s">
         <v>775</v>
       </c>
-      <c r="E245" t="s">
+      <c r="F245" t="s">
         <v>776</v>
-      </c>
-      <c r="F245" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B246" t="s">
         <v>517</v>
@@ -11591,18 +11594,18 @@
         <v>25</v>
       </c>
       <c r="D246" t="s">
+        <v>777</v>
+      </c>
+      <c r="E246" t="s">
         <v>778</v>
       </c>
-      <c r="E246" t="s">
+      <c r="F246" t="s">
         <v>779</v>
-      </c>
-      <c r="F246" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B247" t="s">
         <v>517</v>
@@ -11611,18 +11614,18 @@
         <v>29</v>
       </c>
       <c r="D247" t="s">
+        <v>780</v>
+      </c>
+      <c r="E247" t="s">
         <v>781</v>
       </c>
-      <c r="E247" t="s">
+      <c r="F247" t="s">
         <v>782</v>
-      </c>
-      <c r="F247" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B248" t="s">
         <v>517</v>
@@ -11631,18 +11634,18 @@
         <v>33</v>
       </c>
       <c r="D248" t="s">
+        <v>783</v>
+      </c>
+      <c r="E248" t="s">
         <v>784</v>
       </c>
-      <c r="E248" t="s">
+      <c r="F248" t="s">
         <v>785</v>
-      </c>
-      <c r="F248" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B249" t="s">
         <v>517</v>
@@ -11651,18 +11654,18 @@
         <v>37</v>
       </c>
       <c r="D249" t="s">
+        <v>786</v>
+      </c>
+      <c r="E249" t="s">
         <v>787</v>
       </c>
-      <c r="E249" t="s">
+      <c r="F249" t="s">
         <v>788</v>
-      </c>
-      <c r="F249" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B250" t="s">
         <v>517</v>
@@ -11671,18 +11674,18 @@
         <v>41</v>
       </c>
       <c r="D250" t="s">
+        <v>789</v>
+      </c>
+      <c r="E250" t="s">
         <v>790</v>
       </c>
-      <c r="E250" t="s">
+      <c r="F250" t="s">
         <v>791</v>
-      </c>
-      <c r="F250" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B251" t="s">
         <v>517</v>
@@ -11691,18 +11694,18 @@
         <v>45</v>
       </c>
       <c r="D251" t="s">
+        <v>792</v>
+      </c>
+      <c r="E251" t="s">
         <v>793</v>
       </c>
-      <c r="E251" t="s">
+      <c r="F251" t="s">
         <v>794</v>
-      </c>
-      <c r="F251" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B252" t="s">
         <v>517</v>
@@ -11711,18 +11714,18 @@
         <v>9</v>
       </c>
       <c r="D252" t="s">
+        <v>796</v>
+      </c>
+      <c r="E252" t="s">
         <v>797</v>
       </c>
-      <c r="E252" t="s">
+      <c r="F252" t="s">
         <v>798</v>
-      </c>
-      <c r="F252" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B253" t="s">
         <v>517</v>
@@ -11731,18 +11734,18 @@
         <v>13</v>
       </c>
       <c r="D253" t="s">
+        <v>799</v>
+      </c>
+      <c r="E253" t="s">
         <v>800</v>
       </c>
-      <c r="E253" t="s">
+      <c r="F253" t="s">
         <v>801</v>
-      </c>
-      <c r="F253" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B254" t="s">
         <v>517</v>
@@ -11751,18 +11754,18 @@
         <v>17</v>
       </c>
       <c r="D254" t="s">
+        <v>802</v>
+      </c>
+      <c r="E254" t="s">
         <v>803</v>
       </c>
-      <c r="E254" t="s">
+      <c r="F254" t="s">
         <v>804</v>
-      </c>
-      <c r="F254" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B255" t="s">
         <v>517</v>
@@ -11771,18 +11774,18 @@
         <v>21</v>
       </c>
       <c r="D255" t="s">
+        <v>805</v>
+      </c>
+      <c r="E255" t="s">
         <v>806</v>
       </c>
-      <c r="E255" t="s">
+      <c r="F255" t="s">
         <v>807</v>
-      </c>
-      <c r="F255" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B256" t="s">
         <v>517</v>
@@ -11791,18 +11794,18 @@
         <v>25</v>
       </c>
       <c r="D256" t="s">
+        <v>808</v>
+      </c>
+      <c r="E256" t="s">
         <v>809</v>
       </c>
-      <c r="E256" t="s">
+      <c r="F256" t="s">
         <v>810</v>
-      </c>
-      <c r="F256" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B257" t="s">
         <v>517</v>
@@ -11811,18 +11814,18 @@
         <v>29</v>
       </c>
       <c r="D257" t="s">
+        <v>811</v>
+      </c>
+      <c r="E257" t="s">
         <v>812</v>
       </c>
-      <c r="E257" t="s">
+      <c r="F257" t="s">
         <v>813</v>
-      </c>
-      <c r="F257" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B258" t="s">
         <v>517</v>
@@ -11831,18 +11834,18 @@
         <v>33</v>
       </c>
       <c r="D258" t="s">
+        <v>814</v>
+      </c>
+      <c r="E258" t="s">
         <v>815</v>
       </c>
-      <c r="E258" t="s">
+      <c r="F258" t="s">
         <v>816</v>
-      </c>
-      <c r="F258" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B259" t="s">
         <v>517</v>
@@ -11851,18 +11854,18 @@
         <v>37</v>
       </c>
       <c r="D259" t="s">
+        <v>817</v>
+      </c>
+      <c r="E259" t="s">
         <v>818</v>
       </c>
-      <c r="E259" t="s">
+      <c r="F259" t="s">
         <v>819</v>
-      </c>
-      <c r="F259" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B260" t="s">
         <v>517</v>
@@ -11871,18 +11874,18 @@
         <v>41</v>
       </c>
       <c r="D260" t="s">
+        <v>820</v>
+      </c>
+      <c r="E260" t="s">
         <v>821</v>
       </c>
-      <c r="E260" t="s">
+      <c r="F260" t="s">
         <v>822</v>
-      </c>
-      <c r="F260" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B261" t="s">
         <v>517</v>
@@ -11891,18 +11894,18 @@
         <v>45</v>
       </c>
       <c r="D261" t="s">
+        <v>823</v>
+      </c>
+      <c r="E261" t="s">
         <v>824</v>
       </c>
-      <c r="E261" t="s">
+      <c r="F261" t="s">
         <v>825</v>
-      </c>
-      <c r="F261" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B262" t="s">
         <v>517</v>
@@ -11911,18 +11914,18 @@
         <v>9</v>
       </c>
       <c r="D262" t="s">
+        <v>827</v>
+      </c>
+      <c r="E262" t="s">
         <v>828</v>
       </c>
-      <c r="E262" t="s">
+      <c r="F262" t="s">
         <v>829</v>
-      </c>
-      <c r="F262" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B263" t="s">
         <v>517</v>
@@ -11931,18 +11934,18 @@
         <v>13</v>
       </c>
       <c r="D263" t="s">
+        <v>830</v>
+      </c>
+      <c r="E263" t="s">
         <v>831</v>
       </c>
-      <c r="E263" t="s">
+      <c r="F263" t="s">
         <v>832</v>
-      </c>
-      <c r="F263" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B264" t="s">
         <v>517</v>
@@ -11951,18 +11954,18 @@
         <v>17</v>
       </c>
       <c r="D264" t="s">
+        <v>833</v>
+      </c>
+      <c r="E264" t="s">
         <v>834</v>
       </c>
-      <c r="E264" t="s">
+      <c r="F264" t="s">
         <v>835</v>
-      </c>
-      <c r="F264" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B265" t="s">
         <v>517</v>
@@ -11971,18 +11974,18 @@
         <v>21</v>
       </c>
       <c r="D265" t="s">
+        <v>836</v>
+      </c>
+      <c r="E265" t="s">
         <v>837</v>
       </c>
-      <c r="E265" t="s">
+      <c r="F265" t="s">
         <v>838</v>
-      </c>
-      <c r="F265" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B266" t="s">
         <v>517</v>
@@ -11991,18 +11994,18 @@
         <v>25</v>
       </c>
       <c r="D266" t="s">
+        <v>839</v>
+      </c>
+      <c r="E266" t="s">
         <v>840</v>
       </c>
-      <c r="E266" t="s">
+      <c r="F266" t="s">
         <v>841</v>
-      </c>
-      <c r="F266" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B267" t="s">
         <v>517</v>
@@ -12011,18 +12014,18 @@
         <v>29</v>
       </c>
       <c r="D267" t="s">
+        <v>842</v>
+      </c>
+      <c r="E267" t="s">
         <v>843</v>
       </c>
-      <c r="E267" t="s">
+      <c r="F267" t="s">
         <v>844</v>
-      </c>
-      <c r="F267" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B268" t="s">
         <v>517</v>
@@ -12031,18 +12034,18 @@
         <v>33</v>
       </c>
       <c r="D268" t="s">
+        <v>845</v>
+      </c>
+      <c r="E268" t="s">
         <v>846</v>
       </c>
-      <c r="E268" t="s">
+      <c r="F268" t="s">
         <v>847</v>
-      </c>
-      <c r="F268" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B269" t="s">
         <v>517</v>
@@ -12051,18 +12054,18 @@
         <v>37</v>
       </c>
       <c r="D269" t="s">
+        <v>848</v>
+      </c>
+      <c r="E269" t="s">
         <v>849</v>
       </c>
-      <c r="E269" t="s">
+      <c r="F269" t="s">
         <v>850</v>
-      </c>
-      <c r="F269" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B270" t="s">
         <v>517</v>
@@ -12071,18 +12074,18 @@
         <v>41</v>
       </c>
       <c r="D270" t="s">
+        <v>851</v>
+      </c>
+      <c r="E270" t="s">
         <v>852</v>
       </c>
-      <c r="E270" t="s">
+      <c r="F270" t="s">
         <v>853</v>
-      </c>
-      <c r="F270" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B271" t="s">
         <v>517</v>
@@ -12091,112 +12094,112 @@
         <v>45</v>
       </c>
       <c r="D271" t="s">
+        <v>854</v>
+      </c>
+      <c r="G271" t="s">
         <v>855</v>
-      </c>
-      <c r="G271" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B272" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C272" t="s">
         <v>25</v>
       </c>
       <c r="D272" t="s">
+        <v>857</v>
+      </c>
+      <c r="G272" t="s">
         <v>858</v>
-      </c>
-      <c r="G272" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B273" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C273" t="s">
         <v>29</v>
       </c>
       <c r="D273" t="s">
+        <v>859</v>
+      </c>
+      <c r="G273" t="s">
         <v>860</v>
-      </c>
-      <c r="G273" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B274" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C274" t="s">
         <v>33</v>
       </c>
       <c r="D274" t="s">
+        <v>861</v>
+      </c>
+      <c r="G274" t="s">
         <v>862</v>
-      </c>
-      <c r="G274" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B275" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C275" t="s">
         <v>37</v>
       </c>
       <c r="D275" t="s">
+        <v>863</v>
+      </c>
+      <c r="G275" t="s">
         <v>864</v>
-      </c>
-      <c r="G275" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B276" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C276" t="s">
         <v>41</v>
       </c>
       <c r="D276" t="s">
+        <v>865</v>
+      </c>
+      <c r="G276" t="s">
         <v>866</v>
-      </c>
-      <c r="G276" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B277" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C277" t="s">
         <v>45</v>
       </c>
       <c r="D277" t="s">
+        <v>867</v>
+      </c>
+      <c r="G277" t="s">
         <v>868</v>
-      </c>
-      <c r="G277" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
@@ -12204,16 +12207,16 @@
         <v>50</v>
       </c>
       <c r="B278" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C278" t="s">
         <v>25</v>
       </c>
       <c r="D278" t="s">
+        <v>869</v>
+      </c>
+      <c r="G278" t="s">
         <v>870</v>
-      </c>
-      <c r="G278" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
@@ -12221,16 +12224,16 @@
         <v>50</v>
       </c>
       <c r="B279" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C279" t="s">
         <v>29</v>
       </c>
       <c r="D279" t="s">
+        <v>871</v>
+      </c>
+      <c r="G279" t="s">
         <v>872</v>
-      </c>
-      <c r="G279" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
@@ -12238,16 +12241,16 @@
         <v>50</v>
       </c>
       <c r="B280" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C280" t="s">
         <v>33</v>
       </c>
       <c r="D280" t="s">
+        <v>873</v>
+      </c>
+      <c r="G280" t="s">
         <v>874</v>
-      </c>
-      <c r="G280" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
@@ -12255,16 +12258,16 @@
         <v>50</v>
       </c>
       <c r="B281" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C281" t="s">
         <v>37</v>
       </c>
       <c r="D281" t="s">
+        <v>875</v>
+      </c>
+      <c r="G281" t="s">
         <v>876</v>
-      </c>
-      <c r="G281" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
@@ -12272,16 +12275,16 @@
         <v>50</v>
       </c>
       <c r="B282" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C282" t="s">
         <v>41</v>
       </c>
       <c r="D282" t="s">
+        <v>877</v>
+      </c>
+      <c r="G282" t="s">
         <v>878</v>
-      </c>
-      <c r="G282" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
@@ -12289,16 +12292,16 @@
         <v>50</v>
       </c>
       <c r="B283" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C283" t="s">
         <v>45</v>
       </c>
       <c r="D283" t="s">
+        <v>879</v>
+      </c>
+      <c r="G283" t="s">
         <v>880</v>
-      </c>
-      <c r="G283" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
@@ -12306,16 +12309,16 @@
         <v>8</v>
       </c>
       <c r="B284" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C284" t="s">
         <v>25</v>
       </c>
       <c r="D284" t="s">
+        <v>881</v>
+      </c>
+      <c r="G284" t="s">
         <v>882</v>
-      </c>
-      <c r="G284" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
@@ -12323,16 +12326,16 @@
         <v>8</v>
       </c>
       <c r="B285" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C285" t="s">
         <v>29</v>
       </c>
       <c r="D285" t="s">
+        <v>883</v>
+      </c>
+      <c r="G285" t="s">
         <v>884</v>
-      </c>
-      <c r="G285" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
@@ -12340,16 +12343,16 @@
         <v>8</v>
       </c>
       <c r="B286" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C286" t="s">
         <v>33</v>
       </c>
       <c r="D286" t="s">
+        <v>885</v>
+      </c>
+      <c r="G286" t="s">
         <v>886</v>
-      </c>
-      <c r="G286" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
@@ -12357,16 +12360,16 @@
         <v>8</v>
       </c>
       <c r="B287" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C287" t="s">
         <v>37</v>
       </c>
       <c r="D287" t="s">
+        <v>887</v>
+      </c>
+      <c r="G287" t="s">
         <v>888</v>
-      </c>
-      <c r="G287" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
@@ -12374,16 +12377,16 @@
         <v>8</v>
       </c>
       <c r="B288" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C288" t="s">
         <v>41</v>
       </c>
       <c r="D288" t="s">
+        <v>889</v>
+      </c>
+      <c r="G288" t="s">
         <v>890</v>
-      </c>
-      <c r="G288" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
@@ -12391,16 +12394,16 @@
         <v>8</v>
       </c>
       <c r="B289" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C289" t="s">
         <v>45</v>
       </c>
       <c r="D289" t="s">
+        <v>891</v>
+      </c>
+      <c r="G289" t="s">
         <v>892</v>
-      </c>
-      <c r="G289" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
@@ -12408,16 +12411,16 @@
         <v>113</v>
       </c>
       <c r="B290" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C290" t="s">
         <v>25</v>
       </c>
       <c r="D290" t="s">
+        <v>893</v>
+      </c>
+      <c r="G290" t="s">
         <v>894</v>
-      </c>
-      <c r="G290" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
@@ -12425,16 +12428,16 @@
         <v>113</v>
       </c>
       <c r="B291" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C291" t="s">
         <v>29</v>
       </c>
       <c r="D291" t="s">
+        <v>895</v>
+      </c>
+      <c r="G291" t="s">
         <v>896</v>
-      </c>
-      <c r="G291" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
@@ -12442,16 +12445,16 @@
         <v>113</v>
       </c>
       <c r="B292" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C292" t="s">
         <v>33</v>
       </c>
       <c r="D292" t="s">
+        <v>897</v>
+      </c>
+      <c r="G292" t="s">
         <v>898</v>
-      </c>
-      <c r="G292" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
@@ -12459,16 +12462,16 @@
         <v>113</v>
       </c>
       <c r="B293" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C293" t="s">
         <v>37</v>
       </c>
       <c r="D293" t="s">
+        <v>899</v>
+      </c>
+      <c r="G293" t="s">
         <v>900</v>
-      </c>
-      <c r="G293" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
@@ -12476,16 +12479,16 @@
         <v>113</v>
       </c>
       <c r="B294" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C294" t="s">
         <v>41</v>
       </c>
       <c r="D294" t="s">
+        <v>901</v>
+      </c>
+      <c r="G294" t="s">
         <v>902</v>
-      </c>
-      <c r="G294" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
@@ -12493,16 +12496,16 @@
         <v>113</v>
       </c>
       <c r="B295" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C295" t="s">
         <v>45</v>
       </c>
       <c r="D295" t="s">
+        <v>903</v>
+      </c>
+      <c r="G295" t="s">
         <v>904</v>
-      </c>
-      <c r="G295" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
@@ -12510,16 +12513,16 @@
         <v>517</v>
       </c>
       <c r="B296" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C296" t="s">
         <v>25</v>
       </c>
       <c r="D296" t="s">
+        <v>905</v>
+      </c>
+      <c r="G296" t="s">
         <v>906</v>
-      </c>
-      <c r="G296" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
@@ -12527,16 +12530,16 @@
         <v>517</v>
       </c>
       <c r="B297" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C297" t="s">
         <v>29</v>
       </c>
       <c r="D297" t="s">
+        <v>907</v>
+      </c>
+      <c r="G297" t="s">
         <v>908</v>
-      </c>
-      <c r="G297" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
@@ -12544,16 +12547,16 @@
         <v>517</v>
       </c>
       <c r="B298" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C298" t="s">
         <v>33</v>
       </c>
       <c r="D298" t="s">
+        <v>909</v>
+      </c>
+      <c r="G298" t="s">
         <v>910</v>
-      </c>
-      <c r="G298" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
@@ -12561,16 +12564,16 @@
         <v>517</v>
       </c>
       <c r="B299" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C299" t="s">
         <v>37</v>
       </c>
       <c r="D299" t="s">
+        <v>911</v>
+      </c>
+      <c r="G299" t="s">
         <v>912</v>
-      </c>
-      <c r="G299" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
@@ -12578,16 +12581,16 @@
         <v>517</v>
       </c>
       <c r="B300" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C300" t="s">
         <v>41</v>
       </c>
       <c r="D300" t="s">
+        <v>913</v>
+      </c>
+      <c r="G300" t="s">
         <v>914</v>
-      </c>
-      <c r="G300" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
@@ -12595,16 +12598,16 @@
         <v>517</v>
       </c>
       <c r="B301" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C301" t="s">
         <v>45</v>
       </c>
       <c r="D301" t="s">
+        <v>915</v>
+      </c>
+      <c r="G301" t="s">
         <v>916</v>
-      </c>
-      <c r="G301" t="s">
-        <v>917</v>
       </c>
     </row>
   </sheetData>

--- a/Data/banking_comments.xlsx
+++ b/Data/banking_comments.xlsx
@@ -136,34 +136,34 @@
     <t>VPB</t>
   </si>
   <si>
-    <t>1Q23</t>
-  </si>
-  <si>
-    <t>2Q23</t>
-  </si>
-  <si>
-    <t>3Q23</t>
-  </si>
-  <si>
-    <t>4Q23</t>
-  </si>
-  <si>
-    <t>1Q24</t>
-  </si>
-  <si>
-    <t>2Q24</t>
-  </si>
-  <si>
-    <t>3Q24</t>
-  </si>
-  <si>
-    <t>4Q24</t>
-  </si>
-  <si>
-    <t>1Q25</t>
-  </si>
-  <si>
-    <t>2Q25</t>
+    <t>2023-Q1</t>
+  </si>
+  <si>
+    <t>2023-Q2</t>
+  </si>
+  <si>
+    <t>2023-Q3</t>
+  </si>
+  <si>
+    <t>2023-Q4</t>
+  </si>
+  <si>
+    <t>2024-Q1</t>
+  </si>
+  <si>
+    <t>2024-Q2</t>
+  </si>
+  <si>
+    <t>2024-Q3</t>
+  </si>
+  <si>
+    <t>2024-Q4</t>
+  </si>
+  <si>
+    <t>2025-Q1</t>
+  </si>
+  <si>
+    <t>2025-Q2</t>
   </si>
   <si>
     <t>Key Takeaways:
